--- a/CR - Cost Report/CBOM/Cost_v1.5.xlsx
+++ b/CR - Cost Report/CBOM/Cost_v1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FA31DC-10DC-4CAE-8017-C250AB9F0AD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD54595-95B2-433A-AA61-5CAB29D7EF06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="533">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -824,9 +824,6 @@
     <t>510x342 mm</t>
   </si>
   <si>
-    <t>Measruement column</t>
-  </si>
-  <si>
     <t>https://www.orexad.com/fr/colonne-de-mesure-817clm-cap-600-770-pupitre-2d/p-G1197000019</t>
   </si>
   <si>
@@ -1295,9 +1292,6 @@
     <t>1600kg 4m height, 4m width</t>
   </si>
   <si>
-    <t>Industrial Hoover</t>
-  </si>
-  <si>
     <t>Industrial hoover</t>
   </si>
   <si>
@@ -1583,9 +1577,6 @@
     <t>Manwork availability (95%) /year (hrs)</t>
   </si>
   <si>
-    <t>10% of manwork OPE on shopfloor</t>
-  </si>
-  <si>
     <t>Fixed cost (5% of the time)</t>
   </si>
   <si>
@@ -1635,6 +1626,21 @@
   </si>
   <si>
     <t>Price for cutting Steel</t>
+  </si>
+  <si>
+    <t>Forklift</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/transpalette-galvanise-2-5t/p-G3019000006</t>
+  </si>
+  <si>
+    <t>Industrial Hoovers</t>
+  </si>
+  <si>
+    <t>Measurement column</t>
+  </si>
+  <si>
+    <t>5% of manwork OPE on shopfloor</t>
   </si>
 </sst>
 </file>
@@ -2189,6 +2195,28 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2206,12 +2234,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2243,11 +2265,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2264,16 +2289,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2286,23 +2301,14 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5514,8 +5520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,39 +5551,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
       <c r="D1" s="43"/>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
-      <c r="L1" s="126" t="s">
+      <c r="L1" s="132" t="s">
         <v>233</v>
       </c>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
       <c r="R1" s="31"/>
       <c r="S1" s="31"/>
-      <c r="U1" s="127" t="s">
+      <c r="U1" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="Y1" s="129" t="s">
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="Y1" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -5602,7 +5608,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>231</v>
@@ -5624,7 +5630,7 @@
         <v>17</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S2" s="31" t="s">
         <v>231</v>
@@ -5677,10 +5683,10 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="130" t="s">
-        <v>523</v>
-      </c>
-      <c r="M3" s="130"/>
+      <c r="L3" s="137" t="s">
+        <v>520</v>
+      </c>
+      <c r="M3" s="137"/>
       <c r="N3" t="s">
         <v>232</v>
       </c>
@@ -5730,11 +5736,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="23">
-        <f t="shared" ref="J4:J35" si="0">H4/I4</f>
+        <f t="shared" ref="J4:J36" si="0">H4/I4</f>
         <v>183.84</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M4" s="9">
         <v>22.4</v>
@@ -5879,13 +5885,13 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="48">
         <v>5</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" t="s">
@@ -5903,7 +5909,7 @@
         <v>320.96000000000004</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M7" s="39">
         <f>1/10000</f>
@@ -5916,7 +5922,7 @@
         <v>238</v>
       </c>
       <c r="P7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="30">
         <f>M4*0.8*C14</f>
@@ -5950,7 +5956,7 @@
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M8" s="39">
         <f>M7*0.5</f>
@@ -5963,7 +5969,7 @@
         <v>238</v>
       </c>
       <c r="P8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="2">
         <v>20</v>
@@ -5982,7 +5988,7 @@
       <c r="D9" s="27"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>531</v>
       </c>
       <c r="H9" s="22">
         <f>Metrology!E25</f>
@@ -5996,7 +6002,7 @@
         <v>539</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M9" s="39">
         <f>M7*0.4</f>
@@ -6009,7 +6015,7 @@
         <v>238</v>
       </c>
       <c r="P9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q9" s="22">
         <f>1*'CNC mill'!F31</f>
@@ -6033,13 +6039,13 @@
         <v>0.8</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H10" s="22">
         <f>Energies!B6</f>
@@ -6053,7 +6059,7 @@
         <v>2874.8160000000003</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M10" s="18">
         <v>20</v>
@@ -6066,17 +6072,17 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="26">
         <v>0.95</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H11" s="2">
         <f>16*C8*C9*C14</f>
@@ -6089,12 +6095,12 @@
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="L11" s="124" t="s">
+      <c r="L11" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="124"/>
+      <c r="M11" s="130"/>
       <c r="N11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O11" t="s">
         <v>237</v>
@@ -6120,7 +6126,7 @@
     <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" s="37">
         <f>C9*C8*C10*C7</f>
@@ -6129,7 +6135,7 @@
       <c r="D12" s="26"/>
       <c r="F12" s="5"/>
       <c r="G12" s="38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H12" s="2">
         <f>Energies!C10*60</f>
@@ -6143,13 +6149,13 @@
         <v>132.96</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M12" s="10">
         <v>29.8</v>
       </c>
       <c r="N12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O12" t="s">
         <v>237</v>
@@ -6172,7 +6178,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
         <v>174</v>
@@ -6201,7 +6207,7 @@
         <v>0.8</v>
       </c>
       <c r="N13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O13" t="s">
         <v>237</v>
@@ -6229,7 +6235,7 @@
       </c>
       <c r="D14" s="33"/>
       <c r="F14" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G14" t="s">
         <v>158</v>
@@ -6275,7 +6281,7 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C15" s="22">
         <f>Energies!C10</f>
@@ -6283,7 +6289,7 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H15" s="22">
         <f>C5*0.4</f>
@@ -6297,7 +6303,7 @@
         <v>27937.200000000001</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M15" s="41">
         <f>1/10000</f>
@@ -6310,7 +6316,7 @@
         <v>238</v>
       </c>
       <c r="P15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q15" s="30">
         <f>M12*0.8*C14</f>
@@ -6319,17 +6325,17 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C16" s="33">
         <v>1.12964</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="H16" s="22">
         <f>'Manpower &amp; time'!G9</f>
@@ -6343,7 +6349,7 @@
         <v>10868.89</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M16" s="41">
         <f>M15*0.5</f>
@@ -6356,7 +6362,7 @@
         <v>238</v>
       </c>
       <c r="P16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="2">
         <v>10</v>
@@ -6373,7 +6379,7 @@
       <c r="D17" s="26"/>
       <c r="F17" s="6"/>
       <c r="G17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H17" s="22">
         <f>'Manpower &amp; time'!B32</f>
@@ -6387,7 +6393,7 @@
         <v>13108.788</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M17" s="41">
         <f>M15*0.4</f>
@@ -6400,7 +6406,7 @@
         <v>238</v>
       </c>
       <c r="P17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="22">
         <f>'CNC lathe'!F14</f>
@@ -6426,14 +6432,14 @@
         <v>4796.88</v>
       </c>
       <c r="I18" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="23">
         <f t="shared" si="0"/>
-        <v>959.37599999999998</v>
+        <v>1598.96</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M18" s="10">
         <v>15</v>
@@ -6449,16 +6455,16 @@
         <v>192.96</v>
       </c>
       <c r="I19" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" si="0"/>
-        <v>38.591999999999999</v>
-      </c>
-      <c r="L19" s="131" t="s">
+        <v>64.320000000000007</v>
+      </c>
+      <c r="L19" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="131"/>
+      <c r="M19" s="138"/>
       <c r="N19" t="s">
         <v>21</v>
       </c>
@@ -6494,7 +6500,7 @@
         <v>277.54199999999997</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M20" s="11">
         <v>7.5</v>
@@ -6550,7 +6556,7 @@
         <v>238</v>
       </c>
       <c r="P21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="30">
         <f>M20*0.8*C14</f>
@@ -6580,13 +6586,13 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O22" t="s">
         <v>238</v>
       </c>
       <c r="P22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="22">
         <f>'Laser cutter'!G5/20</f>
@@ -6610,7 +6616,7 @@
         <v>1224</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M23" s="87">
         <v>4.6000000000000001E-4</v>
@@ -6625,21 +6631,21 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F24" s="7"/>
       <c r="G24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H24" s="22">
         <f>IT!D23+IT!D22</f>
         <v>381</v>
       </c>
       <c r="I24" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" si="0"/>
-        <v>76.2</v>
+        <v>127</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M24" s="87">
         <f>M23*0.5</f>
@@ -6654,7 +6660,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F25" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -6670,7 +6676,7 @@
         <v>200</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M25" s="87">
         <f>M23*0.4</f>
@@ -6686,7 +6692,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F26" s="4"/>
       <c r="G26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H26" s="22">
         <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
@@ -6700,7 +6706,7 @@
         <v>1055</v>
       </c>
       <c r="L26" s="88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M26" s="88">
         <v>8</v>
@@ -6711,7 +6717,7 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H27" s="22">
         <f>SUM(Manufacturing!F2:F7)+Manufacturing!F8*4</f>
@@ -6729,7 +6735,7 @@
       </c>
       <c r="M27" s="9"/>
       <c r="N27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s">
         <v>237</v>
@@ -6749,7 +6755,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F28" s="5"/>
       <c r="G28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H28" s="22">
         <f>Manufacturing!F32</f>
@@ -6763,7 +6769,7 @@
         <v>325.89999999999998</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" t="s">
@@ -6787,18 +6793,18 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F29" s="5"/>
       <c r="G29" t="s">
-        <v>332</v>
+        <v>528</v>
       </c>
       <c r="H29" s="22">
-        <f>Manufacturing!F10*3+Manufacturing!F11*3</f>
-        <v>8137.4519999999993</v>
+        <f>Manufacturing!F36</f>
+        <v>1031.54</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29" s="23">
         <f t="shared" si="0"/>
-        <v>813.74519999999995</v>
+        <v>103.154</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>250</v>
@@ -6808,7 +6814,7 @@
         <v>0.8</v>
       </c>
       <c r="N29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s">
         <v>237</v>
@@ -6828,21 +6834,21 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
       <c r="G30" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="H30" s="22">
-        <f>0.5*H29</f>
-        <v>4068.7259999999997</v>
+        <f>Manufacturing!F10*3+Manufacturing!F11*3</f>
+        <v>8137.4519999999993</v>
       </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30" s="23">
         <f t="shared" si="0"/>
-        <v>406.87259999999998</v>
+        <v>813.74519999999995</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M30" s="103">
         <f>Welding!B32</f>
@@ -6869,17 +6875,18 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
       <c r="G31" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H31" s="22">
-        <v>4000</v>
+        <f>0.5*H30</f>
+        <v>4068.7259999999997</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J31" s="23">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>406.87259999999998</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -6904,17 +6911,17 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
       <c r="G32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H32" s="22">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32" s="23">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -6925,7 +6932,7 @@
         <v>237</v>
       </c>
       <c r="P32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q32" s="22">
         <f>0.03*(Q27+Q28)</f>
@@ -6942,18 +6949,17 @@
     <row r="33" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="G33" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H33" s="22">
-        <f>Manufacturing!F23</f>
-        <v>2302.5700000000002</v>
+        <v>3000</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J33" s="23">
         <f t="shared" si="0"/>
-        <v>230.25700000000001</v>
+        <v>3000</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -6970,29 +6976,29 @@
     <row r="34" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>392</v>
       </c>
       <c r="H34" s="22">
-        <f>Manufacturing!F20*6+Manufacturing!F21*3</f>
-        <v>7066.95</v>
+        <f>Manufacturing!F23</f>
+        <v>2302.5700000000002</v>
       </c>
       <c r="I34">
         <v>10</v>
       </c>
       <c r="J34" s="23">
         <f t="shared" si="0"/>
-        <v>706.69499999999994</v>
+        <v>230.25700000000001</v>
       </c>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" t="s">
-        <v>494</v>
-      </c>
-      <c r="O34" s="115" t="s">
+        <v>492</v>
+      </c>
+      <c r="O34" s="134" t="s">
         <v>238</v>
       </c>
-      <c r="P34" s="116" t="s">
-        <v>493</v>
+      <c r="P34" s="135" t="s">
+        <v>491</v>
       </c>
       <c r="Q34" s="22">
         <f>Welding!B29</f>
@@ -7002,26 +7008,26 @@
     <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>405</v>
+        <v>47</v>
       </c>
       <c r="H35" s="22">
-        <f>Manufacturing!F25*5+Manufacturing!F26+Manufacturing!F27+Manufacturing!F28+Manufacturing!F29*3+Manufacturing!F30*30</f>
-        <v>7110.13</v>
+        <f>Manufacturing!F20*6+Manufacturing!F21*3</f>
+        <v>7066.95</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35" s="23">
         <f t="shared" si="0"/>
-        <v>711.01300000000003</v>
+        <v>706.69499999999994</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" t="s">
-        <v>495</v>
-      </c>
-      <c r="O35" s="115"/>
-      <c r="P35" s="116"/>
+        <v>493</v>
+      </c>
+      <c r="O35" s="134"/>
+      <c r="P35" s="135"/>
       <c r="Q35" s="22">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
@@ -7029,19 +7035,19 @@
     </row>
     <row r="36" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
-      <c r="G36" s="38" t="s">
-        <v>385</v>
+      <c r="G36" t="s">
+        <v>404</v>
       </c>
       <c r="H36" s="22">
-        <f>Manufacturing!F17</f>
-        <v>12999</v>
+        <f>Manufacturing!F25*5+Manufacturing!F26+Manufacturing!F27+Manufacturing!F28+Manufacturing!F29*3+Manufacturing!F30*30</f>
+        <v>7110.13</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
       <c r="J36" s="23">
-        <f>H36/I36</f>
-        <v>1299.9000000000001</v>
+        <f t="shared" si="0"/>
+        <v>711.01300000000003</v>
       </c>
       <c r="L36" s="106"/>
       <c r="M36" s="106"/>
@@ -7052,7 +7058,7 @@
         <v>238</v>
       </c>
       <c r="P36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Q36" s="22">
         <f>Welding!B17</f>
@@ -7062,25 +7068,25 @@
     <row r="37" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F37" s="5"/>
       <c r="G37" s="38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H37" s="22">
-        <f>15*C14*C8*C9</f>
-        <v>1874.5019999999997</v>
+        <f>Manufacturing!F17</f>
+        <v>12999</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J37" s="23">
         <f>H37/I37</f>
-        <v>1874.5019999999997</v>
-      </c>
-      <c r="L37" s="124" t="s">
-        <v>427</v>
-      </c>
-      <c r="M37" s="124"/>
+        <v>1299.9000000000001</v>
+      </c>
+      <c r="L37" s="130" t="s">
+        <v>425</v>
+      </c>
+      <c r="M37" s="130"/>
       <c r="N37" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O37" t="s">
         <v>237</v>
@@ -7100,27 +7106,27 @@
     <row r="38" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F38" s="5"/>
       <c r="G38" s="38" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="H38" s="22">
-        <f>Manufacturing!F34</f>
-        <v>1075</v>
+        <f>15*C14*C8*C9</f>
+        <v>1874.5019999999997</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J38" s="23">
         <f>H38/I38</f>
-        <v>107.5</v>
+        <v>1874.5019999999997</v>
       </c>
       <c r="L38" s="105" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M38" s="105">
         <v>6</v>
       </c>
       <c r="N38" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O38" t="s">
         <v>237</v>
@@ -7137,10 +7143,22 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="57"/>
-      <c r="G39" s="38"/>
-      <c r="J39" s="23"/>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F39" s="5"/>
+      <c r="G39" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="H39" s="22">
+        <f>2*Manufacturing!F34</f>
+        <v>2150</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39" s="23">
+        <f>H39/I39</f>
+        <v>215</v>
+      </c>
       <c r="L39" s="105" t="s">
         <v>250</v>
       </c>
@@ -7148,7 +7166,7 @@
         <v>0.44</v>
       </c>
       <c r="N39" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O39" t="s">
         <v>237</v>
@@ -7166,13 +7184,9 @@
       </c>
     </row>
     <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="120" t="s">
-        <v>343</v>
-      </c>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="122"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="38"/>
+      <c r="J40" s="23"/>
       <c r="L40" s="105" t="s">
         <v>251</v>
       </c>
@@ -7186,7 +7200,7 @@
         <v>237</v>
       </c>
       <c r="P40" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q40" s="2">
         <f>0.03*(Q38+Q37)</f>
@@ -7200,21 +7214,16 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F41" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="G41" s="123" t="s">
-        <v>519</v>
-      </c>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="53">
-        <f>SUM(J3:J38)*1.05</f>
-        <v>126190.92341598139</v>
-      </c>
+    <row r="41" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="126" t="s">
+        <v>342</v>
+      </c>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="128"/>
       <c r="L41" s="105" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M41" s="41">
         <f>3*1/10000</f>
@@ -7227,70 +7236,72 @@
         <v>238</v>
       </c>
       <c r="P41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="30">
         <f>M38*0.8*C14</f>
         <v>0.37584000000000001</v>
       </c>
     </row>
-    <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="61"/>
-      <c r="G42" s="110" t="s">
-        <v>304</v>
-      </c>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="62">
-        <f>J41/SUM('Manpower &amp; time'!B28:I28)</f>
-        <v>13.5388689420449</v>
+    <row r="42" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F42" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" s="129" t="s">
+        <v>516</v>
+      </c>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="53">
+        <f>SUM(J3:J39)*1.05</f>
+        <v>127164.0277159814</v>
       </c>
       <c r="L42" s="105" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M42" s="105">
         <v>10</v>
       </c>
       <c r="N42" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="O42" t="s">
         <v>238</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q42" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="59" t="s">
+      <c r="F43" s="61"/>
+      <c r="G43" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="62">
+        <f>J42/SUM('Manpower &amp; time'!B28:I28)</f>
+        <v>13.458903563382842</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" s="129" t="s">
         <v>346</v>
       </c>
-      <c r="G43" s="123" t="s">
-        <v>347</v>
-      </c>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="63">
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="63">
         <f>'Manpower &amp; time'!H5</f>
         <v>12.68856351404828</v>
       </c>
-    </row>
-    <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="60"/>
-      <c r="G44" s="110" t="s">
-        <v>358</v>
-      </c>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="64">
-        <f>'Manpower &amp; time'!H6</f>
-        <v>23.630193905817173</v>
-      </c>
       <c r="L44" s="81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M44" s="82"/>
       <c r="N44" s="82"/>
@@ -7301,597 +7312,607 @@
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F45" s="60"/>
-      <c r="G45" s="110" t="s">
-        <v>511</v>
-      </c>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
+      <c r="G45" s="118" t="s">
+        <v>357</v>
+      </c>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
       <c r="J45" s="64">
-        <f>'Manpower &amp; time'!H7</f>
-        <v>29.773842500989314</v>
-      </c>
-      <c r="L45" s="117" t="s">
-        <v>523</v>
-      </c>
-      <c r="M45" s="118"/>
-      <c r="N45" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
+        <f>'Manpower &amp; time'!H6</f>
+        <v>23.630193905817173</v>
+      </c>
+      <c r="L45" s="123" t="s">
+        <v>520</v>
+      </c>
+      <c r="M45" s="124"/>
+      <c r="N45" s="122" t="s">
+        <v>312</v>
+      </c>
+      <c r="O45" s="122"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="122"/>
       <c r="R45" s="67">
         <f>SUM(S3:S6)+S9</f>
         <v>17591.025600000001</v>
       </c>
     </row>
-    <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="54"/>
-      <c r="G46" s="125" t="s">
-        <v>348</v>
-      </c>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="65">
+    <row r="46" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F46" s="60"/>
+      <c r="G46" s="118" t="s">
+        <v>509</v>
+      </c>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="64">
+        <f>'Manpower &amp; time'!H7</f>
+        <v>29.773842500989314</v>
+      </c>
+      <c r="L46" s="143" t="s">
+        <v>524</v>
+      </c>
+      <c r="M46" s="144"/>
+      <c r="N46" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="O46" s="119"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="70">
+        <f>R45/(M5*C8*C9)+J43</f>
+        <v>27.236335894209908</v>
+      </c>
+    </row>
+    <row r="47" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="54"/>
+      <c r="G47" s="131" t="s">
+        <v>347</v>
+      </c>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="65">
         <f>'Manpower &amp; time'!H8</f>
         <v>41.458053027305105</v>
       </c>
-      <c r="L46" s="140" t="s">
+      <c r="L47" s="113" t="s">
         <v>527</v>
       </c>
-      <c r="M46" s="141"/>
-      <c r="N46" s="111" t="s">
+      <c r="M47" s="114">
+        <v>2.5</v>
+      </c>
+      <c r="N47" s="119" t="s">
         <v>314</v>
       </c>
-      <c r="O46" s="111"/>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="70">
-        <f>R45/(M5*C8*C9)+J42</f>
-        <v>27.316301272871968</v>
-      </c>
-    </row>
-    <row r="47" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J47" s="49"/>
-      <c r="L47" s="144" t="s">
-        <v>530</v>
-      </c>
-      <c r="M47" s="145">
-        <v>2.5</v>
-      </c>
-      <c r="N47" s="111" t="s">
-        <v>315</v>
-      </c>
-      <c r="O47" s="111"/>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
+      <c r="O47" s="119"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="119"/>
       <c r="R47" s="70">
         <f>R46+Q8+Q7</f>
-        <v>48.719437272871964</v>
+        <v>48.639471894209905</v>
       </c>
     </row>
     <row r="48" spans="6:19" x14ac:dyDescent="0.25">
       <c r="J48" s="49"/>
       <c r="L48" s="77"/>
       <c r="M48" s="78"/>
-      <c r="N48" s="111"/>
-      <c r="O48" s="111"/>
-      <c r="P48" s="111"/>
-      <c r="Q48" s="111"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="119"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="119"/>
       <c r="R48" s="90"/>
     </row>
     <row r="49" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J49" s="49"/>
       <c r="L49" s="77"/>
       <c r="M49" s="78"/>
-      <c r="N49" s="111" t="s">
-        <v>300</v>
-      </c>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
+      <c r="N49" s="119" t="s">
+        <v>299</v>
+      </c>
+      <c r="O49" s="119"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="119"/>
       <c r="R49" s="91">
         <f>('Manpower &amp; time'!H5+R47)*M7/60</f>
-        <v>1.0234666797820041E-4</v>
+        <v>1.0221339234709698E-4</v>
       </c>
     </row>
     <row r="50" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J50" s="49"/>
       <c r="L50" s="77"/>
       <c r="M50" s="78"/>
-      <c r="N50" s="111" t="s">
-        <v>518</v>
-      </c>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="134">
+      <c r="N50" s="119" t="s">
+        <v>515</v>
+      </c>
+      <c r="O50" s="119"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="109">
         <f>('Manpower &amp; time'!H5)*M7/60/R49</f>
-        <v>0.20662720413381239</v>
+        <v>0.20689662451407484</v>
       </c>
     </row>
     <row r="51" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J51" s="49"/>
       <c r="L51" s="77"/>
       <c r="M51" s="78"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="111"/>
+      <c r="N51" s="119"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="119"/>
       <c r="R51" s="91"/>
     </row>
     <row r="52" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J52" s="49"/>
       <c r="L52" s="77"/>
       <c r="M52" s="78"/>
-      <c r="N52" s="111" t="s">
-        <v>303</v>
-      </c>
-      <c r="O52" s="111"/>
-      <c r="P52" s="111"/>
-      <c r="Q52" s="111"/>
+      <c r="N52" s="119" t="s">
+        <v>302</v>
+      </c>
+      <c r="O52" s="119"/>
+      <c r="P52" s="119"/>
+      <c r="Q52" s="119"/>
       <c r="R52" s="91">
-        <f>('Manpower &amp; time'!H5)*M8/60</f>
-        <v>1.0573802928373568E-5</v>
+        <f>('Manpower &amp; time'!H5+J43)*M8/60</f>
+        <v>2.1789555897859274E-5</v>
       </c>
     </row>
     <row r="53" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J53" s="27"/>
       <c r="L53" s="77"/>
       <c r="M53" s="78"/>
-      <c r="N53" s="111" t="s">
-        <v>301</v>
-      </c>
-      <c r="O53" s="111"/>
-      <c r="P53" s="111"/>
-      <c r="Q53" s="111"/>
+      <c r="N53" s="119" t="s">
+        <v>300</v>
+      </c>
+      <c r="O53" s="119"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="119"/>
       <c r="R53" s="91">
-        <f>('Manpower &amp; time'!H6)*M8/60</f>
-        <v>1.9691828254847643E-5</v>
+        <f>('Manpower &amp; time'!H6+J43)*M8/60</f>
+        <v>3.0907581224333346E-5</v>
       </c>
     </row>
     <row r="54" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J54" s="26"/>
+      <c r="J54" s="27"/>
       <c r="L54" s="77"/>
       <c r="M54" s="78"/>
-      <c r="N54" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="O54" s="111"/>
-      <c r="P54" s="111"/>
-      <c r="Q54" s="111"/>
+      <c r="N54" s="119" t="s">
+        <v>301</v>
+      </c>
+      <c r="O54" s="119"/>
+      <c r="P54" s="119"/>
+      <c r="Q54" s="119"/>
       <c r="R54" s="91">
-        <f>('Manpower &amp; time'!H8)*M8/60</f>
-        <v>3.4548377522754257E-5</v>
+        <f>('Manpower &amp; time'!H8+J43)*M8/60</f>
+        <v>4.5764130492239956E-5</v>
       </c>
     </row>
     <row r="55" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J55" s="26"/>
       <c r="L55" s="77"/>
       <c r="M55" s="78"/>
-      <c r="N55" s="111" t="s">
-        <v>349</v>
-      </c>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
+      <c r="N55" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="O55" s="119"/>
+      <c r="P55" s="119"/>
+      <c r="Q55" s="119"/>
       <c r="R55" s="91">
-        <f>('Manpower &amp; time'!H5)*M$9/60</f>
-        <v>8.4590423426988525E-6</v>
+        <f>('Manpower &amp; time'!H5+J43)*M$9/60</f>
+        <v>1.7431644718287417E-5</v>
       </c>
     </row>
     <row r="56" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J56" s="26"/>
       <c r="L56" s="77"/>
       <c r="M56" s="78"/>
-      <c r="N56" s="111" t="s">
-        <v>350</v>
-      </c>
-      <c r="O56" s="111"/>
-      <c r="P56" s="111"/>
-      <c r="Q56" s="111"/>
+      <c r="N56" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="O56" s="119"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="119"/>
       <c r="R56" s="91">
-        <f>('Manpower &amp; time'!H6)*M$9/60</f>
-        <v>1.5753462603878117E-5</v>
+        <f>('Manpower &amp; time'!H6+J43)*M$9/60</f>
+        <v>2.4726064979466676E-5</v>
       </c>
     </row>
     <row r="57" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J57" s="22"/>
+      <c r="J57" s="26"/>
       <c r="L57" s="77"/>
       <c r="M57" s="78"/>
-      <c r="N57" s="111" t="s">
-        <v>351</v>
-      </c>
-      <c r="O57" s="111"/>
-      <c r="P57" s="111"/>
-      <c r="Q57" s="111"/>
+      <c r="N57" s="119" t="s">
+        <v>350</v>
+      </c>
+      <c r="O57" s="119"/>
+      <c r="P57" s="119"/>
+      <c r="Q57" s="119"/>
       <c r="R57" s="91">
-        <f>('Manpower &amp; time'!H8)*M$9/60</f>
-        <v>2.7638702018203404E-5</v>
+        <f>('Manpower &amp; time'!H8+J43)*M$9/60</f>
+        <v>3.6611304393791964E-5</v>
       </c>
     </row>
     <row r="58" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="22"/>
       <c r="L58" s="79"/>
       <c r="M58" s="80"/>
-      <c r="N58" s="109" t="s">
-        <v>312</v>
-      </c>
-      <c r="O58" s="109"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
+      <c r="N58" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="O58" s="117"/>
+      <c r="P58" s="117"/>
+      <c r="Q58" s="117"/>
       <c r="R58" s="92">
         <f>('Manpower &amp; time'!H5+R46)*(M10+M6)/60</f>
-        <v>16.668693661216771</v>
+        <v>16.63537475344091</v>
       </c>
     </row>
     <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L59" s="112" t="s">
+      <c r="L59" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="113"/>
-      <c r="N59" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="O59" s="114"/>
-      <c r="P59" s="114"/>
-      <c r="Q59" s="114"/>
+      <c r="M59" s="121"/>
+      <c r="N59" s="122" t="s">
+        <v>312</v>
+      </c>
+      <c r="O59" s="122"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="122"/>
       <c r="R59" s="67">
         <f>SUM(S11:S14)+S17</f>
         <v>23026.025600000001</v>
       </c>
     </row>
     <row r="60" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L60" s="138" t="s">
+      <c r="L60" s="141" t="s">
+        <v>524</v>
+      </c>
+      <c r="M60" s="142"/>
+      <c r="N60" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="O60" s="119"/>
+      <c r="P60" s="119"/>
+      <c r="Q60" s="119"/>
+      <c r="R60" s="70">
+        <f>R59/(M13*C8*C9)+J43</f>
+        <v>31.493071483182341</v>
+      </c>
+    </row>
+    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L61" s="115" t="s">
         <v>527</v>
       </c>
-      <c r="M60" s="139"/>
-      <c r="N60" s="111" t="s">
+      <c r="M61" s="116">
+        <v>2.5</v>
+      </c>
+      <c r="N61" s="119" t="s">
         <v>314</v>
       </c>
-      <c r="O60" s="111"/>
-      <c r="P60" s="111"/>
-      <c r="Q60" s="111"/>
-      <c r="R60" s="70">
-        <f>R59/(M13*C8*C9)+J42</f>
-        <v>31.5730368618444</v>
-      </c>
-    </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J61" s="26"/>
-      <c r="L61" s="146" t="s">
-        <v>530</v>
-      </c>
-      <c r="M61" s="147">
-        <v>2.5</v>
-      </c>
-      <c r="N61" s="111" t="s">
-        <v>315</v>
-      </c>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
+      <c r="O61" s="119"/>
+      <c r="P61" s="119"/>
+      <c r="Q61" s="119"/>
       <c r="R61" s="70">
         <f>R60+Q16+Q15</f>
-        <v>43.439708861844402</v>
+        <v>43.359743483182342</v>
       </c>
     </row>
     <row r="62" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J62" s="26"/>
       <c r="L62" s="71"/>
       <c r="M62" s="72"/>
-      <c r="N62" s="111"/>
-      <c r="O62" s="111"/>
-      <c r="P62" s="111"/>
-      <c r="Q62" s="111"/>
+      <c r="N62" s="119"/>
+      <c r="O62" s="119"/>
+      <c r="P62" s="119"/>
+      <c r="Q62" s="119"/>
       <c r="R62" s="90"/>
     </row>
     <row r="63" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F63" s="38"/>
       <c r="L63" s="71"/>
       <c r="M63" s="72"/>
-      <c r="N63" s="111" t="s">
-        <v>300</v>
-      </c>
-      <c r="O63" s="111"/>
-      <c r="P63" s="111"/>
-      <c r="Q63" s="111"/>
+      <c r="N63" s="119" t="s">
+        <v>299</v>
+      </c>
+      <c r="O63" s="119"/>
+      <c r="P63" s="119"/>
+      <c r="Q63" s="119"/>
       <c r="R63" s="91">
-        <f>(J43+R61)*M15/60</f>
-        <v>9.3547120626487793E-5</v>
+        <f>(J44+R61)*M15/60</f>
+        <v>9.3413844995384382E-5</v>
       </c>
     </row>
     <row r="64" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F64" s="38"/>
       <c r="L64" s="71"/>
       <c r="M64" s="72"/>
-      <c r="N64" s="111" t="s">
-        <v>518</v>
-      </c>
-      <c r="O64" s="111"/>
-      <c r="P64" s="111"/>
-      <c r="Q64" s="111"/>
-      <c r="R64" s="134">
-        <f>(J43)*M15/60/R63</f>
-        <v>0.22606367481030953</v>
+      <c r="N64" s="119" t="s">
+        <v>515</v>
+      </c>
+      <c r="O64" s="119"/>
+      <c r="P64" s="119"/>
+      <c r="Q64" s="119"/>
+      <c r="R64" s="109">
+        <f>(J44)*M15/60/R63</f>
+        <v>0.22638620493345551</v>
       </c>
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L65" s="71"/>
       <c r="M65" s="72"/>
-      <c r="N65" s="111"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
-      <c r="Q65" s="111"/>
+      <c r="N65" s="119"/>
+      <c r="O65" s="119"/>
+      <c r="P65" s="119"/>
+      <c r="Q65" s="119"/>
       <c r="R65" s="91"/>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L66" s="71"/>
       <c r="M66" s="72"/>
-      <c r="N66" s="111" t="s">
-        <v>303</v>
-      </c>
-      <c r="O66" s="111"/>
-      <c r="P66" s="111"/>
-      <c r="Q66" s="111"/>
+      <c r="N66" s="119" t="s">
+        <v>302</v>
+      </c>
+      <c r="O66" s="119"/>
+      <c r="P66" s="119"/>
+      <c r="Q66" s="119"/>
       <c r="R66" s="91">
-        <f>(J43)*M$16/60</f>
-        <v>1.0573802928373568E-5</v>
+        <f>(J44+J43)*M$16/60</f>
+        <v>2.1789555897859274E-5</v>
       </c>
     </row>
     <row r="67" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L67" s="71"/>
       <c r="M67" s="72"/>
-      <c r="N67" s="111" t="s">
-        <v>301</v>
-      </c>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="111"/>
+      <c r="N67" s="119" t="s">
+        <v>300</v>
+      </c>
+      <c r="O67" s="119"/>
+      <c r="P67" s="119"/>
+      <c r="Q67" s="119"/>
       <c r="R67" s="91">
-        <f>(J44)*M$16/60</f>
-        <v>1.9691828254847643E-5</v>
+        <f>(J45+J43)*M$16/60</f>
+        <v>3.0907581224333346E-5</v>
       </c>
     </row>
     <row r="68" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L68" s="71"/>
       <c r="M68" s="72"/>
-      <c r="N68" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="O68" s="111"/>
-      <c r="P68" s="111"/>
-      <c r="Q68" s="111"/>
+      <c r="N68" s="119" t="s">
+        <v>301</v>
+      </c>
+      <c r="O68" s="119"/>
+      <c r="P68" s="119"/>
+      <c r="Q68" s="119"/>
       <c r="R68" s="91">
-        <f>(J46)*M$16/60</f>
-        <v>3.4548377522754257E-5</v>
+        <f>(J47+J43)*M$16/60</f>
+        <v>4.5764130492239956E-5</v>
       </c>
     </row>
     <row r="69" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L69" s="71"/>
       <c r="M69" s="72"/>
-      <c r="N69" s="111" t="s">
-        <v>349</v>
-      </c>
-      <c r="O69" s="111"/>
-      <c r="P69" s="111"/>
-      <c r="Q69" s="111"/>
+      <c r="N69" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="O69" s="119"/>
+      <c r="P69" s="119"/>
+      <c r="Q69" s="119"/>
       <c r="R69" s="91">
-        <f>(J43)*M$17/60</f>
-        <v>8.4590423426988525E-6</v>
+        <f>(J44+J43)*M$17/60</f>
+        <v>1.7431644718287417E-5</v>
       </c>
     </row>
     <row r="70" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L70" s="71"/>
       <c r="M70" s="72"/>
-      <c r="N70" s="111" t="s">
-        <v>350</v>
-      </c>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
-      <c r="Q70" s="111"/>
+      <c r="N70" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="O70" s="119"/>
+      <c r="P70" s="119"/>
+      <c r="Q70" s="119"/>
       <c r="R70" s="91">
-        <f>(J44)*M$17/60</f>
-        <v>1.5753462603878117E-5</v>
+        <f>(J45+J43)*M$17/60</f>
+        <v>2.4726064979466676E-5</v>
       </c>
     </row>
     <row r="71" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L71" s="71"/>
       <c r="M71" s="72"/>
-      <c r="N71" s="111" t="s">
-        <v>351</v>
-      </c>
-      <c r="O71" s="111"/>
-      <c r="P71" s="111"/>
-      <c r="Q71" s="111"/>
+      <c r="N71" s="119" t="s">
+        <v>350</v>
+      </c>
+      <c r="O71" s="119"/>
+      <c r="P71" s="119"/>
+      <c r="Q71" s="119"/>
       <c r="R71" s="91">
-        <f>(J46)*M$17/60</f>
-        <v>2.7638702018203404E-5</v>
+        <f>(J47+J43)*M$17/60</f>
+        <v>3.6611304393791964E-5</v>
       </c>
     </row>
     <row r="72" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L72" s="73"/>
       <c r="M72" s="74"/>
-      <c r="N72" s="109" t="s">
+      <c r="N72" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="O72" s="117"/>
+      <c r="P72" s="117"/>
+      <c r="Q72" s="117"/>
+      <c r="R72" s="92">
+        <f>(J44+R60)*(M14+M18)/60</f>
+        <v>14.727211665743539</v>
+      </c>
+    </row>
+    <row r="73" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L73" s="139" t="s">
+        <v>440</v>
+      </c>
+      <c r="M73" s="140"/>
+      <c r="N73" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="O72" s="109"/>
-      <c r="P72" s="109"/>
-      <c r="Q72" s="109"/>
-      <c r="R72" s="92">
-        <f>(J43+R60)*(M14+M18)/60</f>
-        <v>14.753866791964226</v>
-      </c>
-    </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L73" s="132" t="s">
-        <v>442</v>
-      </c>
-      <c r="M73" s="133"/>
-      <c r="N73" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="O73" s="114"/>
-      <c r="P73" s="114"/>
-      <c r="Q73" s="114"/>
+      <c r="O73" s="122"/>
+      <c r="P73" s="122"/>
+      <c r="Q73" s="122"/>
       <c r="R73" s="67">
         <f>S19+S20</f>
         <v>27751.54031372827</v>
       </c>
     </row>
     <row r="74" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L74" s="136" t="s">
-        <v>528</v>
-      </c>
-      <c r="M74" s="137"/>
-      <c r="N74" s="111" t="s">
-        <v>314</v>
-      </c>
-      <c r="O74" s="111"/>
-      <c r="P74" s="111"/>
-      <c r="Q74" s="111"/>
+      <c r="L74" s="146" t="s">
+        <v>525</v>
+      </c>
+      <c r="M74" s="147"/>
+      <c r="N74" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="O74" s="119"/>
+      <c r="P74" s="119"/>
+      <c r="Q74" s="119"/>
       <c r="R74" s="70">
-        <f>R73/(M21*C8*C9)+J42</f>
-        <v>35.274097884501252</v>
+        <f>R73/(M21*C8*C9)+J43</f>
+        <v>35.194132505839193</v>
       </c>
     </row>
     <row r="75" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L75" s="142" t="s">
-        <v>529</v>
-      </c>
-      <c r="M75" s="143">
+      <c r="L75" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="M75" s="112">
         <f>'Laser cutter'!J14</f>
         <v>0.71739130434782605</v>
       </c>
-      <c r="N75" s="111" t="s">
-        <v>315</v>
-      </c>
-      <c r="O75" s="111"/>
-      <c r="P75" s="111"/>
-      <c r="Q75" s="111"/>
+      <c r="N75" s="119" t="s">
+        <v>314</v>
+      </c>
+      <c r="O75" s="119"/>
+      <c r="P75" s="119"/>
+      <c r="Q75" s="119"/>
       <c r="R75" s="70">
         <f>R74+Q21+Q22</f>
-        <v>40.816697884501252</v>
+        <v>40.736732505839193</v>
       </c>
     </row>
     <row r="76" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L76" s="136"/>
-      <c r="M76" s="137"/>
-      <c r="N76" s="111"/>
-      <c r="O76" s="111"/>
-      <c r="P76" s="111"/>
-      <c r="Q76" s="111"/>
+      <c r="L76" s="146"/>
+      <c r="M76" s="147"/>
+      <c r="N76" s="119"/>
+      <c r="O76" s="119"/>
+      <c r="P76" s="119"/>
+      <c r="Q76" s="119"/>
       <c r="R76" s="90"/>
     </row>
     <row r="77" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L77" s="136"/>
-      <c r="M77" s="137"/>
-      <c r="N77" s="111" t="s">
+      <c r="L77" s="146"/>
+      <c r="M77" s="147"/>
+      <c r="N77" s="119" t="s">
+        <v>443</v>
+      </c>
+      <c r="O77" s="119"/>
+      <c r="P77" s="119"/>
+      <c r="Q77" s="119"/>
+      <c r="R77" s="91">
+        <f>(J44*0.5+R75)*M23/60</f>
+        <v>3.6095444268195221E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L78" s="146"/>
+      <c r="M78" s="147"/>
+      <c r="N78" s="119" t="s">
+        <v>444</v>
+      </c>
+      <c r="O78" s="119"/>
+      <c r="P78" s="119"/>
+      <c r="Q78" s="119"/>
+      <c r="R78" s="91">
+        <f>(J44+J43)*M$24/60</f>
+        <v>1.0023195713015264E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L79" s="146"/>
+      <c r="M79" s="147"/>
+      <c r="N79" s="119" t="s">
         <v>445</v>
       </c>
-      <c r="O77" s="111"/>
-      <c r="P77" s="111"/>
-      <c r="Q77" s="111"/>
-      <c r="R77" s="91">
-        <f>(J43*0.5+R75)*M23/60</f>
-        <v>3.6156751058502806E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L78" s="136"/>
-      <c r="M78" s="137"/>
-      <c r="N78" s="111" t="s">
+      <c r="O79" s="119"/>
+      <c r="P79" s="119"/>
+      <c r="Q79" s="119"/>
+      <c r="R79" s="91">
+        <f>(J45+J43)*M$24/60</f>
+        <v>1.4217487363193338E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L80" s="146"/>
+      <c r="M80" s="147"/>
+      <c r="N80" s="119"/>
+      <c r="O80" s="119"/>
+      <c r="P80" s="119"/>
+      <c r="Q80" s="119"/>
+      <c r="R80" s="91"/>
+    </row>
+    <row r="81" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L81" s="146"/>
+      <c r="M81" s="147"/>
+      <c r="N81" s="119" t="s">
         <v>446</v>
       </c>
-      <c r="O78" s="111"/>
-      <c r="P78" s="111"/>
-      <c r="Q78" s="111"/>
-      <c r="R78" s="91">
-        <f>(J43)*M$24/60</f>
-        <v>4.8639493470518408E-5</v>
-      </c>
-    </row>
-    <row r="79" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L79" s="136"/>
-      <c r="M79" s="137"/>
-      <c r="N79" s="111" t="s">
+      <c r="O81" s="119"/>
+      <c r="P81" s="119"/>
+      <c r="Q81" s="119"/>
+      <c r="R81" s="91">
+        <f>(J44+J43)*M$25/60</f>
+        <v>8.0185565704122129E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L82" s="146"/>
+      <c r="M82" s="147"/>
+      <c r="N82" s="119" t="s">
         <v>447</v>
       </c>
-      <c r="O79" s="111"/>
-      <c r="P79" s="111"/>
-      <c r="Q79" s="111"/>
-      <c r="R79" s="91">
-        <f>(J44)*M$24/60</f>
-        <v>9.0582409972299173E-5</v>
-      </c>
-    </row>
-    <row r="80" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L80" s="136"/>
-      <c r="M80" s="137"/>
-      <c r="N80" s="111"/>
-      <c r="O80" s="111"/>
-      <c r="P80" s="111"/>
-      <c r="Q80" s="111"/>
-      <c r="R80" s="91"/>
-    </row>
-    <row r="81" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L81" s="136"/>
-      <c r="M81" s="137"/>
-      <c r="N81" s="111" t="s">
-        <v>448</v>
-      </c>
-      <c r="O81" s="111"/>
-      <c r="P81" s="111"/>
-      <c r="Q81" s="111"/>
-      <c r="R81" s="91">
-        <f>(J43)*M$25/60</f>
-        <v>3.8911594776414732E-5</v>
-      </c>
-    </row>
-    <row r="82" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L82" s="136"/>
-      <c r="M82" s="137"/>
-      <c r="N82" s="111" t="s">
-        <v>449</v>
-      </c>
-      <c r="O82" s="111"/>
-      <c r="P82" s="111"/>
-      <c r="Q82" s="111"/>
+      <c r="O82" s="119"/>
+      <c r="P82" s="119"/>
+      <c r="Q82" s="119"/>
       <c r="R82" s="91">
-        <f>(J44)*M$25/60</f>
-        <v>7.2465927977839338E-5</v>
+        <f>(J45+J43)*M$25/60</f>
+        <v>1.1373989890554672E-4</v>
       </c>
     </row>
     <row r="83" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L83" s="136"/>
-      <c r="M83" s="137"/>
-      <c r="N83" s="111"/>
-      <c r="O83" s="111"/>
-      <c r="P83" s="111"/>
-      <c r="Q83" s="111"/>
+      <c r="L83" s="146"/>
+      <c r="M83" s="147"/>
+      <c r="N83" s="119"/>
+      <c r="O83" s="119"/>
+      <c r="P83" s="119"/>
+      <c r="Q83" s="119"/>
       <c r="R83" s="91"/>
     </row>
     <row r="84" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L84" s="107"/>
       <c r="M84" s="108"/>
-      <c r="N84" s="109" t="s">
+      <c r="N84" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="O84" s="117"/>
+      <c r="P84" s="117"/>
+      <c r="Q84" s="117"/>
+      <c r="R84" s="92">
+        <f>(J44+R74)*(M26+M22)/60</f>
+        <v>10.374584137642286</v>
+      </c>
+    </row>
+    <row r="85" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L85" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" s="124"/>
+      <c r="N85" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="O84" s="109"/>
-      <c r="P84" s="109"/>
-      <c r="Q84" s="109"/>
-      <c r="R84" s="92">
-        <f>(J43+R74)*(M26+M22)/60</f>
-        <v>10.391909969685731</v>
-      </c>
-    </row>
-    <row r="85" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L85" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="M85" s="118"/>
-      <c r="N85" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="O85" s="114"/>
-      <c r="P85" s="114"/>
-      <c r="Q85" s="114"/>
+      <c r="O85" s="122"/>
+      <c r="P85" s="122"/>
+      <c r="Q85" s="122"/>
       <c r="R85" s="101">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
@@ -7900,89 +7921,89 @@
     <row r="86" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L86" s="75"/>
       <c r="M86" s="76"/>
-      <c r="N86" s="111" t="s">
-        <v>314</v>
-      </c>
-      <c r="O86" s="111"/>
-      <c r="P86" s="111"/>
-      <c r="Q86" s="111"/>
+      <c r="N86" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="O86" s="119"/>
+      <c r="P86" s="119"/>
+      <c r="Q86" s="119"/>
       <c r="R86" s="62">
-        <f>R85/(M29*C8*C9)+J42</f>
-        <v>15.243886172621341</v>
+        <f>R85/(M29*C8*C9)+J43</f>
+        <v>15.163920793959283</v>
       </c>
       <c r="S86" s="23"/>
     </row>
     <row r="87" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L87" s="77"/>
       <c r="M87" s="78"/>
-      <c r="N87" s="111" t="s">
-        <v>315</v>
-      </c>
-      <c r="O87" s="111"/>
-      <c r="P87" s="111"/>
-      <c r="Q87" s="111"/>
+      <c r="N87" s="119" t="s">
+        <v>314</v>
+      </c>
+      <c r="O87" s="119"/>
+      <c r="P87" s="119"/>
+      <c r="Q87" s="119"/>
       <c r="R87" s="62">
         <f>R86+Q33</f>
-        <v>15.243886172621341</v>
+        <v>15.163920793959283</v>
       </c>
     </row>
     <row r="88" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L88" s="77"/>
       <c r="M88" s="78"/>
-      <c r="N88" s="111"/>
-      <c r="O88" s="111"/>
-      <c r="P88" s="111"/>
-      <c r="Q88" s="111"/>
+      <c r="N88" s="119"/>
+      <c r="O88" s="119"/>
+      <c r="P88" s="119"/>
+      <c r="Q88" s="119"/>
       <c r="R88" s="99"/>
     </row>
     <row r="89" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L89" s="77"/>
       <c r="M89" s="78"/>
-      <c r="N89" s="111" t="s">
-        <v>497</v>
-      </c>
-      <c r="O89" s="111"/>
-      <c r="P89" s="111"/>
-      <c r="Q89" s="111"/>
+      <c r="N89" s="119" t="s">
+        <v>495</v>
+      </c>
+      <c r="O89" s="119"/>
+      <c r="P89" s="119"/>
+      <c r="Q89" s="119"/>
       <c r="R89" s="102">
-        <f>Q34+Q36+(R87+J45)*M30/60</f>
-        <v>119.8039324136965</v>
+        <f>Q34+Q36+(R87+J46)*M30/60</f>
+        <v>119.61677233589825</v>
       </c>
     </row>
     <row r="90" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L90" s="77"/>
       <c r="M90" s="78"/>
-      <c r="N90" s="111" t="s">
-        <v>498</v>
-      </c>
-      <c r="O90" s="111"/>
-      <c r="P90" s="111"/>
-      <c r="Q90" s="111"/>
+      <c r="N90" s="119" t="s">
+        <v>496</v>
+      </c>
+      <c r="O90" s="119"/>
+      <c r="P90" s="119"/>
+      <c r="Q90" s="119"/>
       <c r="R90" s="62">
-        <f>Q35+Q36+(R87+J45)*M30/60</f>
-        <v>119.76887035472684</v>
+        <f>Q35+Q36+(R87+J46)*M30/60</f>
+        <v>119.58171027692859</v>
       </c>
     </row>
     <row r="91" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L91" s="79"/>
       <c r="M91" s="80"/>
-      <c r="N91" s="109"/>
-      <c r="O91" s="109"/>
-      <c r="P91" s="109"/>
-      <c r="Q91" s="109"/>
+      <c r="N91" s="117"/>
+      <c r="O91" s="117"/>
+      <c r="P91" s="117"/>
+      <c r="Q91" s="117"/>
       <c r="R91" s="100"/>
     </row>
     <row r="92" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L92" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="M92" s="113"/>
-      <c r="N92" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="O92" s="114"/>
-      <c r="P92" s="114"/>
-      <c r="Q92" s="114"/>
+      <c r="L92" s="120" t="s">
+        <v>425</v>
+      </c>
+      <c r="M92" s="121"/>
+      <c r="N92" s="122" t="s">
+        <v>312</v>
+      </c>
+      <c r="O92" s="122"/>
+      <c r="P92" s="122"/>
+      <c r="Q92" s="122"/>
       <c r="R92" s="67">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
@@ -7991,71 +8012,70 @@
     <row r="93" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L93" s="68"/>
       <c r="M93" s="69"/>
-      <c r="N93" s="111" t="s">
-        <v>314</v>
-      </c>
-      <c r="O93" s="111"/>
-      <c r="P93" s="111"/>
-      <c r="Q93" s="111"/>
+      <c r="N93" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="O93" s="119"/>
+      <c r="P93" s="119"/>
+      <c r="Q93" s="119"/>
       <c r="R93" s="70">
-        <f>R92/(M39*C8*C9)+J42</f>
-        <v>20.338538570661896</v>
+        <f>R92/(M39*C8*C9)+J43</f>
+        <v>20.25857319199984</v>
       </c>
     </row>
     <row r="94" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L94" s="71"/>
       <c r="M94" s="72"/>
-      <c r="N94" s="111" t="s">
-        <v>315</v>
-      </c>
-      <c r="O94" s="111"/>
-      <c r="P94" s="111"/>
-      <c r="Q94" s="111"/>
+      <c r="N94" s="119" t="s">
+        <v>314</v>
+      </c>
+      <c r="O94" s="119"/>
+      <c r="P94" s="119"/>
+      <c r="Q94" s="119"/>
       <c r="R94" s="70">
         <f>R93+Q42+Q41</f>
-        <v>30.714378570661896</v>
+        <v>30.63441319199984</v>
       </c>
     </row>
     <row r="95" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L95" s="71"/>
       <c r="M95" s="72"/>
-      <c r="N95" s="111"/>
-      <c r="O95" s="111"/>
-      <c r="P95" s="111"/>
-      <c r="Q95" s="111"/>
+      <c r="N95" s="119"/>
+      <c r="O95" s="119"/>
+      <c r="P95" s="119"/>
+      <c r="Q95" s="119"/>
       <c r="R95" s="90"/>
     </row>
     <row r="96" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L96" s="71"/>
       <c r="M96" s="72"/>
-      <c r="N96" s="111" t="s">
-        <v>300</v>
-      </c>
-      <c r="O96" s="111"/>
-      <c r="P96" s="111"/>
-      <c r="Q96" s="111"/>
+      <c r="N96" s="119" t="s">
+        <v>299</v>
+      </c>
+      <c r="O96" s="119"/>
+      <c r="P96" s="119"/>
+      <c r="Q96" s="119"/>
       <c r="R96" s="91">
-        <f>(J43+R94)*M41/60</f>
-        <v>2.1701471042355087E-4</v>
+        <f>(J44+R94)*M41/60</f>
+        <v>2.166148835302406E-4</v>
       </c>
     </row>
     <row r="97" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L97" s="73"/>
       <c r="M97" s="74"/>
-      <c r="N97" s="109" t="s">
-        <v>312</v>
-      </c>
-      <c r="O97" s="109"/>
-      <c r="P97" s="109"/>
-      <c r="Q97" s="109"/>
+      <c r="N97" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="O97" s="117"/>
+      <c r="P97" s="117"/>
+      <c r="Q97" s="117"/>
       <c r="R97" s="92">
-        <f>(J43+R93)*(M40+M42)/60</f>
-        <v>8.2567755211775449</v>
+        <f>(J44+R93)*(M40+M42)/60</f>
+        <v>8.23678417651203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="L79:M79"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="L82:M82"/>
@@ -8075,6 +8095,7 @@
     <mergeCell ref="N76:Q76"/>
     <mergeCell ref="N82:Q82"/>
     <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="L79:M79"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L19:M19"/>
@@ -8091,18 +8112,29 @@
     <mergeCell ref="N55:Q55"/>
     <mergeCell ref="N56:Q56"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="G43:I43"/>
     <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G41:I41"/>
     <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="N89:Q89"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="N86:Q86"/>
     <mergeCell ref="N68:Q68"/>
     <mergeCell ref="N69:Q69"/>
     <mergeCell ref="N59:Q59"/>
@@ -8110,24 +8142,13 @@
     <mergeCell ref="N61:Q61"/>
     <mergeCell ref="N62:Q62"/>
     <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N89:Q89"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
     <mergeCell ref="N47:Q47"/>
     <mergeCell ref="N48:Q48"/>
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="N58:Q58"/>
     <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="N86:Q86"/>
     <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="N96:Q96"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:Q92"/>
@@ -8156,7 +8177,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8199,10 +8220,10 @@
         <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E4">
         <v>208995</v>
@@ -8215,27 +8236,27 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>429</v>
+      </c>
+      <c r="R4" t="s">
+        <v>431</v>
+      </c>
+      <c r="S4" t="s">
         <v>432</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>431</v>
-      </c>
-      <c r="R4" t="s">
-        <v>433</v>
-      </c>
-      <c r="S4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" t="s">
         <v>436</v>
       </c>
-      <c r="B5" t="s">
-        <v>438</v>
-      </c>
       <c r="C5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F5">
         <v>126.82</v>
@@ -8245,10 +8266,10 @@
         <v>101.456</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P5">
         <v>76.5</v>
@@ -8267,7 +8288,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="R6">
         <v>10.6</v>
@@ -8293,24 +8314,24 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" t="s">
         <v>372</v>
       </c>
-      <c r="C9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>373</v>
-      </c>
-      <c r="E9" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" t="s">
         <v>361</v>
-      </c>
-      <c r="B10" t="s">
-        <v>362</v>
       </c>
       <c r="C10">
         <v>780</v>
@@ -8329,7 +8350,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C11">
         <v>230</v>
@@ -8348,7 +8369,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C12">
         <v>125</v>
@@ -8365,15 +8386,15 @@
         <v>3.1496062992125983E-4</v>
       </c>
       <c r="I12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J12" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C13">
         <v>86</v>
@@ -8398,7 +8419,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -8415,16 +8436,16 @@
         <v>5.3202809108320926E-4</v>
       </c>
       <c r="I14" t="s">
-        <v>522</v>
-      </c>
-      <c r="J14" s="135">
+        <v>519</v>
+      </c>
+      <c r="J14" s="110">
         <f>J13/I13</f>
         <v>0.71739130434782605</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C15">
         <v>59</v>
@@ -8443,7 +8464,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -8462,7 +8483,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -8481,7 +8502,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -8500,10 +8521,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C19">
         <v>780</v>
@@ -8522,7 +8543,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20">
         <v>216</v>
@@ -8541,7 +8562,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -8560,7 +8581,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C22">
         <v>47</v>
@@ -8579,7 +8600,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -8598,10 +8619,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C24">
         <v>300</v>
@@ -8620,7 +8641,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C25">
         <v>120</v>
@@ -8639,7 +8660,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -8720,13 +8741,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8737,7 +8758,7 @@
         <v>3859.6</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8787,7 +8808,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B12" s="93"/>
       <c r="C12" s="93" t="s">
@@ -8796,29 +8817,29 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B13" s="95">
         <v>200</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B14" s="94">
         <v>18</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B15" s="96">
         <f>B14*5/228</f>
@@ -8828,7 +8849,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B16" s="94">
         <v>5.5</v>
@@ -8837,7 +8858,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B17" s="97">
         <f>B15*B13/B16</f>
@@ -8848,7 +8869,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B19" s="93"/>
       <c r="C19" s="93" t="s">
@@ -8857,29 +8878,29 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B20" s="94">
         <v>12.8</v>
       </c>
       <c r="C20" s="94" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B21" s="94">
         <v>11</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B22" s="94">
         <f>PI()*0.04*0.04*100*7.8</f>
@@ -8889,7 +8910,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B23" s="95">
         <f>B20*B22/1000</f>
@@ -8899,7 +8920,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B25" s="93"/>
       <c r="C25" s="93" t="s">
@@ -8908,29 +8929,29 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B26" s="94">
         <v>10.050000000000001</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B27" s="94">
         <v>2</v>
       </c>
       <c r="C27" s="94" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B28" s="94">
         <f>PI()*0.1*0.1*100*2.7</f>
@@ -8940,7 +8961,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B29" s="95">
         <f>B26*B28/1000</f>
@@ -8953,7 +8974,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B31" s="94"/>
       <c r="C31" s="93" t="s">
@@ -8962,19 +8983,19 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B32" s="104">
         <f>30/(2*PI()*0.034)</f>
         <v>140.43083213990764</v>
       </c>
       <c r="C32" s="94" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B33" s="97">
         <f>'Manpower &amp; time'!H6/60</f>
@@ -8984,7 +9005,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B34" s="97">
         <f>B33*B32</f>
@@ -9026,7 +9047,7 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
@@ -9034,24 +9055,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B2" s="2">
         <v>15000</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B4" s="2">
         <v>10000</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -9091,7 +9112,7 @@
         <v>5</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -9152,7 +9173,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -9161,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -9675,7 +9696,7 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -9687,7 +9708,7 @@
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
@@ -9731,10 +9752,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -9752,7 +9773,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -9914,38 +9935,38 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -9957,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
@@ -9969,7 +9990,7 @@
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P32" t="s">
         <v>2</v>
@@ -10246,15 +10267,15 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -10294,33 +10315,33 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="G49" t="s">
+        <v>473</v>
+      </c>
+      <c r="H49" t="s">
         <v>475</v>
       </c>
-      <c r="H49" t="s">
-        <v>477</v>
-      </c>
       <c r="I49" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J49" t="s">
         <v>3</v>
@@ -10328,7 +10349,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B50" s="2">
         <v>86.4</v>
@@ -10342,7 +10363,7 @@
         <v>1.9072847682119207E-5</v>
       </c>
       <c r="G50" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H50" s="30">
         <v>1.1000000000000001</v>
@@ -10358,7 +10379,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B51" s="2">
         <v>60</v>
@@ -10372,7 +10393,7 @@
         <v>1.5915494309189534E-5</v>
       </c>
       <c r="G51" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H51" s="30">
         <v>2.5</v>
@@ -10388,7 +10409,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B52" s="2">
         <v>28.32</v>
@@ -10402,7 +10423,7 @@
         <v>9.8117398386121925E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H52" s="30">
         <v>2.5</v>
@@ -10418,7 +10439,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B53" s="2">
         <v>35.4</v>
@@ -10432,7 +10453,7 @@
         <v>9.8333333333333329E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H53" s="30">
         <v>18</v>
@@ -10448,7 +10469,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B54" s="2">
         <v>81.599999999999994</v>
@@ -10464,7 +10485,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B55" s="2">
         <v>8</v>
@@ -10480,7 +10501,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B56" s="2">
         <v>50</v>
@@ -10496,7 +10517,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B57" s="2">
         <v>46.2</v>
@@ -10512,7 +10533,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B58" s="2">
         <v>28</v>
@@ -10528,7 +10549,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B59" s="2">
         <v>35.700000000000003</v>
@@ -10544,7 +10565,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B60" s="2">
         <v>13</v>
@@ -10578,8 +10599,8 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10624,16 +10645,16 @@
         <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -10690,7 +10711,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B7" s="2">
         <v>3077</v>
@@ -10742,7 +10763,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9">
         <f>SUM(F8+F6+F5)</f>
@@ -10813,25 +10834,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" t="s">
         <v>275</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>426</v>
+      </c>
+      <c r="E22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F22" t="s">
+        <v>425</v>
+      </c>
+      <c r="G22" t="s">
         <v>276</v>
       </c>
-      <c r="D22" t="s">
-        <v>428</v>
-      </c>
-      <c r="E22" t="s">
-        <v>429</v>
-      </c>
-      <c r="F22" t="s">
-        <v>427</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>277</v>
-      </c>
-      <c r="H22" t="s">
-        <v>278</v>
       </c>
       <c r="I22" t="s">
         <v>34</v>
@@ -10840,7 +10861,7 @@
         <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -10893,7 +10914,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G25">
         <v>0.85</v>
@@ -10929,7 +10950,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27:J27" si="3">$B$30*SUM(B23:B26)</f>
@@ -10974,7 +10995,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
@@ -11001,25 +11022,25 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="H28">
-        <f>0.5*B28*2+0.3*D28</f>
-        <v>1468.3200000000002</v>
+        <f>0.5*B28*2+0.5*D28</f>
+        <v>1596.0000000000002</v>
       </c>
       <c r="I28">
         <f>2*0.4*B28+0.3*B28</f>
         <v>1404.4800000000002</v>
       </c>
       <c r="J28">
-        <f>0.06*Summary!C8*Summary!C9*Summary!C7</f>
+        <f>0.06*Summary!C8*Summary!C9*5</f>
         <v>478.8</v>
       </c>
       <c r="K28">
         <f>SUM(B28:J28)</f>
-        <v>9799.44</v>
+        <v>9927.1200000000008</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B30">
         <f>Summary!$C$11*Summary!$C$9*Summary!$C$8</f>
@@ -11028,7 +11049,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B32" s="22">
         <f>SUMPRODUCT(D5:D8*J23:J26)</f>
@@ -11077,17 +11098,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4">
         <v>38.64</v>
@@ -11095,7 +11116,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <f>(24*2 + 7.5)*0.8+16+14</f>
@@ -11104,7 +11125,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="2">
         <f>B5*B4</f>
@@ -11129,7 +11150,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B10" s="2">
         <v>2.77</v>
@@ -11139,7 +11160,7 @@
         <v>2.2160000000000002</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -11476,16 +11497,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" t="s">
         <v>262</v>
-      </c>
-      <c r="B25" t="s">
-        <v>263</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -11763,24 +11784,24 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D22" s="2">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D23" s="2">
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -11821,84 +11842,84 @@
         <v>199</v>
       </c>
       <c r="E1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D2" s="2">
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="2">
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D4" s="2">
         <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D5" s="2">
         <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2">
         <v>1851</v>
       </c>
       <c r="E7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D8" s="2">
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -11911,10 +11932,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11994,7 +12015,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D5" s="29">
         <v>3795</v>
@@ -12004,43 +12025,43 @@
         <v>3359.4773556177188</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D6" s="29"/>
       <c r="F6" s="2">
         <v>119</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D7" s="29"/>
       <c r="F7" s="2">
         <v>379</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D8" s="29"/>
       <c r="F8" s="2">
         <v>425</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12119,57 +12140,57 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" t="s">
         <v>383</v>
-      </c>
-      <c r="B17" t="s">
-        <v>384</v>
       </c>
       <c r="F17" s="2">
         <v>12999</v>
       </c>
       <c r="G17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F20" s="2">
         <v>1001.67</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" s="2">
         <v>352.31</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F23" s="2">
         <v>2302.5700000000002</v>
       </c>
       <c r="G23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -12178,12 +12199,12 @@
         <v>69.400000000000006</v>
       </c>
       <c r="G25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -12192,12 +12213,12 @@
         <v>1433.25</v>
       </c>
       <c r="G26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -12206,12 +12227,12 @@
         <v>1866.02</v>
       </c>
       <c r="G27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -12220,12 +12241,12 @@
         <v>859.65</v>
       </c>
       <c r="G28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -12234,12 +12255,12 @@
         <v>699.07</v>
       </c>
       <c r="G29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -12248,32 +12269,44 @@
         <v>16.899999999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B32" t="s">
         <v>415</v>
-      </c>
-      <c r="B32" t="s">
-        <v>416</v>
       </c>
       <c r="F32" s="2">
         <v>3259</v>
       </c>
       <c r="G32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F34" s="2">
         <v>1075</v>
       </c>
       <c r="G34" t="s">
-        <v>419</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>528</v>
+      </c>
+      <c r="F36" s="2">
+        <f>1031.54</f>
+        <v>1031.54</v>
+      </c>
+      <c r="G36" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -12612,14 +12645,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2" s="2">
         <f>133720</f>
         <v>133720</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12628,7 +12661,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4">
         <v>208</v>
@@ -12650,30 +12683,30 @@
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12749,7 +12782,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/Cost_v1.5.xlsx
+++ b/CR - Cost Report/CBOM/Cost_v1.5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD54595-95B2-433A-AA61-5CAB29D7EF06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="Conventionnal machinning" sheetId="15" r:id="rId12"/>
     <sheet name="Material" sheetId="2" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="545">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -1641,20 +1640,56 @@
   </si>
   <si>
     <t>5% of manwork OPE on shopfloor</t>
+  </si>
+  <si>
+    <t>https://www.acier-detail-decoupe.fr/45-aluminium#/alliage-2017a</t>
+  </si>
+  <si>
+    <t>diam ext (mm)</t>
+  </si>
+  <si>
+    <t>diamètre int (mm)</t>
+  </si>
+  <si>
+    <t>Prix (/m) TTC</t>
+  </si>
+  <si>
+    <t>Prix volumique (€/mm^3) TTC</t>
+  </si>
+  <si>
+    <t>http://www.blockenstock.fr/tube-6060-t6-c102x2607947</t>
+  </si>
+  <si>
+    <t>Prix volumique (€/mm^3) (TTC)</t>
+  </si>
+  <si>
+    <t>Prix volumique (€/mm^3) HT</t>
+  </si>
+  <si>
+    <t>Moyenne 2017A</t>
+  </si>
+  <si>
+    <t>Plastic Delrin</t>
+  </si>
+  <si>
+    <t>Prix (€/m^2)</t>
+  </si>
+  <si>
+    <t>https://plastique-en-ligne.com/Plaques/POM-C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1969,7 +2004,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2030,9 +2065,9 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2217,62 +2252,17 @@
     <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2287,6 +2277,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2304,10 +2297,52 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2676,6 +2711,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2683,7 +2719,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3043,6 +3078,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3050,7 +3086,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3398,6 +3433,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3405,7 +3441,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5517,75 +5552,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
       <c r="D1" s="43"/>
-      <c r="F1" s="133" t="s">
+      <c r="F1" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
-      <c r="L1" s="132" t="s">
+      <c r="L1" s="134" t="s">
         <v>233</v>
       </c>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
       <c r="R1" s="31"/>
       <c r="S1" s="31"/>
-      <c r="U1" s="145" t="s">
+      <c r="U1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="Y1" s="136" t="s">
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="Y1" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="136"/>
-    </row>
-    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+    </row>
+    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>33</v>
       </c>
@@ -5654,7 +5689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
@@ -5683,10 +5718,10 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="137" t="s">
+      <c r="L3" s="122" t="s">
         <v>520</v>
       </c>
-      <c r="M3" s="137"/>
+      <c r="M3" s="122"/>
       <c r="N3" t="s">
         <v>232</v>
       </c>
@@ -5714,7 +5749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="48" t="s">
         <v>56</v>
@@ -5770,7 +5805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="48" t="s">
         <v>57</v>
@@ -5826,7 +5861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="48" t="s">
         <v>58</v>
@@ -5882,7 +5917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="48" t="s">
         <v>269</v>
@@ -5930,7 +5965,7 @@
       </c>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>59</v>
       </c>
@@ -5976,7 +6011,7 @@
       </c>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
       <c r="B9" t="s">
         <v>61</v>
@@ -6030,7 +6065,7 @@
       </c>
       <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" t="s">
         <v>62</v>
@@ -6069,7 +6104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" t="s">
         <v>272</v>
@@ -6095,10 +6130,10 @@
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="L11" s="130" t="s">
+      <c r="L11" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="130"/>
+      <c r="M11" s="133"/>
       <c r="N11" t="s">
         <v>351</v>
       </c>
@@ -6123,7 +6158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="46"/>
       <c r="B12" s="56" t="s">
         <v>270</v>
@@ -6176,7 +6211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>340</v>
       </c>
@@ -6224,7 +6259,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
       <c r="B14" t="s">
         <v>175</v>
@@ -6278,7 +6313,7 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
       <c r="B15" t="s">
         <v>505</v>
@@ -6323,7 +6358,7 @@
         <v>1.8666720000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="52" t="s">
         <v>341</v>
       </c>
@@ -6368,7 +6403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="52"/>
       <c r="B17" t="s">
         <v>204</v>
@@ -6420,7 +6455,7 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F18" s="7" t="s">
         <v>40</v>
       </c>
@@ -6445,7 +6480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F19" s="7"/>
       <c r="G19" t="s">
         <v>229</v>
@@ -6461,10 +6496,10 @@
         <f t="shared" si="0"/>
         <v>64.320000000000007</v>
       </c>
-      <c r="L19" s="138" t="s">
+      <c r="L19" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="138"/>
+      <c r="M19" s="123"/>
       <c r="N19" t="s">
         <v>21</v>
       </c>
@@ -6483,7 +6518,7 @@
         <v>18501.026875818847</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F20" s="7"/>
       <c r="G20" t="s">
         <v>230</v>
@@ -6526,7 +6561,7 @@
         <v>9250.5134379094234</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F21" s="7"/>
       <c r="G21" t="s">
         <v>205</v>
@@ -6563,7 +6598,7 @@
         <v>0.4698</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F22" s="7"/>
       <c r="G22" t="s">
         <v>206</v>
@@ -6599,7 +6634,7 @@
         <v>5.0728</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F23" s="7"/>
       <c r="G23" t="s">
         <v>42</v>
@@ -6628,7 +6663,7 @@
       <c r="R23" s="57"/>
       <c r="S23" s="57"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F24" s="7"/>
       <c r="G24" t="s">
         <v>409</v>
@@ -6658,7 +6693,7 @@
       <c r="R24" s="57"/>
       <c r="S24" s="84"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F25" s="4" t="s">
         <v>403</v>
       </c>
@@ -6689,7 +6724,7 @@
       <c r="R25" s="85"/>
       <c r="S25" s="85"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F26" s="4"/>
       <c r="G26" t="s">
         <v>343</v>
@@ -6712,7 +6747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F27" s="5" t="s">
         <v>45</v>
       </c>
@@ -6752,7 +6787,7 @@
         <v>530.86</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F28" s="5"/>
       <c r="G28" t="s">
         <v>412</v>
@@ -6790,7 +6825,7 @@
         <v>385.96</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F29" s="5"/>
       <c r="G29" t="s">
         <v>528</v>
@@ -6831,7 +6866,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F30" s="5"/>
       <c r="G30" t="s">
         <v>331</v>
@@ -6872,7 +6907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F31" s="5"/>
       <c r="G31" t="s">
         <v>386</v>
@@ -6908,7 +6943,7 @@
         <v>857.9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F32" s="5"/>
       <c r="G32" t="s">
         <v>387</v>
@@ -6946,7 +6981,7 @@
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F33" s="5"/>
       <c r="G33" t="s">
         <v>388</v>
@@ -6973,7 +7008,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F34" s="5"/>
       <c r="G34" t="s">
         <v>392</v>
@@ -6994,10 +7029,10 @@
       <c r="N34" t="s">
         <v>492</v>
       </c>
-      <c r="O34" s="134" t="s">
+      <c r="O34" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="P34" s="135" t="s">
+      <c r="P34" s="137" t="s">
         <v>491</v>
       </c>
       <c r="Q34" s="22">
@@ -7005,7 +7040,7 @@
         <v>8.5247116655159064E-2</v>
       </c>
     </row>
-    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F35" s="5"/>
       <c r="G35" t="s">
         <v>47</v>
@@ -7026,14 +7061,14 @@
       <c r="N35" t="s">
         <v>493</v>
       </c>
-      <c r="O35" s="134"/>
-      <c r="P35" s="135"/>
+      <c r="O35" s="136"/>
+      <c r="P35" s="137"/>
       <c r="Q35" s="22">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
       </c>
     </row>
-    <row r="36" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F36" s="5"/>
       <c r="G36" t="s">
         <v>404</v>
@@ -7065,7 +7100,7 @@
         <v>14.354066985645932</v>
       </c>
     </row>
-    <row r="37" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F37" s="5"/>
       <c r="G37" s="38" t="s">
         <v>384</v>
@@ -7081,10 +7116,10 @@
         <f>H37/I37</f>
         <v>1299.9000000000001</v>
       </c>
-      <c r="L37" s="130" t="s">
+      <c r="L37" s="133" t="s">
         <v>425</v>
       </c>
-      <c r="M37" s="130"/>
+      <c r="M37" s="133"/>
       <c r="N37" t="s">
         <v>497</v>
       </c>
@@ -7103,7 +7138,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F38" s="5"/>
       <c r="G38" s="38" t="s">
         <v>385</v>
@@ -7143,7 +7178,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F39" s="5"/>
       <c r="G39" s="38" t="s">
         <v>530</v>
@@ -7183,7 +7218,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F40" s="57"/>
       <c r="G40" s="38"/>
       <c r="J40" s="23"/>
@@ -7214,14 +7249,14 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="126" t="s">
+    <row r="41" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="128"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="143"/>
       <c r="L41" s="105" t="s">
         <v>523</v>
       </c>
@@ -7243,15 +7278,15 @@
         <v>0.37584000000000001</v>
       </c>
     </row>
-    <row r="42" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F42" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="G42" s="129" t="s">
+      <c r="G42" s="145" t="s">
         <v>516</v>
       </c>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
       <c r="J42" s="53">
         <f>SUM(J3:J39)*1.05</f>
         <v>127164.0277159814</v>
@@ -7275,27 +7310,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43" s="61"/>
-      <c r="G43" s="118" t="s">
+      <c r="G43" s="144" t="s">
         <v>303</v>
       </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
       <c r="J43" s="62">
         <f>J42/SUM('Manpower &amp; time'!B28:I28)</f>
         <v>13.458903563382842</v>
       </c>
     </row>
-    <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F44" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="G44" s="129" t="s">
+      <c r="G44" s="145" t="s">
         <v>346</v>
       </c>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
       <c r="J44" s="63">
         <f>'Manpower &amp; time'!H5</f>
         <v>12.68856351404828</v>
@@ -7310,65 +7345,65 @@
       <c r="Q44" s="82"/>
       <c r="R44" s="83"/>
     </row>
-    <row r="45" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F45" s="60"/>
-      <c r="G45" s="118" t="s">
+      <c r="G45" s="144" t="s">
         <v>357</v>
       </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
       <c r="J45" s="64">
         <f>'Manpower &amp; time'!H6</f>
         <v>23.630193905817173</v>
       </c>
-      <c r="L45" s="123" t="s">
+      <c r="L45" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="M45" s="124"/>
-      <c r="N45" s="122" t="s">
+      <c r="M45" s="140"/>
+      <c r="N45" s="126" t="s">
         <v>312</v>
       </c>
-      <c r="O45" s="122"/>
-      <c r="P45" s="122"/>
-      <c r="Q45" s="122"/>
+      <c r="O45" s="126"/>
+      <c r="P45" s="126"/>
+      <c r="Q45" s="126"/>
       <c r="R45" s="67">
         <f>SUM(S3:S6)+S9</f>
         <v>17591.025600000001</v>
       </c>
     </row>
-    <row r="46" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F46" s="60"/>
-      <c r="G46" s="118" t="s">
+      <c r="G46" s="144" t="s">
         <v>509</v>
       </c>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
       <c r="J46" s="64">
         <f>'Manpower &amp; time'!H7</f>
         <v>29.773842500989314</v>
       </c>
-      <c r="L46" s="143" t="s">
+      <c r="L46" s="129" t="s">
         <v>524</v>
       </c>
-      <c r="M46" s="144"/>
-      <c r="N46" s="119" t="s">
+      <c r="M46" s="130"/>
+      <c r="N46" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="O46" s="119"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="119"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
       <c r="R46" s="70">
         <f>R45/(M5*C8*C9)+J43</f>
         <v>27.236335894209908</v>
       </c>
     </row>
-    <row r="47" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F47" s="54"/>
-      <c r="G47" s="131" t="s">
+      <c r="G47" s="132" t="s">
         <v>347</v>
       </c>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
       <c r="J47" s="65">
         <f>'Manpower &amp; time'!H8</f>
         <v>41.458053027305105</v>
@@ -7379,400 +7414,400 @@
       <c r="M47" s="114">
         <v>2.5</v>
       </c>
-      <c r="N47" s="119" t="s">
+      <c r="N47" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="O47" s="119"/>
-      <c r="P47" s="119"/>
-      <c r="Q47" s="119"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="120"/>
       <c r="R47" s="70">
         <f>R46+Q8+Q7</f>
         <v>48.639471894209905</v>
       </c>
     </row>
-    <row r="48" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J48" s="49"/>
       <c r="L48" s="77"/>
       <c r="M48" s="78"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="119"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
       <c r="R48" s="90"/>
     </row>
-    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J49" s="49"/>
       <c r="L49" s="77"/>
       <c r="M49" s="78"/>
-      <c r="N49" s="119" t="s">
+      <c r="N49" s="120" t="s">
         <v>299</v>
       </c>
-      <c r="O49" s="119"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="119"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120"/>
       <c r="R49" s="91">
         <f>('Manpower &amp; time'!H5+R47)*M7/60</f>
         <v>1.0221339234709698E-4</v>
       </c>
     </row>
-    <row r="50" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J50" s="49"/>
       <c r="L50" s="77"/>
       <c r="M50" s="78"/>
-      <c r="N50" s="119" t="s">
+      <c r="N50" s="120" t="s">
         <v>515</v>
       </c>
-      <c r="O50" s="119"/>
-      <c r="P50" s="119"/>
-      <c r="Q50" s="119"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="120"/>
       <c r="R50" s="109">
         <f>('Manpower &amp; time'!H5)*M7/60/R49</f>
         <v>0.20689662451407484</v>
       </c>
     </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J51" s="49"/>
       <c r="L51" s="77"/>
       <c r="M51" s="78"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="120"/>
+      <c r="Q51" s="120"/>
       <c r="R51" s="91"/>
     </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J52" s="49"/>
       <c r="L52" s="77"/>
       <c r="M52" s="78"/>
-      <c r="N52" s="119" t="s">
+      <c r="N52" s="120" t="s">
         <v>302</v>
       </c>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="120"/>
+      <c r="Q52" s="120"/>
       <c r="R52" s="91">
         <f>('Manpower &amp; time'!H5+J43)*M8/60</f>
         <v>2.1789555897859274E-5</v>
       </c>
     </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L53" s="77"/>
       <c r="M53" s="78"/>
-      <c r="N53" s="119" t="s">
+      <c r="N53" s="120" t="s">
         <v>300</v>
       </c>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="120"/>
+      <c r="Q53" s="120"/>
       <c r="R53" s="91">
         <f>('Manpower &amp; time'!H6+J43)*M8/60</f>
         <v>3.0907581224333346E-5</v>
       </c>
     </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J54" s="27"/>
       <c r="L54" s="77"/>
       <c r="M54" s="78"/>
-      <c r="N54" s="119" t="s">
+      <c r="N54" s="120" t="s">
         <v>301</v>
       </c>
-      <c r="O54" s="119"/>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="119"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="120"/>
+      <c r="Q54" s="120"/>
       <c r="R54" s="91">
         <f>('Manpower &amp; time'!H8+J43)*M8/60</f>
         <v>4.5764130492239956E-5</v>
       </c>
     </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J55" s="26"/>
       <c r="L55" s="77"/>
       <c r="M55" s="78"/>
-      <c r="N55" s="119" t="s">
+      <c r="N55" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="119"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
       <c r="R55" s="91">
         <f>('Manpower &amp; time'!H5+J43)*M$9/60</f>
         <v>1.7431644718287417E-5</v>
       </c>
     </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J56" s="26"/>
       <c r="L56" s="77"/>
       <c r="M56" s="78"/>
-      <c r="N56" s="119" t="s">
+      <c r="N56" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="120"/>
+      <c r="Q56" s="120"/>
       <c r="R56" s="91">
         <f>('Manpower &amp; time'!H6+J43)*M$9/60</f>
         <v>2.4726064979466676E-5</v>
       </c>
     </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J57" s="26"/>
       <c r="L57" s="77"/>
       <c r="M57" s="78"/>
-      <c r="N57" s="119" t="s">
+      <c r="N57" s="120" t="s">
         <v>350</v>
       </c>
-      <c r="O57" s="119"/>
-      <c r="P57" s="119"/>
-      <c r="Q57" s="119"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="120"/>
+      <c r="Q57" s="120"/>
       <c r="R57" s="91">
         <f>('Manpower &amp; time'!H8+J43)*M$9/60</f>
         <v>3.6611304393791964E-5</v>
       </c>
     </row>
-    <row r="58" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J58" s="22"/>
       <c r="L58" s="79"/>
       <c r="M58" s="80"/>
-      <c r="N58" s="117" t="s">
+      <c r="N58" s="119" t="s">
         <v>311</v>
       </c>
-      <c r="O58" s="117"/>
-      <c r="P58" s="117"/>
-      <c r="Q58" s="117"/>
+      <c r="O58" s="119"/>
+      <c r="P58" s="119"/>
+      <c r="Q58" s="119"/>
       <c r="R58" s="92">
         <f>('Manpower &amp; time'!H5+R46)*(M10+M6)/60</f>
         <v>16.63537475344091</v>
       </c>
     </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L59" s="120" t="s">
+    <row r="59" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L59" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="121"/>
-      <c r="N59" s="122" t="s">
+      <c r="M59" s="147"/>
+      <c r="N59" s="126" t="s">
         <v>312</v>
       </c>
-      <c r="O59" s="122"/>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="122"/>
+      <c r="O59" s="126"/>
+      <c r="P59" s="126"/>
+      <c r="Q59" s="126"/>
       <c r="R59" s="67">
         <f>SUM(S11:S14)+S17</f>
         <v>23026.025600000001</v>
       </c>
     </row>
-    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L60" s="141" t="s">
+    <row r="60" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L60" s="127" t="s">
         <v>524</v>
       </c>
-      <c r="M60" s="142"/>
-      <c r="N60" s="119" t="s">
+      <c r="M60" s="128"/>
+      <c r="N60" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="119"/>
+      <c r="O60" s="120"/>
+      <c r="P60" s="120"/>
+      <c r="Q60" s="120"/>
       <c r="R60" s="70">
         <f>R59/(M13*C8*C9)+J43</f>
         <v>31.493071483182341</v>
       </c>
     </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L61" s="115" t="s">
         <v>527</v>
       </c>
       <c r="M61" s="116">
         <v>2.5</v>
       </c>
-      <c r="N61" s="119" t="s">
+      <c r="N61" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="O61" s="119"/>
-      <c r="P61" s="119"/>
-      <c r="Q61" s="119"/>
+      <c r="O61" s="120"/>
+      <c r="P61" s="120"/>
+      <c r="Q61" s="120"/>
       <c r="R61" s="70">
         <f>R60+Q16+Q15</f>
         <v>43.359743483182342</v>
       </c>
     </row>
-    <row r="62" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J62" s="26"/>
       <c r="L62" s="71"/>
       <c r="M62" s="72"/>
-      <c r="N62" s="119"/>
-      <c r="O62" s="119"/>
-      <c r="P62" s="119"/>
-      <c r="Q62" s="119"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="120"/>
+      <c r="Q62" s="120"/>
       <c r="R62" s="90"/>
     </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L63" s="71"/>
       <c r="M63" s="72"/>
-      <c r="N63" s="119" t="s">
+      <c r="N63" s="120" t="s">
         <v>299</v>
       </c>
-      <c r="O63" s="119"/>
-      <c r="P63" s="119"/>
-      <c r="Q63" s="119"/>
+      <c r="O63" s="120"/>
+      <c r="P63" s="120"/>
+      <c r="Q63" s="120"/>
       <c r="R63" s="91">
         <f>(J44+R61)*M15/60</f>
         <v>9.3413844995384382E-5</v>
       </c>
     </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F64" s="38"/>
       <c r="L64" s="71"/>
       <c r="M64" s="72"/>
-      <c r="N64" s="119" t="s">
+      <c r="N64" s="120" t="s">
         <v>515</v>
       </c>
-      <c r="O64" s="119"/>
-      <c r="P64" s="119"/>
-      <c r="Q64" s="119"/>
+      <c r="O64" s="120"/>
+      <c r="P64" s="120"/>
+      <c r="Q64" s="120"/>
       <c r="R64" s="109">
         <f>(J44)*M15/60/R63</f>
         <v>0.22638620493345551</v>
       </c>
     </row>
-    <row r="65" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L65" s="71"/>
       <c r="M65" s="72"/>
-      <c r="N65" s="119"/>
-      <c r="O65" s="119"/>
-      <c r="P65" s="119"/>
-      <c r="Q65" s="119"/>
+      <c r="N65" s="120"/>
+      <c r="O65" s="120"/>
+      <c r="P65" s="120"/>
+      <c r="Q65" s="120"/>
       <c r="R65" s="91"/>
     </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L66" s="71"/>
       <c r="M66" s="72"/>
-      <c r="N66" s="119" t="s">
+      <c r="N66" s="120" t="s">
         <v>302</v>
       </c>
-      <c r="O66" s="119"/>
-      <c r="P66" s="119"/>
-      <c r="Q66" s="119"/>
+      <c r="O66" s="120"/>
+      <c r="P66" s="120"/>
+      <c r="Q66" s="120"/>
       <c r="R66" s="91">
         <f>(J44+J43)*M$16/60</f>
         <v>2.1789555897859274E-5</v>
       </c>
     </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L67" s="71"/>
       <c r="M67" s="72"/>
-      <c r="N67" s="119" t="s">
+      <c r="N67" s="120" t="s">
         <v>300</v>
       </c>
-      <c r="O67" s="119"/>
-      <c r="P67" s="119"/>
-      <c r="Q67" s="119"/>
+      <c r="O67" s="120"/>
+      <c r="P67" s="120"/>
+      <c r="Q67" s="120"/>
       <c r="R67" s="91">
         <f>(J45+J43)*M$16/60</f>
         <v>3.0907581224333346E-5</v>
       </c>
     </row>
-    <row r="68" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L68" s="71"/>
       <c r="M68" s="72"/>
-      <c r="N68" s="119" t="s">
+      <c r="N68" s="120" t="s">
         <v>301</v>
       </c>
-      <c r="O68" s="119"/>
-      <c r="P68" s="119"/>
-      <c r="Q68" s="119"/>
+      <c r="O68" s="120"/>
+      <c r="P68" s="120"/>
+      <c r="Q68" s="120"/>
       <c r="R68" s="91">
         <f>(J47+J43)*M$16/60</f>
         <v>4.5764130492239956E-5</v>
       </c>
     </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L69" s="71"/>
       <c r="M69" s="72"/>
-      <c r="N69" s="119" t="s">
+      <c r="N69" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="O69" s="119"/>
-      <c r="P69" s="119"/>
-      <c r="Q69" s="119"/>
+      <c r="O69" s="120"/>
+      <c r="P69" s="120"/>
+      <c r="Q69" s="120"/>
       <c r="R69" s="91">
         <f>(J44+J43)*M$17/60</f>
         <v>1.7431644718287417E-5</v>
       </c>
     </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L70" s="71"/>
       <c r="M70" s="72"/>
-      <c r="N70" s="119" t="s">
+      <c r="N70" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="O70" s="119"/>
-      <c r="P70" s="119"/>
-      <c r="Q70" s="119"/>
+      <c r="O70" s="120"/>
+      <c r="P70" s="120"/>
+      <c r="Q70" s="120"/>
       <c r="R70" s="91">
         <f>(J45+J43)*M$17/60</f>
         <v>2.4726064979466676E-5</v>
       </c>
     </row>
-    <row r="71" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L71" s="71"/>
       <c r="M71" s="72"/>
-      <c r="N71" s="119" t="s">
+      <c r="N71" s="120" t="s">
         <v>350</v>
       </c>
-      <c r="O71" s="119"/>
-      <c r="P71" s="119"/>
-      <c r="Q71" s="119"/>
+      <c r="O71" s="120"/>
+      <c r="P71" s="120"/>
+      <c r="Q71" s="120"/>
       <c r="R71" s="91">
         <f>(J47+J43)*M$17/60</f>
         <v>3.6611304393791964E-5</v>
       </c>
     </row>
-    <row r="72" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="12:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L72" s="73"/>
       <c r="M72" s="74"/>
-      <c r="N72" s="117" t="s">
+      <c r="N72" s="119" t="s">
         <v>311</v>
       </c>
-      <c r="O72" s="117"/>
-      <c r="P72" s="117"/>
-      <c r="Q72" s="117"/>
+      <c r="O72" s="119"/>
+      <c r="P72" s="119"/>
+      <c r="Q72" s="119"/>
       <c r="R72" s="92">
         <f>(J44+R60)*(M14+M18)/60</f>
         <v>14.727211665743539</v>
       </c>
     </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L73" s="139" t="s">
+    <row r="73" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L73" s="124" t="s">
         <v>440</v>
       </c>
-      <c r="M73" s="140"/>
-      <c r="N73" s="122" t="s">
+      <c r="M73" s="125"/>
+      <c r="N73" s="126" t="s">
         <v>312</v>
       </c>
-      <c r="O73" s="122"/>
-      <c r="P73" s="122"/>
-      <c r="Q73" s="122"/>
+      <c r="O73" s="126"/>
+      <c r="P73" s="126"/>
+      <c r="Q73" s="126"/>
       <c r="R73" s="67">
         <f>S19+S20</f>
         <v>27751.54031372827</v>
       </c>
     </row>
-    <row r="74" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L74" s="146" t="s">
+    <row r="74" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L74" s="117" t="s">
         <v>525</v>
       </c>
-      <c r="M74" s="147"/>
-      <c r="N74" s="119" t="s">
+      <c r="M74" s="118"/>
+      <c r="N74" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="O74" s="119"/>
-      <c r="P74" s="119"/>
-      <c r="Q74" s="119"/>
+      <c r="O74" s="120"/>
+      <c r="P74" s="120"/>
+      <c r="Q74" s="120"/>
       <c r="R74" s="70">
         <f>R73/(M21*C8*C9)+J43</f>
         <v>35.194132505839193</v>
       </c>
     </row>
-    <row r="75" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L75" s="111" t="s">
         <v>526</v>
       </c>
@@ -7780,295 +7815,295 @@
         <f>'Laser cutter'!J14</f>
         <v>0.71739130434782605</v>
       </c>
-      <c r="N75" s="119" t="s">
+      <c r="N75" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="O75" s="119"/>
-      <c r="P75" s="119"/>
-      <c r="Q75" s="119"/>
+      <c r="O75" s="120"/>
+      <c r="P75" s="120"/>
+      <c r="Q75" s="120"/>
       <c r="R75" s="70">
         <f>R74+Q21+Q22</f>
         <v>40.736732505839193</v>
       </c>
     </row>
-    <row r="76" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L76" s="146"/>
-      <c r="M76" s="147"/>
-      <c r="N76" s="119"/>
-      <c r="O76" s="119"/>
-      <c r="P76" s="119"/>
-      <c r="Q76" s="119"/>
+    <row r="76" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L76" s="117"/>
+      <c r="M76" s="118"/>
+      <c r="N76" s="120"/>
+      <c r="O76" s="120"/>
+      <c r="P76" s="120"/>
+      <c r="Q76" s="120"/>
       <c r="R76" s="90"/>
     </row>
-    <row r="77" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L77" s="146"/>
-      <c r="M77" s="147"/>
-      <c r="N77" s="119" t="s">
+    <row r="77" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L77" s="117"/>
+      <c r="M77" s="118"/>
+      <c r="N77" s="120" t="s">
         <v>443</v>
       </c>
-      <c r="O77" s="119"/>
-      <c r="P77" s="119"/>
-      <c r="Q77" s="119"/>
+      <c r="O77" s="120"/>
+      <c r="P77" s="120"/>
+      <c r="Q77" s="120"/>
       <c r="R77" s="91">
         <f>(J44*0.5+R75)*M23/60</f>
         <v>3.6095444268195221E-4</v>
       </c>
     </row>
-    <row r="78" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L78" s="146"/>
-      <c r="M78" s="147"/>
-      <c r="N78" s="119" t="s">
+    <row r="78" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L78" s="117"/>
+      <c r="M78" s="118"/>
+      <c r="N78" s="120" t="s">
         <v>444</v>
       </c>
-      <c r="O78" s="119"/>
-      <c r="P78" s="119"/>
-      <c r="Q78" s="119"/>
+      <c r="O78" s="120"/>
+      <c r="P78" s="120"/>
+      <c r="Q78" s="120"/>
       <c r="R78" s="91">
         <f>(J44+J43)*M$24/60</f>
         <v>1.0023195713015264E-4</v>
       </c>
     </row>
-    <row r="79" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L79" s="146"/>
-      <c r="M79" s="147"/>
-      <c r="N79" s="119" t="s">
+    <row r="79" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L79" s="117"/>
+      <c r="M79" s="118"/>
+      <c r="N79" s="120" t="s">
         <v>445</v>
       </c>
-      <c r="O79" s="119"/>
-      <c r="P79" s="119"/>
-      <c r="Q79" s="119"/>
+      <c r="O79" s="120"/>
+      <c r="P79" s="120"/>
+      <c r="Q79" s="120"/>
       <c r="R79" s="91">
         <f>(J45+J43)*M$24/60</f>
         <v>1.4217487363193338E-4</v>
       </c>
     </row>
-    <row r="80" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L80" s="146"/>
-      <c r="M80" s="147"/>
-      <c r="N80" s="119"/>
-      <c r="O80" s="119"/>
-      <c r="P80" s="119"/>
-      <c r="Q80" s="119"/>
+    <row r="80" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L80" s="117"/>
+      <c r="M80" s="118"/>
+      <c r="N80" s="120"/>
+      <c r="O80" s="120"/>
+      <c r="P80" s="120"/>
+      <c r="Q80" s="120"/>
       <c r="R80" s="91"/>
     </row>
-    <row r="81" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L81" s="146"/>
-      <c r="M81" s="147"/>
-      <c r="N81" s="119" t="s">
+    <row r="81" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L81" s="117"/>
+      <c r="M81" s="118"/>
+      <c r="N81" s="120" t="s">
         <v>446</v>
       </c>
-      <c r="O81" s="119"/>
-      <c r="P81" s="119"/>
-      <c r="Q81" s="119"/>
+      <c r="O81" s="120"/>
+      <c r="P81" s="120"/>
+      <c r="Q81" s="120"/>
       <c r="R81" s="91">
         <f>(J44+J43)*M$25/60</f>
         <v>8.0185565704122129E-5</v>
       </c>
     </row>
-    <row r="82" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L82" s="146"/>
-      <c r="M82" s="147"/>
-      <c r="N82" s="119" t="s">
+    <row r="82" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L82" s="117"/>
+      <c r="M82" s="118"/>
+      <c r="N82" s="120" t="s">
         <v>447</v>
       </c>
-      <c r="O82" s="119"/>
-      <c r="P82" s="119"/>
-      <c r="Q82" s="119"/>
+      <c r="O82" s="120"/>
+      <c r="P82" s="120"/>
+      <c r="Q82" s="120"/>
       <c r="R82" s="91">
         <f>(J45+J43)*M$25/60</f>
         <v>1.1373989890554672E-4</v>
       </c>
     </row>
-    <row r="83" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L83" s="146"/>
-      <c r="M83" s="147"/>
-      <c r="N83" s="119"/>
-      <c r="O83" s="119"/>
-      <c r="P83" s="119"/>
-      <c r="Q83" s="119"/>
+    <row r="83" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L83" s="117"/>
+      <c r="M83" s="118"/>
+      <c r="N83" s="120"/>
+      <c r="O83" s="120"/>
+      <c r="P83" s="120"/>
+      <c r="Q83" s="120"/>
       <c r="R83" s="91"/>
     </row>
-    <row r="84" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L84" s="107"/>
       <c r="M84" s="108"/>
-      <c r="N84" s="117" t="s">
+      <c r="N84" s="119" t="s">
         <v>311</v>
       </c>
-      <c r="O84" s="117"/>
-      <c r="P84" s="117"/>
-      <c r="Q84" s="117"/>
+      <c r="O84" s="119"/>
+      <c r="P84" s="119"/>
+      <c r="Q84" s="119"/>
       <c r="R84" s="92">
         <f>(J44+R74)*(M26+M22)/60</f>
         <v>10.374584137642286</v>
       </c>
     </row>
-    <row r="85" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L85" s="123" t="s">
+    <row r="85" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L85" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="M85" s="124"/>
-      <c r="N85" s="122" t="s">
+      <c r="M85" s="140"/>
+      <c r="N85" s="126" t="s">
         <v>312</v>
       </c>
-      <c r="O85" s="122"/>
-      <c r="P85" s="122"/>
-      <c r="Q85" s="122"/>
+      <c r="O85" s="126"/>
+      <c r="P85" s="126"/>
+      <c r="Q85" s="126"/>
       <c r="R85" s="101">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
       </c>
     </row>
-    <row r="86" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L86" s="75"/>
       <c r="M86" s="76"/>
-      <c r="N86" s="119" t="s">
+      <c r="N86" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="O86" s="119"/>
-      <c r="P86" s="119"/>
-      <c r="Q86" s="119"/>
+      <c r="O86" s="120"/>
+      <c r="P86" s="120"/>
+      <c r="Q86" s="120"/>
       <c r="R86" s="62">
         <f>R85/(M29*C8*C9)+J43</f>
         <v>15.163920793959283</v>
       </c>
       <c r="S86" s="23"/>
     </row>
-    <row r="87" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L87" s="77"/>
       <c r="M87" s="78"/>
-      <c r="N87" s="119" t="s">
+      <c r="N87" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="O87" s="119"/>
-      <c r="P87" s="119"/>
-      <c r="Q87" s="119"/>
+      <c r="O87" s="120"/>
+      <c r="P87" s="120"/>
+      <c r="Q87" s="120"/>
       <c r="R87" s="62">
         <f>R86+Q33</f>
         <v>15.163920793959283</v>
       </c>
     </row>
-    <row r="88" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L88" s="77"/>
       <c r="M88" s="78"/>
-      <c r="N88" s="119"/>
-      <c r="O88" s="119"/>
-      <c r="P88" s="119"/>
-      <c r="Q88" s="119"/>
+      <c r="N88" s="120"/>
+      <c r="O88" s="120"/>
+      <c r="P88" s="120"/>
+      <c r="Q88" s="120"/>
       <c r="R88" s="99"/>
     </row>
-    <row r="89" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L89" s="77"/>
       <c r="M89" s="78"/>
-      <c r="N89" s="119" t="s">
+      <c r="N89" s="120" t="s">
         <v>495</v>
       </c>
-      <c r="O89" s="119"/>
-      <c r="P89" s="119"/>
-      <c r="Q89" s="119"/>
+      <c r="O89" s="120"/>
+      <c r="P89" s="120"/>
+      <c r="Q89" s="120"/>
       <c r="R89" s="102">
         <f>Q34+Q36+(R87+J46)*M30/60</f>
         <v>119.61677233589825</v>
       </c>
     </row>
-    <row r="90" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L90" s="77"/>
       <c r="M90" s="78"/>
-      <c r="N90" s="119" t="s">
+      <c r="N90" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="O90" s="119"/>
-      <c r="P90" s="119"/>
-      <c r="Q90" s="119"/>
+      <c r="O90" s="120"/>
+      <c r="P90" s="120"/>
+      <c r="Q90" s="120"/>
       <c r="R90" s="62">
         <f>Q35+Q36+(R87+J46)*M30/60</f>
         <v>119.58171027692859</v>
       </c>
     </row>
-    <row r="91" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L91" s="79"/>
       <c r="M91" s="80"/>
-      <c r="N91" s="117"/>
-      <c r="O91" s="117"/>
-      <c r="P91" s="117"/>
-      <c r="Q91" s="117"/>
+      <c r="N91" s="119"/>
+      <c r="O91" s="119"/>
+      <c r="P91" s="119"/>
+      <c r="Q91" s="119"/>
       <c r="R91" s="100"/>
     </row>
-    <row r="92" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L92" s="120" t="s">
+    <row r="92" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L92" s="146" t="s">
         <v>425</v>
       </c>
-      <c r="M92" s="121"/>
-      <c r="N92" s="122" t="s">
+      <c r="M92" s="147"/>
+      <c r="N92" s="126" t="s">
         <v>312</v>
       </c>
-      <c r="O92" s="122"/>
-      <c r="P92" s="122"/>
-      <c r="Q92" s="122"/>
+      <c r="O92" s="126"/>
+      <c r="P92" s="126"/>
+      <c r="Q92" s="126"/>
       <c r="R92" s="67">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
       </c>
     </row>
-    <row r="93" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L93" s="68"/>
       <c r="M93" s="69"/>
-      <c r="N93" s="119" t="s">
+      <c r="N93" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="O93" s="119"/>
-      <c r="P93" s="119"/>
-      <c r="Q93" s="119"/>
+      <c r="O93" s="120"/>
+      <c r="P93" s="120"/>
+      <c r="Q93" s="120"/>
       <c r="R93" s="70">
         <f>R92/(M39*C8*C9)+J43</f>
         <v>20.25857319199984</v>
       </c>
     </row>
-    <row r="94" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L94" s="71"/>
       <c r="M94" s="72"/>
-      <c r="N94" s="119" t="s">
+      <c r="N94" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="O94" s="119"/>
-      <c r="P94" s="119"/>
-      <c r="Q94" s="119"/>
+      <c r="O94" s="120"/>
+      <c r="P94" s="120"/>
+      <c r="Q94" s="120"/>
       <c r="R94" s="70">
         <f>R93+Q42+Q41</f>
         <v>30.63441319199984</v>
       </c>
     </row>
-    <row r="95" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L95" s="71"/>
       <c r="M95" s="72"/>
-      <c r="N95" s="119"/>
-      <c r="O95" s="119"/>
-      <c r="P95" s="119"/>
-      <c r="Q95" s="119"/>
+      <c r="N95" s="120"/>
+      <c r="O95" s="120"/>
+      <c r="P95" s="120"/>
+      <c r="Q95" s="120"/>
       <c r="R95" s="90"/>
     </row>
-    <row r="96" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L96" s="71"/>
       <c r="M96" s="72"/>
-      <c r="N96" s="119" t="s">
+      <c r="N96" s="120" t="s">
         <v>299</v>
       </c>
-      <c r="O96" s="119"/>
-      <c r="P96" s="119"/>
-      <c r="Q96" s="119"/>
+      <c r="O96" s="120"/>
+      <c r="P96" s="120"/>
+      <c r="Q96" s="120"/>
       <c r="R96" s="91">
         <f>(J44+R94)*M41/60</f>
         <v>2.166148835302406E-4</v>
       </c>
     </row>
-    <row r="97" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="12:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L97" s="73"/>
       <c r="M97" s="74"/>
-      <c r="N97" s="117" t="s">
+      <c r="N97" s="119" t="s">
         <v>311</v>
       </c>
-      <c r="O97" s="117"/>
-      <c r="P97" s="117"/>
-      <c r="Q97" s="117"/>
+      <c r="O97" s="119"/>
+      <c r="P97" s="119"/>
+      <c r="Q97" s="119"/>
       <c r="R97" s="92">
         <f>(J44+R93)*(M40+M42)/60</f>
         <v>8.23678417651203</v>
@@ -8076,26 +8111,57 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="N95:Q95"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="N89:Q89"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L19:M19"/>
@@ -8112,57 +8178,26 @@
     <mergeCell ref="N55:Q55"/>
     <mergeCell ref="N56:Q56"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="N89:Q89"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="N86:Q86"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="N93:Q93"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N87:Q87"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8170,7 +8205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -8180,22 +8215,22 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -8215,7 +8250,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -8248,7 +8283,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>434</v>
       </c>
@@ -8286,7 +8321,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O6" t="s">
         <v>435</v>
       </c>
@@ -8297,7 +8332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R7">
         <f>R6*S6/S7</f>
         <v>341.93548387096774</v>
@@ -8306,13 +8341,13 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R8">
         <f>R7/R5/3600</f>
         <v>4.4697448872021921</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>371</v>
       </c>
@@ -8326,7 +8361,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>360</v>
       </c>
@@ -8348,7 +8383,7 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>362</v>
       </c>
@@ -8367,7 +8402,7 @@
         <v>1.7117425539198904E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>363</v>
       </c>
@@ -8392,7 +8427,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>364</v>
       </c>
@@ -8417,7 +8452,7 @@
         <v>3.3E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>365</v>
       </c>
@@ -8443,7 +8478,7 @@
         <v>0.71739130434782605</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>366</v>
       </c>
@@ -8462,7 +8497,7 @@
         <v>6.672894701721607E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>367</v>
       </c>
@@ -8481,7 +8516,7 @@
         <v>7.874015748031496E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>368</v>
       </c>
@@ -8500,7 +8535,7 @@
         <v>1.3123359580052493E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>369</v>
       </c>
@@ -8519,7 +8554,7 @@
         <v>1.7117425539198907E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>374</v>
       </c>
@@ -8541,7 +8576,7 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>362</v>
       </c>
@@ -8560,7 +8595,7 @@
         <v>1.8226888305628464E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>363</v>
       </c>
@@ -8579,7 +8614,7 @@
         <v>5.3202809108320926E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>364</v>
       </c>
@@ -8598,7 +8633,7 @@
         <v>8.3766124979058477E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>365</v>
       </c>
@@ -8617,7 +8652,7 @@
         <v>1.6404199475065619E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>376</v>
       </c>
@@ -8639,7 +8674,7 @@
         <v>1.3123359580052493E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>362</v>
       </c>
@@ -8658,7 +8693,7 @@
         <v>3.2808398950131233E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>363</v>
       </c>
@@ -8679,9 +8714,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -8689,7 +8724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -8699,13 +8734,13 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -8728,7 +8763,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -8739,7 +8774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>264</v>
       </c>
@@ -8750,7 +8785,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -8761,7 +8796,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -8772,7 +8807,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -8783,7 +8818,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -8794,10 +8829,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -8806,7 +8841,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="93" t="s">
         <v>451</v>
       </c>
@@ -8815,7 +8850,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="94" t="s">
         <v>452</v>
       </c>
@@ -8826,7 +8861,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="94" t="s">
         <v>454</v>
       </c>
@@ -8837,7 +8872,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="94" t="s">
         <v>455</v>
       </c>
@@ -8847,7 +8882,7 @@
       </c>
       <c r="C15" s="94"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="94" t="s">
         <v>456</v>
       </c>
@@ -8856,7 +8891,7 @@
       </c>
       <c r="C16" s="94"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="94" t="s">
         <v>457</v>
       </c>
@@ -8867,7 +8902,7 @@
       <c r="C17" s="94"/>
       <c r="D17" s="22"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="93" t="s">
         <v>458</v>
       </c>
@@ -8876,7 +8911,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="94" t="s">
         <v>459</v>
       </c>
@@ -8887,7 +8922,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="94" t="s">
         <v>460</v>
       </c>
@@ -8898,7 +8933,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="94" t="s">
         <v>461</v>
       </c>
@@ -8908,7 +8943,7 @@
       </c>
       <c r="C22" s="94"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="94" t="s">
         <v>462</v>
       </c>
@@ -8918,7 +8953,7 @@
       </c>
       <c r="C23" s="94"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="93" t="s">
         <v>463</v>
       </c>
@@ -8927,7 +8962,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="94" t="s">
         <v>459</v>
       </c>
@@ -8938,7 +8973,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="94" t="s">
         <v>465</v>
       </c>
@@ -8949,7 +8984,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="94" t="s">
         <v>461</v>
       </c>
@@ -8959,7 +8994,7 @@
       </c>
       <c r="C28" s="94"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="94" t="s">
         <v>462</v>
       </c>
@@ -8969,10 +9004,10 @@
       </c>
       <c r="C29" s="94"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="93"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="94" t="s">
         <v>487</v>
       </c>
@@ -8981,7 +9016,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="94" t="s">
         <v>488</v>
       </c>
@@ -8993,7 +9028,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="94" t="s">
         <v>489</v>
       </c>
@@ -9003,7 +9038,7 @@
       </c>
       <c r="C33" s="94"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="94" t="s">
         <v>490</v>
       </c>
@@ -9015,18 +9050,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="G9" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{A7CB420C-120D-4873-B0E6-A54279E786F8}"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="C26" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905929B2-E7E3-4D8E-80FB-E87BA576AB08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9036,13 +9071,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -9053,7 +9088,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>500</v>
       </c>
@@ -9064,7 +9099,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>501</v>
       </c>
@@ -9077,37 +9112,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{70D459D2-CA46-460D-8BCB-C766AE981AF1}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:W60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
@@ -9115,7 +9150,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9129,7 +9164,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9191,7 +9226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -9254,7 +9289,7 @@
         <v>4.7646666666666666E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -9317,7 +9352,7 @@
         <v>4.7479999999999999E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -9380,7 +9415,7 @@
         <v>4.7380000000000004E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -9434,7 +9469,7 @@
         <v>4.7502222222222225E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>32</v>
       </c>
@@ -9481,7 +9516,7 @@
         <v>3.6720000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>32</v>
       </c>
@@ -9528,7 +9563,7 @@
         <v>3.2127777777777776E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>32</v>
       </c>
@@ -9575,7 +9610,7 @@
         <v>3.348687883863763E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>32</v>
       </c>
@@ -9613,7 +9648,7 @@
         <v>3.478250451663077E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>40</v>
       </c>
@@ -9638,7 +9673,7 @@
         <v>1.4970377000558874E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50</v>
       </c>
@@ -9657,7 +9692,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50</v>
       </c>
@@ -9675,7 +9710,7 @@
         <v>3.5986666666666665E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50</v>
       </c>
@@ -9698,8 +9733,17 @@
       <c r="N15" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" t="s">
+        <v>304</v>
+      </c>
+      <c r="U15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>8</v>
       </c>
@@ -9719,8 +9763,20 @@
       <c r="Q16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>534</v>
+      </c>
+      <c r="T16" t="s">
+        <v>535</v>
+      </c>
+      <c r="U16" t="s">
+        <v>536</v>
+      </c>
+      <c r="V16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N17">
         <v>5</v>
       </c>
@@ -9734,8 +9790,21 @@
         <f>P17/(PI()*(N17/2)^2*O17)</f>
         <v>1.6399325336188895E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>40</v>
+      </c>
+      <c r="T17">
+        <v>30</v>
+      </c>
+      <c r="U17" s="2">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="V17" s="1">
+        <f>U17/(PI()*((S17/2)*(S17/2)-(T17/2)*(T17/2))*1000)</f>
+        <v>7.0974010050808657E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N18">
         <v>10</v>
       </c>
@@ -9749,8 +9818,21 @@
         <f>P18/(PI()*(N18/2)^2*O18)</f>
         <v>1.1459155902616463E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>50</v>
+      </c>
+      <c r="T18">
+        <v>30</v>
+      </c>
+      <c r="U18" s="2">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="V18" s="1">
+        <f>U18/(PI()*((S18/2)*(S18/2)-(T18/2)*(T18/2))*1000)</f>
+        <v>5.7486765444792583E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>306</v>
       </c>
@@ -9770,8 +9852,21 @@
         <f t="shared" ref="Q19:Q21" si="5">P19/(PI()*(N19/2)^2*O19)</f>
         <v>5.432488724203361E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>50</v>
+      </c>
+      <c r="T19">
+        <v>40</v>
+      </c>
+      <c r="U19" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="V19" s="1">
+        <f>U19/(PI()*((S19/2)*(S19/2)-(T19/2)*(T19/2))*1000)</f>
+        <v>5.333458981835071E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>305</v>
       </c>
@@ -9797,8 +9892,21 @@
         <f t="shared" si="5"/>
         <v>4.9986441385898987E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>60</v>
+      </c>
+      <c r="T20">
+        <v>50</v>
+      </c>
+      <c r="U20" s="2">
+        <v>41.96</v>
+      </c>
+      <c r="V20" s="1">
+        <f>U20/(PI()*((S20/2)*(S20/2)-(T20/2)*(T20/2))*1000)</f>
+        <v>4.8568301179170389E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>10</v>
       </c>
@@ -9825,8 +9933,21 @@
         <f t="shared" si="5"/>
         <v>4.4195091635435405E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>100</v>
+      </c>
+      <c r="T21">
+        <v>60</v>
+      </c>
+      <c r="U21" s="2">
+        <v>330</v>
+      </c>
+      <c r="V21" s="1">
+        <f>U21/(PI()*((S21/2)*(S21/2)-(T21/2)*(T21/2))*1000)</f>
+        <v>6.5651414025406826E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
@@ -9847,8 +9968,15 @@
         <f>AVERAGE(Q17:Q21)</f>
         <v>8.541824653028432E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="1">
+        <f>AVERAGE(V17:V21)</f>
+        <v>5.9203016103705834E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -9863,8 +9991,14 @@
         <v>5.5077256063922563E-5</v>
       </c>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>6060</v>
+      </c>
+      <c r="T23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>25</v>
       </c>
@@ -9878,8 +10012,22 @@
         <f t="shared" si="6"/>
         <v>5.3414945380729545E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <v>11</v>
+      </c>
+      <c r="U24" s="2">
+        <f>1.93*2</f>
+        <v>3.86</v>
+      </c>
+      <c r="V24" s="1">
+        <f>U24/(PI()*((S24/2)*(S24/2)-(T24/2)*(T24/2))*1000)</f>
+        <v>2.1368281055120556E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>25</v>
       </c>
@@ -9893,8 +10041,22 @@
         <f t="shared" si="6"/>
         <v>5.5538966161457841E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>50</v>
+      </c>
+      <c r="T25">
+        <v>46</v>
+      </c>
+      <c r="U25" s="2">
+        <f>11.26*2</f>
+        <v>22.52</v>
+      </c>
+      <c r="V25" s="1">
+        <f>U25/(PI()*((S25/2)*(S25/2)-(T25/2)*(T25/2))*1000)</f>
+        <v>7.4670194133947567E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>30</v>
       </c>
@@ -9908,8 +10070,10 @@
         <f t="shared" si="6"/>
         <v>4.5440504640992695E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U26" s="2"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>35</v>
       </c>
@@ -9923,8 +10087,10 @@
         <f t="shared" si="6"/>
         <v>3.338486055256606E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U27" s="2"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>8</v>
       </c>
@@ -9932,8 +10098,13 @@
         <f>AVERAGE(E21:E27)</f>
         <v>6.0986186998733781E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U28" s="2"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>337</v>
       </c>
@@ -9944,7 +10115,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>335</v>
       </c>
@@ -9964,7 +10135,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>305</v>
       </c>
@@ -9999,10 +10170,10 @@
         <v>88</v>
       </c>
       <c r="R32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10</v>
       </c>
@@ -10043,7 +10214,7 @@
         <v>2.9294456712851987E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>16</v>
       </c>
@@ -10084,7 +10255,7 @@
         <v>2.938000249476388E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>20</v>
       </c>
@@ -10125,7 +10296,7 @@
         <v>2.9416926441561197E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>40</v>
       </c>
@@ -10166,7 +10337,7 @@
         <v>2.7748664328071946E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>50</v>
       </c>
@@ -10201,7 +10372,7 @@
         <v>2.9404759930355956E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>60</v>
       </c>
@@ -10231,7 +10402,7 @@
         <v>2.7762590385592491E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>80</v>
       </c>
@@ -10255,7 +10426,7 @@
         <v>2.8834566715532905E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>8</v>
       </c>
@@ -10265,12 +10436,12 @@
       </c>
       <c r="K40" s="42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>469</v>
       </c>
@@ -10278,7 +10449,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -10295,7 +10466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.5</v>
       </c>
@@ -10313,7 +10484,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>471</v>
       </c>
@@ -10321,7 +10492,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>473</v>
       </c>
@@ -10332,7 +10503,7 @@
         <v>474</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>540</v>
       </c>
       <c r="G49" t="s">
         <v>473</v>
@@ -10347,7 +10518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>477</v>
       </c>
@@ -10377,7 +10548,7 @@
         <v>8.5470000000000013E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>479</v>
       </c>
@@ -10407,7 +10578,7 @@
         <v>1.9425000000000001E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>481</v>
       </c>
@@ -10437,7 +10608,7 @@
         <v>1.9425000000000001E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>483</v>
       </c>
@@ -10467,7 +10638,7 @@
         <v>4.8600000000000002E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>483</v>
       </c>
@@ -10483,7 +10654,7 @@
         <v>9.7142857142857135E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>485</v>
       </c>
@@ -10498,8 +10669,9 @@
         <f t="shared" si="10"/>
         <v>8.8888888888888893E-5</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>485</v>
       </c>
@@ -10515,7 +10687,7 @@
         <v>2.5062656641604011E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>485</v>
       </c>
@@ -10531,7 +10703,7 @@
         <v>2.2211538461538464E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>486</v>
       </c>
@@ -10547,7 +10719,7 @@
         <v>2.0480672862977284E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>486</v>
       </c>
@@ -10563,7 +10735,7 @@
         <v>2.380198551973887E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>486</v>
       </c>
@@ -10579,21 +10751,161 @@
         <v>2.0690142601946392E-5</v>
       </c>
     </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+      <c r="C61" t="s">
+        <v>541</v>
+      </c>
+      <c r="D61" s="1">
+        <f>AVERAGE(D51,D50)</f>
+        <v>1.7494170995654369E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1">
+        <f>AVERAGE(D56:D60)</f>
+        <v>2.2449399217561005E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>543</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>1000</v>
+      </c>
+      <c r="C66">
+        <v>2000</v>
+      </c>
+      <c r="D66">
+        <v>1284</v>
+      </c>
+      <c r="E66" s="2">
+        <f>D66*C66*B66/1000000</f>
+        <v>2568</v>
+      </c>
+      <c r="F66" s="1">
+        <f>E66/(A66*B66*C66)</f>
+        <v>1.605E-5</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>50</v>
+      </c>
+      <c r="B67">
+        <v>1000</v>
+      </c>
+      <c r="C67">
+        <v>2000</v>
+      </c>
+      <c r="D67">
+        <v>990</v>
+      </c>
+      <c r="E67" s="2">
+        <f>D67*C67*B67/1000000</f>
+        <v>1980</v>
+      </c>
+      <c r="F67" s="1">
+        <f>E67/(A67*B67*C67)</f>
+        <v>1.98E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="B68">
+        <v>1000</v>
+      </c>
+      <c r="C68">
+        <v>2000</v>
+      </c>
+      <c r="D68">
+        <v>594</v>
+      </c>
+      <c r="E68" s="2">
+        <f>D68*C68*B68/1000000</f>
+        <v>1188</v>
+      </c>
+      <c r="F68" s="1">
+        <f>E68/(A68*B68*C68)</f>
+        <v>1.98E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>40</v>
+      </c>
+      <c r="B69">
+        <v>1000</v>
+      </c>
+      <c r="C69">
+        <v>2000</v>
+      </c>
+      <c r="D69">
+        <v>792</v>
+      </c>
+      <c r="E69" s="2">
+        <f>D69*C69*B69/1000000</f>
+        <v>1584</v>
+      </c>
+      <c r="F69" s="1">
+        <f>E69/(A69*B69*C69)</f>
+        <v>1.98E-5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="S1" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="G30" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="A43" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="S1" r:id="rId2"/>
+    <hyperlink ref="G30" r:id="rId3"/>
+    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4"/>
+    <hyperlink ref="A43" r:id="rId5"/>
+    <hyperlink ref="G66" r:id="rId6"/>
+    <hyperlink ref="A30" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
@@ -10603,25 +10915,25 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>159</v>
       </c>
@@ -10629,7 +10941,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -10637,7 +10949,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>162</v>
       </c>
@@ -10657,7 +10969,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -10683,7 +10995,7 @@
         <v>12.68856351404828</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>253</v>
       </c>
@@ -10709,7 +11021,7 @@
         <v>23.630193905817173</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -10735,7 +11047,7 @@
         <v>29.773842500989314</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -10761,7 +11073,7 @@
         <v>41.458053027305105</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>273</v>
       </c>
@@ -10774,7 +11086,7 @@
         <v>10868.89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -10782,7 +11094,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -10790,7 +11102,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -10798,7 +11110,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -10806,7 +11118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>169</v>
       </c>
@@ -10814,7 +11126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -10823,7 +11135,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -10832,7 +11144,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>274</v>
       </c>
@@ -10864,7 +11176,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -10897,7 +11209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -10912,7 +11224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>507</v>
       </c>
@@ -10930,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>254</v>
       </c>
@@ -10948,7 +11260,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>280</v>
       </c>
@@ -10993,7 +11305,7 @@
         <v>10006.92</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>281</v>
       </c>
@@ -11038,7 +11350,7 @@
         <v>9927.1200000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>510</v>
       </c>
@@ -11047,7 +11359,7 @@
         <v>1516.2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>286</v>
       </c>
@@ -11056,24 +11368,24 @@
         <v>13108.788</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11083,12 +11395,12 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -11096,17 +11408,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -11114,7 +11426,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -11123,7 +11435,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -11132,7 +11444,7 @@
         <v>2874.8160000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -11140,7 +11452,7 @@
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>200</v>
       </c>
@@ -11148,7 +11460,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -11165,15 +11477,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -11183,13 +11495,13 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -11209,7 +11521,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -11227,7 +11539,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -11245,7 +11557,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -11263,10 +11575,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -11281,7 +11593,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -11296,7 +11608,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -11311,10 +11623,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -11329,7 +11641,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -11341,7 +11653,7 @@
         <v>326.40000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -11356,10 +11668,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -11377,7 +11689,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>148</v>
       </c>
@@ -11392,7 +11704,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>150</v>
       </c>
@@ -11407,7 +11719,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>152</v>
       </c>
@@ -11422,7 +11734,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -11440,7 +11752,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
         <v>218</v>
       </c>
@@ -11455,11 +11767,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="24"/>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -11481,7 +11793,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>258</v>
       </c>
@@ -11495,7 +11807,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>261</v>
       </c>
@@ -11511,16 +11823,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11530,15 +11842,15 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>201</v>
       </c>
@@ -11549,7 +11861,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -11567,7 +11879,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -11582,11 +11894,11 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -11601,7 +11913,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -11616,7 +11928,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -11631,7 +11943,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>207</v>
       </c>
@@ -11643,7 +11955,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -11655,11 +11967,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -11674,7 +11986,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -11689,7 +12001,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -11704,11 +12016,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -11723,7 +12035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -11738,7 +12050,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -11753,7 +12065,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -11768,7 +12080,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>212</v>
       </c>
@@ -11782,7 +12094,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>308</v>
       </c>
@@ -11793,7 +12105,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>310</v>
       </c>
@@ -11804,7 +12116,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>5600*0.4</f>
         <v>2240</v>
@@ -11816,7 +12128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -11826,9 +12138,9 @@
       <selection activeCell="A11" sqref="A11:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -11845,7 +12157,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>317</v>
       </c>
@@ -11856,7 +12168,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>318</v>
       </c>
@@ -11867,7 +12179,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>319</v>
       </c>
@@ -11878,7 +12190,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>320</v>
       </c>
@@ -11889,7 +12201,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -11900,7 +12212,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>323</v>
       </c>
@@ -11911,7 +12223,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>325</v>
       </c>
@@ -11928,7 +12240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -11938,14 +12250,14 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -11968,7 +12280,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -11983,7 +12295,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11998,7 +12310,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -12013,7 +12325,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>390</v>
       </c>
@@ -12028,7 +12340,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -12040,7 +12352,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>418</v>
       </c>
@@ -12052,7 +12364,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>423</v>
       </c>
@@ -12064,10 +12376,10 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -12082,7 +12394,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -12101,7 +12413,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -12115,7 +12427,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>110</v>
       </c>
@@ -12126,7 +12438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
         <v>113</v>
       </c>
@@ -12138,7 +12450,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>382</v>
       </c>
@@ -12152,7 +12464,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>330</v>
       </c>
@@ -12163,7 +12475,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>328</v>
       </c>
@@ -12174,7 +12486,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>392</v>
       </c>
@@ -12188,7 +12500,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>394</v>
       </c>
@@ -12202,7 +12514,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>396</v>
       </c>
@@ -12216,7 +12528,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -12230,7 +12542,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>400</v>
       </c>
@@ -12244,7 +12556,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>402</v>
       </c>
@@ -12258,7 +12570,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>405</v>
       </c>
@@ -12272,7 +12584,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>414</v>
       </c>
@@ -12286,7 +12598,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -12297,7 +12609,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>528</v>
       </c>
@@ -12311,23 +12623,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="G11" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="G3" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="G20" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="G21" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G13" r:id="rId5"/>
+    <hyperlink ref="G14" r:id="rId6"/>
+    <hyperlink ref="G15" r:id="rId7"/>
+    <hyperlink ref="G3" r:id="rId8"/>
+    <hyperlink ref="G20" r:id="rId9"/>
+    <hyperlink ref="G21" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -12337,18 +12649,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -12360,12 +12672,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -12376,7 +12688,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>68</v>
       </c>
@@ -12384,7 +12696,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -12392,22 +12704,22 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -12418,7 +12730,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>68</v>
       </c>
@@ -12426,7 +12738,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -12434,7 +12746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -12442,7 +12754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -12450,7 +12762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -12458,7 +12770,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -12466,7 +12778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -12474,7 +12786,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -12485,7 +12797,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>217</v>
       </c>
@@ -12496,7 +12808,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -12511,7 +12823,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -12525,7 +12837,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -12539,7 +12851,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -12547,7 +12859,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>87</v>
       </c>
@@ -12561,7 +12873,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -12583,7 +12895,7 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -12598,7 +12910,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>200</v>
       </c>
@@ -12612,17 +12924,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D24" r:id="rId3"/>
+    <hyperlink ref="D23" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -12632,18 +12944,18 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>379</v>
       </c>
@@ -12655,11 +12967,11 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>356</v>
       </c>
@@ -12667,7 +12979,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>199</v>
       </c>
@@ -12675,7 +12987,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -12686,7 +12998,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>352</v>
       </c>
@@ -12698,7 +13010,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -12709,7 +13021,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -12717,7 +13029,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -12731,7 +13043,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -12753,7 +13065,7 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -12768,7 +13080,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>200</v>
       </c>
@@ -12780,14 +13092,14 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>380</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/CR - Cost Report/CBOM/Cost_v1.5.xlsx
+++ b/CR - Cost Report/CBOM/Cost_v1.5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4E9948-CE14-4A01-8668-9423073404A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="Conventionnal machinning" sheetId="15" r:id="rId12"/>
     <sheet name="Material" sheetId="2" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="544">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -767,9 +766,6 @@
     <t xml:space="preserve">Way of costing </t>
   </si>
   <si>
-    <t>Electricity/time</t>
-  </si>
-  <si>
     <t>5 % of initial cost /year</t>
   </si>
   <si>
@@ -1674,20 +1670,23 @@
   </si>
   <si>
     <t>Cost per year</t>
+  </si>
+  <si>
+    <t>cost/hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1856,7 +1855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2206,15 +2205,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2242,9 +2293,9 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2310,55 +2361,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2378,7 +2381,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2410,12 +2413,6 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2430,9 +2427,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2447,56 +2441,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2556,30 +2508,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2596,9 +2524,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2655,13 +2580,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2685,6 +2604,93 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2694,12 +2700,54 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2709,6 +2757,19 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -3075,6 +3136,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3082,7 +3144,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3442,6 +3503,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3449,7 +3511,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3797,6 +3858,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3804,7 +3866,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5916,122 +5977,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="K64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74"/>
-      <c r="F1" s="133" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="58"/>
+      <c r="F1" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="211"/>
-      <c r="L1" s="167" t="s">
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="198"/>
+      <c r="L1" s="199" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="212"/>
-      <c r="U1" s="68" t="s">
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="201"/>
+      <c r="U1" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="Y1" s="61" t="s">
+      <c r="V1" s="179"/>
+      <c r="W1" s="179"/>
+      <c r="Y1" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-    </row>
-    <row r="2" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+    </row>
+    <row r="2" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="79" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="135" t="s">
+      <c r="D2" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="137" t="s">
-        <v>405</v>
-      </c>
-      <c r="J2" s="138" t="s">
+      <c r="I2" s="104" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="L2" s="169" t="s">
+      <c r="L2" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170" t="s">
+      <c r="M2" s="129"/>
+      <c r="N2" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="170" t="s">
+      <c r="O2" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="P2" s="170" t="s">
+      <c r="P2" s="129" t="s">
         <v>240</v>
       </c>
-      <c r="Q2" s="170" t="s">
+      <c r="Q2" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="171" t="s">
-        <v>405</v>
-      </c>
-      <c r="S2" s="172" t="s">
+      <c r="R2" s="130" t="s">
+        <v>404</v>
+      </c>
+      <c r="S2" s="131" t="s">
         <v>230</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -6053,56 +6114,56 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="69">
         <f>'Manpower &amp; time'!C5</f>
         <v>21376</v>
       </c>
-      <c r="D3" s="213" t="s">
-        <v>543</v>
-      </c>
-      <c r="F3" s="149" t="s">
+      <c r="D3" s="212" t="s">
+        <v>542</v>
+      </c>
+      <c r="F3" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="143" t="s">
+      <c r="G3" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="139">
+      <c r="H3" s="106">
         <f>SUM(Metrology!E14:E17)</f>
         <v>2320</v>
       </c>
-      <c r="I3" s="101">
+      <c r="I3" s="85">
         <v>10</v>
       </c>
-      <c r="J3" s="122">
+      <c r="J3" s="97">
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="57" t="s">
-        <v>510</v>
-      </c>
-      <c r="M3" s="175"/>
-      <c r="N3" s="143" t="s">
+      <c r="L3" s="169" t="s">
+        <v>509</v>
+      </c>
+      <c r="M3" s="170"/>
+      <c r="N3" s="110" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="85">
+      <c r="P3" s="68"/>
+      <c r="Q3" s="69">
         <f>'CNC mill'!B22</f>
         <v>108020</v>
       </c>
-      <c r="R3" s="84">
+      <c r="R3" s="68">
         <v>10</v>
       </c>
-      <c r="S3" s="86">
+      <c r="S3" s="70">
         <f>Q3/R3</f>
         <v>10802</v>
       </c>
@@ -6116,8 +6177,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="60"/>
       <c r="B4" s="36" t="s">
         <v>55</v>
       </c>
@@ -6125,29 +6186,29 @@
         <f>'Manpower &amp; time'!C6</f>
         <v>39809</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="144" t="s">
+      <c r="D4" s="213"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="112">
+      <c r="H4" s="93">
         <f>SUM(Metrology!E18:E19)</f>
         <v>1838.4</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="66">
         <v>10</v>
       </c>
-      <c r="J4" s="140">
+      <c r="J4" s="107">
         <f t="shared" ref="J4:J35" si="0">H4/I4</f>
         <v>183.84</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="M4" s="176">
+        <v>286</v>
+      </c>
+      <c r="M4" s="134">
         <v>22.4</v>
       </c>
-      <c r="N4" s="144" t="s">
+      <c r="N4" s="111" t="s">
         <v>233</v>
       </c>
       <c r="O4" s="36" t="s">
@@ -6161,7 +6222,7 @@
       <c r="R4" s="36">
         <v>5</v>
       </c>
-      <c r="S4" s="87">
+      <c r="S4" s="71">
         <f t="shared" ref="S4:S6" si="1">Q4/R4</f>
         <v>800</v>
       </c>
@@ -6173,8 +6234,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="60"/>
       <c r="B5" s="36" t="s">
         <v>56</v>
       </c>
@@ -6182,30 +6243,30 @@
         <f>'Manpower &amp; time'!C8</f>
         <v>69843</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="144" t="s">
+      <c r="D5" s="213"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="112">
+      <c r="H5" s="93">
         <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
         <v>1272</v>
       </c>
-      <c r="I5" s="82">
+      <c r="I5" s="66">
         <v>10</v>
       </c>
-      <c r="J5" s="140">
+      <c r="J5" s="107">
         <f t="shared" si="0"/>
         <v>127.2</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="M5" s="177">
+        <v>248</v>
+      </c>
+      <c r="M5" s="135">
         <f>C9</f>
         <v>0.8</v>
       </c>
-      <c r="N5" s="144" t="s">
+      <c r="N5" s="111" t="s">
         <v>234</v>
       </c>
       <c r="O5" s="36" t="s">
@@ -6219,7 +6280,7 @@
       <c r="R5" s="36">
         <v>5</v>
       </c>
-      <c r="S5" s="87">
+      <c r="S5" s="71">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -6230,45 +6291,45 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
-      <c r="B6" s="88" t="s">
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="61"/>
+      <c r="B6" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="73">
         <f>'Manpower &amp; time'!C6</f>
         <v>39809</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="144" t="s">
+      <c r="D6" s="214"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="111" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="39">
         <f>Metrology!E23</f>
         <v>48334.81</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="66">
         <v>10</v>
       </c>
-      <c r="J6" s="140">
+      <c r="J6" s="107">
         <f t="shared" si="0"/>
         <v>4833.4809999999998</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="M6" s="176">
+        <v>249</v>
+      </c>
+      <c r="M6" s="134">
         <v>5</v>
       </c>
-      <c r="N6" s="144" t="s">
+      <c r="N6" s="111" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="36" t="s">
         <v>236</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q6" s="39">
         <f>0.05*Q3</f>
@@ -6277,7 +6338,7 @@
       <c r="R6" s="36">
         <v>1</v>
       </c>
-      <c r="S6" s="87">
+      <c r="S6" s="71">
         <f t="shared" si="1"/>
         <v>5401</v>
       </c>
@@ -6286,58 +6347,58 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="68">
         <v>35</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="144" t="s">
+      <c r="D7" s="74"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="112">
+      <c r="H7" s="93">
         <f>SUM(Metrology!E10:E12)</f>
         <v>3209.6000000000004</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="66">
         <v>10</v>
       </c>
-      <c r="J7" s="140">
+      <c r="J7" s="107">
         <f t="shared" si="0"/>
         <v>320.96000000000004</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>511</v>
-      </c>
-      <c r="M7" s="178">
+        <v>510</v>
+      </c>
+      <c r="M7" s="136">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
-      <c r="N7" s="144" t="s">
+      <c r="N7" s="111" t="s">
         <v>19</v>
       </c>
       <c r="O7" s="36" t="s">
         <v>237</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q7" s="81">
+        <v>287</v>
+      </c>
+      <c r="Q7" s="65">
         <f>M4*0.8*C12</f>
         <v>1.4031359999999997</v>
       </c>
       <c r="R7" s="36"/>
-      <c r="S7" s="193"/>
+      <c r="S7" s="151"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="60"/>
       <c r="B8" s="36" t="s">
         <v>60</v>
       </c>
@@ -6345,86 +6406,86 @@
         <f>'Manpower &amp; time'!B17</f>
         <v>45.6</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="144" t="s">
+      <c r="D8" s="75"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="112">
+      <c r="H8" s="93">
         <f>2*Metrology!E21</f>
         <v>492.90039304557206</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="66">
         <v>10</v>
       </c>
-      <c r="J8" s="140">
+      <c r="J8" s="107">
         <f t="shared" si="0"/>
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="M8" s="178">
+        <v>407</v>
+      </c>
+      <c r="M8" s="136">
         <f>M7*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="N8" s="144" t="s">
+      <c r="N8" s="111" t="s">
         <v>239</v>
       </c>
       <c r="O8" s="36" t="s">
         <v>237</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="37">
         <v>20</v>
       </c>
       <c r="R8" s="36"/>
-      <c r="S8" s="193"/>
+      <c r="S8" s="151"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+    <row r="9" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="60"/>
       <c r="B9" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="64">
         <v>0.8</v>
       </c>
-      <c r="D9" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="145" t="s">
-        <v>521</v>
-      </c>
-      <c r="H9" s="89">
+      <c r="D9" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="118"/>
+      <c r="G9" s="112" t="s">
+        <v>520</v>
+      </c>
+      <c r="H9" s="73">
         <f>Metrology!E25</f>
         <v>5390</v>
       </c>
-      <c r="I9" s="141">
+      <c r="I9" s="108">
         <v>10</v>
       </c>
-      <c r="J9" s="123">
+      <c r="J9" s="98">
         <f t="shared" si="0"/>
         <v>539</v>
       </c>
       <c r="L9" s="54" t="s">
-        <v>407</v>
-      </c>
-      <c r="M9" s="178">
+        <v>406</v>
+      </c>
+      <c r="M9" s="136">
         <f>M7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="N9" s="144" t="s">
+      <c r="N9" s="111" t="s">
         <v>238</v>
       </c>
       <c r="O9" s="36" t="s">
         <v>237</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q9" s="39">
         <f>1*'CNC mill'!F31</f>
@@ -6433,72 +6494,72 @@
       <c r="R9" s="36">
         <v>1</v>
       </c>
-      <c r="S9" s="87">
+      <c r="S9" s="71">
         <f t="shared" ref="S9" si="2">Q9/R9</f>
         <v>88.025599999999997</v>
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
-      <c r="B10" s="88" t="s">
-        <v>269</v>
-      </c>
-      <c r="C10" s="93">
+    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="77">
         <v>0.95</v>
       </c>
-      <c r="D10" s="94" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="152" t="s">
+      <c r="D10" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="146" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="85">
+      <c r="G10" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="69">
         <f>Energies!B6</f>
         <v>2874.8160000000003</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="68">
         <v>1</v>
       </c>
-      <c r="J10" s="122">
+      <c r="J10" s="97">
         <f t="shared" si="0"/>
         <v>2874.8160000000003</v>
       </c>
-      <c r="L10" s="194" t="s">
-        <v>268</v>
-      </c>
-      <c r="M10" s="195">
+      <c r="L10" s="152" t="s">
+        <v>267</v>
+      </c>
+      <c r="M10" s="153">
         <v>20</v>
       </c>
-      <c r="N10" s="145"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="99"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="83"/>
       <c r="U10" s="5"/>
       <c r="V10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="B11" s="84" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="69">
         <f>Energies!B6</f>
         <v>2874.8160000000003</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="147" t="s">
-        <v>292</v>
+      <c r="D11" s="70"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="114" t="s">
+        <v>291</v>
       </c>
       <c r="H11" s="37">
         <f>16*C7*C8*C12</f>
@@ -6507,29 +6568,29 @@
       <c r="I11" s="36">
         <v>1</v>
       </c>
-      <c r="J11" s="140">
+      <c r="J11" s="107">
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="196"/>
-      <c r="N11" s="143" t="s">
-        <v>348</v>
-      </c>
-      <c r="O11" s="84" t="s">
+      <c r="M11" s="183"/>
+      <c r="N11" s="110" t="s">
+        <v>347</v>
+      </c>
+      <c r="O11" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="197">
+      <c r="P11" s="68"/>
+      <c r="Q11" s="154">
         <f>'CNC lathe'!B2</f>
         <v>133720</v>
       </c>
-      <c r="R11" s="84">
+      <c r="R11" s="68">
         <v>10</v>
       </c>
-      <c r="S11" s="86">
+      <c r="S11" s="70">
         <f>Q11/R11</f>
         <v>13372</v>
       </c>
@@ -6540,19 +6601,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="80"/>
       <c r="B12" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="65">
         <f>Energies!B7</f>
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="147" t="s">
-        <v>441</v>
+      <c r="D12" s="81"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="114" t="s">
+        <v>440</v>
       </c>
       <c r="H12" s="37">
         <f>Energies!C10*60</f>
@@ -6561,18 +6622,18 @@
       <c r="I12" s="36">
         <v>1</v>
       </c>
-      <c r="J12" s="140">
+      <c r="J12" s="107">
         <f t="shared" si="0"/>
         <v>132.96</v>
       </c>
       <c r="L12" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="M12" s="181">
+        <v>286</v>
+      </c>
+      <c r="M12" s="139">
         <v>29.8</v>
       </c>
-      <c r="N12" s="144" t="s">
-        <v>336</v>
+      <c r="N12" s="111" t="s">
+        <v>335</v>
       </c>
       <c r="O12" s="36" t="s">
         <v>236</v>
@@ -6585,7 +6646,7 @@
       <c r="R12" s="36">
         <v>10</v>
       </c>
-      <c r="S12" s="87">
+      <c r="S12" s="71">
         <f>Q12/R12</f>
         <v>1920</v>
       </c>
@@ -6594,42 +6655,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
-      <c r="B13" s="88" t="s">
-        <v>496</v>
-      </c>
-      <c r="C13" s="89">
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="82"/>
+      <c r="B13" s="72" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" s="73">
         <f>Energies!C10</f>
         <v>2.2160000000000002</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="F13" s="155" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="143" t="s">
+      <c r="D13" s="83"/>
+      <c r="F13" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="69">
         <f>C6</f>
         <v>39809</v>
       </c>
-      <c r="I13" s="101">
+      <c r="I13" s="85">
         <v>1</v>
       </c>
-      <c r="J13" s="122">
+      <c r="J13" s="97">
         <f t="shared" si="0"/>
         <v>39809</v>
       </c>
       <c r="L13" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="M13" s="182">
+        <v>248</v>
+      </c>
+      <c r="M13" s="140">
         <f>C9</f>
         <v>0.8</v>
       </c>
-      <c r="N13" s="144" t="s">
-        <v>350</v>
+      <c r="N13" s="111" t="s">
+        <v>349</v>
       </c>
       <c r="O13" s="36" t="s">
         <v>236</v>
@@ -6642,51 +6703,51 @@
       <c r="R13" s="36">
         <v>5</v>
       </c>
-      <c r="S13" s="87">
+      <c r="S13" s="71">
         <f t="shared" ref="S13:S14" si="3">Q13/R13</f>
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>504</v>
-      </c>
-      <c r="C14" s="101">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="85">
         <v>1.12964</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="144" t="s">
-        <v>275</v>
+      <c r="D14" s="74"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="111" t="s">
+        <v>274</v>
       </c>
       <c r="H14" s="39">
         <f>C5*0.4</f>
         <v>27937.200000000001</v>
       </c>
-      <c r="I14" s="82">
+      <c r="I14" s="66">
         <v>1</v>
       </c>
-      <c r="J14" s="140">
+      <c r="J14" s="107">
         <f t="shared" si="0"/>
         <v>27937.200000000001</v>
       </c>
       <c r="L14" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="M14" s="181">
+        <v>249</v>
+      </c>
+      <c r="M14" s="139">
         <v>5</v>
       </c>
-      <c r="N14" s="144" t="s">
+      <c r="N14" s="111" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="36" t="s">
         <v>236</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="37">
         <f>0.05*Q11</f>
@@ -6695,129 +6756,129 @@
       <c r="R14" s="36">
         <v>1</v>
       </c>
-      <c r="S14" s="87">
+      <c r="S14" s="71">
         <f t="shared" si="3"/>
         <v>6686</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
-      <c r="B15" s="88" t="s">
+    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="86"/>
+      <c r="B15" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="77">
         <v>0.2</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="144" t="s">
-        <v>522</v>
+      <c r="D15" s="78"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="111" t="s">
+        <v>521</v>
       </c>
       <c r="H15" s="39">
         <f>'Manpower &amp; time'!G9</f>
         <v>11403.29</v>
       </c>
-      <c r="I15" s="82">
+      <c r="I15" s="66">
         <v>1</v>
       </c>
-      <c r="J15" s="140">
+      <c r="J15" s="107">
         <f t="shared" si="0"/>
         <v>11403.29</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>511</v>
-      </c>
-      <c r="M15" s="183">
+        <v>510</v>
+      </c>
+      <c r="M15" s="141">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
-      <c r="N15" s="144" t="s">
+      <c r="N15" s="111" t="s">
         <v>19</v>
       </c>
       <c r="O15" s="36" t="s">
         <v>237</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q15" s="81">
+        <v>287</v>
+      </c>
+      <c r="Q15" s="65">
         <f>M12*0.8*C12</f>
         <v>1.8666720000000001</v>
       </c>
       <c r="R15" s="36"/>
-      <c r="S15" s="193"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="157"/>
-      <c r="G16" s="145" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="89">
+      <c r="S15" s="151"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="124"/>
+      <c r="G16" s="112" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="73">
         <f>'Manpower &amp; time'!B32</f>
         <v>13108.788</v>
       </c>
-      <c r="I16" s="141">
+      <c r="I16" s="108">
         <v>1</v>
       </c>
-      <c r="J16" s="123">
+      <c r="J16" s="98">
         <f t="shared" si="0"/>
         <v>13108.788</v>
       </c>
       <c r="L16" s="52" t="s">
-        <v>436</v>
-      </c>
-      <c r="M16" s="183">
+        <v>435</v>
+      </c>
+      <c r="M16" s="141">
         <f>M15*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="N16" s="144" t="s">
+      <c r="N16" s="111" t="s">
         <v>239</v>
       </c>
       <c r="O16" s="36" t="s">
         <v>237</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="37">
         <v>10</v>
       </c>
       <c r="R16" s="36"/>
-      <c r="S16" s="193"/>
-    </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F17" s="158" t="s">
+      <c r="S16" s="151"/>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F17" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="143" t="s">
+      <c r="G17" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="85">
+      <c r="H17" s="69">
         <f>IT!D11+2*IT!D12+IT!D13+6*IT!D15+IT!D16+4*IT!D17+IT!D18</f>
         <v>6843.36</v>
       </c>
-      <c r="I17" s="101">
+      <c r="I17" s="85">
         <v>3</v>
       </c>
-      <c r="J17" s="122">
+      <c r="J17" s="97">
         <f t="shared" si="0"/>
         <v>2281.12</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="M17" s="183">
+        <v>406</v>
+      </c>
+      <c r="M17" s="141">
         <f>M15*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="N17" s="144" t="s">
+      <c r="N17" s="111" t="s">
         <v>238</v>
       </c>
       <c r="O17" s="36" t="s">
         <v>237</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q17" s="39">
         <f>'CNC lathe'!F14</f>
@@ -6826,109 +6887,109 @@
       <c r="R17" s="36">
         <v>1</v>
       </c>
-      <c r="S17" s="87">
+      <c r="S17" s="71">
         <f>Q17/R17</f>
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="18" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="159"/>
-      <c r="G18" s="144" t="s">
+    <row r="18" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="126"/>
+      <c r="G18" s="111" t="s">
         <v>228</v>
       </c>
       <c r="H18" s="39">
         <f>IT!D5</f>
         <v>192.96</v>
       </c>
-      <c r="I18" s="82">
+      <c r="I18" s="66">
         <v>3</v>
       </c>
-      <c r="J18" s="140">
+      <c r="J18" s="107">
         <f t="shared" si="0"/>
         <v>64.320000000000007</v>
       </c>
-      <c r="L18" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="M18" s="192">
+      <c r="L18" s="149" t="s">
+        <v>267</v>
+      </c>
+      <c r="M18" s="150">
         <v>15</v>
       </c>
-      <c r="N18" s="145"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="99"/>
-    </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F19" s="159"/>
-      <c r="G19" s="144" t="s">
+      <c r="N18" s="112"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="83"/>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F19" s="126"/>
+      <c r="G19" s="111" t="s">
         <v>229</v>
       </c>
       <c r="H19" s="39">
         <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
         <v>277.54199999999997</v>
       </c>
-      <c r="I19" s="82">
+      <c r="I19" s="66">
         <v>1</v>
       </c>
-      <c r="J19" s="140">
+      <c r="J19" s="107">
         <f t="shared" si="0"/>
         <v>277.54199999999997</v>
       </c>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="198"/>
-      <c r="N19" s="143" t="s">
+      <c r="M19" s="172"/>
+      <c r="N19" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="84" t="s">
+      <c r="O19" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="85">
+      <c r="P19" s="68"/>
+      <c r="Q19" s="69">
         <f>'Laser cutter'!G4</f>
         <v>185010.26875818847</v>
       </c>
-      <c r="R19" s="84">
+      <c r="R19" s="68">
         <v>10</v>
       </c>
-      <c r="S19" s="86">
+      <c r="S19" s="70">
         <f>Q19/R19</f>
         <v>18501.026875818847</v>
       </c>
     </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F20" s="159"/>
-      <c r="G20" s="144" t="s">
+    <row r="20" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F20" s="126"/>
+      <c r="G20" s="111" t="s">
         <v>204</v>
       </c>
       <c r="H20" s="39">
         <f>IT!D3*12*3</f>
         <v>316.8</v>
       </c>
-      <c r="I20" s="82">
+      <c r="I20" s="66">
         <v>1</v>
       </c>
-      <c r="J20" s="140">
+      <c r="J20" s="107">
         <f t="shared" si="0"/>
         <v>316.8</v>
       </c>
       <c r="L20" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="M20" s="184">
+        <v>286</v>
+      </c>
+      <c r="M20" s="142">
         <v>7.5</v>
       </c>
-      <c r="N20" s="144" t="s">
+      <c r="N20" s="111" t="s">
         <v>22</v>
       </c>
       <c r="O20" s="36" t="s">
         <v>236</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="39">
         <f>0.05*Q19</f>
@@ -6937,210 +6998,210 @@
       <c r="R20" s="36">
         <v>1</v>
       </c>
-      <c r="S20" s="87">
+      <c r="S20" s="71">
         <f>Q20/R20</f>
         <v>9250.5134379094234</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F21" s="159"/>
-      <c r="G21" s="144" t="s">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F21" s="126"/>
+      <c r="G21" s="111" t="s">
         <v>205</v>
       </c>
       <c r="H21" s="39">
         <f>IT!D2*2</f>
         <v>796.80000000000007</v>
       </c>
-      <c r="I21" s="82">
+      <c r="I21" s="66">
         <v>1</v>
       </c>
-      <c r="J21" s="140">
+      <c r="J21" s="107">
         <f t="shared" si="0"/>
         <v>796.80000000000007</v>
       </c>
       <c r="L21" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="M21" s="185">
+        <v>248</v>
+      </c>
+      <c r="M21" s="143">
         <v>0.7</v>
       </c>
-      <c r="N21" s="144" t="s">
+      <c r="N21" s="111" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="36" t="s">
         <v>237</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q21" s="81">
+        <v>287</v>
+      </c>
+      <c r="Q21" s="65">
         <f>M20*0.8*C12</f>
         <v>0.4698</v>
       </c>
       <c r="R21" s="36"/>
-      <c r="S21" s="193"/>
-    </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F22" s="159"/>
-      <c r="G22" s="144" t="s">
+      <c r="S21" s="151"/>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F22" s="126"/>
+      <c r="G22" s="111" t="s">
         <v>41</v>
       </c>
       <c r="H22" s="39">
         <f>12*IT!D20</f>
         <v>1224</v>
       </c>
-      <c r="I22" s="82">
+      <c r="I22" s="66">
         <v>1</v>
       </c>
-      <c r="J22" s="140">
+      <c r="J22" s="107">
         <f t="shared" si="0"/>
         <v>1224</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="M22" s="184">
+        <v>249</v>
+      </c>
+      <c r="M22" s="142">
         <v>5</v>
       </c>
-      <c r="N22" s="144" t="s">
-        <v>435</v>
+      <c r="N22" s="111" t="s">
+        <v>434</v>
       </c>
       <c r="O22" s="36" t="s">
         <v>237</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="39">
         <f>'Laser cutter'!G5/20</f>
         <v>5.0728</v>
       </c>
       <c r="R22" s="36"/>
-      <c r="S22" s="193"/>
-    </row>
-    <row r="23" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="160"/>
-      <c r="G23" s="145" t="s">
-        <v>406</v>
-      </c>
-      <c r="H23" s="89">
+      <c r="S22" s="151"/>
+    </row>
+    <row r="23" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="127"/>
+      <c r="G23" s="112" t="s">
+        <v>405</v>
+      </c>
+      <c r="H23" s="73">
         <f>IT!D23+IT!D22</f>
         <v>381</v>
       </c>
-      <c r="I23" s="141">
+      <c r="I23" s="108">
         <v>3</v>
       </c>
-      <c r="J23" s="123">
+      <c r="J23" s="98">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="L23" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="M23" s="186">
+        <v>511</v>
+      </c>
+      <c r="M23" s="144">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="N23" s="173"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="199"/>
-    </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F24" s="149" t="s">
-        <v>400</v>
-      </c>
-      <c r="G24" s="143" t="s">
+      <c r="N23" s="132"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="155"/>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F24" s="116" t="s">
+        <v>399</v>
+      </c>
+      <c r="G24" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="142">
+      <c r="H24" s="109">
         <v>200</v>
       </c>
-      <c r="I24" s="101">
+      <c r="I24" s="85">
         <v>1</v>
       </c>
-      <c r="J24" s="122">
+      <c r="J24" s="97">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="L24" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="M24" s="187">
+        <v>534</v>
+      </c>
+      <c r="M24" s="145">
         <v>1.5</v>
       </c>
-      <c r="N24" s="173"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="200"/>
-    </row>
-    <row r="25" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="151"/>
-      <c r="G25" s="145" t="s">
-        <v>340</v>
-      </c>
-      <c r="H25" s="89">
+      <c r="N24" s="132"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="156"/>
+    </row>
+    <row r="25" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="118"/>
+      <c r="G25" s="112" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" s="73">
         <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
         <v>10550</v>
       </c>
-      <c r="I25" s="88">
+      <c r="I25" s="72">
         <v>10</v>
       </c>
-      <c r="J25" s="123">
+      <c r="J25" s="98">
         <f>H25/I25</f>
         <v>1055</v>
       </c>
       <c r="L25" s="51" t="s">
-        <v>536</v>
-      </c>
-      <c r="M25" s="187">
+        <v>535</v>
+      </c>
+      <c r="M25" s="145">
         <v>1</v>
       </c>
-      <c r="N25" s="174"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="201"/>
-    </row>
-    <row r="26" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="152" t="s">
+      <c r="N25" s="133"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="157"/>
+    </row>
+    <row r="26" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="143" t="s">
-        <v>421</v>
-      </c>
-      <c r="H26" s="85">
+      <c r="G26" s="110" t="s">
+        <v>420</v>
+      </c>
+      <c r="H26" s="69">
         <f>SUM(Manufacturing!F2:F7)+Manufacturing!F8*4</f>
         <v>19442.431854396091</v>
       </c>
-      <c r="I26" s="84">
+      <c r="I26" s="68">
         <v>10</v>
       </c>
-      <c r="J26" s="122">
+      <c r="J26" s="97">
         <f t="shared" si="0"/>
         <v>1944.2431854396091</v>
       </c>
-      <c r="L26" s="202" t="s">
-        <v>374</v>
-      </c>
-      <c r="M26" s="203">
+      <c r="L26" s="158" t="s">
+        <v>373</v>
+      </c>
+      <c r="M26" s="159">
         <v>8</v>
       </c>
-      <c r="N26" s="145"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="99"/>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F27" s="153"/>
-      <c r="G27" s="144" t="s">
-        <v>409</v>
+      <c r="N26" s="112"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="83"/>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F27" s="120"/>
+      <c r="G27" s="111" t="s">
+        <v>408</v>
       </c>
       <c r="H27" s="39">
         <f>Manufacturing!F32</f>
@@ -7149,37 +7210,37 @@
       <c r="I27" s="36">
         <v>10</v>
       </c>
-      <c r="J27" s="140">
+      <c r="J27" s="107">
         <f t="shared" si="0"/>
         <v>325.89999999999998</v>
       </c>
       <c r="L27" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="204"/>
-      <c r="N27" s="143" t="s">
-        <v>262</v>
-      </c>
-      <c r="O27" s="84" t="s">
+      <c r="M27" s="160"/>
+      <c r="N27" s="110" t="s">
+        <v>261</v>
+      </c>
+      <c r="O27" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="85">
+      <c r="P27" s="68"/>
+      <c r="Q27" s="69">
         <f>Welding!F2+Welding!F3</f>
         <v>5308.6</v>
       </c>
-      <c r="R27" s="84">
+      <c r="R27" s="68">
         <v>10</v>
       </c>
-      <c r="S27" s="86">
+      <c r="S27" s="70">
         <f>Q27/R27</f>
         <v>530.86</v>
       </c>
     </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F28" s="153"/>
-      <c r="G28" s="144" t="s">
-        <v>518</v>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F28" s="120"/>
+      <c r="G28" s="111" t="s">
+        <v>517</v>
       </c>
       <c r="H28" s="39">
         <f>Manufacturing!F36</f>
@@ -7188,15 +7249,15 @@
       <c r="I28" s="36">
         <v>10</v>
       </c>
-      <c r="J28" s="140">
+      <c r="J28" s="107">
         <f t="shared" si="0"/>
         <v>103.154</v>
       </c>
       <c r="L28" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="M28" s="176"/>
-      <c r="N28" s="144" t="s">
+        <v>286</v>
+      </c>
+      <c r="M28" s="134"/>
+      <c r="N28" s="111" t="s">
         <v>43</v>
       </c>
       <c r="O28" s="36" t="s">
@@ -7210,15 +7271,15 @@
       <c r="R28" s="36">
         <v>10</v>
       </c>
-      <c r="S28" s="87">
+      <c r="S28" s="71">
         <f t="shared" ref="S28:S32" si="4">Q28/R28</f>
         <v>385.96</v>
       </c>
     </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F29" s="153"/>
-      <c r="G29" s="144" t="s">
-        <v>328</v>
+    <row r="29" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F29" s="120"/>
+      <c r="G29" s="111" t="s">
+        <v>327</v>
       </c>
       <c r="H29" s="39">
         <f>Manufacturing!F10*3+Manufacturing!F11*3</f>
@@ -7227,19 +7288,19 @@
       <c r="I29" s="36">
         <v>10</v>
       </c>
-      <c r="J29" s="140">
+      <c r="J29" s="107">
         <f t="shared" si="0"/>
         <v>813.74519999999995</v>
       </c>
       <c r="L29" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="M29" s="177">
+        <v>248</v>
+      </c>
+      <c r="M29" s="135">
         <f>C9</f>
         <v>0.8</v>
       </c>
-      <c r="N29" s="144" t="s">
-        <v>267</v>
+      <c r="N29" s="111" t="s">
+        <v>266</v>
       </c>
       <c r="O29" s="36" t="s">
         <v>236</v>
@@ -7252,15 +7313,15 @@
       <c r="R29" s="36">
         <v>5</v>
       </c>
-      <c r="S29" s="87">
+      <c r="S29" s="71">
         <f t="shared" si="4"/>
         <v>29.2</v>
       </c>
     </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F30" s="153"/>
-      <c r="G30" s="144" t="s">
-        <v>383</v>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F30" s="120"/>
+      <c r="G30" s="111" t="s">
+        <v>382</v>
       </c>
       <c r="H30" s="39">
         <f>0.5*H29</f>
@@ -7269,18 +7330,18 @@
       <c r="I30" s="36">
         <v>10</v>
       </c>
-      <c r="J30" s="140">
+      <c r="J30" s="107">
         <f t="shared" si="0"/>
         <v>406.87259999999998</v>
       </c>
       <c r="L30" s="54" t="s">
-        <v>485</v>
-      </c>
-      <c r="M30" s="188">
+        <v>484</v>
+      </c>
+      <c r="M30" s="146">
         <f>Welding!B32</f>
         <v>140.43083213990764</v>
       </c>
-      <c r="N30" s="144" t="s">
+      <c r="N30" s="111" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="36" t="s">
@@ -7294,15 +7355,15 @@
       <c r="R30" s="36">
         <v>2</v>
       </c>
-      <c r="S30" s="87">
+      <c r="S30" s="71">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F31" s="153"/>
-      <c r="G31" s="144" t="s">
-        <v>384</v>
+    <row r="31" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F31" s="120"/>
+      <c r="G31" s="111" t="s">
+        <v>383</v>
       </c>
       <c r="H31" s="39">
         <v>4000</v>
@@ -7310,14 +7371,14 @@
       <c r="I31" s="36">
         <v>5</v>
       </c>
-      <c r="J31" s="140">
+      <c r="J31" s="107">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="L31" s="54"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="144" t="s">
-        <v>254</v>
+      <c r="M31" s="134"/>
+      <c r="N31" s="111" t="s">
+        <v>253</v>
       </c>
       <c r="O31" s="36" t="s">
         <v>236</v>
@@ -7330,15 +7391,15 @@
       <c r="R31" s="36">
         <v>10</v>
       </c>
-      <c r="S31" s="87">
+      <c r="S31" s="71">
         <f t="shared" si="4"/>
         <v>857.9</v>
       </c>
     </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F32" s="153"/>
-      <c r="G32" s="144" t="s">
-        <v>385</v>
+    <row r="32" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F32" s="120"/>
+      <c r="G32" s="111" t="s">
+        <v>384</v>
       </c>
       <c r="H32" s="39">
         <v>3000</v>
@@ -7346,20 +7407,20 @@
       <c r="I32" s="36">
         <v>1</v>
       </c>
-      <c r="J32" s="140">
+      <c r="J32" s="107">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="L32" s="54"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="144" t="s">
+      <c r="M32" s="134"/>
+      <c r="N32" s="111" t="s">
         <v>22</v>
       </c>
       <c r="O32" s="36" t="s">
         <v>236</v>
       </c>
       <c r="P32" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q32" s="39">
         <f>0.03*(Q27+Q28)</f>
@@ -7368,15 +7429,15 @@
       <c r="R32" s="36">
         <v>1</v>
       </c>
-      <c r="S32" s="87">
+      <c r="S32" s="71">
         <f t="shared" si="4"/>
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F33" s="153"/>
-      <c r="G33" s="144" t="s">
-        <v>389</v>
+    <row r="33" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F33" s="120"/>
+      <c r="G33" s="111" t="s">
+        <v>388</v>
       </c>
       <c r="H33" s="39">
         <f>Manufacturing!F23</f>
@@ -7385,28 +7446,31 @@
       <c r="I33" s="36">
         <v>10</v>
       </c>
-      <c r="J33" s="140">
+      <c r="J33" s="107">
         <f t="shared" si="0"/>
         <v>230.25700000000001</v>
       </c>
       <c r="L33" s="54"/>
-      <c r="M33" s="176"/>
-      <c r="N33" s="144" t="s">
+      <c r="M33" s="134"/>
+      <c r="N33" s="111" t="s">
         <v>19</v>
       </c>
       <c r="O33" s="36" t="s">
         <v>237</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q33" s="36"/>
+        <v>543</v>
+      </c>
+      <c r="Q33" s="65">
+        <f>(0.75+0.5)*C12</f>
+        <v>9.787499999999999E-2</v>
+      </c>
       <c r="R33" s="36"/>
-      <c r="S33" s="193"/>
-    </row>
-    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F34" s="153"/>
-      <c r="G34" s="144" t="s">
+      <c r="S33" s="151"/>
+    </row>
+    <row r="34" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F34" s="120"/>
+      <c r="G34" s="111" t="s">
         <v>46</v>
       </c>
       <c r="H34" s="39">
@@ -7416,32 +7480,32 @@
       <c r="I34" s="36">
         <v>10</v>
       </c>
-      <c r="J34" s="140">
+      <c r="J34" s="107">
         <f t="shared" si="0"/>
         <v>706.69499999999994</v>
       </c>
-      <c r="L34" s="179"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="144" t="s">
-        <v>483</v>
-      </c>
-      <c r="O34" s="116" t="s">
+      <c r="L34" s="137"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="111" t="s">
+        <v>482</v>
+      </c>
+      <c r="O34" s="184" t="s">
         <v>237</v>
       </c>
-      <c r="P34" s="117" t="s">
-        <v>482</v>
+      <c r="P34" s="185" t="s">
+        <v>481</v>
       </c>
       <c r="Q34" s="39">
         <f>Welding!B29</f>
         <v>8.5247116655159064E-2</v>
       </c>
       <c r="R34" s="36"/>
-      <c r="S34" s="193"/>
-    </row>
-    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F35" s="153"/>
-      <c r="G35" s="144" t="s">
-        <v>401</v>
+      <c r="S34" s="151"/>
+    </row>
+    <row r="35" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F35" s="120"/>
+      <c r="G35" s="111" t="s">
+        <v>400</v>
       </c>
       <c r="H35" s="39">
         <f>Manufacturing!F25*5+Manufacturing!F26+Manufacturing!F27+Manufacturing!F28+Manufacturing!F29*3+Manufacturing!F30*30</f>
@@ -7450,28 +7514,28 @@
       <c r="I35" s="36">
         <v>10</v>
       </c>
-      <c r="J35" s="140">
+      <c r="J35" s="107">
         <f t="shared" si="0"/>
         <v>711.01300000000003</v>
       </c>
-      <c r="L35" s="189"/>
-      <c r="M35" s="190"/>
-      <c r="N35" s="144" t="s">
-        <v>484</v>
-      </c>
-      <c r="O35" s="116"/>
-      <c r="P35" s="117"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="111" t="s">
+        <v>483</v>
+      </c>
+      <c r="O35" s="184"/>
+      <c r="P35" s="185"/>
       <c r="Q35" s="39">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
       </c>
       <c r="R35" s="36"/>
-      <c r="S35" s="193"/>
-    </row>
-    <row r="36" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="153"/>
-      <c r="G36" s="147" t="s">
-        <v>381</v>
+      <c r="S35" s="151"/>
+    </row>
+    <row r="36" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="120"/>
+      <c r="G36" s="114" t="s">
+        <v>380</v>
       </c>
       <c r="H36" s="39">
         <f>Manufacturing!F17</f>
@@ -7480,32 +7544,32 @@
       <c r="I36" s="36">
         <v>10</v>
       </c>
-      <c r="J36" s="140">
+      <c r="J36" s="107">
         <f>H36/I36</f>
         <v>1299.9000000000001</v>
       </c>
       <c r="L36" s="33"/>
-      <c r="M36" s="205"/>
-      <c r="N36" s="145" t="s">
-        <v>255</v>
-      </c>
-      <c r="O36" s="88" t="s">
+      <c r="M36" s="161"/>
+      <c r="N36" s="112" t="s">
+        <v>254</v>
+      </c>
+      <c r="O36" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="P36" s="88" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q36" s="89">
+      <c r="P36" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q36" s="73">
         <f>Welding!B17</f>
         <v>14.354066985645932</v>
       </c>
-      <c r="R36" s="88"/>
-      <c r="S36" s="99"/>
-    </row>
-    <row r="37" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F37" s="153"/>
-      <c r="G37" s="147" t="s">
-        <v>382</v>
+      <c r="R36" s="72"/>
+      <c r="S36" s="83"/>
+    </row>
+    <row r="37" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F37" s="120"/>
+      <c r="G37" s="114" t="s">
+        <v>381</v>
       </c>
       <c r="H37" s="39">
         <f>15*C12*C7*C8</f>
@@ -7514,57 +7578,57 @@
       <c r="I37" s="36">
         <v>1</v>
       </c>
-      <c r="J37" s="140">
+      <c r="J37" s="107">
         <f>H37/I37</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L37" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="M37" s="196"/>
-      <c r="N37" s="143" t="s">
-        <v>488</v>
-      </c>
-      <c r="O37" s="84" t="s">
+      <c r="L37" s="182" t="s">
+        <v>421</v>
+      </c>
+      <c r="M37" s="183"/>
+      <c r="N37" s="110" t="s">
+        <v>487</v>
+      </c>
+      <c r="O37" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="197">
+      <c r="P37" s="68"/>
+      <c r="Q37" s="154">
         <f>'Conventionnal machinning'!B2</f>
         <v>15000</v>
       </c>
-      <c r="R37" s="84">
+      <c r="R37" s="68">
         <v>10</v>
       </c>
-      <c r="S37" s="86">
+      <c r="S37" s="70">
         <f>Q37/R37</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="154"/>
-      <c r="G38" s="148" t="s">
-        <v>520</v>
-      </c>
-      <c r="H38" s="89">
+    <row r="38" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="121"/>
+      <c r="G38" s="115" t="s">
+        <v>519</v>
+      </c>
+      <c r="H38" s="73">
         <f>2*Manufacturing!F34</f>
         <v>2150</v>
       </c>
-      <c r="I38" s="88">
+      <c r="I38" s="72">
         <v>10</v>
       </c>
-      <c r="J38" s="123">
+      <c r="J38" s="98">
         <f>H38/I38</f>
         <v>215</v>
       </c>
       <c r="L38" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="M38" s="181">
+        <v>286</v>
+      </c>
+      <c r="M38" s="139">
         <v>6</v>
       </c>
-      <c r="N38" s="144" t="s">
-        <v>494</v>
+      <c r="N38" s="111" t="s">
+        <v>493</v>
       </c>
       <c r="O38" s="36" t="s">
         <v>236</v>
@@ -7577,23 +7641,23 @@
       <c r="R38" s="36">
         <v>10</v>
       </c>
-      <c r="S38" s="87">
+      <c r="S38" s="71">
         <f>Q38/R38</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F39" s="25"/>
       <c r="G39" s="21"/>
       <c r="J39" s="12"/>
       <c r="L39" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="M39" s="182">
+        <v>248</v>
+      </c>
+      <c r="M39" s="140">
         <v>0.44</v>
       </c>
-      <c r="N39" s="144" t="s">
-        <v>503</v>
+      <c r="N39" s="111" t="s">
+        <v>502</v>
       </c>
       <c r="O39" s="36" t="s">
         <v>236</v>
@@ -7606,33 +7670,33 @@
       <c r="R39" s="36">
         <v>5</v>
       </c>
-      <c r="S39" s="87">
+      <c r="S39" s="71">
         <f t="shared" ref="S39:S40" si="5">Q39/R39</f>
         <v>1525</v>
       </c>
     </row>
-    <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="121" t="s">
-        <v>339</v>
-      </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="119"/>
+    <row r="40" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="205" t="s">
+        <v>338</v>
+      </c>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="207"/>
       <c r="L40" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="M40" s="181">
+        <v>249</v>
+      </c>
+      <c r="M40" s="139">
         <v>5</v>
       </c>
-      <c r="N40" s="144" t="s">
+      <c r="N40" s="111" t="s">
         <v>22</v>
       </c>
       <c r="O40" s="36" t="s">
         <v>236</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q40" s="37">
         <f>0.03*(Q38+Q37)</f>
@@ -7641,897 +7705,945 @@
       <c r="R40" s="36">
         <v>1</v>
       </c>
-      <c r="S40" s="87">
+      <c r="S40" s="71">
         <f t="shared" si="5"/>
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F41" s="162" t="s">
-        <v>341</v>
-      </c>
-      <c r="G41" s="129" t="s">
-        <v>506</v>
-      </c>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="122">
+    <row r="41" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F41" s="188" t="s">
+        <v>340</v>
+      </c>
+      <c r="G41" s="209" t="s">
+        <v>505</v>
+      </c>
+      <c r="H41" s="209"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="97">
         <f>SUM(J3:J38)*1.05</f>
         <v>128441.41571598139</v>
       </c>
       <c r="L41" s="52" t="s">
-        <v>513</v>
-      </c>
-      <c r="M41" s="183">
+        <v>512</v>
+      </c>
+      <c r="M41" s="141">
         <f>3*1/10000</f>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N41" s="144" t="s">
+      <c r="N41" s="111" t="s">
         <v>19</v>
       </c>
       <c r="O41" s="36" t="s">
         <v>237</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q41" s="81">
+        <v>287</v>
+      </c>
+      <c r="Q41" s="65">
         <f>M38*0.8*C12</f>
         <v>0.37584000000000001</v>
       </c>
       <c r="R41" s="36"/>
-      <c r="S41" s="193"/>
-    </row>
-    <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="163"/>
-      <c r="G42" s="131" t="s">
-        <v>300</v>
-      </c>
-      <c r="H42" s="131"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="123">
+      <c r="S41" s="151"/>
+    </row>
+    <row r="42" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="189"/>
+      <c r="G42" s="208" t="s">
+        <v>299</v>
+      </c>
+      <c r="H42" s="208"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="98">
         <f>J41/SUM('Manpower &amp; time'!B28:I28)</f>
         <v>11.782881041914944</v>
       </c>
-      <c r="L42" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="M42" s="192">
+      <c r="L42" s="149" t="s">
+        <v>267</v>
+      </c>
+      <c r="M42" s="150">
         <v>10</v>
       </c>
-      <c r="N42" s="145" t="s">
-        <v>497</v>
-      </c>
-      <c r="O42" s="88" t="s">
+      <c r="N42" s="112" t="s">
+        <v>496</v>
+      </c>
+      <c r="O42" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="P42" s="88" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q42" s="206">
+      <c r="P42" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q42" s="162">
         <v>10</v>
       </c>
-      <c r="R42" s="88"/>
-      <c r="S42" s="99"/>
-    </row>
-    <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="164" t="s">
+      <c r="R42" s="72"/>
+      <c r="S42" s="83"/>
+    </row>
+    <row r="43" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F43" s="190" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" s="210" t="s">
         <v>342</v>
       </c>
-      <c r="G43" s="130" t="s">
-        <v>343</v>
-      </c>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="125">
+      <c r="H43" s="211"/>
+      <c r="I43" s="211"/>
+      <c r="J43" s="99">
         <f>'Manpower &amp; time'!H5</f>
         <v>12.68856351404828</v>
       </c>
     </row>
-    <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="165"/>
-      <c r="G44" s="161" t="s">
-        <v>354</v>
-      </c>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="126">
+    <row r="44" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="191"/>
+      <c r="G44" s="186" t="s">
+        <v>353</v>
+      </c>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="100">
         <f>'Manpower &amp; time'!H6</f>
         <v>23.630193905817173</v>
       </c>
-      <c r="L44" s="208" t="s">
-        <v>339</v>
-      </c>
-      <c r="M44" s="209"/>
-      <c r="N44" s="209"/>
-      <c r="O44" s="209"/>
-      <c r="P44" s="209"/>
-      <c r="Q44" s="209"/>
-      <c r="R44" s="210"/>
-    </row>
-    <row r="45" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="165"/>
-      <c r="G45" s="161" t="s">
-        <v>500</v>
-      </c>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="126">
+      <c r="L44" s="193" t="s">
+        <v>338</v>
+      </c>
+      <c r="M44" s="194"/>
+      <c r="N44" s="194"/>
+      <c r="O44" s="194"/>
+      <c r="P44" s="194"/>
+      <c r="Q44" s="194"/>
+      <c r="R44" s="195"/>
+    </row>
+    <row r="45" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F45" s="191"/>
+      <c r="G45" s="186" t="s">
+        <v>499</v>
+      </c>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="100">
         <f>'Manpower &amp; time'!H7</f>
         <v>29.773842500989314</v>
       </c>
-      <c r="L45" s="57" t="s">
-        <v>510</v>
-      </c>
-      <c r="M45" s="58"/>
-      <c r="N45" s="104" t="s">
-        <v>309</v>
-      </c>
-      <c r="O45" s="104"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="105">
+      <c r="L45" s="169" t="s">
+        <v>509</v>
+      </c>
+      <c r="M45" s="204"/>
+      <c r="N45" s="174" t="s">
+        <v>308</v>
+      </c>
+      <c r="O45" s="174"/>
+      <c r="P45" s="174"/>
+      <c r="Q45" s="174"/>
+      <c r="R45" s="87">
         <f>SUM(S3:S6)+S9</f>
         <v>17591.025600000001</v>
       </c>
     </row>
-    <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="166"/>
-      <c r="G46" s="132" t="s">
-        <v>344</v>
-      </c>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="128">
+    <row r="46" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F46" s="192"/>
+      <c r="G46" s="180" t="s">
+        <v>343</v>
+      </c>
+      <c r="H46" s="181"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="101">
         <f>'Manpower &amp; time'!H8</f>
         <v>41.458053027305105</v>
       </c>
-      <c r="L46" s="66" t="s">
-        <v>514</v>
-      </c>
-      <c r="M46" s="67"/>
-      <c r="N46" s="103" t="s">
-        <v>310</v>
-      </c>
-      <c r="O46" s="103"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="106">
+      <c r="L46" s="177" t="s">
+        <v>513</v>
+      </c>
+      <c r="M46" s="178"/>
+      <c r="N46" s="166" t="s">
+        <v>309</v>
+      </c>
+      <c r="O46" s="166"/>
+      <c r="P46" s="166"/>
+      <c r="Q46" s="166"/>
+      <c r="R46" s="88">
         <f>R45/(M5*C7*C8)+J42</f>
         <v>25.560313372742012</v>
       </c>
     </row>
-    <row r="47" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J47" s="24"/>
       <c r="L47" s="47" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M47" s="48">
         <v>2.5</v>
       </c>
-      <c r="N47" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="O47" s="103"/>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="106">
+      <c r="N47" s="166" t="s">
+        <v>310</v>
+      </c>
+      <c r="O47" s="166"/>
+      <c r="P47" s="166"/>
+      <c r="Q47" s="166"/>
+      <c r="R47" s="88">
         <f>R46+Q8+Q7</f>
         <v>46.963449372742012</v>
       </c>
     </row>
-    <row r="48" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J48" s="24"/>
       <c r="L48" s="47" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M48" s="48">
         <v>0.5</v>
       </c>
-      <c r="N48" s="103"/>
-      <c r="O48" s="103"/>
-      <c r="P48" s="103"/>
-      <c r="Q48" s="103"/>
-      <c r="R48" s="107"/>
-    </row>
-    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="N48" s="166"/>
+      <c r="O48" s="166"/>
+      <c r="P48" s="166"/>
+      <c r="Q48" s="166"/>
+      <c r="R48" s="89"/>
+    </row>
+    <row r="49" spans="6:18" x14ac:dyDescent="0.3">
       <c r="I49" s="20"/>
       <c r="J49" s="24"/>
       <c r="L49" s="31"/>
       <c r="M49" s="32"/>
-      <c r="N49" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O49" s="103"/>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="103"/>
-      <c r="R49" s="108">
+      <c r="N49" s="166" t="s">
+        <v>295</v>
+      </c>
+      <c r="O49" s="166"/>
+      <c r="P49" s="166"/>
+      <c r="Q49" s="166"/>
+      <c r="R49" s="90">
         <f>('Manpower &amp; time'!H5+R47)*M7/60</f>
         <v>9.9420021477983827E-5</v>
       </c>
     </row>
-    <row r="50" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I50" s="71"/>
+    <row r="50" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="I50" s="57"/>
       <c r="J50" s="24"/>
       <c r="L50" s="31"/>
       <c r="M50" s="32"/>
-      <c r="N50" s="103" t="s">
-        <v>505</v>
-      </c>
-      <c r="O50" s="103"/>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="103"/>
-      <c r="R50" s="109">
+      <c r="N50" s="166" t="s">
+        <v>504</v>
+      </c>
+      <c r="O50" s="166"/>
+      <c r="P50" s="166"/>
+      <c r="Q50" s="166"/>
+      <c r="R50" s="91">
         <f>('Manpower &amp; time'!H5)*M7/60/R49</f>
         <v>0.21270972931171805</v>
       </c>
     </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:18" x14ac:dyDescent="0.3">
       <c r="I51" s="1"/>
       <c r="J51" s="24"/>
       <c r="L51" s="31"/>
       <c r="M51" s="32"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="103"/>
-      <c r="R51" s="108"/>
-    </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="N51" s="166"/>
+      <c r="O51" s="166"/>
+      <c r="P51" s="166"/>
+      <c r="Q51" s="166"/>
+      <c r="R51" s="90"/>
+    </row>
+    <row r="52" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L52" s="31"/>
       <c r="M52" s="32"/>
-      <c r="N52" s="103" t="s">
-        <v>299</v>
-      </c>
-      <c r="O52" s="103"/>
-      <c r="P52" s="103"/>
-      <c r="Q52" s="103"/>
-      <c r="R52" s="108">
+      <c r="N52" s="166" t="s">
+        <v>298</v>
+      </c>
+      <c r="O52" s="166"/>
+      <c r="P52" s="166"/>
+      <c r="Q52" s="166"/>
+      <c r="R52" s="90">
         <f>('Manpower &amp; time'!H5+J42)*M8/60</f>
         <v>2.0392870463302686E-5</v>
       </c>
     </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J53" s="16"/>
       <c r="L53" s="31"/>
       <c r="M53" s="32"/>
-      <c r="N53" s="103" t="s">
-        <v>297</v>
-      </c>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="103"/>
-      <c r="R53" s="108">
+      <c r="N53" s="166" t="s">
+        <v>296</v>
+      </c>
+      <c r="O53" s="166"/>
+      <c r="P53" s="166"/>
+      <c r="Q53" s="166"/>
+      <c r="R53" s="90">
         <f>('Manpower &amp; time'!H6+J42)*M8/60</f>
         <v>2.9510895789776764E-5</v>
       </c>
     </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J54" s="15"/>
       <c r="L54" s="31"/>
       <c r="M54" s="32"/>
-      <c r="N54" s="103" t="s">
-        <v>298</v>
-      </c>
-      <c r="O54" s="103"/>
-      <c r="P54" s="103"/>
-      <c r="Q54" s="103"/>
-      <c r="R54" s="108">
+      <c r="N54" s="166" t="s">
+        <v>297</v>
+      </c>
+      <c r="O54" s="166"/>
+      <c r="P54" s="166"/>
+      <c r="Q54" s="166"/>
+      <c r="R54" s="90">
         <f>('Manpower &amp; time'!H8+J42)*M8/60</f>
         <v>4.4367445057683372E-5</v>
       </c>
     </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J55" s="15"/>
       <c r="L55" s="31"/>
       <c r="M55" s="32"/>
-      <c r="N55" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="O55" s="103"/>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="103"/>
-      <c r="R55" s="108">
+      <c r="N55" s="166" t="s">
+        <v>344</v>
+      </c>
+      <c r="O55" s="166"/>
+      <c r="P55" s="166"/>
+      <c r="Q55" s="166"/>
+      <c r="R55" s="90">
         <f>('Manpower &amp; time'!H5+J42)*M$9/60</f>
         <v>1.6314296370642149E-5</v>
       </c>
     </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J56" s="15"/>
       <c r="L56" s="31"/>
       <c r="M56" s="32"/>
-      <c r="N56" s="103" t="s">
-        <v>346</v>
-      </c>
-      <c r="O56" s="103"/>
-      <c r="P56" s="103"/>
-      <c r="Q56" s="103"/>
-      <c r="R56" s="108">
+      <c r="N56" s="166" t="s">
+        <v>345</v>
+      </c>
+      <c r="O56" s="166"/>
+      <c r="P56" s="166"/>
+      <c r="Q56" s="166"/>
+      <c r="R56" s="90">
         <f>('Manpower &amp; time'!H6+J42)*M$9/60</f>
         <v>2.3608716631821412E-5</v>
       </c>
     </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J57" s="11"/>
       <c r="L57" s="31"/>
       <c r="M57" s="32"/>
-      <c r="N57" s="103" t="s">
-        <v>347</v>
-      </c>
-      <c r="O57" s="103"/>
-      <c r="P57" s="103"/>
-      <c r="Q57" s="103"/>
-      <c r="R57" s="108">
+      <c r="N57" s="166" t="s">
+        <v>346</v>
+      </c>
+      <c r="O57" s="166"/>
+      <c r="P57" s="166"/>
+      <c r="Q57" s="166"/>
+      <c r="R57" s="90">
         <f>('Manpower &amp; time'!H8+J42)*M$9/60</f>
         <v>3.5493956046146703E-5</v>
       </c>
     </row>
-    <row r="58" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L58" s="33"/>
       <c r="M58" s="34"/>
-      <c r="N58" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="O58" s="110"/>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="110"/>
-      <c r="R58" s="111">
+      <c r="N58" s="167" t="s">
+        <v>307</v>
+      </c>
+      <c r="O58" s="167"/>
+      <c r="P58" s="167"/>
+      <c r="Q58" s="167"/>
+      <c r="R58" s="92">
         <f>('Manpower &amp; time'!H5+R46)*(M10+M6)/60</f>
         <v>15.937032036162622</v>
       </c>
     </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L59" s="59" t="s">
+    <row r="59" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L59" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="60"/>
-      <c r="N59" s="104" t="s">
-        <v>309</v>
-      </c>
-      <c r="O59" s="104"/>
-      <c r="P59" s="104"/>
-      <c r="Q59" s="104"/>
-      <c r="R59" s="105">
+      <c r="M59" s="215"/>
+      <c r="N59" s="174" t="s">
+        <v>308</v>
+      </c>
+      <c r="O59" s="174"/>
+      <c r="P59" s="174"/>
+      <c r="Q59" s="174"/>
+      <c r="R59" s="87">
         <f>SUM(S11:S14)+S17</f>
         <v>23026.025600000001</v>
       </c>
     </row>
-    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L60" s="64" t="s">
-        <v>514</v>
-      </c>
-      <c r="M60" s="65"/>
-      <c r="N60" s="103" t="s">
-        <v>310</v>
-      </c>
-      <c r="O60" s="103"/>
-      <c r="P60" s="103"/>
-      <c r="Q60" s="103"/>
-      <c r="R60" s="106">
+    <row r="60" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L60" s="175" t="s">
+        <v>513</v>
+      </c>
+      <c r="M60" s="176"/>
+      <c r="N60" s="166" t="s">
+        <v>309</v>
+      </c>
+      <c r="O60" s="166"/>
+      <c r="P60" s="166"/>
+      <c r="Q60" s="166"/>
+      <c r="R60" s="88">
         <f>R59/(M13*C7*C8)+J42</f>
         <v>29.817048961714445</v>
       </c>
     </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J61" s="15"/>
       <c r="L61" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M61" s="50">
         <v>2.5</v>
       </c>
-      <c r="N61" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="O61" s="103"/>
-      <c r="P61" s="103"/>
-      <c r="Q61" s="103"/>
-      <c r="R61" s="106">
+      <c r="N61" s="166" t="s">
+        <v>310</v>
+      </c>
+      <c r="O61" s="166"/>
+      <c r="P61" s="166"/>
+      <c r="Q61" s="166"/>
+      <c r="R61" s="88">
         <f>R60+Q16+Q15</f>
         <v>41.68372096171445</v>
       </c>
     </row>
-    <row r="62" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L62" s="49" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M62" s="50">
         <v>0.5</v>
       </c>
-      <c r="N62" s="103"/>
-      <c r="O62" s="103"/>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="103"/>
-      <c r="R62" s="107"/>
-    </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="N62" s="166"/>
+      <c r="O62" s="166"/>
+      <c r="P62" s="166"/>
+      <c r="Q62" s="166"/>
+      <c r="R62" s="89"/>
+    </row>
+    <row r="63" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F63" s="21"/>
       <c r="L63" s="27"/>
       <c r="M63" s="28"/>
-      <c r="N63" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O63" s="103"/>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="103"/>
-      <c r="R63" s="108">
+      <c r="N63" s="166" t="s">
+        <v>295</v>
+      </c>
+      <c r="O63" s="166"/>
+      <c r="P63" s="166"/>
+      <c r="Q63" s="166"/>
+      <c r="R63" s="90">
         <f>(J43+R61)*M15/60</f>
         <v>9.0620474126271213E-5</v>
       </c>
     </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L64" s="27"/>
       <c r="M64" s="28"/>
-      <c r="N64" s="103" t="s">
-        <v>505</v>
-      </c>
-      <c r="O64" s="103"/>
-      <c r="P64" s="103"/>
-      <c r="Q64" s="103"/>
-      <c r="R64" s="109">
+      <c r="N64" s="166" t="s">
+        <v>504</v>
+      </c>
+      <c r="O64" s="166"/>
+      <c r="P64" s="166"/>
+      <c r="Q64" s="166"/>
+      <c r="R64" s="91">
         <f>(J43)*M15/60/R63</f>
         <v>0.23336454659550679</v>
       </c>
     </row>
-    <row r="65" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L65" s="27"/>
       <c r="M65" s="28"/>
-      <c r="N65" s="103"/>
-      <c r="O65" s="103"/>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="103"/>
-      <c r="R65" s="108"/>
-    </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="N65" s="166"/>
+      <c r="O65" s="166"/>
+      <c r="P65" s="166"/>
+      <c r="Q65" s="166"/>
+      <c r="R65" s="90"/>
+    </row>
+    <row r="66" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L66" s="27"/>
       <c r="M66" s="28"/>
-      <c r="N66" s="103" t="s">
-        <v>299</v>
-      </c>
-      <c r="O66" s="103"/>
-      <c r="P66" s="103"/>
-      <c r="Q66" s="103"/>
-      <c r="R66" s="108">
+      <c r="N66" s="166" t="s">
+        <v>298</v>
+      </c>
+      <c r="O66" s="166"/>
+      <c r="P66" s="166"/>
+      <c r="Q66" s="166"/>
+      <c r="R66" s="90">
         <f>(J43+J42)*M$16/60</f>
         <v>2.0392870463302686E-5</v>
       </c>
     </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L67" s="27"/>
       <c r="M67" s="28"/>
-      <c r="N67" s="103" t="s">
-        <v>297</v>
-      </c>
-      <c r="O67" s="103"/>
-      <c r="P67" s="103"/>
-      <c r="Q67" s="103"/>
-      <c r="R67" s="108">
+      <c r="N67" s="166" t="s">
+        <v>296</v>
+      </c>
+      <c r="O67" s="166"/>
+      <c r="P67" s="166"/>
+      <c r="Q67" s="166"/>
+      <c r="R67" s="90">
         <f>(J44+J42)*M$16/60</f>
         <v>2.9510895789776764E-5</v>
       </c>
     </row>
-    <row r="68" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L68" s="27"/>
       <c r="M68" s="28"/>
-      <c r="N68" s="103" t="s">
-        <v>298</v>
-      </c>
-      <c r="O68" s="103"/>
-      <c r="P68" s="103"/>
-      <c r="Q68" s="103"/>
-      <c r="R68" s="108">
+      <c r="N68" s="166" t="s">
+        <v>297</v>
+      </c>
+      <c r="O68" s="166"/>
+      <c r="P68" s="166"/>
+      <c r="Q68" s="166"/>
+      <c r="R68" s="90">
         <f>(J46+J42)*M$16/60</f>
         <v>4.4367445057683372E-5</v>
       </c>
     </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L69" s="27"/>
       <c r="M69" s="28"/>
-      <c r="N69" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="O69" s="103"/>
-      <c r="P69" s="103"/>
-      <c r="Q69" s="103"/>
-      <c r="R69" s="108">
+      <c r="N69" s="166" t="s">
+        <v>344</v>
+      </c>
+      <c r="O69" s="166"/>
+      <c r="P69" s="166"/>
+      <c r="Q69" s="166"/>
+      <c r="R69" s="90">
         <f>(J43+J42)*M$17/60</f>
         <v>1.6314296370642149E-5</v>
       </c>
     </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L70" s="27"/>
       <c r="M70" s="28"/>
-      <c r="N70" s="103" t="s">
-        <v>346</v>
-      </c>
-      <c r="O70" s="103"/>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="103"/>
-      <c r="R70" s="108">
+      <c r="N70" s="166" t="s">
+        <v>345</v>
+      </c>
+      <c r="O70" s="166"/>
+      <c r="P70" s="166"/>
+      <c r="Q70" s="166"/>
+      <c r="R70" s="90">
         <f>(J44+J42)*M$17/60</f>
         <v>2.3608716631821412E-5</v>
       </c>
     </row>
-    <row r="71" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L71" s="27"/>
       <c r="M71" s="28"/>
-      <c r="N71" s="103" t="s">
-        <v>347</v>
-      </c>
-      <c r="O71" s="103"/>
-      <c r="P71" s="103"/>
-      <c r="Q71" s="103"/>
-      <c r="R71" s="108">
+      <c r="N71" s="166" t="s">
+        <v>346</v>
+      </c>
+      <c r="O71" s="166"/>
+      <c r="P71" s="166"/>
+      <c r="Q71" s="166"/>
+      <c r="R71" s="90">
         <f>(J46+J42)*M$17/60</f>
         <v>3.5493956046146703E-5</v>
       </c>
     </row>
-    <row r="72" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L72" s="29"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="O72" s="110"/>
-      <c r="P72" s="110"/>
-      <c r="Q72" s="110"/>
-      <c r="R72" s="111">
+    <row r="72" spans="12:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L72" s="27"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="216" t="s">
+        <v>307</v>
+      </c>
+      <c r="O72" s="216"/>
+      <c r="P72" s="216"/>
+      <c r="Q72" s="216"/>
+      <c r="R72" s="217">
         <f>(J43+R60)*(M14+M18)/60</f>
         <v>14.168537491920908</v>
       </c>
     </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L73" s="62" t="s">
-        <v>437</v>
-      </c>
-      <c r="M73" s="63"/>
-      <c r="N73" s="104" t="s">
-        <v>309</v>
-      </c>
-      <c r="O73" s="104"/>
-      <c r="P73" s="104"/>
-      <c r="Q73" s="104"/>
-      <c r="R73" s="105">
+    <row r="73" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L73" s="171" t="s">
+        <v>436</v>
+      </c>
+      <c r="M73" s="173"/>
+      <c r="N73" s="174" t="s">
+        <v>308</v>
+      </c>
+      <c r="O73" s="174"/>
+      <c r="P73" s="174"/>
+      <c r="Q73" s="174"/>
+      <c r="R73" s="87">
         <f>S19+S20</f>
         <v>27751.54031372827</v>
       </c>
     </row>
-    <row r="74" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L74" s="69" t="s">
-        <v>515</v>
-      </c>
-      <c r="M74" s="70"/>
-      <c r="N74" s="103" t="s">
-        <v>310</v>
-      </c>
-      <c r="O74" s="103"/>
-      <c r="P74" s="103"/>
-      <c r="Q74" s="103"/>
-      <c r="R74" s="106">
+    <row r="74" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L74" s="164" t="s">
+        <v>514</v>
+      </c>
+      <c r="M74" s="165"/>
+      <c r="N74" s="166" t="s">
+        <v>309</v>
+      </c>
+      <c r="O74" s="166"/>
+      <c r="P74" s="166"/>
+      <c r="Q74" s="166"/>
+      <c r="R74" s="88">
         <f>R73/(M21*C7*C8)+J42</f>
         <v>36.623142690436488</v>
       </c>
     </row>
-    <row r="75" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L75" s="45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M75" s="46">
         <f>'Laser cutter'!J14</f>
         <v>0.71739130434782605</v>
       </c>
-      <c r="N75" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="O75" s="103"/>
-      <c r="P75" s="103"/>
-      <c r="Q75" s="103"/>
-      <c r="R75" s="106">
+      <c r="N75" s="166" t="s">
+        <v>310</v>
+      </c>
+      <c r="O75" s="166"/>
+      <c r="P75" s="166"/>
+      <c r="Q75" s="166"/>
+      <c r="R75" s="88">
         <f>R74+Q21+Q22</f>
         <v>42.165742690436488</v>
       </c>
     </row>
-    <row r="76" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L76" s="69"/>
-      <c r="M76" s="70"/>
-      <c r="N76" s="103"/>
-      <c r="O76" s="103"/>
-      <c r="P76" s="103"/>
-      <c r="Q76" s="103"/>
-      <c r="R76" s="107"/>
-    </row>
-    <row r="77" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L77" s="69"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="103" t="s">
-        <v>438</v>
-      </c>
-      <c r="O77" s="103"/>
-      <c r="P77" s="103"/>
-      <c r="Q77" s="103"/>
-      <c r="R77" s="108">
+    <row r="76" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L76" s="164"/>
+      <c r="M76" s="165"/>
+      <c r="N76" s="166"/>
+      <c r="O76" s="166"/>
+      <c r="P76" s="166"/>
+      <c r="Q76" s="166"/>
+      <c r="R76" s="89"/>
+    </row>
+    <row r="77" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L77" s="164"/>
+      <c r="M77" s="165"/>
+      <c r="N77" s="166" t="s">
+        <v>437</v>
+      </c>
+      <c r="O77" s="166"/>
+      <c r="P77" s="166"/>
+      <c r="Q77" s="166"/>
+      <c r="R77" s="90">
         <f>(J43*0.4+R75)*M23/60</f>
         <v>3.6218228873642784E-4</v>
       </c>
     </row>
-    <row r="78" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L78" s="69"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="103" t="s">
-        <v>537</v>
-      </c>
-      <c r="O78" s="103"/>
-      <c r="P78" s="103"/>
-      <c r="Q78" s="103"/>
-      <c r="R78" s="207">
+    <row r="78" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L78" s="164"/>
+      <c r="M78" s="165"/>
+      <c r="N78" s="166" t="s">
+        <v>504</v>
+      </c>
+      <c r="O78" s="166"/>
+      <c r="P78" s="166"/>
+      <c r="Q78" s="166"/>
+      <c r="R78" s="91">
+        <f>(J43)*M23/60/R77</f>
+        <v>0.26859123144983488</v>
+      </c>
+    </row>
+    <row r="79" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L79" s="164"/>
+      <c r="M79" s="165"/>
+      <c r="N79" s="166"/>
+      <c r="O79" s="166"/>
+      <c r="P79" s="166"/>
+      <c r="Q79" s="166"/>
+      <c r="R79" s="151"/>
+    </row>
+    <row r="80" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L80" s="164"/>
+      <c r="M80" s="165"/>
+      <c r="N80" s="166" t="s">
+        <v>536</v>
+      </c>
+      <c r="O80" s="166"/>
+      <c r="P80" s="166"/>
+      <c r="Q80" s="166"/>
+      <c r="R80" s="163">
         <f>(J43+J42)*M24/60</f>
         <v>0.61178611389908066</v>
       </c>
     </row>
-    <row r="79" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L79" s="69"/>
-      <c r="M79" s="70"/>
-      <c r="N79" s="103" t="s">
-        <v>538</v>
-      </c>
-      <c r="O79" s="103"/>
-      <c r="P79" s="103"/>
-      <c r="Q79" s="103"/>
-      <c r="R79" s="207">
+    <row r="81" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L81" s="164"/>
+      <c r="M81" s="165"/>
+      <c r="N81" s="166" t="s">
+        <v>537</v>
+      </c>
+      <c r="O81" s="166"/>
+      <c r="P81" s="166"/>
+      <c r="Q81" s="166"/>
+      <c r="R81" s="163">
         <f>(J44+J42)*M24/60</f>
         <v>0.88532687369330287</v>
       </c>
     </row>
-    <row r="80" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L80" s="69"/>
-      <c r="M80" s="70"/>
-      <c r="N80" s="103"/>
-      <c r="O80" s="103"/>
-      <c r="P80" s="103"/>
-      <c r="Q80" s="103"/>
-      <c r="R80" s="108"/>
-    </row>
-    <row r="81" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L81" s="69"/>
-      <c r="M81" s="70"/>
-      <c r="N81" s="103" t="s">
-        <v>539</v>
-      </c>
-      <c r="O81" s="103"/>
-      <c r="P81" s="103"/>
-      <c r="Q81" s="103"/>
-      <c r="R81" s="207">
+    <row r="82" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L82" s="164"/>
+      <c r="M82" s="165"/>
+      <c r="N82" s="166" t="s">
+        <v>538</v>
+      </c>
+      <c r="O82" s="166"/>
+      <c r="P82" s="166"/>
+      <c r="Q82" s="166"/>
+      <c r="R82" s="163">
         <f>(J43+J42)*M25/60</f>
         <v>0.40785740926605374</v>
       </c>
     </row>
-    <row r="82" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L82" s="69"/>
-      <c r="M82" s="70"/>
-      <c r="N82" s="103" t="s">
-        <v>540</v>
-      </c>
-      <c r="O82" s="103"/>
-      <c r="P82" s="103"/>
-      <c r="Q82" s="103"/>
-      <c r="R82" s="207">
+    <row r="83" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L83" s="164"/>
+      <c r="M83" s="165"/>
+      <c r="N83" s="166" t="s">
+        <v>539</v>
+      </c>
+      <c r="O83" s="166"/>
+      <c r="P83" s="166"/>
+      <c r="Q83" s="166"/>
+      <c r="R83" s="163">
         <f>(J44+J42)*M$25/60</f>
         <v>0.59021791579553518</v>
       </c>
     </row>
-    <row r="83" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L83" s="69"/>
-      <c r="M83" s="70"/>
-      <c r="N83" s="103"/>
-      <c r="O83" s="103"/>
-      <c r="P83" s="103"/>
-      <c r="Q83" s="103"/>
-      <c r="R83" s="108"/>
-    </row>
-    <row r="84" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L84" s="42"/>
       <c r="M84" s="43"/>
-      <c r="N84" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="O84" s="110"/>
-      <c r="P84" s="110"/>
-      <c r="Q84" s="110"/>
-      <c r="R84" s="111">
+      <c r="N84" s="167" t="s">
+        <v>307</v>
+      </c>
+      <c r="O84" s="167"/>
+      <c r="P84" s="167"/>
+      <c r="Q84" s="167"/>
+      <c r="R84" s="92">
         <f>(J43+R74)*(M26+M22)/60</f>
         <v>10.684203010971698</v>
       </c>
     </row>
-    <row r="85" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L85" s="57" t="s">
+    <row r="85" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L85" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="M85" s="58"/>
-      <c r="N85" s="104" t="s">
-        <v>309</v>
-      </c>
-      <c r="O85" s="104"/>
-      <c r="P85" s="104"/>
-      <c r="Q85" s="104"/>
-      <c r="R85" s="86">
+      <c r="M85" s="178"/>
+      <c r="N85" s="218" t="s">
+        <v>308</v>
+      </c>
+      <c r="O85" s="218"/>
+      <c r="P85" s="218"/>
+      <c r="Q85" s="218"/>
+      <c r="R85" s="219">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
       </c>
     </row>
-    <row r="86" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L86" s="54"/>
       <c r="M86" s="55"/>
-      <c r="N86" s="103" t="s">
-        <v>310</v>
-      </c>
-      <c r="O86" s="103"/>
-      <c r="P86" s="103"/>
-      <c r="Q86" s="103"/>
-      <c r="R86" s="140">
+      <c r="N86" s="166" t="s">
+        <v>309</v>
+      </c>
+      <c r="O86" s="166"/>
+      <c r="P86" s="166"/>
+      <c r="Q86" s="166"/>
+      <c r="R86" s="107">
         <f>R85/(M29*C7*C8)+J42</f>
         <v>13.487898272491385</v>
       </c>
       <c r="S86" s="12"/>
     </row>
-    <row r="87" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L87" s="31"/>
       <c r="M87" s="32"/>
-      <c r="N87" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="O87" s="103"/>
-      <c r="P87" s="103"/>
-      <c r="Q87" s="103"/>
-      <c r="R87" s="140">
+      <c r="N87" s="166" t="s">
+        <v>310</v>
+      </c>
+      <c r="O87" s="166"/>
+      <c r="P87" s="166"/>
+      <c r="Q87" s="166"/>
+      <c r="R87" s="107">
         <f>R86+Q33</f>
-        <v>13.487898272491385</v>
-      </c>
-    </row>
-    <row r="88" spans="12:19" x14ac:dyDescent="0.25">
+        <v>13.585773272491386</v>
+      </c>
+    </row>
+    <row r="88" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L88" s="31"/>
       <c r="M88" s="32"/>
-      <c r="N88" s="103"/>
-      <c r="O88" s="103"/>
-      <c r="P88" s="103"/>
-      <c r="Q88" s="103"/>
-      <c r="R88" s="193"/>
-    </row>
-    <row r="89" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="N88" s="166"/>
+      <c r="O88" s="166"/>
+      <c r="P88" s="166"/>
+      <c r="Q88" s="166"/>
+      <c r="R88" s="151"/>
+    </row>
+    <row r="89" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L89" s="31"/>
       <c r="M89" s="32"/>
-      <c r="N89" s="103" t="s">
-        <v>486</v>
-      </c>
-      <c r="O89" s="103"/>
-      <c r="P89" s="103"/>
-      <c r="Q89" s="103"/>
-      <c r="R89" s="87">
+      <c r="N89" s="166" t="s">
+        <v>485</v>
+      </c>
+      <c r="O89" s="166"/>
+      <c r="P89" s="166"/>
+      <c r="Q89" s="166"/>
+      <c r="R89" s="71">
         <f>Q34+Q36+(R87+J45)*M30/60</f>
-        <v>115.69401837964887</v>
-      </c>
-    </row>
-    <row r="90" spans="12:19" x14ac:dyDescent="0.25">
+        <v>115.92309617457708</v>
+      </c>
+    </row>
+    <row r="90" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L90" s="31"/>
       <c r="M90" s="32"/>
-      <c r="N90" s="103" t="s">
-        <v>487</v>
-      </c>
-      <c r="O90" s="103"/>
-      <c r="P90" s="103"/>
-      <c r="Q90" s="103"/>
-      <c r="R90" s="140">
+      <c r="N90" s="166" t="s">
+        <v>486</v>
+      </c>
+      <c r="O90" s="166"/>
+      <c r="P90" s="166"/>
+      <c r="Q90" s="166"/>
+      <c r="R90" s="107">
         <f>Q35+Q36+(R87+J45)*M30/60</f>
-        <v>115.65895632067921</v>
-      </c>
-    </row>
-    <row r="91" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>115.88803411560743</v>
+      </c>
+    </row>
+    <row r="91" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L91" s="33"/>
       <c r="M91" s="34"/>
-      <c r="N91" s="110"/>
-      <c r="O91" s="110"/>
-      <c r="P91" s="110"/>
-      <c r="Q91" s="110"/>
-      <c r="R91" s="99"/>
-    </row>
-    <row r="92" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L92" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="M92" s="60"/>
-      <c r="N92" s="104" t="s">
-        <v>309</v>
-      </c>
-      <c r="O92" s="104"/>
-      <c r="P92" s="104"/>
-      <c r="Q92" s="104"/>
-      <c r="R92" s="105">
+      <c r="N91" s="167"/>
+      <c r="O91" s="167"/>
+      <c r="P91" s="167"/>
+      <c r="Q91" s="167"/>
+      <c r="R91" s="83"/>
+    </row>
+    <row r="92" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L92" s="182" t="s">
+        <v>421</v>
+      </c>
+      <c r="M92" s="215"/>
+      <c r="N92" s="174" t="s">
+        <v>308</v>
+      </c>
+      <c r="O92" s="174"/>
+      <c r="P92" s="174"/>
+      <c r="Q92" s="174"/>
+      <c r="R92" s="87">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
       </c>
     </row>
-    <row r="93" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L93" s="52"/>
       <c r="M93" s="53"/>
-      <c r="N93" s="103" t="s">
-        <v>310</v>
-      </c>
-      <c r="O93" s="103"/>
-      <c r="P93" s="103"/>
-      <c r="Q93" s="103"/>
-      <c r="R93" s="106">
+      <c r="N93" s="166" t="s">
+        <v>309</v>
+      </c>
+      <c r="O93" s="166"/>
+      <c r="P93" s="166"/>
+      <c r="Q93" s="166"/>
+      <c r="R93" s="88">
         <f>R92/(M39*C7*C8)+J42</f>
         <v>18.582550670531941</v>
       </c>
     </row>
-    <row r="94" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L94" s="27"/>
       <c r="M94" s="28"/>
-      <c r="N94" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="O94" s="103"/>
-      <c r="P94" s="103"/>
-      <c r="Q94" s="103"/>
-      <c r="R94" s="106">
+      <c r="N94" s="166" t="s">
+        <v>310</v>
+      </c>
+      <c r="O94" s="166"/>
+      <c r="P94" s="166"/>
+      <c r="Q94" s="166"/>
+      <c r="R94" s="88">
         <f>R93+Q42+Q41</f>
         <v>28.958390670531941</v>
       </c>
     </row>
-    <row r="95" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L95" s="27"/>
       <c r="M95" s="28"/>
-      <c r="N95" s="103"/>
-      <c r="O95" s="103"/>
-      <c r="P95" s="103"/>
-      <c r="Q95" s="103"/>
-      <c r="R95" s="107"/>
-    </row>
-    <row r="96" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="N95" s="166"/>
+      <c r="O95" s="166"/>
+      <c r="P95" s="166"/>
+      <c r="Q95" s="166"/>
+      <c r="R95" s="89"/>
+    </row>
+    <row r="96" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L96" s="27"/>
       <c r="M96" s="28"/>
-      <c r="N96" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O96" s="103"/>
-      <c r="P96" s="103"/>
-      <c r="Q96" s="103"/>
-      <c r="R96" s="108">
+      <c r="N96" s="166" t="s">
+        <v>295</v>
+      </c>
+      <c r="O96" s="166"/>
+      <c r="P96" s="166"/>
+      <c r="Q96" s="166"/>
+      <c r="R96" s="90">
         <f>(J43+R94)*M41/60</f>
         <v>2.0823477092290108E-4</v>
       </c>
     </row>
-    <row r="97" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="12:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L97" s="29"/>
       <c r="M97" s="30"/>
-      <c r="N97" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="O97" s="110"/>
-      <c r="P97" s="110"/>
-      <c r="Q97" s="110"/>
-      <c r="R97" s="111">
+      <c r="N97" s="167" t="s">
+        <v>307</v>
+      </c>
+      <c r="O97" s="167"/>
+      <c r="P97" s="167"/>
+      <c r="Q97" s="167"/>
+      <c r="R97" s="92">
         <f>(J43+R93)*(M40+M42)/60</f>
         <v>7.8177785461450551</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="N95:Q95"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="N89:Q89"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L19:M19"/>
@@ -8548,65 +8660,22 @@
     <mergeCell ref="N55:Q55"/>
     <mergeCell ref="N56:Q56"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="N89:Q89"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="N86:Q86"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="N93:Q93"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N87:Q87"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8614,7 +8683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -8624,33 +8693,33 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
         <v>215</v>
@@ -8659,15 +8728,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E4">
         <v>208995</v>
@@ -8680,27 +8749,27 @@
         <v>99</v>
       </c>
       <c r="P4" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>425</v>
+      </c>
+      <c r="R4" t="s">
         <v>427</v>
       </c>
-      <c r="Q4" t="s">
-        <v>426</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>428</v>
       </c>
-      <c r="S4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" t="s">
         <v>433</v>
-      </c>
-      <c r="C5" t="s">
-        <v>434</v>
       </c>
       <c r="F5">
         <v>126.82</v>
@@ -8710,10 +8779,10 @@
         <v>101.456</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P5">
         <v>76.5</v>
@@ -8730,9 +8799,9 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R6">
         <v>10.6</v>
@@ -8741,7 +8810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R7">
         <f>R6*S6/S7</f>
         <v>341.93548387096774</v>
@@ -8750,32 +8819,32 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R8">
         <f>R7/R5/3600</f>
         <v>4.4697448872021921</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" t="s">
         <v>368</v>
       </c>
-      <c r="C9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>369</v>
       </c>
-      <c r="E9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" t="s">
         <v>357</v>
-      </c>
-      <c r="B10" t="s">
-        <v>358</v>
       </c>
       <c r="C10">
         <v>780</v>
@@ -8792,9 +8861,9 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11">
         <v>230</v>
@@ -8811,9 +8880,9 @@
         <v>1.7117425539198904E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12">
         <v>125</v>
@@ -8830,15 +8899,15 @@
         <v>3.1496062992125983E-4</v>
       </c>
       <c r="I12" t="s">
+        <v>506</v>
+      </c>
+      <c r="J12" t="s">
         <v>507</v>
       </c>
-      <c r="J12" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C13">
         <v>86</v>
@@ -8861,9 +8930,9 @@
         <v>3.3E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -8880,16 +8949,16 @@
         <v>5.3202809108320926E-4</v>
       </c>
       <c r="I14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J14" s="44">
         <f>J13/I13</f>
         <v>0.71739130434782605</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C15">
         <v>59</v>
@@ -8906,9 +8975,9 @@
         <v>6.672894701721607E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -8925,9 +8994,9 @@
         <v>7.874015748031496E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -8944,9 +9013,9 @@
         <v>1.3123359580052493E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -8963,12 +9032,12 @@
         <v>1.7117425539198907E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C19">
         <v>780</v>
@@ -8985,9 +9054,9 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C20">
         <v>216</v>
@@ -9004,9 +9073,9 @@
         <v>1.8226888305628464E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -9023,9 +9092,9 @@
         <v>5.3202809108320926E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C22">
         <v>47</v>
@@ -9042,9 +9111,9 @@
         <v>8.3766124979058477E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -9061,12 +9130,12 @@
         <v>1.6404199475065619E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C24">
         <v>300</v>
@@ -9083,9 +9152,9 @@
         <v>1.3123359580052493E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C25">
         <v>120</v>
@@ -9102,9 +9171,9 @@
         <v>3.2808398950131233E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -9123,9 +9192,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -9133,34 +9202,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
         <v>215</v>
@@ -9172,7 +9241,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -9183,18 +9252,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -9202,10 +9271,10 @@
         <v>3859.6</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -9216,7 +9285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -9227,7 +9296,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -9238,10 +9307,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -9250,40 +9319,40 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B13" s="37">
         <v>200</v>
       </c>
       <c r="C13" s="36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>445</v>
       </c>
       <c r="B14" s="36">
         <v>18</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B15" s="38">
         <f>B14*5/228</f>
@@ -9291,18 +9360,18 @@
       </c>
       <c r="C15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B16" s="36">
         <v>5.5</v>
       </c>
       <c r="C16" s="36"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B17" s="39">
         <f>B15*B13/B16</f>
@@ -9311,40 +9380,40 @@
       <c r="C17" s="36"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B20" s="36">
         <v>12.8</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B21" s="36">
         <v>11</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B22" s="36">
         <f>PI()*0.04*0.04*100*7.8</f>
@@ -9352,9 +9421,9 @@
       </c>
       <c r="C22" s="36"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B23" s="37">
         <f>B20*B22/1000</f>
@@ -9362,40 +9431,40 @@
       </c>
       <c r="C23" s="36"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B26" s="36">
         <v>10.050000000000001</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>456</v>
       </c>
       <c r="B27" s="36">
         <v>2</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B28" s="36">
         <f>PI()*0.1*0.1*100*2.7</f>
@@ -9403,9 +9472,9 @@
       </c>
       <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B29" s="37">
         <f>B26*B28/1000</f>
@@ -9413,33 +9482,33 @@
       </c>
       <c r="C29" s="36"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="35"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B32" s="41">
         <f>30/(2*PI()*0.034)</f>
         <v>140.43083213990764</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B33" s="39">
         <f>'Manpower &amp; time'!H6/60</f>
@@ -9447,9 +9516,9 @@
       </c>
       <c r="C33" s="36"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B34" s="39">
         <f>B33*B32</f>
@@ -9459,18 +9528,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="G9" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="C26" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9480,86 +9549,86 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B2" s="2">
         <v>15000</v>
       </c>
       <c r="C2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B4" s="2">
         <v>10000</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9573,7 +9642,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9617,7 +9686,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -9626,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -9635,7 +9704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -9698,7 +9767,7 @@
         <v>4.7646666666666666E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -9761,7 +9830,7 @@
         <v>4.7479999999999999E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -9824,7 +9893,7 @@
         <v>4.7380000000000004E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -9878,7 +9947,7 @@
         <v>4.7502222222222225E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>32</v>
       </c>
@@ -9925,7 +9994,7 @@
         <v>3.6720000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>32</v>
       </c>
@@ -9972,7 +10041,7 @@
         <v>3.2127777777777776E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>32</v>
       </c>
@@ -10019,7 +10088,7 @@
         <v>3.348687883863763E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>32</v>
       </c>
@@ -10057,7 +10126,7 @@
         <v>3.478250451663077E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>40</v>
       </c>
@@ -10082,7 +10151,7 @@
         <v>1.4970377000558874E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50</v>
       </c>
@@ -10101,7 +10170,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50</v>
       </c>
@@ -10119,7 +10188,7 @@
         <v>3.5986666666666665E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50</v>
       </c>
@@ -10140,19 +10209,19 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S15" t="s">
         <v>6</v>
       </c>
       <c r="T15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U15" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>8</v>
       </c>
@@ -10161,7 +10230,7 @@
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
@@ -10173,19 +10242,19 @@
         <v>3</v>
       </c>
       <c r="S16" t="s">
+        <v>523</v>
+      </c>
+      <c r="T16" t="s">
         <v>524</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>525</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>526</v>
       </c>
-      <c r="V16" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N17">
         <v>5</v>
       </c>
@@ -10213,7 +10282,7 @@
         <v>7.0974010050808657E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N18">
         <v>10</v>
       </c>
@@ -10241,12 +10310,12 @@
         <v>5.7486765444792583E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -10275,9 +10344,9 @@
         <v>5.333458981835071E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -10315,7 +10384,7 @@
         <v>4.8568301179170389E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>10</v>
       </c>
@@ -10356,7 +10425,7 @@
         <v>6.5651414025406826E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
@@ -10385,7 +10454,7 @@
         <v>5.9203016103705834E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -10404,10 +10473,10 @@
         <v>6060</v>
       </c>
       <c r="T23" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>25</v>
       </c>
@@ -10436,7 +10505,7 @@
         <v>2.1368281055120556E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>25</v>
       </c>
@@ -10465,7 +10534,7 @@
         <v>7.4670194133947567E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>30</v>
       </c>
@@ -10482,7 +10551,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>35</v>
       </c>
@@ -10499,7 +10568,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>8</v>
       </c>
@@ -10510,43 +10579,43 @@
       <c r="U28" s="2"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N30" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" t="s">
+        <v>331</v>
+      </c>
+      <c r="H31" t="s">
+        <v>300</v>
+      </c>
+      <c r="N31" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>332</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="O31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>301</v>
-      </c>
-      <c r="G31" t="s">
-        <v>332</v>
-      </c>
-      <c r="H31" t="s">
-        <v>301</v>
-      </c>
-      <c r="N31" t="s">
-        <v>458</v>
-      </c>
-      <c r="O31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>302</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -10558,7 +10627,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
@@ -10570,7 +10639,7 @@
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P32" t="s">
         <v>2</v>
@@ -10579,10 +10648,10 @@
         <v>87</v>
       </c>
       <c r="R32" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10</v>
       </c>
@@ -10623,7 +10692,7 @@
         <v>2.9294456712851987E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>16</v>
       </c>
@@ -10664,7 +10733,7 @@
         <v>2.938000249476388E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>20</v>
       </c>
@@ -10705,7 +10774,7 @@
         <v>2.9416926441561197E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>40</v>
       </c>
@@ -10746,7 +10815,7 @@
         <v>2.7748664328071946E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>50</v>
       </c>
@@ -10781,7 +10850,7 @@
         <v>2.9404759930355956E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>60</v>
       </c>
@@ -10811,7 +10880,7 @@
         <v>2.7762590385592491E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>80</v>
       </c>
@@ -10835,7 +10904,7 @@
         <v>2.8834566715532905E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>8</v>
       </c>
@@ -10845,20 +10914,20 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>460</v>
       </c>
-      <c r="B44" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -10875,7 +10944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.5</v>
       </c>
@@ -10893,43 +10962,43 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>461</v>
+      </c>
+      <c r="G48" t="s">
         <v>462</v>
       </c>
-      <c r="G48" t="s">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>463</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>464</v>
       </c>
       <c r="B49" t="s">
         <v>87</v>
       </c>
       <c r="C49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D49" t="s">
+        <v>529</v>
+      </c>
+      <c r="G49" t="s">
+        <v>463</v>
+      </c>
+      <c r="H49" t="s">
         <v>465</v>
       </c>
-      <c r="D49" t="s">
-        <v>530</v>
-      </c>
-      <c r="G49" t="s">
-        <v>464</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>466</v>
-      </c>
-      <c r="I49" t="s">
-        <v>467</v>
       </c>
       <c r="J49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B50" s="2">
         <v>86.4</v>
@@ -10943,7 +11012,7 @@
         <v>1.9072847682119207E-5</v>
       </c>
       <c r="G50" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H50" s="19">
         <v>1.1000000000000001</v>
@@ -10957,9 +11026,9 @@
         <v>8.5470000000000013E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B51" s="2">
         <v>60</v>
@@ -10973,7 +11042,7 @@
         <v>1.5915494309189534E-5</v>
       </c>
       <c r="G51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H51" s="19">
         <v>2.5</v>
@@ -10987,9 +11056,9 @@
         <v>1.9425000000000001E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B52" s="2">
         <v>28.32</v>
@@ -11003,7 +11072,7 @@
         <v>9.8117398386121925E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H52" s="19">
         <v>2.5</v>
@@ -11017,9 +11086,9 @@
         <v>1.9425000000000001E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B53" s="2">
         <v>35.4</v>
@@ -11033,7 +11102,7 @@
         <v>9.8333333333333329E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H53" s="19">
         <v>18</v>
@@ -11047,9 +11116,9 @@
         <v>4.8600000000000002E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B54" s="2">
         <v>81.599999999999994</v>
@@ -11063,9 +11132,9 @@
         <v>9.7142857142857135E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B55" s="2">
         <v>8</v>
@@ -11080,9 +11149,9 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B56" s="2">
         <v>50</v>
@@ -11096,9 +11165,9 @@
         <v>2.5062656641604011E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B57" s="2">
         <v>46.2</v>
@@ -11112,9 +11181,9 @@
         <v>2.2211538461538464E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B58" s="2">
         <v>28</v>
@@ -11128,9 +11197,9 @@
         <v>2.0480672862977284E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B59" s="2">
         <v>35.700000000000003</v>
@@ -11144,9 +11213,9 @@
         <v>2.380198551973887E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B60" s="2">
         <v>13</v>
@@ -11160,17 +11229,17 @@
         <v>2.0690142601946392E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D61" s="1">
         <f>AVERAGE(D51,D50)</f>
         <v>1.7494170995654369E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>8</v>
       </c>
@@ -11179,12 +11248,12 @@
         <v>2.2449399217561005E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -11195,7 +11264,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -11207,7 +11276,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>80</v>
       </c>
@@ -11229,10 +11298,10 @@
         <v>1.605E-5</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>50</v>
       </c>
@@ -11254,7 +11323,7 @@
         <v>1.98E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>30</v>
       </c>
@@ -11276,7 +11345,7 @@
         <v>1.98E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>40</v>
       </c>
@@ -11300,13 +11369,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="S1" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="G30" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="A43" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="G66" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="A30" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="S1" r:id="rId2"/>
+    <hyperlink ref="G30" r:id="rId3"/>
+    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4"/>
+    <hyperlink ref="A43" r:id="rId5"/>
+    <hyperlink ref="G66" r:id="rId6"/>
+    <hyperlink ref="A30" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -11314,7 +11383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
@@ -11324,25 +11393,25 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -11350,7 +11419,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -11358,7 +11427,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>161</v>
       </c>
@@ -11366,19 +11435,19 @@
         <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -11404,9 +11473,9 @@
         <v>12.68856351404828</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -11430,9 +11499,9 @@
         <v>23.630193905817173</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B7" s="2">
         <v>3077</v>
@@ -11456,9 +11525,9 @@
         <v>29.773842500989314</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="2">
         <v>4104</v>
@@ -11482,9 +11551,9 @@
         <v>41.458053027305105</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9">
         <f>SUM(F8+F6+F5)</f>
@@ -11495,7 +11564,7 @@
         <v>11403.29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -11503,7 +11572,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>165</v>
       </c>
@@ -11511,7 +11580,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -11519,7 +11588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -11527,7 +11596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -11535,7 +11604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -11544,7 +11613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -11553,27 +11622,27 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" t="s">
         <v>271</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" t="s">
+        <v>423</v>
+      </c>
+      <c r="F22" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" t="s">
         <v>272</v>
       </c>
-      <c r="D22" t="s">
-        <v>423</v>
-      </c>
-      <c r="E22" t="s">
-        <v>424</v>
-      </c>
-      <c r="F22" t="s">
-        <v>422</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>273</v>
-      </c>
-      <c r="H22" t="s">
-        <v>274</v>
       </c>
       <c r="I22" t="s">
         <v>34</v>
@@ -11582,10 +11651,10 @@
         <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -11618,9 +11687,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H24">
         <v>0.5</v>
@@ -11633,9 +11702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G25">
         <v>0.85</v>
@@ -11651,9 +11720,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H26">
         <v>0.35</v>
@@ -11669,9 +11738,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27:J27" si="3">$B$30*SUM(B23:B26)</f>
@@ -11714,9 +11783,9 @@
         <v>10765.019999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B28">
         <f>Summary!$C$9*Summary!$C$8*Summary!$C$7</f>
@@ -11759,51 +11828,51 @@
         <v>10709.159999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D29">
         <f>D28*0.4</f>
         <v>446.88000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B30">
         <f>Summary!$C$10*Summary!$C$8*Summary!$C$7</f>
         <v>1516.2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" s="11">
         <f>SUMPRODUCT(D5:D8*J23:J26)</f>
         <v>13108.788</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11813,12 +11882,12 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -11826,43 +11895,43 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4">
         <v>38.64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5">
         <f>(24*2 + 7.5)*0.8+16+14</f>
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="2">
         <f>B5*B4</f>
         <v>2874.8160000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -11870,7 +11939,7 @@
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>199</v>
       </c>
@@ -11878,9 +11947,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10" s="2">
         <v>2.77</v>
@@ -11890,20 +11959,20 @@
         <v>2.2160000000000002</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -11913,13 +11982,13 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -11939,7 +12008,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -11957,7 +12026,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -11975,7 +12044,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -11993,10 +12062,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -12011,7 +12080,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -12026,7 +12095,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -12041,10 +12110,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -12059,7 +12128,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -12071,7 +12140,7 @@
         <v>326.40000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -12086,10 +12155,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -12107,7 +12176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>147</v>
       </c>
@@ -12122,7 +12191,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>149</v>
       </c>
@@ -12137,7 +12206,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>151</v>
       </c>
@@ -12152,7 +12221,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -12170,7 +12239,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>217</v>
       </c>
@@ -12185,11 +12254,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -12211,46 +12280,46 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="s">
         <v>257</v>
-      </c>
-      <c r="B23" t="s">
-        <v>258</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" t="s">
         <v>260</v>
-      </c>
-      <c r="B25" t="s">
-        <v>261</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -12260,15 +12329,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>200</v>
       </c>
@@ -12279,7 +12348,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -12297,7 +12366,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -12312,11 +12381,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -12331,7 +12400,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -12346,7 +12415,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -12361,7 +12430,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -12373,7 +12442,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>208</v>
       </c>
@@ -12385,11 +12454,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -12404,7 +12473,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -12419,7 +12488,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -12434,11 +12503,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -12453,7 +12522,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -12468,7 +12537,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -12483,7 +12552,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -12498,7 +12567,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -12512,26 +12581,26 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D22" s="2">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D23" s="2">
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -12540,7 +12609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -12550,9 +12619,9 @@
       <selection activeCell="A11" sqref="A11:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -12566,84 +12635,84 @@
         <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D2" s="2">
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3" s="2">
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" s="2">
         <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5" s="2">
         <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
       <c r="E6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>320</v>
       </c>
       <c r="D7" s="2">
         <v>1851</v>
       </c>
       <c r="E7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>322</v>
       </c>
       <c r="D8" s="2">
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -12652,7 +12721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -12662,25 +12731,25 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
         <v>215</v>
@@ -12692,7 +12761,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -12707,7 +12776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -12722,7 +12791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -12737,9 +12806,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D5" s="18">
         <v>3795</v>
@@ -12749,54 +12818,54 @@
         <v>3359.4773556177188</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D6" s="18"/>
       <c r="F6" s="2">
         <v>119</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D7" s="18"/>
       <c r="F7" s="2">
         <v>379</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8" s="18"/>
       <c r="F8" s="2">
         <v>425</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s">
         <v>246</v>
-      </c>
-      <c r="B10" t="s">
-        <v>247</v>
       </c>
       <c r="C10" s="9"/>
       <c r="F10" s="2">
@@ -12806,12 +12875,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="9"/>
       <c r="E11" s="2">
@@ -12825,7 +12894,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -12839,7 +12908,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>109</v>
       </c>
@@ -12850,7 +12919,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>112</v>
       </c>
@@ -12862,59 +12931,59 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" t="s">
         <v>379</v>
-      </c>
-      <c r="B17" t="s">
-        <v>380</v>
       </c>
       <c r="F17" s="2">
         <v>12999</v>
       </c>
       <c r="G17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F20" s="2">
         <v>1001.67</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>325</v>
       </c>
       <c r="F21" s="2">
         <v>352.31</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F23" s="2">
         <v>2302.5700000000002</v>
       </c>
       <c r="G23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -12923,12 +12992,12 @@
         <v>69.400000000000006</v>
       </c>
       <c r="G25" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -12937,12 +13006,12 @@
         <v>1433.25</v>
       </c>
       <c r="G26" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -12951,12 +13020,12 @@
         <v>1866.02</v>
       </c>
       <c r="G27" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -12965,12 +13034,12 @@
         <v>859.65</v>
       </c>
       <c r="G28" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -12979,12 +13048,12 @@
         <v>699.07</v>
       </c>
       <c r="G29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -12993,65 +13062,65 @@
         <v>16.899999999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" t="s">
         <v>411</v>
-      </c>
-      <c r="B32" t="s">
-        <v>412</v>
       </c>
       <c r="F32" s="2">
         <v>3259</v>
       </c>
       <c r="G32" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F34" s="2">
         <v>1075</v>
       </c>
       <c r="G34" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F36" s="2">
         <f>1031.54</f>
         <v>1031.54</v>
       </c>
       <c r="G36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="G11" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="G3" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="G20" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="G21" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G13" r:id="rId5"/>
+    <hyperlink ref="G14" r:id="rId6"/>
+    <hyperlink ref="G15" r:id="rId7"/>
+    <hyperlink ref="G3" r:id="rId8"/>
+    <hyperlink ref="G20" r:id="rId9"/>
+    <hyperlink ref="G21" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -13061,18 +13130,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -13084,12 +13153,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -13100,7 +13169,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>67</v>
       </c>
@@ -13108,7 +13177,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>68</v>
       </c>
@@ -13116,22 +13185,22 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -13142,7 +13211,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>67</v>
       </c>
@@ -13150,7 +13219,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -13158,7 +13227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -13166,7 +13235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -13174,7 +13243,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -13182,7 +13251,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -13190,7 +13259,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -13198,7 +13267,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -13209,7 +13278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>216</v>
       </c>
@@ -13220,7 +13289,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -13235,7 +13304,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -13249,7 +13318,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -13263,7 +13332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -13271,7 +13340,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -13285,7 +13354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -13307,7 +13376,7 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -13322,7 +13391,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>200</v>
       </c>
@@ -13336,17 +13405,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D24" r:id="rId3"/>
+    <hyperlink ref="D23" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -13356,42 +13425,42 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B2" s="2">
         <f>133720</f>
         <v>133720</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>198</v>
       </c>
@@ -13399,7 +13468,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -13407,33 +13476,33 @@
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -13441,7 +13510,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -13455,7 +13524,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -13477,7 +13546,7 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -13492,7 +13561,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>200</v>
       </c>
@@ -13504,14 +13573,14 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/CR - Cost Report/CBOM/Cost_v1.5.xlsx
+++ b/CR - Cost Report/CBOM/Cost_v1.5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\CBOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC83E55-639E-4BAA-94A9-74851D0A1BA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-6690" yWindow="2655" windowWidth="14130" windowHeight="12150" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <sheet name="Conventionnal machinning" sheetId="15" r:id="rId12"/>
     <sheet name="Material" sheetId="2" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="545">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -730,9 +731,6 @@
     <t>Printer</t>
   </si>
   <si>
-    <t>Printer consumable (4000 A4pages B&amp;W, 1600 A4pages Colors)</t>
-  </si>
-  <si>
     <t>Cost/year</t>
   </si>
   <si>
@@ -1057,9 +1055,6 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t>Worktable &amp; office storage</t>
   </si>
   <si>
@@ -1264,9 +1259,6 @@
     <t>Measuring and deflash time / mm^3 (40% of machining time)</t>
   </si>
   <si>
-    <t>Programation time and supply order / mm^3 (50% of machining time)</t>
-  </si>
-  <si>
     <t>Lifting equipment</t>
   </si>
   <si>
@@ -1348,9 +1340,6 @@
     <t>Assist Gas O2 or air</t>
   </si>
   <si>
-    <t>Programation time and supply order/ mm^3 (50% of machining time)</t>
-  </si>
-  <si>
     <t>Laser cutting</t>
   </si>
   <si>
@@ -1528,9 +1517,6 @@
     <t>3 % of initial cost /year</t>
   </si>
   <si>
-    <t>Water rate/m^3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cutting tools </t>
   </si>
   <si>
@@ -1673,22 +1659,54 @@
   </si>
   <si>
     <t>cost/hour</t>
+  </si>
+  <si>
+    <r>
+      <t>Water rate/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Printer consumable 
+(4000 A4pages B&amp;W, 1600 A4pages Colors)</t>
+  </si>
+  <si>
+    <t>Overhead Summary</t>
+  </si>
+  <si>
+    <t>Manufacturing Summary</t>
+  </si>
+  <si>
+    <t>Programming time and supply order/ mm^3 (50% of machining time)</t>
+  </si>
+  <si>
+    <t>Programming time and supply order / mm^3 (50% of machining time)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1728,6 +1746,36 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2263,9 +2311,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2293,9 +2341,9 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2381,7 +2429,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2604,172 +2652,269 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="12" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -3136,7 +3281,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3144,6 +3288,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3503,7 +3648,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3511,6 +3655,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3858,7 +4003,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3866,6 +4010,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5977,75 +6122,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA118"/>
   <sheetViews>
-    <sheetView topLeftCell="K64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R87" sqref="R87"/>
+    <sheetView tabSelected="1" topLeftCell="K60" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="P101" sqref="P101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" customWidth="1"/>
-    <col min="12" max="12" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="49.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="32.28515625" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
       <c r="D1" s="58"/>
-      <c r="F1" s="196" t="s">
+      <c r="F1" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="198"/>
-      <c r="L1" s="199" t="s">
-        <v>232</v>
-      </c>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="201"/>
-      <c r="U1" s="179" t="s">
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="177"/>
+      <c r="L1" s="178" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="180"/>
+      <c r="U1" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="179"/>
-      <c r="W1" s="179"/>
-      <c r="Y1" s="168" t="s">
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="Y1" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-    </row>
-    <row r="2" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="210"/>
+    </row>
+    <row r="2" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
         <v>33</v>
       </c>
@@ -6056,7 +6201,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" s="102" t="s">
         <v>33</v>
@@ -6068,10 +6213,10 @@
         <v>17</v>
       </c>
       <c r="I2" s="104" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J2" s="105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L2" s="128" t="s">
         <v>15</v>
@@ -6081,19 +6226,19 @@
         <v>16</v>
       </c>
       <c r="O2" s="129" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P2" s="129" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q2" s="129" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="130" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S2" s="131" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>15</v>
@@ -6114,7 +6259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>54</v>
       </c>
@@ -6125,8 +6270,8 @@
         <f>'Manpower &amp; time'!C5</f>
         <v>21376</v>
       </c>
-      <c r="D3" s="212" t="s">
-        <v>542</v>
+      <c r="D3" s="196" t="s">
+        <v>537</v>
       </c>
       <c r="F3" s="116" t="s">
         <v>34</v>
@@ -6145,15 +6290,15 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="169" t="s">
-        <v>509</v>
-      </c>
-      <c r="M3" s="170"/>
+      <c r="L3" s="183" t="s">
+        <v>504</v>
+      </c>
+      <c r="M3" s="211"/>
       <c r="N3" s="110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O3" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P3" s="68"/>
       <c r="Q3" s="69">
@@ -6177,7 +6322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
       <c r="B4" s="36" t="s">
         <v>55</v>
@@ -6186,7 +6331,7 @@
         <f>'Manpower &amp; time'!C6</f>
         <v>39809</v>
       </c>
-      <c r="D4" s="213"/>
+      <c r="D4" s="197"/>
       <c r="F4" s="117"/>
       <c r="G4" s="111" t="s">
         <v>220</v>
@@ -6203,16 +6348,16 @@
         <v>183.84</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M4" s="134">
         <v>22.4</v>
       </c>
       <c r="N4" s="111" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P4" s="36"/>
       <c r="Q4" s="39">
@@ -6234,7 +6379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
       <c r="B5" s="36" t="s">
         <v>56</v>
@@ -6243,7 +6388,7 @@
         <f>'Manpower &amp; time'!C8</f>
         <v>69843</v>
       </c>
-      <c r="D5" s="213"/>
+      <c r="D5" s="197"/>
       <c r="F5" s="117"/>
       <c r="G5" s="111" t="s">
         <v>219</v>
@@ -6260,17 +6405,17 @@
         <v>127.2</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M5" s="135">
         <f>C9</f>
         <v>0.8</v>
       </c>
       <c r="N5" s="111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P5" s="36"/>
       <c r="Q5" s="39">
@@ -6291,7 +6436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61"/>
       <c r="B6" s="72" t="s">
         <v>57</v>
@@ -6300,7 +6445,7 @@
         <f>'Manpower &amp; time'!C6</f>
         <v>39809</v>
       </c>
-      <c r="D6" s="214"/>
+      <c r="D6" s="198"/>
       <c r="F6" s="117"/>
       <c r="G6" s="111" t="s">
         <v>37</v>
@@ -6317,7 +6462,7 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M6" s="134">
         <v>5</v>
@@ -6326,10 +6471,10 @@
         <v>22</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="39">
         <f>0.05*Q3</f>
@@ -6347,7 +6492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>58</v>
       </c>
@@ -6374,7 +6519,7 @@
         <v>320.96000000000004</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M7" s="136">
         <f>1/10000</f>
@@ -6384,10 +6529,10 @@
         <v>19</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="65">
         <f>M4*0.8*C12</f>
@@ -6397,7 +6542,7 @@
       <c r="S7" s="151"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
       <c r="B8" s="36" t="s">
         <v>60</v>
@@ -6423,20 +6568,20 @@
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="54" t="s">
-        <v>407</v>
+        <v>544</v>
       </c>
       <c r="M8" s="136">
         <f>M7*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="N8" s="111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="37">
         <v>20</v>
@@ -6445,7 +6590,7 @@
       <c r="S8" s="151"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60"/>
       <c r="B9" s="36" t="s">
         <v>61</v>
@@ -6454,11 +6599,11 @@
         <v>0.8</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="118"/>
       <c r="G9" s="112" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H9" s="73">
         <f>Metrology!E25</f>
@@ -6472,20 +6617,20 @@
         <v>539</v>
       </c>
       <c r="L9" s="54" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M9" s="136">
         <f>M7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N9" s="111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="39">
         <f>1*'CNC mill'!F31</f>
@@ -6500,22 +6645,22 @@
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61"/>
       <c r="B10" s="72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="77">
         <v>0.95</v>
       </c>
-      <c r="D10" s="78" t="s">
-        <v>281</v>
+      <c r="D10" s="220" t="s">
+        <v>280</v>
       </c>
       <c r="F10" s="119" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H10" s="69">
         <f>Energies!B6</f>
@@ -6529,7 +6674,7 @@
         <v>2874.8160000000003</v>
       </c>
       <c r="L10" s="152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M10" s="153">
         <v>20</v>
@@ -6545,9 +6690,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="68" t="s">
         <v>173</v>
@@ -6558,8 +6703,8 @@
       </c>
       <c r="D11" s="70"/>
       <c r="F11" s="120"/>
-      <c r="G11" s="114" t="s">
-        <v>291</v>
+      <c r="G11" s="221" t="s">
+        <v>290</v>
       </c>
       <c r="H11" s="37">
         <f>16*C7*C8*C12</f>
@@ -6572,15 +6717,15 @@
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="L11" s="182" t="s">
+      <c r="L11" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="183"/>
+      <c r="M11" s="192"/>
       <c r="N11" s="110" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O11" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P11" s="68"/>
       <c r="Q11" s="154">
@@ -6601,7 +6746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80"/>
       <c r="B12" s="36" t="s">
         <v>174</v>
@@ -6613,7 +6758,7 @@
       <c r="D12" s="81"/>
       <c r="F12" s="120"/>
       <c r="G12" s="114" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H12" s="37">
         <f>Energies!C10*60</f>
@@ -6627,16 +6772,16 @@
         <v>132.96</v>
       </c>
       <c r="L12" s="52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M12" s="139">
         <v>29.8</v>
       </c>
       <c r="N12" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="39">
@@ -6655,10 +6800,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
       <c r="B13" s="72" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="C13" s="73">
         <f>Energies!C10</f>
@@ -6666,7 +6811,7 @@
       </c>
       <c r="D13" s="83"/>
       <c r="F13" s="122" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="110" t="s">
         <v>157</v>
@@ -6683,17 +6828,17 @@
         <v>39809</v>
       </c>
       <c r="L13" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M13" s="140">
         <f>C9</f>
         <v>0.8</v>
       </c>
       <c r="N13" s="111" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P13" s="36"/>
       <c r="Q13" s="39">
@@ -6708,12 +6853,12 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C14" s="85">
         <v>1.12964</v>
@@ -6721,7 +6866,7 @@
       <c r="D14" s="74"/>
       <c r="F14" s="123"/>
       <c r="G14" s="111" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H14" s="39">
         <f>C5*0.4</f>
@@ -6735,7 +6880,7 @@
         <v>27937.200000000001</v>
       </c>
       <c r="L14" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M14" s="139">
         <v>5</v>
@@ -6744,10 +6889,10 @@
         <v>22</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="37">
         <f>0.05*Q11</f>
@@ -6761,7 +6906,7 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="86"/>
       <c r="B15" s="72" t="s">
         <v>203</v>
@@ -6772,7 +6917,7 @@
       <c r="D15" s="78"/>
       <c r="F15" s="123"/>
       <c r="G15" s="111" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H15" s="39">
         <f>'Manpower &amp; time'!G9</f>
@@ -6786,7 +6931,7 @@
         <v>11403.29</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M15" s="141">
         <f>1/10000</f>
@@ -6796,10 +6941,10 @@
         <v>19</v>
       </c>
       <c r="O15" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q15" s="65">
         <f>M12*0.8*C12</f>
@@ -6808,10 +6953,10 @@
       <c r="R15" s="36"/>
       <c r="S15" s="151"/>
     </row>
-    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="124"/>
       <c r="G16" s="112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H16" s="73">
         <f>'Manpower &amp; time'!B32</f>
@@ -6825,20 +6970,20 @@
         <v>13108.788</v>
       </c>
       <c r="L16" s="52" t="s">
-        <v>435</v>
+        <v>543</v>
       </c>
       <c r="M16" s="141">
         <f>M15*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="N16" s="111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="37">
         <v>10</v>
@@ -6846,7 +6991,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="151"/>
     </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F17" s="125" t="s">
         <v>39</v>
       </c>
@@ -6865,20 +7010,20 @@
         <v>2281.12</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M17" s="141">
         <f>M15*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N17" s="111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="39">
         <f>'CNC lathe'!F14</f>
@@ -6892,7 +7037,7 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="18" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="126"/>
       <c r="G18" s="111" t="s">
         <v>228</v>
@@ -6909,7 +7054,7 @@
         <v>64.320000000000007</v>
       </c>
       <c r="L18" s="149" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M18" s="150">
         <v>15</v>
@@ -6921,10 +7066,10 @@
       <c r="R18" s="72"/>
       <c r="S18" s="83"/>
     </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:19" ht="30" x14ac:dyDescent="0.25">
       <c r="F19" s="126"/>
-      <c r="G19" s="111" t="s">
-        <v>229</v>
+      <c r="G19" s="223" t="s">
+        <v>540</v>
       </c>
       <c r="H19" s="39">
         <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
@@ -6937,15 +7082,15 @@
         <f t="shared" si="0"/>
         <v>277.54199999999997</v>
       </c>
-      <c r="L19" s="171" t="s">
+      <c r="L19" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="172"/>
+      <c r="M19" s="213"/>
       <c r="N19" s="110" t="s">
         <v>21</v>
       </c>
       <c r="O19" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P19" s="68"/>
       <c r="Q19" s="69">
@@ -6960,7 +7105,7 @@
         <v>18501.026875818847</v>
       </c>
     </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F20" s="126"/>
       <c r="G20" s="111" t="s">
         <v>204</v>
@@ -6977,7 +7122,7 @@
         <v>316.8</v>
       </c>
       <c r="L20" s="51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M20" s="142">
         <v>7.5</v>
@@ -6986,10 +7131,10 @@
         <v>22</v>
       </c>
       <c r="O20" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="39">
         <f>0.05*Q19</f>
@@ -7003,7 +7148,7 @@
         <v>9250.5134379094234</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F21" s="126"/>
       <c r="G21" s="111" t="s">
         <v>205</v>
@@ -7020,7 +7165,7 @@
         <v>796.80000000000007</v>
       </c>
       <c r="L21" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M21" s="143">
         <v>0.7</v>
@@ -7029,10 +7174,10 @@
         <v>23</v>
       </c>
       <c r="O21" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="65">
         <f>M20*0.8*C12</f>
@@ -7041,7 +7186,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="151"/>
     </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F22" s="126"/>
       <c r="G22" s="111" t="s">
         <v>41</v>
@@ -7058,19 +7203,19 @@
         <v>1224</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M22" s="142">
         <v>5</v>
       </c>
       <c r="N22" s="111" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O22" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="39">
         <f>'Laser cutter'!G5/20</f>
@@ -7079,10 +7224,10 @@
       <c r="R22" s="36"/>
       <c r="S22" s="151"/>
     </row>
-    <row r="23" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F23" s="127"/>
       <c r="G23" s="112" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H23" s="73">
         <f>IT!D23+IT!D22</f>
@@ -7096,7 +7241,7 @@
         <v>127</v>
       </c>
       <c r="L23" s="51" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M23" s="144">
         <v>4.6000000000000001E-4</v>
@@ -7108,9 +7253,9 @@
       <c r="R23" s="94"/>
       <c r="S23" s="155"/>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F24" s="116" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G24" s="110" t="s">
         <v>42</v>
@@ -7126,7 +7271,7 @@
         <v>200</v>
       </c>
       <c r="L24" s="51" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M24" s="145">
         <v>1.5</v>
@@ -7138,10 +7283,10 @@
       <c r="R24" s="94"/>
       <c r="S24" s="156"/>
     </row>
-    <row r="25" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="118"/>
       <c r="G25" s="112" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H25" s="73">
         <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
@@ -7155,7 +7300,7 @@
         <v>1055</v>
       </c>
       <c r="L25" s="51" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M25" s="145">
         <v>1</v>
@@ -7167,12 +7312,12 @@
       <c r="R25" s="96"/>
       <c r="S25" s="157"/>
     </row>
-    <row r="26" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F26" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="110" t="s">
-        <v>420</v>
+      <c r="G26" s="222" t="s">
+        <v>417</v>
       </c>
       <c r="H26" s="69">
         <f>SUM(Manufacturing!F2:F7)+Manufacturing!F8*4</f>
@@ -7186,7 +7331,7 @@
         <v>1944.2431854396091</v>
       </c>
       <c r="L26" s="158" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M26" s="159">
         <v>8</v>
@@ -7198,10 +7343,10 @@
       <c r="R26" s="72"/>
       <c r="S26" s="83"/>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F27" s="120"/>
       <c r="G27" s="111" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H27" s="39">
         <f>Manufacturing!F32</f>
@@ -7219,10 +7364,10 @@
       </c>
       <c r="M27" s="160"/>
       <c r="N27" s="110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O27" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P27" s="68"/>
       <c r="Q27" s="69">
@@ -7237,10 +7382,10 @@
         <v>530.86</v>
       </c>
     </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F28" s="120"/>
       <c r="G28" s="111" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H28" s="39">
         <f>Manufacturing!F36</f>
@@ -7253,15 +7398,13 @@
         <f t="shared" si="0"/>
         <v>103.154</v>
       </c>
-      <c r="L28" s="54" t="s">
-        <v>286</v>
-      </c>
+      <c r="L28" s="54"/>
       <c r="M28" s="134"/>
       <c r="N28" s="111" t="s">
         <v>43</v>
       </c>
       <c r="O28" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P28" s="36"/>
       <c r="Q28" s="39">
@@ -7276,10 +7419,10 @@
         <v>385.96</v>
       </c>
     </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F29" s="120"/>
       <c r="G29" s="111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H29" s="39">
         <f>Manufacturing!F10*3+Manufacturing!F11*3</f>
@@ -7293,17 +7436,17 @@
         <v>813.74519999999995</v>
       </c>
       <c r="L29" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M29" s="135">
         <f>C9</f>
         <v>0.8</v>
       </c>
       <c r="N29" s="111" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O29" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P29" s="36"/>
       <c r="Q29" s="39">
@@ -7318,10 +7461,10 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F30" s="120"/>
-      <c r="G30" s="111" t="s">
-        <v>382</v>
+      <c r="G30" s="223" t="s">
+        <v>380</v>
       </c>
       <c r="H30" s="39">
         <f>0.5*H29</f>
@@ -7335,7 +7478,7 @@
         <v>406.87259999999998</v>
       </c>
       <c r="L30" s="54" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M30" s="146">
         <f>Welding!B32</f>
@@ -7345,7 +7488,7 @@
         <v>32</v>
       </c>
       <c r="O30" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P30" s="36"/>
       <c r="Q30" s="39">
@@ -7360,10 +7503,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F31" s="120"/>
       <c r="G31" s="111" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H31" s="39">
         <v>4000</v>
@@ -7378,10 +7521,10 @@
       <c r="L31" s="54"/>
       <c r="M31" s="134"/>
       <c r="N31" s="111" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O31" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P31" s="36"/>
       <c r="Q31" s="39">
@@ -7396,10 +7539,10 @@
         <v>857.9</v>
       </c>
     </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F32" s="120"/>
       <c r="G32" s="111" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H32" s="39">
         <v>3000</v>
@@ -7417,10 +7560,10 @@
         <v>22</v>
       </c>
       <c r="O32" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P32" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q32" s="39">
         <f>0.03*(Q27+Q28)</f>
@@ -7434,10 +7577,10 @@
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="33" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F33" s="120"/>
       <c r="G33" s="111" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H33" s="39">
         <f>Manufacturing!F23</f>
@@ -7456,10 +7599,10 @@
         <v>19</v>
       </c>
       <c r="O33" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Q33" s="65">
         <f>(0.75+0.5)*C12</f>
@@ -7468,7 +7611,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="151"/>
     </row>
-    <row r="34" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F34" s="120"/>
       <c r="G34" s="111" t="s">
         <v>46</v>
@@ -7487,13 +7630,13 @@
       <c r="L34" s="137"/>
       <c r="M34" s="138"/>
       <c r="N34" s="111" t="s">
-        <v>482</v>
-      </c>
-      <c r="O34" s="184" t="s">
-        <v>237</v>
-      </c>
-      <c r="P34" s="185" t="s">
-        <v>481</v>
+        <v>478</v>
+      </c>
+      <c r="O34" s="208" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="209" t="s">
+        <v>477</v>
       </c>
       <c r="Q34" s="39">
         <f>Welding!B29</f>
@@ -7502,10 +7645,10 @@
       <c r="R34" s="36"/>
       <c r="S34" s="151"/>
     </row>
-    <row r="35" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="120"/>
       <c r="G35" s="111" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H35" s="39">
         <f>Manufacturing!F25*5+Manufacturing!F26+Manufacturing!F27+Manufacturing!F28+Manufacturing!F29*3+Manufacturing!F30*30</f>
@@ -7521,10 +7664,10 @@
       <c r="L35" s="147"/>
       <c r="M35" s="148"/>
       <c r="N35" s="111" t="s">
-        <v>483</v>
-      </c>
-      <c r="O35" s="184"/>
-      <c r="P35" s="185"/>
+        <v>479</v>
+      </c>
+      <c r="O35" s="208"/>
+      <c r="P35" s="209"/>
       <c r="Q35" s="39">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
@@ -7532,10 +7675,10 @@
       <c r="R35" s="36"/>
       <c r="S35" s="151"/>
     </row>
-    <row r="36" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="120"/>
       <c r="G36" s="114" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H36" s="39">
         <f>Manufacturing!F17</f>
@@ -7551,13 +7694,13 @@
       <c r="L36" s="33"/>
       <c r="M36" s="161"/>
       <c r="N36" s="112" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O36" s="72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P36" s="72" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q36" s="73">
         <f>Welding!B17</f>
@@ -7566,10 +7709,10 @@
       <c r="R36" s="72"/>
       <c r="S36" s="83"/>
     </row>
-    <row r="37" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F37" s="120"/>
       <c r="G37" s="114" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H37" s="39">
         <f>15*C12*C7*C8</f>
@@ -7582,15 +7725,15 @@
         <f>H37/I37</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L37" s="182" t="s">
-        <v>421</v>
-      </c>
-      <c r="M37" s="183"/>
+      <c r="L37" s="169" t="s">
+        <v>418</v>
+      </c>
+      <c r="M37" s="192"/>
       <c r="N37" s="110" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O37" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P37" s="68"/>
       <c r="Q37" s="154">
@@ -7605,10 +7748,10 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="121"/>
       <c r="G38" s="115" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H38" s="73">
         <f>2*Manufacturing!F34</f>
@@ -7622,16 +7765,16 @@
         <v>215</v>
       </c>
       <c r="L38" s="52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M38" s="139">
         <v>6</v>
       </c>
       <c r="N38" s="111" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O38" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P38" s="36"/>
       <c r="Q38" s="39">
@@ -7646,21 +7789,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F39" s="25"/>
       <c r="G39" s="21"/>
       <c r="J39" s="12"/>
       <c r="L39" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M39" s="140">
         <v>0.44</v>
       </c>
       <c r="N39" s="111" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="O39" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P39" s="36"/>
       <c r="Q39" s="39">
@@ -7675,16 +7818,16 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="40" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F40" s="205" t="s">
-        <v>338</v>
-      </c>
-      <c r="G40" s="206"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="207"/>
+    <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="185" t="s">
+        <v>541</v>
+      </c>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="187"/>
       <c r="L40" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M40" s="139">
         <v>5</v>
@@ -7693,10 +7836,10 @@
         <v>22</v>
       </c>
       <c r="O40" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Q40" s="37">
         <f>0.03*(Q38+Q37)</f>
@@ -7710,21 +7853,21 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F41" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="G41" s="209" t="s">
-        <v>505</v>
-      </c>
-      <c r="H41" s="209"/>
-      <c r="I41" s="210"/>
+    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F41" s="199" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" s="190" t="s">
+        <v>500</v>
+      </c>
+      <c r="H41" s="190"/>
+      <c r="I41" s="191"/>
       <c r="J41" s="97">
         <f>SUM(J3:J38)*1.05</f>
         <v>128441.41571598139</v>
       </c>
       <c r="L41" s="52" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M41" s="141">
         <f>3*1/10000</f>
@@ -7734,10 +7877,10 @@
         <v>19</v>
       </c>
       <c r="O41" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="65">
         <f>M38*0.8*C12</f>
@@ -7746,31 +7889,31 @@
       <c r="R41" s="36"/>
       <c r="S41" s="151"/>
     </row>
-    <row r="42" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F42" s="189"/>
-      <c r="G42" s="208" t="s">
-        <v>299</v>
-      </c>
-      <c r="H42" s="208"/>
-      <c r="I42" s="180"/>
+    <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="200"/>
+      <c r="G42" s="188" t="s">
+        <v>298</v>
+      </c>
+      <c r="H42" s="188"/>
+      <c r="I42" s="189"/>
       <c r="J42" s="98">
         <f>J41/SUM('Manpower &amp; time'!B28:I28)</f>
         <v>11.782881041914944</v>
       </c>
       <c r="L42" s="149" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M42" s="150">
         <v>10</v>
       </c>
       <c r="N42" s="112" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="O42" s="72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P42" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q42" s="162">
         <v>10</v>
@@ -7778,813 +7921,1076 @@
       <c r="R42" s="72"/>
       <c r="S42" s="83"/>
     </row>
-    <row r="43" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F43" s="190" t="s">
-        <v>341</v>
-      </c>
-      <c r="G43" s="210" t="s">
-        <v>342</v>
-      </c>
-      <c r="H43" s="211"/>
-      <c r="I43" s="211"/>
+    <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="201" t="s">
+        <v>339</v>
+      </c>
+      <c r="G43" s="191" t="s">
+        <v>340</v>
+      </c>
+      <c r="H43" s="193"/>
+      <c r="I43" s="193"/>
       <c r="J43" s="99">
         <f>'Manpower &amp; time'!H5</f>
         <v>12.68856351404828</v>
       </c>
     </row>
-    <row r="44" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F44" s="191"/>
-      <c r="G44" s="186" t="s">
-        <v>353</v>
-      </c>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
+    <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="202"/>
+      <c r="G44" s="194" t="s">
+        <v>351</v>
+      </c>
+      <c r="H44" s="195"/>
+      <c r="I44" s="195"/>
       <c r="J44" s="100">
         <f>'Manpower &amp; time'!H6</f>
         <v>23.630193905817173</v>
       </c>
-      <c r="L44" s="193" t="s">
-        <v>338</v>
-      </c>
-      <c r="M44" s="194"/>
-      <c r="N44" s="194"/>
-      <c r="O44" s="194"/>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="194"/>
-      <c r="R44" s="195"/>
-    </row>
-    <row r="45" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F45" s="191"/>
-      <c r="G45" s="186" t="s">
-        <v>499</v>
-      </c>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
+      <c r="L44" s="204" t="s">
+        <v>542</v>
+      </c>
+      <c r="M44" s="205"/>
+      <c r="N44" s="205"/>
+      <c r="O44" s="205"/>
+      <c r="P44" s="205"/>
+      <c r="Q44" s="205"/>
+      <c r="R44" s="206"/>
+    </row>
+    <row r="45" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F45" s="202"/>
+      <c r="G45" s="194" t="s">
+        <v>494</v>
+      </c>
+      <c r="H45" s="195"/>
+      <c r="I45" s="195"/>
       <c r="J45" s="100">
         <f>'Manpower &amp; time'!H7</f>
         <v>29.773842500989314</v>
       </c>
-      <c r="L45" s="169" t="s">
-        <v>509</v>
-      </c>
-      <c r="M45" s="204"/>
-      <c r="N45" s="174" t="s">
-        <v>308</v>
-      </c>
-      <c r="O45" s="174"/>
-      <c r="P45" s="174"/>
-      <c r="Q45" s="174"/>
+      <c r="L45" s="183" t="s">
+        <v>504</v>
+      </c>
+      <c r="M45" s="184"/>
+      <c r="N45" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="O45" s="171"/>
+      <c r="P45" s="171"/>
+      <c r="Q45" s="171"/>
       <c r="R45" s="87">
         <f>SUM(S3:S6)+S9</f>
         <v>17591.025600000001</v>
       </c>
     </row>
-    <row r="46" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F46" s="192"/>
-      <c r="G46" s="180" t="s">
-        <v>343</v>
-      </c>
-      <c r="H46" s="181"/>
-      <c r="I46" s="181"/>
+    <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="203"/>
+      <c r="G46" s="189" t="s">
+        <v>341</v>
+      </c>
+      <c r="H46" s="207"/>
+      <c r="I46" s="207"/>
       <c r="J46" s="101">
         <f>'Manpower &amp; time'!H8</f>
         <v>41.458053027305105</v>
       </c>
-      <c r="L46" s="177" t="s">
-        <v>513</v>
-      </c>
-      <c r="M46" s="178"/>
-      <c r="N46" s="166" t="s">
-        <v>309</v>
-      </c>
-      <c r="O46" s="166"/>
-      <c r="P46" s="166"/>
-      <c r="Q46" s="166"/>
+      <c r="L46" s="166" t="s">
+        <v>508</v>
+      </c>
+      <c r="M46" s="167"/>
+      <c r="N46" s="168" t="s">
+        <v>308</v>
+      </c>
+      <c r="O46" s="168"/>
+      <c r="P46" s="168"/>
+      <c r="Q46" s="168"/>
       <c r="R46" s="88">
         <f>R45/(M5*C7*C8)+J42</f>
         <v>25.560313372742012</v>
       </c>
     </row>
-    <row r="47" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:19" x14ac:dyDescent="0.25">
       <c r="J47" s="24"/>
       <c r="L47" s="47" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M47" s="48">
         <v>2.5</v>
       </c>
-      <c r="N47" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="O47" s="166"/>
-      <c r="P47" s="166"/>
-      <c r="Q47" s="166"/>
+      <c r="N47" s="168" t="s">
+        <v>309</v>
+      </c>
+      <c r="O47" s="168"/>
+      <c r="P47" s="168"/>
+      <c r="Q47" s="168"/>
       <c r="R47" s="88">
         <f>R46+Q8+Q7</f>
         <v>46.963449372742012</v>
       </c>
     </row>
-    <row r="48" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:19" x14ac:dyDescent="0.25">
       <c r="J48" s="24"/>
       <c r="L48" s="47" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M48" s="48">
         <v>0.5</v>
       </c>
-      <c r="N48" s="166"/>
-      <c r="O48" s="166"/>
-      <c r="P48" s="166"/>
-      <c r="Q48" s="166"/>
+      <c r="N48" s="168"/>
+      <c r="O48" s="168"/>
+      <c r="P48" s="168"/>
+      <c r="Q48" s="168"/>
       <c r="R48" s="89"/>
     </row>
-    <row r="49" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
       <c r="I49" s="20"/>
       <c r="J49" s="24"/>
       <c r="L49" s="31"/>
       <c r="M49" s="32"/>
-      <c r="N49" s="166" t="s">
-        <v>295</v>
-      </c>
-      <c r="O49" s="166"/>
-      <c r="P49" s="166"/>
-      <c r="Q49" s="166"/>
+      <c r="N49" s="168" t="s">
+        <v>294</v>
+      </c>
+      <c r="O49" s="168"/>
+      <c r="P49" s="168"/>
+      <c r="Q49" s="168"/>
       <c r="R49" s="90">
         <f>('Manpower &amp; time'!H5+R47)*M7/60</f>
         <v>9.9420021477983827E-5</v>
       </c>
     </row>
-    <row r="50" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:18" x14ac:dyDescent="0.25">
       <c r="I50" s="57"/>
       <c r="J50" s="24"/>
       <c r="L50" s="31"/>
       <c r="M50" s="32"/>
-      <c r="N50" s="166" t="s">
-        <v>504</v>
-      </c>
-      <c r="O50" s="166"/>
-      <c r="P50" s="166"/>
-      <c r="Q50" s="166"/>
+      <c r="N50" s="168" t="s">
+        <v>499</v>
+      </c>
+      <c r="O50" s="168"/>
+      <c r="P50" s="168"/>
+      <c r="Q50" s="168"/>
       <c r="R50" s="91">
         <f>('Manpower &amp; time'!H5)*M7/60/R49</f>
         <v>0.21270972931171805</v>
       </c>
     </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
       <c r="I51" s="1"/>
       <c r="J51" s="24"/>
       <c r="L51" s="31"/>
       <c r="M51" s="32"/>
-      <c r="N51" s="166"/>
-      <c r="O51" s="166"/>
-      <c r="P51" s="166"/>
-      <c r="Q51" s="166"/>
+      <c r="N51" s="168"/>
+      <c r="O51" s="168"/>
+      <c r="P51" s="168"/>
+      <c r="Q51" s="168"/>
       <c r="R51" s="90"/>
     </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L52" s="31"/>
       <c r="M52" s="32"/>
-      <c r="N52" s="166" t="s">
-        <v>298</v>
-      </c>
-      <c r="O52" s="166"/>
-      <c r="P52" s="166"/>
-      <c r="Q52" s="166"/>
+      <c r="N52" s="168" t="s">
+        <v>297</v>
+      </c>
+      <c r="O52" s="168"/>
+      <c r="P52" s="168"/>
+      <c r="Q52" s="168"/>
       <c r="R52" s="90">
         <f>('Manpower &amp; time'!H5+J42)*M8/60</f>
         <v>2.0392870463302686E-5</v>
       </c>
     </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J53" s="16"/>
       <c r="L53" s="31"/>
       <c r="M53" s="32"/>
-      <c r="N53" s="166" t="s">
-        <v>296</v>
-      </c>
-      <c r="O53" s="166"/>
-      <c r="P53" s="166"/>
-      <c r="Q53" s="166"/>
+      <c r="N53" s="168" t="s">
+        <v>295</v>
+      </c>
+      <c r="O53" s="168"/>
+      <c r="P53" s="168"/>
+      <c r="Q53" s="168"/>
       <c r="R53" s="90">
         <f>('Manpower &amp; time'!H6+J42)*M8/60</f>
         <v>2.9510895789776764E-5</v>
       </c>
     </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J54" s="15"/>
       <c r="L54" s="31"/>
       <c r="M54" s="32"/>
-      <c r="N54" s="166" t="s">
-        <v>297</v>
-      </c>
-      <c r="O54" s="166"/>
-      <c r="P54" s="166"/>
-      <c r="Q54" s="166"/>
+      <c r="N54" s="168" t="s">
+        <v>296</v>
+      </c>
+      <c r="O54" s="168"/>
+      <c r="P54" s="168"/>
+      <c r="Q54" s="168"/>
       <c r="R54" s="90">
         <f>('Manpower &amp; time'!H8+J42)*M8/60</f>
         <v>4.4367445057683372E-5</v>
       </c>
     </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J55" s="15"/>
       <c r="L55" s="31"/>
       <c r="M55" s="32"/>
-      <c r="N55" s="166" t="s">
-        <v>344</v>
-      </c>
-      <c r="O55" s="166"/>
-      <c r="P55" s="166"/>
-      <c r="Q55" s="166"/>
+      <c r="N55" s="168" t="s">
+        <v>342</v>
+      </c>
+      <c r="O55" s="168"/>
+      <c r="P55" s="168"/>
+      <c r="Q55" s="168"/>
       <c r="R55" s="90">
         <f>('Manpower &amp; time'!H5+J42)*M$9/60</f>
         <v>1.6314296370642149E-5</v>
       </c>
     </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J56" s="15"/>
       <c r="L56" s="31"/>
       <c r="M56" s="32"/>
-      <c r="N56" s="166" t="s">
-        <v>345</v>
-      </c>
-      <c r="O56" s="166"/>
-      <c r="P56" s="166"/>
-      <c r="Q56" s="166"/>
+      <c r="N56" s="168" t="s">
+        <v>343</v>
+      </c>
+      <c r="O56" s="168"/>
+      <c r="P56" s="168"/>
+      <c r="Q56" s="168"/>
       <c r="R56" s="90">
         <f>('Manpower &amp; time'!H6+J42)*M$9/60</f>
         <v>2.3608716631821412E-5</v>
       </c>
     </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J57" s="11"/>
       <c r="L57" s="31"/>
       <c r="M57" s="32"/>
-      <c r="N57" s="166" t="s">
-        <v>346</v>
-      </c>
-      <c r="O57" s="166"/>
-      <c r="P57" s="166"/>
-      <c r="Q57" s="166"/>
+      <c r="N57" s="168" t="s">
+        <v>344</v>
+      </c>
+      <c r="O57" s="168"/>
+      <c r="P57" s="168"/>
+      <c r="Q57" s="168"/>
       <c r="R57" s="90">
         <f>('Manpower &amp; time'!H8+J42)*M$9/60</f>
         <v>3.5493956046146703E-5</v>
       </c>
     </row>
-    <row r="58" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L58" s="33"/>
       <c r="M58" s="34"/>
-      <c r="N58" s="167" t="s">
-        <v>307</v>
-      </c>
-      <c r="O58" s="167"/>
-      <c r="P58" s="167"/>
-      <c r="Q58" s="167"/>
+      <c r="N58" s="172" t="s">
+        <v>306</v>
+      </c>
+      <c r="O58" s="172"/>
+      <c r="P58" s="172"/>
+      <c r="Q58" s="172"/>
       <c r="R58" s="92">
         <f>('Manpower &amp; time'!H5+R46)*(M10+M6)/60</f>
         <v>15.937032036162622</v>
       </c>
     </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="L59" s="182" t="s">
+    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L59" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="215"/>
-      <c r="N59" s="174" t="s">
-        <v>308</v>
-      </c>
-      <c r="O59" s="174"/>
-      <c r="P59" s="174"/>
-      <c r="Q59" s="174"/>
+      <c r="M59" s="170"/>
+      <c r="N59" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="O59" s="171"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="171"/>
       <c r="R59" s="87">
         <f>SUM(S11:S14)+S17</f>
         <v>23026.025600000001</v>
       </c>
     </row>
-    <row r="60" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="L60" s="175" t="s">
-        <v>513</v>
-      </c>
-      <c r="M60" s="176"/>
-      <c r="N60" s="166" t="s">
-        <v>309</v>
-      </c>
-      <c r="O60" s="166"/>
-      <c r="P60" s="166"/>
-      <c r="Q60" s="166"/>
+    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L60" s="215" t="s">
+        <v>508</v>
+      </c>
+      <c r="M60" s="216"/>
+      <c r="N60" s="168" t="s">
+        <v>308</v>
+      </c>
+      <c r="O60" s="168"/>
+      <c r="P60" s="168"/>
+      <c r="Q60" s="168"/>
       <c r="R60" s="88">
         <f>R59/(M13*C7*C8)+J42</f>
         <v>29.817048961714445</v>
       </c>
     </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J61" s="15"/>
       <c r="L61" s="49" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M61" s="50">
         <v>2.5</v>
       </c>
-      <c r="N61" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="O61" s="166"/>
-      <c r="P61" s="166"/>
-      <c r="Q61" s="166"/>
+      <c r="N61" s="168" t="s">
+        <v>309</v>
+      </c>
+      <c r="O61" s="168"/>
+      <c r="P61" s="168"/>
+      <c r="Q61" s="168"/>
       <c r="R61" s="88">
         <f>R60+Q16+Q15</f>
         <v>41.68372096171445</v>
       </c>
     </row>
-    <row r="62" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L62" s="49" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M62" s="50">
         <v>0.5</v>
       </c>
-      <c r="N62" s="166"/>
-      <c r="O62" s="166"/>
-      <c r="P62" s="166"/>
-      <c r="Q62" s="166"/>
+      <c r="N62" s="168"/>
+      <c r="O62" s="168"/>
+      <c r="P62" s="168"/>
+      <c r="Q62" s="168"/>
       <c r="R62" s="89"/>
     </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F63" s="21"/>
       <c r="L63" s="27"/>
       <c r="M63" s="28"/>
-      <c r="N63" s="166" t="s">
-        <v>295</v>
-      </c>
-      <c r="O63" s="166"/>
-      <c r="P63" s="166"/>
-      <c r="Q63" s="166"/>
+      <c r="N63" s="168" t="s">
+        <v>294</v>
+      </c>
+      <c r="O63" s="168"/>
+      <c r="P63" s="168"/>
+      <c r="Q63" s="168"/>
       <c r="R63" s="90">
         <f>(J43+R61)*M15/60</f>
         <v>9.0620474126271213E-5</v>
       </c>
     </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L64" s="27"/>
       <c r="M64" s="28"/>
-      <c r="N64" s="166" t="s">
-        <v>504</v>
-      </c>
-      <c r="O64" s="166"/>
-      <c r="P64" s="166"/>
-      <c r="Q64" s="166"/>
+      <c r="N64" s="168" t="s">
+        <v>499</v>
+      </c>
+      <c r="O64" s="168"/>
+      <c r="P64" s="168"/>
+      <c r="Q64" s="168"/>
       <c r="R64" s="91">
         <f>(J43)*M15/60/R63</f>
         <v>0.23336454659550679</v>
       </c>
     </row>
-    <row r="65" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L65" s="27"/>
       <c r="M65" s="28"/>
-      <c r="N65" s="166"/>
-      <c r="O65" s="166"/>
-      <c r="P65" s="166"/>
-      <c r="Q65" s="166"/>
+      <c r="N65" s="168"/>
+      <c r="O65" s="168"/>
+      <c r="P65" s="168"/>
+      <c r="Q65" s="168"/>
       <c r="R65" s="90"/>
     </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L66" s="27"/>
       <c r="M66" s="28"/>
-      <c r="N66" s="166" t="s">
-        <v>298</v>
-      </c>
-      <c r="O66" s="166"/>
-      <c r="P66" s="166"/>
-      <c r="Q66" s="166"/>
+      <c r="N66" s="168" t="s">
+        <v>297</v>
+      </c>
+      <c r="O66" s="168"/>
+      <c r="P66" s="168"/>
+      <c r="Q66" s="168"/>
       <c r="R66" s="90">
         <f>(J43+J42)*M$16/60</f>
         <v>2.0392870463302686E-5</v>
       </c>
     </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L67" s="27"/>
       <c r="M67" s="28"/>
-      <c r="N67" s="166" t="s">
-        <v>296</v>
-      </c>
-      <c r="O67" s="166"/>
-      <c r="P67" s="166"/>
-      <c r="Q67" s="166"/>
+      <c r="N67" s="168" t="s">
+        <v>295</v>
+      </c>
+      <c r="O67" s="168"/>
+      <c r="P67" s="168"/>
+      <c r="Q67" s="168"/>
       <c r="R67" s="90">
         <f>(J44+J42)*M$16/60</f>
         <v>2.9510895789776764E-5</v>
       </c>
     </row>
-    <row r="68" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L68" s="27"/>
       <c r="M68" s="28"/>
-      <c r="N68" s="166" t="s">
-        <v>297</v>
-      </c>
-      <c r="O68" s="166"/>
-      <c r="P68" s="166"/>
-      <c r="Q68" s="166"/>
+      <c r="N68" s="168" t="s">
+        <v>296</v>
+      </c>
+      <c r="O68" s="168"/>
+      <c r="P68" s="168"/>
+      <c r="Q68" s="168"/>
       <c r="R68" s="90">
         <f>(J46+J42)*M$16/60</f>
         <v>4.4367445057683372E-5</v>
       </c>
     </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L69" s="27"/>
       <c r="M69" s="28"/>
-      <c r="N69" s="166" t="s">
-        <v>344</v>
-      </c>
-      <c r="O69" s="166"/>
-      <c r="P69" s="166"/>
-      <c r="Q69" s="166"/>
+      <c r="N69" s="168" t="s">
+        <v>342</v>
+      </c>
+      <c r="O69" s="168"/>
+      <c r="P69" s="168"/>
+      <c r="Q69" s="168"/>
       <c r="R69" s="90">
         <f>(J43+J42)*M$17/60</f>
         <v>1.6314296370642149E-5</v>
       </c>
     </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L70" s="27"/>
       <c r="M70" s="28"/>
-      <c r="N70" s="166" t="s">
-        <v>345</v>
-      </c>
-      <c r="O70" s="166"/>
-      <c r="P70" s="166"/>
-      <c r="Q70" s="166"/>
+      <c r="N70" s="168" t="s">
+        <v>343</v>
+      </c>
+      <c r="O70" s="168"/>
+      <c r="P70" s="168"/>
+      <c r="Q70" s="168"/>
       <c r="R70" s="90">
         <f>(J44+J42)*M$17/60</f>
         <v>2.3608716631821412E-5</v>
       </c>
     </row>
-    <row r="71" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L71" s="27"/>
       <c r="M71" s="28"/>
-      <c r="N71" s="166" t="s">
-        <v>346</v>
-      </c>
-      <c r="O71" s="166"/>
-      <c r="P71" s="166"/>
-      <c r="Q71" s="166"/>
+      <c r="N71" s="168" t="s">
+        <v>344</v>
+      </c>
+      <c r="O71" s="168"/>
+      <c r="P71" s="168"/>
+      <c r="Q71" s="168"/>
       <c r="R71" s="90">
         <f>(J46+J42)*M$17/60</f>
         <v>3.5493956046146703E-5</v>
       </c>
     </row>
-    <row r="72" spans="12:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L72" s="27"/>
       <c r="M72" s="28"/>
-      <c r="N72" s="216" t="s">
-        <v>307</v>
-      </c>
-      <c r="O72" s="216"/>
-      <c r="P72" s="216"/>
-      <c r="Q72" s="216"/>
-      <c r="R72" s="217">
+      <c r="N72" s="173" t="s">
+        <v>306</v>
+      </c>
+      <c r="O72" s="173"/>
+      <c r="P72" s="173"/>
+      <c r="Q72" s="173"/>
+      <c r="R72" s="164">
         <f>(J43+R60)*(M14+M18)/60</f>
         <v>14.168537491920908</v>
       </c>
     </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L73" s="171" t="s">
-        <v>436</v>
-      </c>
-      <c r="M73" s="173"/>
-      <c r="N73" s="174" t="s">
-        <v>308</v>
-      </c>
-      <c r="O73" s="174"/>
-      <c r="P73" s="174"/>
-      <c r="Q73" s="174"/>
+    <row r="73" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L73" s="212" t="s">
+        <v>432</v>
+      </c>
+      <c r="M73" s="214"/>
+      <c r="N73" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="O73" s="171"/>
+      <c r="P73" s="171"/>
+      <c r="Q73" s="171"/>
       <c r="R73" s="87">
         <f>S19+S20</f>
         <v>27751.54031372827</v>
       </c>
     </row>
-    <row r="74" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L74" s="164" t="s">
-        <v>514</v>
-      </c>
-      <c r="M74" s="165"/>
-      <c r="N74" s="166" t="s">
-        <v>309</v>
-      </c>
-      <c r="O74" s="166"/>
-      <c r="P74" s="166"/>
-      <c r="Q74" s="166"/>
+    <row r="74" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L74" s="218" t="s">
+        <v>509</v>
+      </c>
+      <c r="M74" s="219"/>
+      <c r="N74" s="168" t="s">
+        <v>308</v>
+      </c>
+      <c r="O74" s="168"/>
+      <c r="P74" s="168"/>
+      <c r="Q74" s="168"/>
       <c r="R74" s="88">
         <f>R73/(M21*C7*C8)+J42</f>
         <v>36.623142690436488</v>
       </c>
     </row>
-    <row r="75" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L75" s="45" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M75" s="46">
         <f>'Laser cutter'!J14</f>
         <v>0.71739130434782605</v>
       </c>
-      <c r="N75" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="O75" s="166"/>
-      <c r="P75" s="166"/>
-      <c r="Q75" s="166"/>
+      <c r="N75" s="168" t="s">
+        <v>309</v>
+      </c>
+      <c r="O75" s="168"/>
+      <c r="P75" s="168"/>
+      <c r="Q75" s="168"/>
       <c r="R75" s="88">
         <f>R74+Q21+Q22</f>
         <v>42.165742690436488</v>
       </c>
     </row>
-    <row r="76" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L76" s="164"/>
-      <c r="M76" s="165"/>
-      <c r="N76" s="166"/>
-      <c r="O76" s="166"/>
-      <c r="P76" s="166"/>
-      <c r="Q76" s="166"/>
+    <row r="76" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L76" s="218"/>
+      <c r="M76" s="219"/>
+      <c r="N76" s="168"/>
+      <c r="O76" s="168"/>
+      <c r="P76" s="168"/>
+      <c r="Q76" s="168"/>
       <c r="R76" s="89"/>
     </row>
-    <row r="77" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L77" s="164"/>
-      <c r="M77" s="165"/>
-      <c r="N77" s="166" t="s">
-        <v>437</v>
-      </c>
-      <c r="O77" s="166"/>
-      <c r="P77" s="166"/>
-      <c r="Q77" s="166"/>
+    <row r="77" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L77" s="218"/>
+      <c r="M77" s="219"/>
+      <c r="N77" s="168" t="s">
+        <v>433</v>
+      </c>
+      <c r="O77" s="168"/>
+      <c r="P77" s="168"/>
+      <c r="Q77" s="168"/>
       <c r="R77" s="90">
         <f>(J43*0.4+R75)*M23/60</f>
         <v>3.6218228873642784E-4</v>
       </c>
     </row>
-    <row r="78" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L78" s="164"/>
-      <c r="M78" s="165"/>
-      <c r="N78" s="166" t="s">
-        <v>504</v>
-      </c>
-      <c r="O78" s="166"/>
-      <c r="P78" s="166"/>
-      <c r="Q78" s="166"/>
+    <row r="78" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L78" s="218"/>
+      <c r="M78" s="219"/>
+      <c r="N78" s="168" t="s">
+        <v>499</v>
+      </c>
+      <c r="O78" s="168"/>
+      <c r="P78" s="168"/>
+      <c r="Q78" s="168"/>
       <c r="R78" s="91">
         <f>(J43)*M23/60/R77</f>
         <v>0.26859123144983488</v>
       </c>
     </row>
-    <row r="79" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L79" s="164"/>
-      <c r="M79" s="165"/>
-      <c r="N79" s="166"/>
-      <c r="O79" s="166"/>
-      <c r="P79" s="166"/>
-      <c r="Q79" s="166"/>
+    <row r="79" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L79" s="218"/>
+      <c r="M79" s="219"/>
+      <c r="N79" s="168"/>
+      <c r="O79" s="168"/>
+      <c r="P79" s="168"/>
+      <c r="Q79" s="168"/>
       <c r="R79" s="151"/>
     </row>
-    <row r="80" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L80" s="164"/>
-      <c r="M80" s="165"/>
-      <c r="N80" s="166" t="s">
-        <v>536</v>
-      </c>
-      <c r="O80" s="166"/>
-      <c r="P80" s="166"/>
-      <c r="Q80" s="166"/>
+    <row r="80" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L80" s="218"/>
+      <c r="M80" s="219"/>
+      <c r="N80" s="168" t="s">
+        <v>531</v>
+      </c>
+      <c r="O80" s="168"/>
+      <c r="P80" s="168"/>
+      <c r="Q80" s="168"/>
       <c r="R80" s="163">
         <f>(J43+J42)*M24/60</f>
         <v>0.61178611389908066</v>
       </c>
     </row>
-    <row r="81" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L81" s="164"/>
-      <c r="M81" s="165"/>
-      <c r="N81" s="166" t="s">
-        <v>537</v>
-      </c>
-      <c r="O81" s="166"/>
-      <c r="P81" s="166"/>
-      <c r="Q81" s="166"/>
+    <row r="81" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L81" s="218"/>
+      <c r="M81" s="219"/>
+      <c r="N81" s="168" t="s">
+        <v>532</v>
+      </c>
+      <c r="O81" s="168"/>
+      <c r="P81" s="168"/>
+      <c r="Q81" s="168"/>
       <c r="R81" s="163">
         <f>(J44+J42)*M24/60</f>
         <v>0.88532687369330287</v>
       </c>
     </row>
-    <row r="82" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L82" s="164"/>
-      <c r="M82" s="165"/>
-      <c r="N82" s="166" t="s">
-        <v>538</v>
-      </c>
-      <c r="O82" s="166"/>
-      <c r="P82" s="166"/>
-      <c r="Q82" s="166"/>
+    <row r="82" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L82" s="218"/>
+      <c r="M82" s="219"/>
+      <c r="N82" s="168" t="s">
+        <v>533</v>
+      </c>
+      <c r="O82" s="168"/>
+      <c r="P82" s="168"/>
+      <c r="Q82" s="168"/>
       <c r="R82" s="163">
         <f>(J43+J42)*M25/60</f>
         <v>0.40785740926605374</v>
       </c>
     </row>
-    <row r="83" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L83" s="164"/>
-      <c r="M83" s="165"/>
-      <c r="N83" s="166" t="s">
-        <v>539</v>
-      </c>
-      <c r="O83" s="166"/>
-      <c r="P83" s="166"/>
-      <c r="Q83" s="166"/>
+    <row r="83" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L83" s="218"/>
+      <c r="M83" s="219"/>
+      <c r="N83" s="168" t="s">
+        <v>534</v>
+      </c>
+      <c r="O83" s="168"/>
+      <c r="P83" s="168"/>
+      <c r="Q83" s="168"/>
       <c r="R83" s="163">
         <f>(J44+J42)*M$25/60</f>
         <v>0.59021791579553518</v>
       </c>
     </row>
-    <row r="84" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L84" s="42"/>
       <c r="M84" s="43"/>
-      <c r="N84" s="167" t="s">
-        <v>307</v>
-      </c>
-      <c r="O84" s="167"/>
-      <c r="P84" s="167"/>
-      <c r="Q84" s="167"/>
+      <c r="N84" s="172" t="s">
+        <v>306</v>
+      </c>
+      <c r="O84" s="172"/>
+      <c r="P84" s="172"/>
+      <c r="Q84" s="172"/>
       <c r="R84" s="92">
         <f>(J43+R74)*(M26+M22)/60</f>
         <v>10.684203010971698</v>
       </c>
     </row>
-    <row r="85" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L85" s="177" t="s">
+    <row r="85" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L85" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="M85" s="178"/>
-      <c r="N85" s="218" t="s">
-        <v>308</v>
-      </c>
-      <c r="O85" s="218"/>
-      <c r="P85" s="218"/>
-      <c r="Q85" s="218"/>
-      <c r="R85" s="219">
+      <c r="M85" s="167"/>
+      <c r="N85" s="174" t="s">
+        <v>307</v>
+      </c>
+      <c r="O85" s="174"/>
+      <c r="P85" s="174"/>
+      <c r="Q85" s="174"/>
+      <c r="R85" s="165">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
       </c>
     </row>
-    <row r="86" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L86" s="54"/>
       <c r="M86" s="55"/>
-      <c r="N86" s="166" t="s">
-        <v>309</v>
-      </c>
-      <c r="O86" s="166"/>
-      <c r="P86" s="166"/>
-      <c r="Q86" s="166"/>
+      <c r="N86" s="168" t="s">
+        <v>308</v>
+      </c>
+      <c r="O86" s="168"/>
+      <c r="P86" s="168"/>
+      <c r="Q86" s="168"/>
       <c r="R86" s="107">
         <f>R85/(M29*C7*C8)+J42</f>
         <v>13.487898272491385</v>
       </c>
       <c r="S86" s="12"/>
     </row>
-    <row r="87" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L87" s="31"/>
       <c r="M87" s="32"/>
-      <c r="N87" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="O87" s="166"/>
-      <c r="P87" s="166"/>
-      <c r="Q87" s="166"/>
+      <c r="N87" s="168" t="s">
+        <v>309</v>
+      </c>
+      <c r="O87" s="168"/>
+      <c r="P87" s="168"/>
+      <c r="Q87" s="168"/>
       <c r="R87" s="107">
         <f>R86+Q33</f>
         <v>13.585773272491386</v>
       </c>
     </row>
-    <row r="88" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L88" s="31"/>
       <c r="M88" s="32"/>
-      <c r="N88" s="166"/>
-      <c r="O88" s="166"/>
-      <c r="P88" s="166"/>
-      <c r="Q88" s="166"/>
+      <c r="N88" s="168"/>
+      <c r="O88" s="168"/>
+      <c r="P88" s="168"/>
+      <c r="Q88" s="168"/>
       <c r="R88" s="151"/>
     </row>
-    <row r="89" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L89" s="31"/>
       <c r="M89" s="32"/>
-      <c r="N89" s="166" t="s">
-        <v>485</v>
-      </c>
-      <c r="O89" s="166"/>
-      <c r="P89" s="166"/>
-      <c r="Q89" s="166"/>
+      <c r="N89" s="168" t="s">
+        <v>481</v>
+      </c>
+      <c r="O89" s="168"/>
+      <c r="P89" s="168"/>
+      <c r="Q89" s="168"/>
       <c r="R89" s="71">
         <f>Q34+Q36+(R87+J45)*M30/60</f>
         <v>115.92309617457708</v>
       </c>
     </row>
-    <row r="90" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L90" s="31"/>
       <c r="M90" s="32"/>
-      <c r="N90" s="166" t="s">
-        <v>486</v>
-      </c>
-      <c r="O90" s="166"/>
-      <c r="P90" s="166"/>
-      <c r="Q90" s="166"/>
+      <c r="N90" s="168" t="s">
+        <v>482</v>
+      </c>
+      <c r="O90" s="168"/>
+      <c r="P90" s="168"/>
+      <c r="Q90" s="168"/>
       <c r="R90" s="107">
         <f>Q35+Q36+(R87+J45)*M30/60</f>
         <v>115.88803411560743</v>
       </c>
     </row>
-    <row r="91" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L91" s="33"/>
       <c r="M91" s="34"/>
-      <c r="N91" s="167"/>
-      <c r="O91" s="167"/>
-      <c r="P91" s="167"/>
-      <c r="Q91" s="167"/>
+      <c r="N91" s="172"/>
+      <c r="O91" s="172"/>
+      <c r="P91" s="172"/>
+      <c r="Q91" s="172"/>
       <c r="R91" s="83"/>
     </row>
-    <row r="92" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L92" s="182" t="s">
-        <v>421</v>
-      </c>
-      <c r="M92" s="215"/>
-      <c r="N92" s="174" t="s">
-        <v>308</v>
-      </c>
-      <c r="O92" s="174"/>
-      <c r="P92" s="174"/>
-      <c r="Q92" s="174"/>
+    <row r="92" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L92" s="169" t="s">
+        <v>418</v>
+      </c>
+      <c r="M92" s="170"/>
+      <c r="N92" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="O92" s="171"/>
+      <c r="P92" s="171"/>
+      <c r="Q92" s="171"/>
       <c r="R92" s="87">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
       </c>
     </row>
-    <row r="93" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L93" s="52"/>
       <c r="M93" s="53"/>
-      <c r="N93" s="166" t="s">
-        <v>309</v>
-      </c>
-      <c r="O93" s="166"/>
-      <c r="P93" s="166"/>
-      <c r="Q93" s="166"/>
+      <c r="N93" s="168" t="s">
+        <v>308</v>
+      </c>
+      <c r="O93" s="168"/>
+      <c r="P93" s="168"/>
+      <c r="Q93" s="168"/>
       <c r="R93" s="88">
         <f>R92/(M39*C7*C8)+J42</f>
         <v>18.582550670531941</v>
       </c>
     </row>
-    <row r="94" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L94" s="27"/>
       <c r="M94" s="28"/>
-      <c r="N94" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="O94" s="166"/>
-      <c r="P94" s="166"/>
-      <c r="Q94" s="166"/>
+      <c r="N94" s="168" t="s">
+        <v>309</v>
+      </c>
+      <c r="O94" s="168"/>
+      <c r="P94" s="168"/>
+      <c r="Q94" s="168"/>
       <c r="R94" s="88">
         <f>R93+Q42+Q41</f>
         <v>28.958390670531941</v>
       </c>
     </row>
-    <row r="95" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L95" s="27"/>
       <c r="M95" s="28"/>
-      <c r="N95" s="166"/>
-      <c r="O95" s="166"/>
-      <c r="P95" s="166"/>
-      <c r="Q95" s="166"/>
+      <c r="N95" s="168"/>
+      <c r="O95" s="168"/>
+      <c r="P95" s="168"/>
+      <c r="Q95" s="168"/>
       <c r="R95" s="89"/>
     </row>
-    <row r="96" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L96" s="27"/>
       <c r="M96" s="28"/>
-      <c r="N96" s="166" t="s">
-        <v>295</v>
-      </c>
-      <c r="O96" s="166"/>
-      <c r="P96" s="166"/>
-      <c r="Q96" s="166"/>
+      <c r="N96" s="168" t="s">
+        <v>294</v>
+      </c>
+      <c r="O96" s="168"/>
+      <c r="P96" s="168"/>
+      <c r="Q96" s="168"/>
       <c r="R96" s="90">
         <f>(J43+R94)*M41/60</f>
         <v>2.0823477092290108E-4</v>
       </c>
     </row>
-    <row r="97" spans="12:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L97" s="29"/>
       <c r="M97" s="30"/>
-      <c r="N97" s="167" t="s">
-        <v>307</v>
-      </c>
-      <c r="O97" s="167"/>
-      <c r="P97" s="167"/>
-      <c r="Q97" s="167"/>
+      <c r="N97" s="172" t="s">
+        <v>306</v>
+      </c>
+      <c r="O97" s="172"/>
+      <c r="P97" s="172"/>
+      <c r="Q97" s="172"/>
       <c r="R97" s="92">
         <f>(J43+R93)*(M40+M42)/60</f>
         <v>7.8177785461450551</v>
       </c>
     </row>
+    <row r="103" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="12:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="L104" s="254" t="s">
+        <v>231</v>
+      </c>
+      <c r="M104" s="255"/>
+      <c r="N104" s="255"/>
+      <c r="O104" s="255"/>
+      <c r="P104" s="255"/>
+      <c r="Q104" s="255"/>
+      <c r="R104" s="255"/>
+      <c r="S104" s="256"/>
+    </row>
+    <row r="105" spans="12:19" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L105" s="257" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" s="258"/>
+      <c r="N105" s="258" t="s">
+        <v>16</v>
+      </c>
+      <c r="O105" s="258" t="s">
+        <v>234</v>
+      </c>
+      <c r="P105" s="258" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q105" s="258" t="s">
+        <v>17</v>
+      </c>
+      <c r="R105" s="259" t="s">
+        <v>402</v>
+      </c>
+      <c r="S105" s="260" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="12:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="L106" s="224" t="s">
+        <v>20</v>
+      </c>
+      <c r="M106" s="225"/>
+      <c r="N106" s="226" t="s">
+        <v>21</v>
+      </c>
+      <c r="O106" s="227" t="s">
+        <v>235</v>
+      </c>
+      <c r="P106" s="227"/>
+      <c r="Q106" s="228">
+        <v>185010.26875818847</v>
+      </c>
+      <c r="R106" s="227">
+        <v>10</v>
+      </c>
+      <c r="S106" s="229">
+        <v>18501.026875818847</v>
+      </c>
+    </row>
+    <row r="107" spans="12:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="L107" s="230" t="s">
+        <v>285</v>
+      </c>
+      <c r="M107" s="231">
+        <v>7.5</v>
+      </c>
+      <c r="N107" s="232" t="s">
+        <v>22</v>
+      </c>
+      <c r="O107" s="233" t="s">
+        <v>235</v>
+      </c>
+      <c r="P107" s="233" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q107" s="234">
+        <v>9250.5134379094234</v>
+      </c>
+      <c r="R107" s="233">
+        <v>1</v>
+      </c>
+      <c r="S107" s="235">
+        <v>9250.5134379094234</v>
+      </c>
+    </row>
+    <row r="108" spans="12:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="L108" s="230" t="s">
+        <v>247</v>
+      </c>
+      <c r="M108" s="236">
+        <v>0.7</v>
+      </c>
+      <c r="N108" s="232" t="s">
+        <v>23</v>
+      </c>
+      <c r="O108" s="233" t="s">
+        <v>236</v>
+      </c>
+      <c r="P108" s="233" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q108" s="237">
+        <v>0.4698</v>
+      </c>
+      <c r="R108" s="233"/>
+      <c r="S108" s="238"/>
+    </row>
+    <row r="109" spans="12:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="L109" s="230" t="s">
+        <v>248</v>
+      </c>
+      <c r="M109" s="231">
+        <v>5</v>
+      </c>
+      <c r="N109" s="232" t="s">
+        <v>431</v>
+      </c>
+      <c r="O109" s="233" t="s">
+        <v>236</v>
+      </c>
+      <c r="P109" s="233" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q109" s="234">
+        <v>5.0728</v>
+      </c>
+      <c r="R109" s="233"/>
+      <c r="S109" s="238"/>
+    </row>
+    <row r="110" spans="12:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="L110" s="230" t="s">
+        <v>506</v>
+      </c>
+      <c r="M110" s="239">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="N110" s="240"/>
+      <c r="O110" s="241"/>
+      <c r="P110" s="241"/>
+      <c r="Q110" s="241"/>
+      <c r="R110" s="241"/>
+      <c r="S110" s="242"/>
+    </row>
+    <row r="111" spans="12:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="L111" s="230" t="s">
+        <v>529</v>
+      </c>
+      <c r="M111" s="243">
+        <v>1.5</v>
+      </c>
+      <c r="N111" s="240"/>
+      <c r="O111" s="244"/>
+      <c r="P111" s="241"/>
+      <c r="Q111" s="244"/>
+      <c r="R111" s="241"/>
+      <c r="S111" s="245"/>
+    </row>
+    <row r="112" spans="12:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="L112" s="230" t="s">
+        <v>530</v>
+      </c>
+      <c r="M112" s="243">
+        <v>1</v>
+      </c>
+      <c r="N112" s="246"/>
+      <c r="O112" s="247"/>
+      <c r="P112" s="247"/>
+      <c r="Q112" s="247"/>
+      <c r="R112" s="247"/>
+      <c r="S112" s="248"/>
+    </row>
+    <row r="113" spans="12:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L113" s="249" t="s">
+        <v>371</v>
+      </c>
+      <c r="M113" s="250">
+        <v>8</v>
+      </c>
+      <c r="N113" s="251"/>
+      <c r="O113" s="252"/>
+      <c r="P113" s="252"/>
+      <c r="Q113" s="252"/>
+      <c r="R113" s="252"/>
+      <c r="S113" s="253"/>
+    </row>
+    <row r="118" spans="12:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="93">
+    <mergeCell ref="L104:S104"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="N89:Q89"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="N95:Q95"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N87:Q87"/>
     <mergeCell ref="N88:Q88"/>
@@ -8601,81 +9007,6 @@
     <mergeCell ref="N75:Q75"/>
     <mergeCell ref="N76:Q76"/>
     <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="N93:Q93"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="N89:Q89"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="N86:Q86"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L79:M79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8683,7 +9014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -8693,33 +9024,33 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
         <v>215</v>
@@ -8728,15 +9059,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E4">
         <v>208995</v>
@@ -8749,27 +9080,27 @@
         <v>99</v>
       </c>
       <c r="P4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q4" t="s">
+        <v>422</v>
+      </c>
+      <c r="R4" t="s">
+        <v>424</v>
+      </c>
+      <c r="S4" t="s">
         <v>425</v>
       </c>
-      <c r="R4" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>427</v>
       </c>
-      <c r="S4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" t="s">
         <v>430</v>
-      </c>
-      <c r="B5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" t="s">
-        <v>433</v>
       </c>
       <c r="F5">
         <v>126.82</v>
@@ -8779,10 +9110,10 @@
         <v>101.456</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P5">
         <v>76.5</v>
@@ -8799,9 +9130,9 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="R6">
         <v>10.6</v>
@@ -8810,7 +9141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R7">
         <f>R6*S6/S7</f>
         <v>341.93548387096774</v>
@@ -8819,32 +9150,32 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R8">
         <f>R7/R5/3600</f>
         <v>4.4697448872021921</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" t="s">
         <v>367</v>
       </c>
-      <c r="C9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C10">
         <v>780</v>
@@ -8861,9 +9192,9 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C11">
         <v>230</v>
@@ -8880,9 +9211,9 @@
         <v>1.7117425539198904E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C12">
         <v>125</v>
@@ -8899,15 +9230,15 @@
         <v>3.1496062992125983E-4</v>
       </c>
       <c r="I12" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J12" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C13">
         <v>86</v>
@@ -8930,9 +9261,9 @@
         <v>3.3E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -8949,16 +9280,16 @@
         <v>5.3202809108320926E-4</v>
       </c>
       <c r="I14" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J14" s="44">
         <f>J13/I13</f>
         <v>0.71739130434782605</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C15">
         <v>59</v>
@@ -8975,9 +9306,9 @@
         <v>6.672894701721607E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -8994,9 +9325,9 @@
         <v>7.874015748031496E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -9013,9 +9344,9 @@
         <v>1.3123359580052493E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -9032,12 +9363,12 @@
         <v>1.7117425539198907E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C19">
         <v>780</v>
@@ -9054,9 +9385,9 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C20">
         <v>216</v>
@@ -9073,9 +9404,9 @@
         <v>1.8226888305628464E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -9092,9 +9423,9 @@
         <v>5.3202809108320926E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C22">
         <v>47</v>
@@ -9111,9 +9442,9 @@
         <v>8.3766124979058477E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -9130,12 +9461,12 @@
         <v>1.6404199475065619E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C24">
         <v>300</v>
@@ -9152,9 +9483,9 @@
         <v>1.3123359580052493E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C25">
         <v>120</v>
@@ -9171,9 +9502,9 @@
         <v>3.2808398950131233E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -9192,9 +9523,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -9202,34 +9533,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
         <v>215</v>
@@ -9241,7 +9572,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -9252,18 +9583,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -9271,10 +9602,10 @@
         <v>3859.6</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -9285,7 +9616,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -9296,7 +9627,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -9307,10 +9638,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -9319,40 +9650,40 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B13" s="37">
         <v>200</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B14" s="36">
         <v>18</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B15" s="38">
         <f>B14*5/228</f>
@@ -9360,18 +9691,18 @@
       </c>
       <c r="C15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B16" s="36">
         <v>5.5</v>
       </c>
       <c r="C16" s="36"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B17" s="39">
         <f>B15*B13/B16</f>
@@ -9380,40 +9711,40 @@
       <c r="C17" s="36"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B20" s="36">
         <v>12.8</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B21" s="36">
         <v>11</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B22" s="36">
         <f>PI()*0.04*0.04*100*7.8</f>
@@ -9421,9 +9752,9 @@
       </c>
       <c r="C22" s="36"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B23" s="37">
         <f>B20*B22/1000</f>
@@ -9431,40 +9762,40 @@
       </c>
       <c r="C23" s="36"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B26" s="36">
         <v>10.050000000000001</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B27" s="36">
         <v>2</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B28" s="36">
         <f>PI()*0.1*0.1*100*2.7</f>
@@ -9472,9 +9803,9 @@
       </c>
       <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B29" s="37">
         <f>B26*B28/1000</f>
@@ -9482,33 +9813,33 @@
       </c>
       <c r="C29" s="36"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" s="35"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B32" s="41">
         <f>30/(2*PI()*0.034)</f>
         <v>140.43083213990764</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B33" s="39">
         <f>'Manpower &amp; time'!H6/60</f>
@@ -9516,9 +9847,9 @@
       </c>
       <c r="C33" s="36"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B34" s="39">
         <f>B33*B32</f>
@@ -9528,18 +9859,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2"/>
-    <hyperlink ref="C26" r:id="rId3"/>
-    <hyperlink ref="G2" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9549,86 +9880,86 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B2" s="2">
         <v>15000</v>
       </c>
       <c r="C2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B4" s="2">
         <v>10000</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" customWidth="1"/>
-    <col min="21" max="22" width="14.44140625" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9642,7 +9973,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9686,7 +10017,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -9695,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -9704,7 +10035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -9767,7 +10098,7 @@
         <v>4.7646666666666666E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -9830,7 +10161,7 @@
         <v>4.7479999999999999E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -9893,7 +10224,7 @@
         <v>4.7380000000000004E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -9947,7 +10278,7 @@
         <v>4.7502222222222225E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32</v>
       </c>
@@ -9994,7 +10325,7 @@
         <v>3.6720000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32</v>
       </c>
@@ -10041,7 +10372,7 @@
         <v>3.2127777777777776E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32</v>
       </c>
@@ -10088,7 +10419,7 @@
         <v>3.348687883863763E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -10126,7 +10457,7 @@
         <v>3.478250451663077E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>40</v>
       </c>
@@ -10151,7 +10482,7 @@
         <v>1.4970377000558874E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50</v>
       </c>
@@ -10170,7 +10501,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -10188,7 +10519,7 @@
         <v>3.5986666666666665E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50</v>
       </c>
@@ -10209,19 +10540,19 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S15" t="s">
         <v>6</v>
       </c>
       <c r="T15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U15" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>8</v>
       </c>
@@ -10230,7 +10561,7 @@
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
@@ -10242,19 +10573,19 @@
         <v>3</v>
       </c>
       <c r="S16" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="T16" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="U16" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="V16" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N17">
         <v>5</v>
       </c>
@@ -10282,7 +10613,7 @@
         <v>7.0974010050808657E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N18">
         <v>10</v>
       </c>
@@ -10310,12 +10641,12 @@
         <v>5.7486765444792583E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -10344,9 +10675,9 @@
         <v>5.333458981835071E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -10384,7 +10715,7 @@
         <v>4.8568301179170389E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>10</v>
       </c>
@@ -10425,7 +10756,7 @@
         <v>6.5651414025406826E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
@@ -10454,7 +10785,7 @@
         <v>5.9203016103705834E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -10473,10 +10804,10 @@
         <v>6060</v>
       </c>
       <c r="T23" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>25</v>
       </c>
@@ -10505,7 +10836,7 @@
         <v>2.1368281055120556E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>25</v>
       </c>
@@ -10534,7 +10865,7 @@
         <v>7.4670194133947567E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>30</v>
       </c>
@@ -10551,7 +10882,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>35</v>
       </c>
@@ -10568,7 +10899,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>8</v>
       </c>
@@ -10579,43 +10910,43 @@
       <c r="U28" s="2"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="G31" t="s">
+        <v>330</v>
+      </c>
+      <c r="H31" t="s">
+        <v>299</v>
+      </c>
+      <c r="N31" t="s">
+        <v>453</v>
+      </c>
+      <c r="O31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>300</v>
-      </c>
-      <c r="G31" t="s">
-        <v>331</v>
-      </c>
-      <c r="H31" t="s">
-        <v>300</v>
-      </c>
-      <c r="N31" t="s">
-        <v>457</v>
-      </c>
-      <c r="O31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>301</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -10627,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
@@ -10639,7 +10970,7 @@
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P32" t="s">
         <v>2</v>
@@ -10648,10 +10979,10 @@
         <v>87</v>
       </c>
       <c r="R32" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>10</v>
       </c>
@@ -10692,7 +11023,7 @@
         <v>2.9294456712851987E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>16</v>
       </c>
@@ -10733,7 +11064,7 @@
         <v>2.938000249476388E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>20</v>
       </c>
@@ -10774,7 +11105,7 @@
         <v>2.9416926441561197E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>40</v>
       </c>
@@ -10815,7 +11146,7 @@
         <v>2.7748664328071946E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>50</v>
       </c>
@@ -10850,7 +11181,7 @@
         <v>2.9404759930355956E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>60</v>
       </c>
@@ -10880,7 +11211,7 @@
         <v>2.7762590385592491E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>80</v>
       </c>
@@ -10904,7 +11235,7 @@
         <v>2.8834566715532905E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>8</v>
       </c>
@@ -10914,20 +11245,20 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B44" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -10944,7 +11275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.5</v>
       </c>
@@ -10962,43 +11293,43 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G48" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B49" t="s">
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D49" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G49" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H49" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I49" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B50" s="2">
         <v>86.4</v>
@@ -11012,7 +11343,7 @@
         <v>1.9072847682119207E-5</v>
       </c>
       <c r="G50" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H50" s="19">
         <v>1.1000000000000001</v>
@@ -11026,9 +11357,9 @@
         <v>8.5470000000000013E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B51" s="2">
         <v>60</v>
@@ -11042,7 +11373,7 @@
         <v>1.5915494309189534E-5</v>
       </c>
       <c r="G51" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H51" s="19">
         <v>2.5</v>
@@ -11056,9 +11387,9 @@
         <v>1.9425000000000001E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B52" s="2">
         <v>28.32</v>
@@ -11072,7 +11403,7 @@
         <v>9.8117398386121925E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H52" s="19">
         <v>2.5</v>
@@ -11086,9 +11417,9 @@
         <v>1.9425000000000001E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B53" s="2">
         <v>35.4</v>
@@ -11102,7 +11433,7 @@
         <v>9.8333333333333329E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H53" s="19">
         <v>18</v>
@@ -11116,9 +11447,9 @@
         <v>4.8600000000000002E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B54" s="2">
         <v>81.599999999999994</v>
@@ -11132,9 +11463,9 @@
         <v>9.7142857142857135E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B55" s="2">
         <v>8</v>
@@ -11149,9 +11480,9 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B56" s="2">
         <v>50</v>
@@ -11165,9 +11496,9 @@
         <v>2.5062656641604011E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B57" s="2">
         <v>46.2</v>
@@ -11181,9 +11512,9 @@
         <v>2.2211538461538464E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B58" s="2">
         <v>28</v>
@@ -11197,9 +11528,9 @@
         <v>2.0480672862977284E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B59" s="2">
         <v>35.700000000000003</v>
@@ -11213,9 +11544,9 @@
         <v>2.380198551973887E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B60" s="2">
         <v>13</v>
@@ -11229,17 +11560,17 @@
         <v>2.0690142601946392E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D61" s="1">
         <f>AVERAGE(D51,D50)</f>
         <v>1.7494170995654369E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>8</v>
       </c>
@@ -11248,12 +11579,12 @@
         <v>2.2449399217561005E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -11264,7 +11595,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -11276,7 +11607,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>80</v>
       </c>
@@ -11298,10 +11629,10 @@
         <v>1.605E-5</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>50</v>
       </c>
@@ -11323,7 +11654,7 @@
         <v>1.98E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>30</v>
       </c>
@@ -11345,7 +11676,7 @@
         <v>1.98E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>40</v>
       </c>
@@ -11369,13 +11700,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="S1" r:id="rId2"/>
-    <hyperlink ref="G30" r:id="rId3"/>
-    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4"/>
-    <hyperlink ref="A43" r:id="rId5"/>
-    <hyperlink ref="G66" r:id="rId6"/>
-    <hyperlink ref="A30" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="S1" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
+    <hyperlink ref="A43" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
+    <hyperlink ref="G66" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
+    <hyperlink ref="A30" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -11383,7 +11714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
@@ -11393,25 +11724,25 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -11419,7 +11750,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -11427,7 +11758,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>161</v>
       </c>
@@ -11435,19 +11766,19 @@
         <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -11473,9 +11804,9 @@
         <v>12.68856351404828</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -11499,9 +11830,9 @@
         <v>23.630193905817173</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B7" s="2">
         <v>3077</v>
@@ -11525,9 +11856,9 @@
         <v>29.773842500989314</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="2">
         <v>4104</v>
@@ -11551,9 +11882,9 @@
         <v>41.458053027305105</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9">
         <f>SUM(F8+F6+F5)</f>
@@ -11564,7 +11895,7 @@
         <v>11403.29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -11572,7 +11903,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>165</v>
       </c>
@@ -11580,7 +11911,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -11588,7 +11919,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -11596,7 +11927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -11604,7 +11935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -11613,7 +11944,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -11622,27 +11953,27 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" t="s">
         <v>270</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>419</v>
+      </c>
+      <c r="E22" t="s">
+        <v>420</v>
+      </c>
+      <c r="F22" t="s">
+        <v>418</v>
+      </c>
+      <c r="G22" t="s">
         <v>271</v>
       </c>
-      <c r="D22" t="s">
-        <v>422</v>
-      </c>
-      <c r="E22" t="s">
-        <v>423</v>
-      </c>
-      <c r="F22" t="s">
-        <v>421</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>272</v>
-      </c>
-      <c r="H22" t="s">
-        <v>273</v>
       </c>
       <c r="I22" t="s">
         <v>34</v>
@@ -11651,10 +11982,10 @@
         <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -11687,9 +12018,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H24">
         <v>0.5</v>
@@ -11702,9 +12033,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G25">
         <v>0.85</v>
@@ -11720,9 +12051,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H26">
         <v>0.35</v>
@@ -11738,9 +12069,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27:J27" si="3">$B$30*SUM(B23:B26)</f>
@@ -11783,9 +12114,9 @@
         <v>10765.019999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28">
         <f>Summary!$C$9*Summary!$C$8*Summary!$C$7</f>
@@ -11828,51 +12159,51 @@
         <v>10709.159999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D29">
         <f>D28*0.4</f>
         <v>446.88000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B30">
         <f>Summary!$C$10*Summary!$C$8*Summary!$C$7</f>
         <v>1516.2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" s="11">
         <f>SUMPRODUCT(D5:D8*J23:J26)</f>
         <v>13108.788</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11882,12 +12213,12 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -11895,43 +12226,43 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4">
         <v>38.64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5">
         <f>(24*2 + 7.5)*0.8+16+14</f>
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="2">
         <f>B5*B4</f>
         <v>2874.8160000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -11939,7 +12270,7 @@
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>199</v>
       </c>
@@ -11947,9 +12278,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B10" s="2">
         <v>2.77</v>
@@ -11959,20 +12290,20 @@
         <v>2.2160000000000002</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -11982,13 +12313,13 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -12008,7 +12339,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -12026,7 +12357,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -12044,7 +12375,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -12062,10 +12393,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -12080,7 +12411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -12095,7 +12426,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -12110,10 +12441,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -12128,7 +12459,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -12140,7 +12471,7 @@
         <v>326.40000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -12155,10 +12486,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -12176,7 +12507,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>147</v>
       </c>
@@ -12191,7 +12522,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>149</v>
       </c>
@@ -12206,7 +12537,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>151</v>
       </c>
@@ -12221,7 +12552,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -12239,7 +12570,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>217</v>
       </c>
@@ -12254,11 +12585,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -12280,46 +12611,46 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" t="s">
         <v>256</v>
-      </c>
-      <c r="B23" t="s">
-        <v>257</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" t="s">
         <v>259</v>
-      </c>
-      <c r="B25" t="s">
-        <v>260</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F21" r:id="rId2"/>
-    <hyperlink ref="F18" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -12329,15 +12660,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>200</v>
       </c>
@@ -12348,7 +12679,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -12366,7 +12697,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -12381,11 +12712,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -12400,7 +12731,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -12415,7 +12746,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -12430,7 +12761,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -12442,7 +12773,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>208</v>
       </c>
@@ -12454,11 +12785,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -12473,7 +12804,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -12488,7 +12819,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -12503,11 +12834,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -12522,7 +12853,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -12537,7 +12868,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -12552,7 +12883,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -12567,7 +12898,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -12581,26 +12912,26 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D22" s="2">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D23" s="2">
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -12609,7 +12940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -12619,9 +12950,9 @@
       <selection activeCell="A11" sqref="A11:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -12635,84 +12966,84 @@
         <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2">
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D3" s="2">
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D4" s="2">
         <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D5" s="2">
         <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
       <c r="E6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>319</v>
       </c>
       <c r="D7" s="2">
         <v>1851</v>
       </c>
       <c r="E7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>321</v>
       </c>
       <c r="D8" s="2">
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -12721,7 +13052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -12731,25 +13062,25 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
         <v>215</v>
@@ -12761,7 +13092,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -12776,7 +13107,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -12791,7 +13122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -12806,9 +13137,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D5" s="18">
         <v>3795</v>
@@ -12818,54 +13149,54 @@
         <v>3359.4773556177188</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D6" s="18"/>
       <c r="F6" s="2">
         <v>119</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D7" s="18"/>
       <c r="F7" s="2">
         <v>379</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D8" s="18"/>
       <c r="F8" s="2">
         <v>425</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
         <v>245</v>
-      </c>
-      <c r="B10" t="s">
-        <v>246</v>
       </c>
       <c r="C10" s="9"/>
       <c r="F10" s="2">
@@ -12875,12 +13206,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="9"/>
       <c r="E11" s="2">
@@ -12894,7 +13225,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -12908,7 +13239,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>109</v>
       </c>
@@ -12919,7 +13250,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>112</v>
       </c>
@@ -12931,59 +13262,59 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F17" s="2">
         <v>12999</v>
       </c>
       <c r="G17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F20" s="2">
         <v>1001.67</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>324</v>
       </c>
       <c r="F21" s="2">
         <v>352.31</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F23" s="2">
         <v>2302.5700000000002</v>
       </c>
       <c r="G23" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -12992,12 +13323,12 @@
         <v>69.400000000000006</v>
       </c>
       <c r="G25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -13006,12 +13337,12 @@
         <v>1433.25</v>
       </c>
       <c r="G26" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -13020,12 +13351,12 @@
         <v>1866.02</v>
       </c>
       <c r="G27" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -13034,12 +13365,12 @@
         <v>859.65</v>
       </c>
       <c r="G28" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -13048,12 +13379,12 @@
         <v>699.07</v>
       </c>
       <c r="G29" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -13062,65 +13393,65 @@
         <v>16.899999999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F32" s="2">
         <v>3259</v>
       </c>
       <c r="G32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>412</v>
       </c>
       <c r="F34" s="2">
         <v>1075</v>
       </c>
       <c r="G34" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F36" s="2">
         <f>1031.54</f>
         <v>1031.54</v>
       </c>
       <c r="G36" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
-    <hyperlink ref="G11" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="G13" r:id="rId5"/>
-    <hyperlink ref="G14" r:id="rId6"/>
-    <hyperlink ref="G15" r:id="rId7"/>
-    <hyperlink ref="G3" r:id="rId8"/>
-    <hyperlink ref="G20" r:id="rId9"/>
-    <hyperlink ref="G21" r:id="rId10"/>
+    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="G3" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="G21" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -13130,18 +13461,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -13153,12 +13484,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -13169,7 +13500,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>67</v>
       </c>
@@ -13177,7 +13508,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>68</v>
       </c>
@@ -13185,22 +13516,22 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -13211,7 +13542,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>67</v>
       </c>
@@ -13219,7 +13550,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -13227,7 +13558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -13235,7 +13566,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -13243,7 +13574,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -13251,7 +13582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -13259,7 +13590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -13267,7 +13598,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -13278,7 +13609,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>216</v>
       </c>
@@ -13289,7 +13620,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -13304,7 +13635,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -13318,7 +13649,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -13332,7 +13663,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -13340,7 +13671,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -13354,7 +13685,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -13376,7 +13707,7 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -13391,7 +13722,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>200</v>
       </c>
@@ -13405,17 +13736,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="D24" r:id="rId3"/>
-    <hyperlink ref="D23" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="D23" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -13425,42 +13756,42 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B2" s="2">
         <f>133720</f>
         <v>133720</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B4">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>198</v>
       </c>
@@ -13468,7 +13799,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -13476,33 +13807,33 @@
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -13510,7 +13841,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -13524,7 +13855,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -13546,7 +13877,7 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -13561,7 +13892,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>200</v>
       </c>
@@ -13573,14 +13904,14 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/CR - Cost Report/CBOM/Cost_v1.5.xlsx
+++ b/CR - Cost Report/CBOM/Cost_v1.5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC83E55-639E-4BAA-94A9-74851D0A1BA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6690" yWindow="2655" windowWidth="14130" windowHeight="12150" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6696" yWindow="2652" windowWidth="14136" windowHeight="12156" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="Conventionnal machinning" sheetId="15" r:id="rId12"/>
     <sheet name="Material" sheetId="2" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="545">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -1696,15 +1695,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -2311,9 +2310,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2341,9 +2340,9 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2429,7 +2428,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2659,165 +2658,12 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2829,12 +2675,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2853,7 +2693,7 @@
     <xf numFmtId="9" fontId="7" fillId="12" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="7" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2894,6 +2734,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2903,16 +2755,183 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3281,6 +3300,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3288,7 +3308,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3648,6 +3667,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3655,7 +3675,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4003,6 +4022,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4010,7 +4030,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6122,75 +6141,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K60" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="P101" sqref="P101"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="S127" sqref="L116:S127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="49.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="32.28515625" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="49.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="29.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="32.33203125" customWidth="1"/>
+    <col min="17" max="18" width="21.109375" customWidth="1"/>
+    <col min="19" max="19" width="20.88671875" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="244" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
       <c r="D1" s="58"/>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="238" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="177"/>
-      <c r="L1" s="178" t="s">
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="240"/>
+      <c r="L1" s="241" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="180"/>
-      <c r="U1" s="217" t="s">
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="243"/>
+      <c r="U1" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="Y1" s="210" t="s">
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="Y1" s="214" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-    </row>
-    <row r="2" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="214"/>
+    </row>
+    <row r="2" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="67" t="s">
         <v>33</v>
       </c>
@@ -6259,7 +6277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>54</v>
       </c>
@@ -6270,7 +6288,7 @@
         <f>'Manpower &amp; time'!C5</f>
         <v>21376</v>
       </c>
-      <c r="D3" s="196" t="s">
+      <c r="D3" s="256" t="s">
         <v>537</v>
       </c>
       <c r="F3" s="116" t="s">
@@ -6290,10 +6308,10 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="183" t="s">
+      <c r="L3" s="215" t="s">
         <v>504</v>
       </c>
-      <c r="M3" s="211"/>
+      <c r="M3" s="216"/>
       <c r="N3" s="110" t="s">
         <v>230</v>
       </c>
@@ -6322,7 +6340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="36" t="s">
         <v>55</v>
@@ -6331,7 +6349,7 @@
         <f>'Manpower &amp; time'!C6</f>
         <v>39809</v>
       </c>
-      <c r="D4" s="197"/>
+      <c r="D4" s="257"/>
       <c r="F4" s="117"/>
       <c r="G4" s="111" t="s">
         <v>220</v>
@@ -6379,7 +6397,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="60"/>
       <c r="B5" s="36" t="s">
         <v>56</v>
@@ -6388,7 +6406,7 @@
         <f>'Manpower &amp; time'!C8</f>
         <v>69843</v>
       </c>
-      <c r="D5" s="197"/>
+      <c r="D5" s="257"/>
       <c r="F5" s="117"/>
       <c r="G5" s="111" t="s">
         <v>219</v>
@@ -6436,7 +6454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61"/>
       <c r="B6" s="72" t="s">
         <v>57</v>
@@ -6445,7 +6463,7 @@
         <f>'Manpower &amp; time'!C6</f>
         <v>39809</v>
       </c>
-      <c r="D6" s="198"/>
+      <c r="D6" s="258"/>
       <c r="F6" s="117"/>
       <c r="G6" s="111" t="s">
         <v>37</v>
@@ -6492,7 +6510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>58</v>
       </c>
@@ -6542,7 +6560,7 @@
       <c r="S7" s="151"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
       <c r="B8" s="36" t="s">
         <v>60</v>
@@ -6590,7 +6608,7 @@
       <c r="S8" s="151"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="60"/>
       <c r="B9" s="36" t="s">
         <v>61</v>
@@ -6645,7 +6663,7 @@
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="61"/>
       <c r="B10" s="72" t="s">
         <v>267</v>
@@ -6653,7 +6671,7 @@
       <c r="C10" s="77">
         <v>0.95</v>
       </c>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="169" t="s">
         <v>280</v>
       </c>
       <c r="F10" s="119" t="s">
@@ -6690,7 +6708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="79" t="s">
         <v>335</v>
       </c>
@@ -6703,7 +6721,7 @@
       </c>
       <c r="D11" s="70"/>
       <c r="F11" s="120"/>
-      <c r="G11" s="221" t="s">
+      <c r="G11" s="170" t="s">
         <v>290</v>
       </c>
       <c r="H11" s="37">
@@ -6717,10 +6735,10 @@
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="L11" s="169" t="s">
+      <c r="L11" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="192"/>
+      <c r="M11" s="254"/>
       <c r="N11" s="110" t="s">
         <v>345</v>
       </c>
@@ -6746,7 +6764,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="80"/>
       <c r="B12" s="36" t="s">
         <v>174</v>
@@ -6800,7 +6818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="82"/>
       <c r="B13" s="72" t="s">
         <v>539</v>
@@ -6853,7 +6871,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
         <v>336</v>
       </c>
@@ -6906,7 +6924,7 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="86"/>
       <c r="B15" s="72" t="s">
         <v>203</v>
@@ -6953,7 +6971,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="151"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F16" s="124"/>
       <c r="G16" s="112" t="s">
         <v>284</v>
@@ -6991,7 +7009,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="151"/>
     </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F17" s="125" t="s">
         <v>39</v>
       </c>
@@ -7037,7 +7055,7 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="18" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F18" s="126"/>
       <c r="G18" s="111" t="s">
         <v>228</v>
@@ -7066,9 +7084,9 @@
       <c r="R18" s="72"/>
       <c r="S18" s="83"/>
     </row>
-    <row r="19" spans="6:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F19" s="126"/>
-      <c r="G19" s="223" t="s">
+      <c r="G19" s="172" t="s">
         <v>540</v>
       </c>
       <c r="H19" s="39">
@@ -7082,10 +7100,10 @@
         <f t="shared" si="0"/>
         <v>277.54199999999997</v>
       </c>
-      <c r="L19" s="212" t="s">
+      <c r="L19" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="213"/>
+      <c r="M19" s="218"/>
       <c r="N19" s="110" t="s">
         <v>21</v>
       </c>
@@ -7105,7 +7123,7 @@
         <v>18501.026875818847</v>
       </c>
     </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F20" s="126"/>
       <c r="G20" s="111" t="s">
         <v>204</v>
@@ -7148,7 +7166,7 @@
         <v>9250.5134379094234</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F21" s="126"/>
       <c r="G21" s="111" t="s">
         <v>205</v>
@@ -7186,7 +7204,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="151"/>
     </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F22" s="126"/>
       <c r="G22" s="111" t="s">
         <v>41</v>
@@ -7224,7 +7242,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="151"/>
     </row>
-    <row r="23" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F23" s="127"/>
       <c r="G23" s="112" t="s">
         <v>403</v>
@@ -7253,7 +7271,7 @@
       <c r="R23" s="94"/>
       <c r="S23" s="155"/>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F24" s="116" t="s">
         <v>397</v>
       </c>
@@ -7283,7 +7301,7 @@
       <c r="R24" s="94"/>
       <c r="S24" s="156"/>
     </row>
-    <row r="25" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F25" s="118"/>
       <c r="G25" s="112" t="s">
         <v>337</v>
@@ -7312,11 +7330,11 @@
       <c r="R25" s="96"/>
       <c r="S25" s="157"/>
     </row>
-    <row r="26" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F26" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="222" t="s">
+      <c r="G26" s="171" t="s">
         <v>417</v>
       </c>
       <c r="H26" s="69">
@@ -7343,7 +7361,7 @@
       <c r="R26" s="72"/>
       <c r="S26" s="83"/>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F27" s="120"/>
       <c r="G27" s="111" t="s">
         <v>405</v>
@@ -7382,7 +7400,7 @@
         <v>530.86</v>
       </c>
     </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F28" s="120"/>
       <c r="G28" s="111" t="s">
         <v>512</v>
@@ -7419,7 +7437,7 @@
         <v>385.96</v>
       </c>
     </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F29" s="120"/>
       <c r="G29" s="111" t="s">
         <v>326</v>
@@ -7461,9 +7479,9 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F30" s="120"/>
-      <c r="G30" s="223" t="s">
+      <c r="G30" s="172" t="s">
         <v>380</v>
       </c>
       <c r="H30" s="39">
@@ -7503,7 +7521,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F31" s="120"/>
       <c r="G31" s="111" t="s">
         <v>381</v>
@@ -7539,7 +7557,7 @@
         <v>857.9</v>
       </c>
     </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F32" s="120"/>
       <c r="G32" s="111" t="s">
         <v>382</v>
@@ -7577,7 +7595,7 @@
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F33" s="120"/>
       <c r="G33" s="111" t="s">
         <v>386</v>
@@ -7611,7 +7629,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="151"/>
     </row>
-    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F34" s="120"/>
       <c r="G34" s="111" t="s">
         <v>46</v>
@@ -7632,10 +7650,10 @@
       <c r="N34" s="111" t="s">
         <v>478</v>
       </c>
-      <c r="O34" s="208" t="s">
+      <c r="O34" s="259" t="s">
         <v>236</v>
       </c>
-      <c r="P34" s="209" t="s">
+      <c r="P34" s="260" t="s">
         <v>477</v>
       </c>
       <c r="Q34" s="39">
@@ -7645,7 +7663,7 @@
       <c r="R34" s="36"/>
       <c r="S34" s="151"/>
     </row>
-    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F35" s="120"/>
       <c r="G35" s="111" t="s">
         <v>398</v>
@@ -7666,8 +7684,8 @@
       <c r="N35" s="111" t="s">
         <v>479</v>
       </c>
-      <c r="O35" s="208"/>
-      <c r="P35" s="209"/>
+      <c r="O35" s="259"/>
+      <c r="P35" s="260"/>
       <c r="Q35" s="39">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
@@ -7675,7 +7693,7 @@
       <c r="R35" s="36"/>
       <c r="S35" s="151"/>
     </row>
-    <row r="36" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F36" s="120"/>
       <c r="G36" s="114" t="s">
         <v>378</v>
@@ -7709,7 +7727,7 @@
       <c r="R36" s="72"/>
       <c r="S36" s="83"/>
     </row>
-    <row r="37" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F37" s="120"/>
       <c r="G37" s="114" t="s">
         <v>379</v>
@@ -7725,10 +7743,10 @@
         <f>H37/I37</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L37" s="169" t="s">
+      <c r="L37" s="253" t="s">
         <v>418</v>
       </c>
-      <c r="M37" s="192"/>
+      <c r="M37" s="254"/>
       <c r="N37" s="110" t="s">
         <v>483</v>
       </c>
@@ -7748,7 +7766,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F38" s="121"/>
       <c r="G38" s="115" t="s">
         <v>514</v>
@@ -7789,7 +7807,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F39" s="25"/>
       <c r="G39" s="21"/>
       <c r="J39" s="12"/>
@@ -7818,14 +7836,14 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="185" t="s">
+    <row r="40" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
-      <c r="J40" s="187"/>
+      <c r="G40" s="248"/>
+      <c r="H40" s="248"/>
+      <c r="I40" s="248"/>
+      <c r="J40" s="249"/>
       <c r="L40" s="52" t="s">
         <v>248</v>
       </c>
@@ -7853,15 +7871,15 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F41" s="199" t="s">
+    <row r="41" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F41" s="228" t="s">
         <v>338</v>
       </c>
-      <c r="G41" s="190" t="s">
+      <c r="G41" s="251" t="s">
         <v>500</v>
       </c>
-      <c r="H41" s="190"/>
-      <c r="I41" s="191"/>
+      <c r="H41" s="251"/>
+      <c r="I41" s="252"/>
       <c r="J41" s="97">
         <f>SUM(J3:J38)*1.05</f>
         <v>128441.41571598139</v>
@@ -7889,13 +7907,13 @@
       <c r="R41" s="36"/>
       <c r="S41" s="151"/>
     </row>
-    <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="200"/>
-      <c r="G42" s="188" t="s">
+    <row r="42" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="229"/>
+      <c r="G42" s="250" t="s">
         <v>298</v>
       </c>
-      <c r="H42" s="188"/>
-      <c r="I42" s="189"/>
+      <c r="H42" s="250"/>
+      <c r="I42" s="236"/>
       <c r="J42" s="98">
         <f>J41/SUM('Manpower &amp; time'!B28:I28)</f>
         <v>11.782881041914944</v>
@@ -7921,94 +7939,94 @@
       <c r="R42" s="72"/>
       <c r="S42" s="83"/>
     </row>
-    <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="201" t="s">
+    <row r="43" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F43" s="230" t="s">
         <v>339</v>
       </c>
-      <c r="G43" s="191" t="s">
+      <c r="G43" s="252" t="s">
         <v>340</v>
       </c>
-      <c r="H43" s="193"/>
-      <c r="I43" s="193"/>
+      <c r="H43" s="255"/>
+      <c r="I43" s="255"/>
       <c r="J43" s="99">
         <f>'Manpower &amp; time'!H5</f>
         <v>12.68856351404828</v>
       </c>
     </row>
-    <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="202"/>
-      <c r="G44" s="194" t="s">
+    <row r="44" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="231"/>
+      <c r="G44" s="226" t="s">
         <v>351</v>
       </c>
-      <c r="H44" s="195"/>
-      <c r="I44" s="195"/>
+      <c r="H44" s="227"/>
+      <c r="I44" s="227"/>
       <c r="J44" s="100">
         <f>'Manpower &amp; time'!H6</f>
         <v>23.630193905817173</v>
       </c>
-      <c r="L44" s="204" t="s">
+      <c r="L44" s="233" t="s">
         <v>542</v>
       </c>
-      <c r="M44" s="205"/>
-      <c r="N44" s="205"/>
-      <c r="O44" s="205"/>
-      <c r="P44" s="205"/>
-      <c r="Q44" s="205"/>
-      <c r="R44" s="206"/>
-    </row>
-    <row r="45" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="202"/>
-      <c r="G45" s="194" t="s">
+      <c r="M44" s="234"/>
+      <c r="N44" s="234"/>
+      <c r="O44" s="234"/>
+      <c r="P44" s="234"/>
+      <c r="Q44" s="234"/>
+      <c r="R44" s="235"/>
+    </row>
+    <row r="45" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F45" s="231"/>
+      <c r="G45" s="226" t="s">
         <v>494</v>
       </c>
-      <c r="H45" s="195"/>
-      <c r="I45" s="195"/>
+      <c r="H45" s="227"/>
+      <c r="I45" s="227"/>
       <c r="J45" s="100">
         <f>'Manpower &amp; time'!H7</f>
         <v>29.773842500989314</v>
       </c>
-      <c r="L45" s="183" t="s">
+      <c r="L45" s="215" t="s">
         <v>504</v>
       </c>
-      <c r="M45" s="184"/>
-      <c r="N45" s="171" t="s">
+      <c r="M45" s="246"/>
+      <c r="N45" s="220" t="s">
         <v>307</v>
       </c>
-      <c r="O45" s="171"/>
-      <c r="P45" s="171"/>
-      <c r="Q45" s="171"/>
+      <c r="O45" s="220"/>
+      <c r="P45" s="220"/>
+      <c r="Q45" s="220"/>
       <c r="R45" s="87">
         <f>SUM(S3:S6)+S9</f>
         <v>17591.025600000001</v>
       </c>
     </row>
-    <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="203"/>
-      <c r="G46" s="189" t="s">
+    <row r="46" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F46" s="232"/>
+      <c r="G46" s="236" t="s">
         <v>341</v>
       </c>
-      <c r="H46" s="207"/>
-      <c r="I46" s="207"/>
+      <c r="H46" s="237"/>
+      <c r="I46" s="237"/>
       <c r="J46" s="101">
         <f>'Manpower &amp; time'!H8</f>
         <v>41.458053027305105</v>
       </c>
-      <c r="L46" s="166" t="s">
+      <c r="L46" s="223" t="s">
         <v>508</v>
       </c>
-      <c r="M46" s="167"/>
-      <c r="N46" s="168" t="s">
+      <c r="M46" s="224"/>
+      <c r="N46" s="212" t="s">
         <v>308</v>
       </c>
-      <c r="O46" s="168"/>
-      <c r="P46" s="168"/>
-      <c r="Q46" s="168"/>
+      <c r="O46" s="212"/>
+      <c r="P46" s="212"/>
+      <c r="Q46" s="212"/>
       <c r="R46" s="88">
         <f>R45/(M5*C7*C8)+J42</f>
         <v>25.560313372742012</v>
       </c>
     </row>
-    <row r="47" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J47" s="24"/>
       <c r="L47" s="47" t="s">
         <v>511</v>
@@ -8016,18 +8034,18 @@
       <c r="M47" s="48">
         <v>2.5</v>
       </c>
-      <c r="N47" s="168" t="s">
+      <c r="N47" s="212" t="s">
         <v>309</v>
       </c>
-      <c r="O47" s="168"/>
-      <c r="P47" s="168"/>
-      <c r="Q47" s="168"/>
+      <c r="O47" s="212"/>
+      <c r="P47" s="212"/>
+      <c r="Q47" s="212"/>
       <c r="R47" s="88">
         <f>R46+Q8+Q7</f>
         <v>46.963449372742012</v>
       </c>
     </row>
-    <row r="48" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J48" s="24"/>
       <c r="L48" s="47" t="s">
         <v>536</v>
@@ -8035,191 +8053,191 @@
       <c r="M48" s="48">
         <v>0.5</v>
       </c>
-      <c r="N48" s="168"/>
-      <c r="O48" s="168"/>
-      <c r="P48" s="168"/>
-      <c r="Q48" s="168"/>
+      <c r="N48" s="212"/>
+      <c r="O48" s="212"/>
+      <c r="P48" s="212"/>
+      <c r="Q48" s="212"/>
       <c r="R48" s="89"/>
     </row>
-    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:18" x14ac:dyDescent="0.3">
       <c r="I49" s="20"/>
       <c r="J49" s="24"/>
       <c r="L49" s="31"/>
       <c r="M49" s="32"/>
-      <c r="N49" s="168" t="s">
+      <c r="N49" s="212" t="s">
         <v>294</v>
       </c>
-      <c r="O49" s="168"/>
-      <c r="P49" s="168"/>
-      <c r="Q49" s="168"/>
+      <c r="O49" s="212"/>
+      <c r="P49" s="212"/>
+      <c r="Q49" s="212"/>
       <c r="R49" s="90">
         <f>('Manpower &amp; time'!H5+R47)*M7/60</f>
         <v>9.9420021477983827E-5</v>
       </c>
     </row>
-    <row r="50" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:18" x14ac:dyDescent="0.3">
       <c r="I50" s="57"/>
       <c r="J50" s="24"/>
       <c r="L50" s="31"/>
       <c r="M50" s="32"/>
-      <c r="N50" s="168" t="s">
+      <c r="N50" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="O50" s="168"/>
-      <c r="P50" s="168"/>
-      <c r="Q50" s="168"/>
+      <c r="O50" s="212"/>
+      <c r="P50" s="212"/>
+      <c r="Q50" s="212"/>
       <c r="R50" s="91">
         <f>('Manpower &amp; time'!H5)*M7/60/R49</f>
         <v>0.21270972931171805</v>
       </c>
     </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:18" x14ac:dyDescent="0.3">
       <c r="I51" s="1"/>
       <c r="J51" s="24"/>
       <c r="L51" s="31"/>
       <c r="M51" s="32"/>
-      <c r="N51" s="168"/>
-      <c r="O51" s="168"/>
-      <c r="P51" s="168"/>
-      <c r="Q51" s="168"/>
+      <c r="N51" s="212"/>
+      <c r="O51" s="212"/>
+      <c r="P51" s="212"/>
+      <c r="Q51" s="212"/>
       <c r="R51" s="90"/>
     </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L52" s="31"/>
       <c r="M52" s="32"/>
-      <c r="N52" s="168" t="s">
+      <c r="N52" s="212" t="s">
         <v>297</v>
       </c>
-      <c r="O52" s="168"/>
-      <c r="P52" s="168"/>
-      <c r="Q52" s="168"/>
+      <c r="O52" s="212"/>
+      <c r="P52" s="212"/>
+      <c r="Q52" s="212"/>
       <c r="R52" s="90">
         <f>('Manpower &amp; time'!H5+J42)*M8/60</f>
         <v>2.0392870463302686E-5</v>
       </c>
     </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J53" s="16"/>
       <c r="L53" s="31"/>
       <c r="M53" s="32"/>
-      <c r="N53" s="168" t="s">
+      <c r="N53" s="212" t="s">
         <v>295</v>
       </c>
-      <c r="O53" s="168"/>
-      <c r="P53" s="168"/>
-      <c r="Q53" s="168"/>
+      <c r="O53" s="212"/>
+      <c r="P53" s="212"/>
+      <c r="Q53" s="212"/>
       <c r="R53" s="90">
         <f>('Manpower &amp; time'!H6+J42)*M8/60</f>
         <v>2.9510895789776764E-5</v>
       </c>
     </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J54" s="15"/>
       <c r="L54" s="31"/>
       <c r="M54" s="32"/>
-      <c r="N54" s="168" t="s">
+      <c r="N54" s="212" t="s">
         <v>296</v>
       </c>
-      <c r="O54" s="168"/>
-      <c r="P54" s="168"/>
-      <c r="Q54" s="168"/>
+      <c r="O54" s="212"/>
+      <c r="P54" s="212"/>
+      <c r="Q54" s="212"/>
       <c r="R54" s="90">
         <f>('Manpower &amp; time'!H8+J42)*M8/60</f>
         <v>4.4367445057683372E-5</v>
       </c>
     </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J55" s="15"/>
       <c r="L55" s="31"/>
       <c r="M55" s="32"/>
-      <c r="N55" s="168" t="s">
+      <c r="N55" s="212" t="s">
         <v>342</v>
       </c>
-      <c r="O55" s="168"/>
-      <c r="P55" s="168"/>
-      <c r="Q55" s="168"/>
+      <c r="O55" s="212"/>
+      <c r="P55" s="212"/>
+      <c r="Q55" s="212"/>
       <c r="R55" s="90">
         <f>('Manpower &amp; time'!H5+J42)*M$9/60</f>
         <v>1.6314296370642149E-5</v>
       </c>
     </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J56" s="15"/>
       <c r="L56" s="31"/>
       <c r="M56" s="32"/>
-      <c r="N56" s="168" t="s">
+      <c r="N56" s="212" t="s">
         <v>343</v>
       </c>
-      <c r="O56" s="168"/>
-      <c r="P56" s="168"/>
-      <c r="Q56" s="168"/>
+      <c r="O56" s="212"/>
+      <c r="P56" s="212"/>
+      <c r="Q56" s="212"/>
       <c r="R56" s="90">
         <f>('Manpower &amp; time'!H6+J42)*M$9/60</f>
         <v>2.3608716631821412E-5</v>
       </c>
     </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J57" s="11"/>
       <c r="L57" s="31"/>
       <c r="M57" s="32"/>
-      <c r="N57" s="168" t="s">
+      <c r="N57" s="212" t="s">
         <v>344</v>
       </c>
-      <c r="O57" s="168"/>
-      <c r="P57" s="168"/>
-      <c r="Q57" s="168"/>
+      <c r="O57" s="212"/>
+      <c r="P57" s="212"/>
+      <c r="Q57" s="212"/>
       <c r="R57" s="90">
         <f>('Manpower &amp; time'!H8+J42)*M$9/60</f>
         <v>3.5493956046146703E-5</v>
       </c>
     </row>
-    <row r="58" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L58" s="33"/>
       <c r="M58" s="34"/>
-      <c r="N58" s="172" t="s">
+      <c r="N58" s="213" t="s">
         <v>306</v>
       </c>
-      <c r="O58" s="172"/>
-      <c r="P58" s="172"/>
-      <c r="Q58" s="172"/>
+      <c r="O58" s="213"/>
+      <c r="P58" s="213"/>
+      <c r="Q58" s="213"/>
       <c r="R58" s="92">
         <f>('Manpower &amp; time'!H5+R46)*(M10+M6)/60</f>
         <v>15.937032036162622</v>
       </c>
     </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L59" s="169" t="s">
+    <row r="59" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L59" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="170"/>
-      <c r="N59" s="171" t="s">
+      <c r="M59" s="263"/>
+      <c r="N59" s="220" t="s">
         <v>307</v>
       </c>
-      <c r="O59" s="171"/>
-      <c r="P59" s="171"/>
-      <c r="Q59" s="171"/>
+      <c r="O59" s="220"/>
+      <c r="P59" s="220"/>
+      <c r="Q59" s="220"/>
       <c r="R59" s="87">
         <f>SUM(S11:S14)+S17</f>
         <v>23026.025600000001</v>
       </c>
     </row>
-    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L60" s="215" t="s">
+    <row r="60" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L60" s="221" t="s">
         <v>508</v>
       </c>
-      <c r="M60" s="216"/>
-      <c r="N60" s="168" t="s">
+      <c r="M60" s="222"/>
+      <c r="N60" s="212" t="s">
         <v>308</v>
       </c>
-      <c r="O60" s="168"/>
-      <c r="P60" s="168"/>
-      <c r="Q60" s="168"/>
+      <c r="O60" s="212"/>
+      <c r="P60" s="212"/>
+      <c r="Q60" s="212"/>
       <c r="R60" s="88">
         <f>R59/(M13*C7*C8)+J42</f>
         <v>29.817048961714445</v>
       </c>
     </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J61" s="15"/>
       <c r="L61" s="49" t="s">
         <v>511</v>
@@ -8227,199 +8245,199 @@
       <c r="M61" s="50">
         <v>2.5</v>
       </c>
-      <c r="N61" s="168" t="s">
+      <c r="N61" s="212" t="s">
         <v>309</v>
       </c>
-      <c r="O61" s="168"/>
-      <c r="P61" s="168"/>
-      <c r="Q61" s="168"/>
+      <c r="O61" s="212"/>
+      <c r="P61" s="212"/>
+      <c r="Q61" s="212"/>
       <c r="R61" s="88">
         <f>R60+Q16+Q15</f>
         <v>41.68372096171445</v>
       </c>
     </row>
-    <row r="62" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L62" s="49" t="s">
         <v>536</v>
       </c>
       <c r="M62" s="50">
         <v>0.5</v>
       </c>
-      <c r="N62" s="168"/>
-      <c r="O62" s="168"/>
-      <c r="P62" s="168"/>
-      <c r="Q62" s="168"/>
+      <c r="N62" s="212"/>
+      <c r="O62" s="212"/>
+      <c r="P62" s="212"/>
+      <c r="Q62" s="212"/>
       <c r="R62" s="89"/>
     </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F63" s="21"/>
       <c r="L63" s="27"/>
       <c r="M63" s="28"/>
-      <c r="N63" s="168" t="s">
+      <c r="N63" s="212" t="s">
         <v>294</v>
       </c>
-      <c r="O63" s="168"/>
-      <c r="P63" s="168"/>
-      <c r="Q63" s="168"/>
+      <c r="O63" s="212"/>
+      <c r="P63" s="212"/>
+      <c r="Q63" s="212"/>
       <c r="R63" s="90">
         <f>(J43+R61)*M15/60</f>
         <v>9.0620474126271213E-5</v>
       </c>
     </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L64" s="27"/>
       <c r="M64" s="28"/>
-      <c r="N64" s="168" t="s">
+      <c r="N64" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="O64" s="168"/>
-      <c r="P64" s="168"/>
-      <c r="Q64" s="168"/>
+      <c r="O64" s="212"/>
+      <c r="P64" s="212"/>
+      <c r="Q64" s="212"/>
       <c r="R64" s="91">
         <f>(J43)*M15/60/R63</f>
         <v>0.23336454659550679</v>
       </c>
     </row>
-    <row r="65" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L65" s="27"/>
       <c r="M65" s="28"/>
-      <c r="N65" s="168"/>
-      <c r="O65" s="168"/>
-      <c r="P65" s="168"/>
-      <c r="Q65" s="168"/>
+      <c r="N65" s="212"/>
+      <c r="O65" s="212"/>
+      <c r="P65" s="212"/>
+      <c r="Q65" s="212"/>
       <c r="R65" s="90"/>
     </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L66" s="27"/>
       <c r="M66" s="28"/>
-      <c r="N66" s="168" t="s">
+      <c r="N66" s="212" t="s">
         <v>297</v>
       </c>
-      <c r="O66" s="168"/>
-      <c r="P66" s="168"/>
-      <c r="Q66" s="168"/>
+      <c r="O66" s="212"/>
+      <c r="P66" s="212"/>
+      <c r="Q66" s="212"/>
       <c r="R66" s="90">
         <f>(J43+J42)*M$16/60</f>
         <v>2.0392870463302686E-5</v>
       </c>
     </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L67" s="27"/>
       <c r="M67" s="28"/>
-      <c r="N67" s="168" t="s">
+      <c r="N67" s="212" t="s">
         <v>295</v>
       </c>
-      <c r="O67" s="168"/>
-      <c r="P67" s="168"/>
-      <c r="Q67" s="168"/>
+      <c r="O67" s="212"/>
+      <c r="P67" s="212"/>
+      <c r="Q67" s="212"/>
       <c r="R67" s="90">
         <f>(J44+J42)*M$16/60</f>
         <v>2.9510895789776764E-5</v>
       </c>
     </row>
-    <row r="68" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L68" s="27"/>
       <c r="M68" s="28"/>
-      <c r="N68" s="168" t="s">
+      <c r="N68" s="212" t="s">
         <v>296</v>
       </c>
-      <c r="O68" s="168"/>
-      <c r="P68" s="168"/>
-      <c r="Q68" s="168"/>
+      <c r="O68" s="212"/>
+      <c r="P68" s="212"/>
+      <c r="Q68" s="212"/>
       <c r="R68" s="90">
         <f>(J46+J42)*M$16/60</f>
         <v>4.4367445057683372E-5</v>
       </c>
     </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L69" s="27"/>
       <c r="M69" s="28"/>
-      <c r="N69" s="168" t="s">
+      <c r="N69" s="212" t="s">
         <v>342</v>
       </c>
-      <c r="O69" s="168"/>
-      <c r="P69" s="168"/>
-      <c r="Q69" s="168"/>
+      <c r="O69" s="212"/>
+      <c r="P69" s="212"/>
+      <c r="Q69" s="212"/>
       <c r="R69" s="90">
         <f>(J43+J42)*M$17/60</f>
         <v>1.6314296370642149E-5</v>
       </c>
     </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L70" s="27"/>
       <c r="M70" s="28"/>
-      <c r="N70" s="168" t="s">
+      <c r="N70" s="212" t="s">
         <v>343</v>
       </c>
-      <c r="O70" s="168"/>
-      <c r="P70" s="168"/>
-      <c r="Q70" s="168"/>
+      <c r="O70" s="212"/>
+      <c r="P70" s="212"/>
+      <c r="Q70" s="212"/>
       <c r="R70" s="90">
         <f>(J44+J42)*M$17/60</f>
         <v>2.3608716631821412E-5</v>
       </c>
     </row>
-    <row r="71" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L71" s="27"/>
       <c r="M71" s="28"/>
-      <c r="N71" s="168" t="s">
+      <c r="N71" s="212" t="s">
         <v>344</v>
       </c>
-      <c r="O71" s="168"/>
-      <c r="P71" s="168"/>
-      <c r="Q71" s="168"/>
+      <c r="O71" s="212"/>
+      <c r="P71" s="212"/>
+      <c r="Q71" s="212"/>
       <c r="R71" s="90">
         <f>(J46+J42)*M$17/60</f>
         <v>3.5493956046146703E-5</v>
       </c>
     </row>
-    <row r="72" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="12:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L72" s="27"/>
       <c r="M72" s="28"/>
-      <c r="N72" s="173" t="s">
+      <c r="N72" s="261" t="s">
         <v>306</v>
       </c>
-      <c r="O72" s="173"/>
-      <c r="P72" s="173"/>
-      <c r="Q72" s="173"/>
+      <c r="O72" s="261"/>
+      <c r="P72" s="261"/>
+      <c r="Q72" s="261"/>
       <c r="R72" s="164">
         <f>(J43+R60)*(M14+M18)/60</f>
         <v>14.168537491920908</v>
       </c>
     </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L73" s="212" t="s">
+    <row r="73" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L73" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="M73" s="214"/>
-      <c r="N73" s="171" t="s">
+      <c r="M73" s="219"/>
+      <c r="N73" s="220" t="s">
         <v>307</v>
       </c>
-      <c r="O73" s="171"/>
-      <c r="P73" s="171"/>
-      <c r="Q73" s="171"/>
+      <c r="O73" s="220"/>
+      <c r="P73" s="220"/>
+      <c r="Q73" s="220"/>
       <c r="R73" s="87">
         <f>S19+S20</f>
         <v>27751.54031372827</v>
       </c>
     </row>
-    <row r="74" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L74" s="218" t="s">
+    <row r="74" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L74" s="210" t="s">
         <v>509</v>
       </c>
-      <c r="M74" s="219"/>
-      <c r="N74" s="168" t="s">
+      <c r="M74" s="211"/>
+      <c r="N74" s="212" t="s">
         <v>308</v>
       </c>
-      <c r="O74" s="168"/>
-      <c r="P74" s="168"/>
-      <c r="Q74" s="168"/>
+      <c r="O74" s="212"/>
+      <c r="P74" s="212"/>
+      <c r="Q74" s="212"/>
       <c r="R74" s="88">
         <f>R73/(M21*C7*C8)+J42</f>
         <v>36.623142690436488</v>
       </c>
     </row>
-    <row r="75" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L75" s="45" t="s">
         <v>510</v>
       </c>
@@ -8427,511 +8445,781 @@
         <f>'Laser cutter'!J14</f>
         <v>0.71739130434782605</v>
       </c>
-      <c r="N75" s="168" t="s">
+      <c r="N75" s="212" t="s">
         <v>309</v>
       </c>
-      <c r="O75" s="168"/>
-      <c r="P75" s="168"/>
-      <c r="Q75" s="168"/>
+      <c r="O75" s="212"/>
+      <c r="P75" s="212"/>
+      <c r="Q75" s="212"/>
       <c r="R75" s="88">
         <f>R74+Q21+Q22</f>
         <v>42.165742690436488</v>
       </c>
     </row>
-    <row r="76" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L76" s="218"/>
-      <c r="M76" s="219"/>
-      <c r="N76" s="168"/>
-      <c r="O76" s="168"/>
-      <c r="P76" s="168"/>
-      <c r="Q76" s="168"/>
+    <row r="76" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L76" s="210"/>
+      <c r="M76" s="211"/>
+      <c r="N76" s="212"/>
+      <c r="O76" s="212"/>
+      <c r="P76" s="212"/>
+      <c r="Q76" s="212"/>
       <c r="R76" s="89"/>
     </row>
-    <row r="77" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L77" s="218"/>
-      <c r="M77" s="219"/>
-      <c r="N77" s="168" t="s">
+    <row r="77" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L77" s="210"/>
+      <c r="M77" s="211"/>
+      <c r="N77" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="O77" s="168"/>
-      <c r="P77" s="168"/>
-      <c r="Q77" s="168"/>
+      <c r="O77" s="212"/>
+      <c r="P77" s="212"/>
+      <c r="Q77" s="212"/>
       <c r="R77" s="90">
         <f>(J43*0.4+R75)*M23/60</f>
         <v>3.6218228873642784E-4</v>
       </c>
     </row>
-    <row r="78" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L78" s="218"/>
-      <c r="M78" s="219"/>
-      <c r="N78" s="168" t="s">
+    <row r="78" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L78" s="210"/>
+      <c r="M78" s="211"/>
+      <c r="N78" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="O78" s="168"/>
-      <c r="P78" s="168"/>
-      <c r="Q78" s="168"/>
+      <c r="O78" s="212"/>
+      <c r="P78" s="212"/>
+      <c r="Q78" s="212"/>
       <c r="R78" s="91">
         <f>(J43)*M23/60/R77</f>
         <v>0.26859123144983488</v>
       </c>
     </row>
-    <row r="79" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L79" s="218"/>
-      <c r="M79" s="219"/>
-      <c r="N79" s="168"/>
-      <c r="O79" s="168"/>
-      <c r="P79" s="168"/>
-      <c r="Q79" s="168"/>
+    <row r="79" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L79" s="210"/>
+      <c r="M79" s="211"/>
+      <c r="N79" s="212"/>
+      <c r="O79" s="212"/>
+      <c r="P79" s="212"/>
+      <c r="Q79" s="212"/>
       <c r="R79" s="151"/>
     </row>
-    <row r="80" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L80" s="218"/>
-      <c r="M80" s="219"/>
-      <c r="N80" s="168" t="s">
+    <row r="80" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L80" s="210"/>
+      <c r="M80" s="211"/>
+      <c r="N80" s="212" t="s">
         <v>531</v>
       </c>
-      <c r="O80" s="168"/>
-      <c r="P80" s="168"/>
-      <c r="Q80" s="168"/>
+      <c r="O80" s="212"/>
+      <c r="P80" s="212"/>
+      <c r="Q80" s="212"/>
       <c r="R80" s="163">
         <f>(J43+J42)*M24/60</f>
         <v>0.61178611389908066</v>
       </c>
     </row>
-    <row r="81" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L81" s="218"/>
-      <c r="M81" s="219"/>
-      <c r="N81" s="168" t="s">
+    <row r="81" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L81" s="210"/>
+      <c r="M81" s="211"/>
+      <c r="N81" s="212" t="s">
         <v>532</v>
       </c>
-      <c r="O81" s="168"/>
-      <c r="P81" s="168"/>
-      <c r="Q81" s="168"/>
+      <c r="O81" s="212"/>
+      <c r="P81" s="212"/>
+      <c r="Q81" s="212"/>
       <c r="R81" s="163">
         <f>(J44+J42)*M24/60</f>
         <v>0.88532687369330287</v>
       </c>
     </row>
-    <row r="82" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L82" s="218"/>
-      <c r="M82" s="219"/>
-      <c r="N82" s="168" t="s">
+    <row r="82" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L82" s="210"/>
+      <c r="M82" s="211"/>
+      <c r="N82" s="212" t="s">
         <v>533</v>
       </c>
-      <c r="O82" s="168"/>
-      <c r="P82" s="168"/>
-      <c r="Q82" s="168"/>
+      <c r="O82" s="212"/>
+      <c r="P82" s="212"/>
+      <c r="Q82" s="212"/>
       <c r="R82" s="163">
         <f>(J43+J42)*M25/60</f>
         <v>0.40785740926605374</v>
       </c>
     </row>
-    <row r="83" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L83" s="218"/>
-      <c r="M83" s="219"/>
-      <c r="N83" s="168" t="s">
+    <row r="83" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L83" s="210"/>
+      <c r="M83" s="211"/>
+      <c r="N83" s="212" t="s">
         <v>534</v>
       </c>
-      <c r="O83" s="168"/>
-      <c r="P83" s="168"/>
-      <c r="Q83" s="168"/>
+      <c r="O83" s="212"/>
+      <c r="P83" s="212"/>
+      <c r="Q83" s="212"/>
       <c r="R83" s="163">
         <f>(J44+J42)*M$25/60</f>
         <v>0.59021791579553518</v>
       </c>
     </row>
-    <row r="84" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L84" s="42"/>
       <c r="M84" s="43"/>
-      <c r="N84" s="172" t="s">
+      <c r="N84" s="213" t="s">
         <v>306</v>
       </c>
-      <c r="O84" s="172"/>
-      <c r="P84" s="172"/>
-      <c r="Q84" s="172"/>
+      <c r="O84" s="213"/>
+      <c r="P84" s="213"/>
+      <c r="Q84" s="213"/>
       <c r="R84" s="92">
         <f>(J43+R74)*(M26+M22)/60</f>
         <v>10.684203010971698</v>
       </c>
     </row>
-    <row r="85" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L85" s="166" t="s">
+    <row r="85" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L85" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="M85" s="167"/>
-      <c r="N85" s="174" t="s">
+      <c r="M85" s="224"/>
+      <c r="N85" s="262" t="s">
         <v>307</v>
       </c>
-      <c r="O85" s="174"/>
-      <c r="P85" s="174"/>
-      <c r="Q85" s="174"/>
+      <c r="O85" s="262"/>
+      <c r="P85" s="262"/>
+      <c r="Q85" s="262"/>
       <c r="R85" s="165">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
       </c>
     </row>
-    <row r="86" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L86" s="54"/>
       <c r="M86" s="55"/>
-      <c r="N86" s="168" t="s">
+      <c r="N86" s="212" t="s">
         <v>308</v>
       </c>
-      <c r="O86" s="168"/>
-      <c r="P86" s="168"/>
-      <c r="Q86" s="168"/>
+      <c r="O86" s="212"/>
+      <c r="P86" s="212"/>
+      <c r="Q86" s="212"/>
       <c r="R86" s="107">
         <f>R85/(M29*C7*C8)+J42</f>
         <v>13.487898272491385</v>
       </c>
       <c r="S86" s="12"/>
     </row>
-    <row r="87" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L87" s="31"/>
       <c r="M87" s="32"/>
-      <c r="N87" s="168" t="s">
+      <c r="N87" s="212" t="s">
         <v>309</v>
       </c>
-      <c r="O87" s="168"/>
-      <c r="P87" s="168"/>
-      <c r="Q87" s="168"/>
+      <c r="O87" s="212"/>
+      <c r="P87" s="212"/>
+      <c r="Q87" s="212"/>
       <c r="R87" s="107">
         <f>R86+Q33</f>
         <v>13.585773272491386</v>
       </c>
     </row>
-    <row r="88" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L88" s="31"/>
       <c r="M88" s="32"/>
-      <c r="N88" s="168"/>
-      <c r="O88" s="168"/>
-      <c r="P88" s="168"/>
-      <c r="Q88" s="168"/>
+      <c r="N88" s="212"/>
+      <c r="O88" s="212"/>
+      <c r="P88" s="212"/>
+      <c r="Q88" s="212"/>
       <c r="R88" s="151"/>
     </row>
-    <row r="89" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L89" s="31"/>
       <c r="M89" s="32"/>
-      <c r="N89" s="168" t="s">
+      <c r="N89" s="212" t="s">
         <v>481</v>
       </c>
-      <c r="O89" s="168"/>
-      <c r="P89" s="168"/>
-      <c r="Q89" s="168"/>
+      <c r="O89" s="212"/>
+      <c r="P89" s="212"/>
+      <c r="Q89" s="212"/>
       <c r="R89" s="71">
         <f>Q34+Q36+(R87+J45)*M30/60</f>
         <v>115.92309617457708</v>
       </c>
     </row>
-    <row r="90" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L90" s="31"/>
       <c r="M90" s="32"/>
-      <c r="N90" s="168" t="s">
+      <c r="N90" s="212" t="s">
         <v>482</v>
       </c>
-      <c r="O90" s="168"/>
-      <c r="P90" s="168"/>
-      <c r="Q90" s="168"/>
+      <c r="O90" s="212"/>
+      <c r="P90" s="212"/>
+      <c r="Q90" s="212"/>
       <c r="R90" s="107">
         <f>Q35+Q36+(R87+J45)*M30/60</f>
         <v>115.88803411560743</v>
       </c>
     </row>
-    <row r="91" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L91" s="33"/>
       <c r="M91" s="34"/>
-      <c r="N91" s="172"/>
-      <c r="O91" s="172"/>
-      <c r="P91" s="172"/>
-      <c r="Q91" s="172"/>
+      <c r="N91" s="213"/>
+      <c r="O91" s="213"/>
+      <c r="P91" s="213"/>
+      <c r="Q91" s="213"/>
       <c r="R91" s="83"/>
     </row>
-    <row r="92" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L92" s="169" t="s">
+    <row r="92" spans="12:19" x14ac:dyDescent="0.3">
+      <c r="L92" s="253" t="s">
         <v>418</v>
       </c>
-      <c r="M92" s="170"/>
-      <c r="N92" s="171" t="s">
+      <c r="M92" s="263"/>
+      <c r="N92" s="220" t="s">
         <v>307</v>
       </c>
-      <c r="O92" s="171"/>
-      <c r="P92" s="171"/>
-      <c r="Q92" s="171"/>
+      <c r="O92" s="220"/>
+      <c r="P92" s="220"/>
+      <c r="Q92" s="220"/>
       <c r="R92" s="87">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
       </c>
     </row>
-    <row r="93" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L93" s="52"/>
       <c r="M93" s="53"/>
-      <c r="N93" s="168" t="s">
+      <c r="N93" s="212" t="s">
         <v>308</v>
       </c>
-      <c r="O93" s="168"/>
-      <c r="P93" s="168"/>
-      <c r="Q93" s="168"/>
+      <c r="O93" s="212"/>
+      <c r="P93" s="212"/>
+      <c r="Q93" s="212"/>
       <c r="R93" s="88">
         <f>R92/(M39*C7*C8)+J42</f>
         <v>18.582550670531941</v>
       </c>
     </row>
-    <row r="94" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L94" s="27"/>
       <c r="M94" s="28"/>
-      <c r="N94" s="168" t="s">
+      <c r="N94" s="212" t="s">
         <v>309</v>
       </c>
-      <c r="O94" s="168"/>
-      <c r="P94" s="168"/>
-      <c r="Q94" s="168"/>
+      <c r="O94" s="212"/>
+      <c r="P94" s="212"/>
+      <c r="Q94" s="212"/>
       <c r="R94" s="88">
         <f>R93+Q42+Q41</f>
         <v>28.958390670531941</v>
       </c>
     </row>
-    <row r="95" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L95" s="27"/>
       <c r="M95" s="28"/>
-      <c r="N95" s="168"/>
-      <c r="O95" s="168"/>
-      <c r="P95" s="168"/>
-      <c r="Q95" s="168"/>
+      <c r="N95" s="212"/>
+      <c r="O95" s="212"/>
+      <c r="P95" s="212"/>
+      <c r="Q95" s="212"/>
       <c r="R95" s="89"/>
     </row>
-    <row r="96" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L96" s="27"/>
       <c r="M96" s="28"/>
-      <c r="N96" s="168" t="s">
+      <c r="N96" s="212" t="s">
         <v>294</v>
       </c>
-      <c r="O96" s="168"/>
-      <c r="P96" s="168"/>
-      <c r="Q96" s="168"/>
+      <c r="O96" s="212"/>
+      <c r="P96" s="212"/>
+      <c r="Q96" s="212"/>
       <c r="R96" s="90">
         <f>(J43+R94)*M41/60</f>
         <v>2.0823477092290108E-4</v>
       </c>
     </row>
-    <row r="97" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L97" s="29"/>
       <c r="M97" s="30"/>
-      <c r="N97" s="172" t="s">
+      <c r="N97" s="213" t="s">
         <v>306</v>
       </c>
-      <c r="O97" s="172"/>
-      <c r="P97" s="172"/>
-      <c r="Q97" s="172"/>
+      <c r="O97" s="213"/>
+      <c r="P97" s="213"/>
+      <c r="Q97" s="213"/>
       <c r="R97" s="92">
         <f>(J43+R93)*(M40+M42)/60</f>
         <v>7.8177785461450551</v>
       </c>
     </row>
-    <row r="103" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="12:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="L104" s="254" t="s">
+    <row r="103" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="12:19" ht="21" x14ac:dyDescent="0.3">
+      <c r="L104" s="205" t="s">
         <v>231</v>
       </c>
-      <c r="M104" s="255"/>
-      <c r="N104" s="255"/>
-      <c r="O104" s="255"/>
-      <c r="P104" s="255"/>
-      <c r="Q104" s="255"/>
-      <c r="R104" s="255"/>
-      <c r="S104" s="256"/>
-    </row>
-    <row r="105" spans="12:19" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L105" s="257" t="s">
+      <c r="M104" s="206"/>
+      <c r="N104" s="206"/>
+      <c r="O104" s="206"/>
+      <c r="P104" s="206"/>
+      <c r="Q104" s="206"/>
+      <c r="R104" s="206"/>
+      <c r="S104" s="207"/>
+    </row>
+    <row r="105" spans="12:19" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L105" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="M105" s="258"/>
-      <c r="N105" s="258" t="s">
+      <c r="M105" s="202"/>
+      <c r="N105" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="O105" s="258" t="s">
+      <c r="O105" s="202" t="s">
         <v>234</v>
       </c>
-      <c r="P105" s="258" t="s">
+      <c r="P105" s="202" t="s">
         <v>239</v>
       </c>
-      <c r="Q105" s="258" t="s">
+      <c r="Q105" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="R105" s="259" t="s">
+      <c r="R105" s="203" t="s">
         <v>402</v>
       </c>
-      <c r="S105" s="260" t="s">
+      <c r="S105" s="204" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="12:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="L106" s="224" t="s">
+    <row r="106" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L106" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="M106" s="225"/>
-      <c r="N106" s="226" t="s">
+      <c r="M106" s="209"/>
+      <c r="N106" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="O106" s="227" t="s">
+      <c r="O106" s="174" t="s">
         <v>235</v>
       </c>
-      <c r="P106" s="227"/>
-      <c r="Q106" s="228">
+      <c r="P106" s="174"/>
+      <c r="Q106" s="175">
         <v>185010.26875818847</v>
       </c>
-      <c r="R106" s="227">
+      <c r="R106" s="174">
         <v>10</v>
       </c>
-      <c r="S106" s="229">
+      <c r="S106" s="176">
         <v>18501.026875818847</v>
       </c>
     </row>
-    <row r="107" spans="12:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="L107" s="230" t="s">
+    <row r="107" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L107" s="177" t="s">
         <v>285</v>
       </c>
-      <c r="M107" s="231">
+      <c r="M107" s="178">
         <v>7.5</v>
       </c>
-      <c r="N107" s="232" t="s">
+      <c r="N107" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="O107" s="233" t="s">
+      <c r="O107" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="P107" s="233" t="s">
+      <c r="P107" s="180" t="s">
         <v>240</v>
       </c>
-      <c r="Q107" s="234">
+      <c r="Q107" s="181">
         <v>9250.5134379094234</v>
       </c>
-      <c r="R107" s="233">
+      <c r="R107" s="180">
         <v>1</v>
       </c>
-      <c r="S107" s="235">
+      <c r="S107" s="182">
         <v>9250.5134379094234</v>
       </c>
     </row>
-    <row r="108" spans="12:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="L108" s="230" t="s">
+    <row r="108" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L108" s="177" t="s">
         <v>247</v>
       </c>
-      <c r="M108" s="236">
+      <c r="M108" s="183">
         <v>0.7</v>
       </c>
-      <c r="N108" s="232" t="s">
+      <c r="N108" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="O108" s="233" t="s">
+      <c r="O108" s="180" t="s">
         <v>236</v>
       </c>
-      <c r="P108" s="233" t="s">
+      <c r="P108" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="Q108" s="237">
+      <c r="Q108" s="184">
         <v>0.4698</v>
       </c>
-      <c r="R108" s="233"/>
-      <c r="S108" s="238"/>
-    </row>
-    <row r="109" spans="12:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="L109" s="230" t="s">
+      <c r="R108" s="180"/>
+      <c r="S108" s="185"/>
+    </row>
+    <row r="109" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L109" s="177" t="s">
         <v>248</v>
       </c>
-      <c r="M109" s="231">
+      <c r="M109" s="178">
         <v>5</v>
       </c>
-      <c r="N109" s="232" t="s">
+      <c r="N109" s="179" t="s">
         <v>431</v>
       </c>
-      <c r="O109" s="233" t="s">
+      <c r="O109" s="180" t="s">
         <v>236</v>
       </c>
-      <c r="P109" s="233" t="s">
+      <c r="P109" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="Q109" s="234">
+      <c r="Q109" s="181">
         <v>5.0728</v>
       </c>
-      <c r="R109" s="233"/>
-      <c r="S109" s="238"/>
-    </row>
-    <row r="110" spans="12:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="L110" s="230" t="s">
+      <c r="R109" s="180"/>
+      <c r="S109" s="185"/>
+    </row>
+    <row r="110" spans="12:19" ht="21" x14ac:dyDescent="0.3">
+      <c r="L110" s="177" t="s">
         <v>506</v>
       </c>
-      <c r="M110" s="239">
+      <c r="M110" s="186">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="N110" s="240"/>
-      <c r="O110" s="241"/>
-      <c r="P110" s="241"/>
-      <c r="Q110" s="241"/>
-      <c r="R110" s="241"/>
-      <c r="S110" s="242"/>
-    </row>
-    <row r="111" spans="12:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="L111" s="230" t="s">
+      <c r="N110" s="187"/>
+      <c r="O110" s="188"/>
+      <c r="P110" s="188"/>
+      <c r="Q110" s="188"/>
+      <c r="R110" s="188"/>
+      <c r="S110" s="189"/>
+    </row>
+    <row r="111" spans="12:19" ht="21" x14ac:dyDescent="0.3">
+      <c r="L111" s="177" t="s">
         <v>529</v>
       </c>
-      <c r="M111" s="243">
+      <c r="M111" s="190">
         <v>1.5</v>
       </c>
-      <c r="N111" s="240"/>
-      <c r="O111" s="244"/>
-      <c r="P111" s="241"/>
-      <c r="Q111" s="244"/>
-      <c r="R111" s="241"/>
-      <c r="S111" s="245"/>
-    </row>
-    <row r="112" spans="12:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="L112" s="230" t="s">
+      <c r="N111" s="187"/>
+      <c r="O111" s="191"/>
+      <c r="P111" s="188"/>
+      <c r="Q111" s="191"/>
+      <c r="R111" s="188"/>
+      <c r="S111" s="192"/>
+    </row>
+    <row r="112" spans="12:19" ht="21" x14ac:dyDescent="0.3">
+      <c r="L112" s="177" t="s">
         <v>530</v>
       </c>
-      <c r="M112" s="243">
+      <c r="M112" s="190">
         <v>1</v>
       </c>
-      <c r="N112" s="246"/>
-      <c r="O112" s="247"/>
-      <c r="P112" s="247"/>
-      <c r="Q112" s="247"/>
-      <c r="R112" s="247"/>
-      <c r="S112" s="248"/>
-    </row>
-    <row r="113" spans="12:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L113" s="249" t="s">
+      <c r="N112" s="193"/>
+      <c r="O112" s="194"/>
+      <c r="P112" s="194"/>
+      <c r="Q112" s="194"/>
+      <c r="R112" s="194"/>
+      <c r="S112" s="195"/>
+    </row>
+    <row r="113" spans="12:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L113" s="196" t="s">
         <v>371</v>
       </c>
-      <c r="M113" s="250">
+      <c r="M113" s="197">
         <v>8</v>
       </c>
-      <c r="N113" s="251"/>
-      <c r="O113" s="252"/>
-      <c r="P113" s="252"/>
-      <c r="Q113" s="252"/>
-      <c r="R113" s="252"/>
-      <c r="S113" s="253"/>
-    </row>
-    <row r="118" spans="12:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="N113" s="198"/>
+      <c r="O113" s="199"/>
+      <c r="P113" s="199"/>
+      <c r="Q113" s="199"/>
+      <c r="R113" s="199"/>
+      <c r="S113" s="200"/>
+    </row>
+    <row r="115" spans="12:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="116" spans="12:19" ht="21" x14ac:dyDescent="0.3">
+      <c r="L116" s="205" t="s">
+        <v>231</v>
+      </c>
+      <c r="M116" s="206"/>
+      <c r="N116" s="206"/>
+      <c r="O116" s="206"/>
+      <c r="P116" s="206"/>
+      <c r="Q116" s="206"/>
+      <c r="R116" s="206"/>
+      <c r="S116" s="207"/>
+    </row>
+    <row r="117" spans="12:19" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L117" s="264" t="s">
+        <v>15</v>
+      </c>
+      <c r="M117" s="265"/>
+      <c r="N117" s="202" t="s">
+        <v>16</v>
+      </c>
+      <c r="O117" s="202" t="s">
+        <v>234</v>
+      </c>
+      <c r="P117" s="202" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q117" s="202" t="s">
+        <v>17</v>
+      </c>
+      <c r="R117" s="203" t="s">
+        <v>402</v>
+      </c>
+      <c r="S117" s="204" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="12:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L118" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="M118" s="168"/>
+      <c r="N118" s="179" t="s">
+        <v>260</v>
+      </c>
+      <c r="O118" s="179" t="s">
+        <v>235</v>
+      </c>
+      <c r="P118" s="179"/>
+      <c r="Q118" s="267">
+        <v>5308.6</v>
+      </c>
+      <c r="R118" s="179">
+        <v>10</v>
+      </c>
+      <c r="S118" s="267">
+        <v>530.86</v>
+      </c>
+    </row>
+    <row r="119" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L119" s="166"/>
+      <c r="M119" s="135"/>
+      <c r="N119" s="179" t="s">
+        <v>43</v>
+      </c>
+      <c r="O119" s="179" t="s">
+        <v>235</v>
+      </c>
+      <c r="P119" s="179"/>
+      <c r="Q119" s="267">
+        <v>3859.6</v>
+      </c>
+      <c r="R119" s="179">
+        <v>10</v>
+      </c>
+      <c r="S119" s="267">
+        <v>385.96</v>
+      </c>
+    </row>
+    <row r="120" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L120" s="166" t="s">
+        <v>247</v>
+      </c>
+      <c r="M120" s="135">
+        <v>0.8</v>
+      </c>
+      <c r="N120" s="179" t="s">
+        <v>265</v>
+      </c>
+      <c r="O120" s="179" t="s">
+        <v>235</v>
+      </c>
+      <c r="P120" s="179"/>
+      <c r="Q120" s="267">
+        <v>146</v>
+      </c>
+      <c r="R120" s="179">
+        <v>5</v>
+      </c>
+      <c r="S120" s="267">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="121" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L121" s="166" t="s">
+        <v>480</v>
+      </c>
+      <c r="M121" s="268">
+        <v>140.43083213990764</v>
+      </c>
+      <c r="N121" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="O121" s="179" t="s">
+        <v>235</v>
+      </c>
+      <c r="P121" s="179"/>
+      <c r="Q121" s="267">
+        <v>196</v>
+      </c>
+      <c r="R121" s="179">
+        <v>2</v>
+      </c>
+      <c r="S121" s="267">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L122" s="166"/>
+      <c r="M122" s="134"/>
+      <c r="N122" s="179" t="s">
+        <v>252</v>
+      </c>
+      <c r="O122" s="179" t="s">
+        <v>235</v>
+      </c>
+      <c r="P122" s="179"/>
+      <c r="Q122" s="267">
+        <v>8579</v>
+      </c>
+      <c r="R122" s="179">
+        <v>10</v>
+      </c>
+      <c r="S122" s="267">
+        <v>857.9</v>
+      </c>
+    </row>
+    <row r="123" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L123" s="166"/>
+      <c r="M123" s="134"/>
+      <c r="N123" s="179" t="s">
+        <v>22</v>
+      </c>
+      <c r="O123" s="179" t="s">
+        <v>235</v>
+      </c>
+      <c r="P123" s="179" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q123" s="267">
+        <v>275.04599999999999</v>
+      </c>
+      <c r="R123" s="179">
+        <v>1</v>
+      </c>
+      <c r="S123" s="267">
+        <v>275.04599999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L124" s="137"/>
+      <c r="M124" s="138"/>
+      <c r="N124" s="179" t="s">
+        <v>19</v>
+      </c>
+      <c r="O124" s="179" t="s">
+        <v>236</v>
+      </c>
+      <c r="P124" s="179" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q124" s="267">
+        <v>9.787499999999999E-2</v>
+      </c>
+      <c r="R124" s="179"/>
+      <c r="S124" s="179"/>
+    </row>
+    <row r="125" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L125" s="147"/>
+      <c r="M125" s="148"/>
+      <c r="N125" s="179" t="s">
+        <v>478</v>
+      </c>
+      <c r="O125" s="179" t="s">
+        <v>236</v>
+      </c>
+      <c r="P125" s="179" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q125" s="267">
+        <v>8.5247116655159064E-2</v>
+      </c>
+      <c r="R125" s="179"/>
+      <c r="S125" s="179"/>
+    </row>
+    <row r="126" spans="12:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="L126" s="31"/>
+      <c r="M126" s="266"/>
+      <c r="N126" s="179" t="s">
+        <v>479</v>
+      </c>
+      <c r="O126" s="179"/>
+      <c r="P126" s="179"/>
+      <c r="Q126" s="267">
+        <v>5.0185057685504804E-2</v>
+      </c>
+      <c r="R126" s="179"/>
+      <c r="S126" s="179"/>
+    </row>
+    <row r="127" spans="12:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L127" s="33"/>
+      <c r="M127" s="161"/>
+      <c r="N127" s="179" t="s">
+        <v>253</v>
+      </c>
+      <c r="O127" s="179" t="s">
+        <v>236</v>
+      </c>
+      <c r="P127" s="179" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q127" s="267">
+        <v>14.354066985645932</v>
+      </c>
+      <c r="R127" s="179"/>
+      <c r="S127" s="179"/>
+    </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="L104:S104"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N81:Q81"/>
+  <mergeCells count="94">
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="L116:S116"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="N89:Q89"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L19:M19"/>
@@ -8948,44 +9236,24 @@
     <mergeCell ref="N55:Q55"/>
     <mergeCell ref="N56:Q56"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="N89:Q89"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="N86:Q86"/>
-    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L104:S104"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:Q92"/>
     <mergeCell ref="N93:Q93"/>
@@ -8994,19 +9262,6 @@
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N87:Q87"/>
     <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="N82:Q82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9014,7 +9269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9024,22 +9279,22 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -9059,7 +9314,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -9092,7 +9347,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>427</v>
       </c>
@@ -9130,7 +9385,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O6" t="s">
         <v>428</v>
       </c>
@@ -9141,7 +9396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R7">
         <f>R6*S6/S7</f>
         <v>341.93548387096774</v>
@@ -9150,13 +9405,13 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R8">
         <f>R7/R5/3600</f>
         <v>4.4697448872021921</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>365</v>
       </c>
@@ -9170,7 +9425,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>354</v>
       </c>
@@ -9192,7 +9447,7 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>356</v>
       </c>
@@ -9211,7 +9466,7 @@
         <v>1.7117425539198904E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>357</v>
       </c>
@@ -9236,7 +9491,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>358</v>
       </c>
@@ -9261,7 +9516,7 @@
         <v>3.3E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>359</v>
       </c>
@@ -9287,7 +9542,7 @@
         <v>0.71739130434782605</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>360</v>
       </c>
@@ -9306,7 +9561,7 @@
         <v>6.672894701721607E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>361</v>
       </c>
@@ -9325,7 +9580,7 @@
         <v>7.874015748031496E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>362</v>
       </c>
@@ -9344,7 +9599,7 @@
         <v>1.3123359580052493E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>363</v>
       </c>
@@ -9363,7 +9618,7 @@
         <v>1.7117425539198907E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>368</v>
       </c>
@@ -9385,7 +9640,7 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>356</v>
       </c>
@@ -9404,7 +9659,7 @@
         <v>1.8226888305628464E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>357</v>
       </c>
@@ -9423,7 +9678,7 @@
         <v>5.3202809108320926E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>358</v>
       </c>
@@ -9442,7 +9697,7 @@
         <v>8.3766124979058477E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>359</v>
       </c>
@@ -9461,7 +9716,7 @@
         <v>1.6404199475065619E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>370</v>
       </c>
@@ -9483,7 +9738,7 @@
         <v>1.3123359580052493E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>356</v>
       </c>
@@ -9502,7 +9757,7 @@
         <v>3.2808398950131233E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>357</v>
       </c>
@@ -9523,9 +9778,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -9533,23 +9788,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -9572,7 +9827,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -9583,7 +9838,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>261</v>
       </c>
@@ -9594,7 +9849,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -9605,7 +9860,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -9616,7 +9871,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -9627,7 +9882,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -9638,10 +9893,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -9650,7 +9905,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>437</v>
       </c>
@@ -9659,7 +9914,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>438</v>
       </c>
@@ -9670,7 +9925,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>440</v>
       </c>
@@ -9681,7 +9936,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>441</v>
       </c>
@@ -9691,7 +9946,7 @@
       </c>
       <c r="C15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>442</v>
       </c>
@@ -9700,7 +9955,7 @@
       </c>
       <c r="C16" s="36"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
         <v>443</v>
       </c>
@@ -9711,7 +9966,7 @@
       <c r="C17" s="36"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>444</v>
       </c>
@@ -9720,7 +9975,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>445</v>
       </c>
@@ -9731,7 +9986,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
         <v>446</v>
       </c>
@@ -9742,7 +9997,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>447</v>
       </c>
@@ -9752,7 +10007,7 @@
       </c>
       <c r="C22" s="36"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>448</v>
       </c>
@@ -9762,7 +10017,7 @@
       </c>
       <c r="C23" s="36"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>449</v>
       </c>
@@ -9771,7 +10026,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>445</v>
       </c>
@@ -9782,7 +10037,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>451</v>
       </c>
@@ -9793,7 +10048,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>447</v>
       </c>
@@ -9803,7 +10058,7 @@
       </c>
       <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>448</v>
       </c>
@@ -9813,10 +10068,10 @@
       </c>
       <c r="C29" s="36"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="35"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
         <v>473</v>
       </c>
@@ -9825,7 +10080,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>474</v>
       </c>
@@ -9837,7 +10092,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
         <v>475</v>
       </c>
@@ -9847,7 +10102,7 @@
       </c>
       <c r="C33" s="36"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
         <v>476</v>
       </c>
@@ -9859,18 +10114,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="G9" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="C26" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9880,13 +10135,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -9897,7 +10152,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>486</v>
       </c>
@@ -9908,7 +10163,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -9921,37 +10176,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -9959,7 +10214,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9973,7 +10228,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10035,7 +10290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -10098,7 +10353,7 @@
         <v>4.7646666666666666E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -10161,7 +10416,7 @@
         <v>4.7479999999999999E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -10224,7 +10479,7 @@
         <v>4.7380000000000004E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -10278,7 +10533,7 @@
         <v>4.7502222222222225E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>32</v>
       </c>
@@ -10325,7 +10580,7 @@
         <v>3.6720000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>32</v>
       </c>
@@ -10372,7 +10627,7 @@
         <v>3.2127777777777776E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>32</v>
       </c>
@@ -10419,7 +10674,7 @@
         <v>3.348687883863763E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>32</v>
       </c>
@@ -10457,7 +10712,7 @@
         <v>3.478250451663077E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>40</v>
       </c>
@@ -10482,7 +10737,7 @@
         <v>1.4970377000558874E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50</v>
       </c>
@@ -10501,7 +10756,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50</v>
       </c>
@@ -10519,7 +10774,7 @@
         <v>3.5986666666666665E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50</v>
       </c>
@@ -10552,7 +10807,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>8</v>
       </c>
@@ -10585,7 +10840,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N17">
         <v>5</v>
       </c>
@@ -10613,7 +10868,7 @@
         <v>7.0974010050808657E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N18">
         <v>10</v>
       </c>
@@ -10641,7 +10896,7 @@
         <v>5.7486765444792583E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>301</v>
       </c>
@@ -10675,7 +10930,7 @@
         <v>5.333458981835071E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>300</v>
       </c>
@@ -10715,7 +10970,7 @@
         <v>4.8568301179170389E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>10</v>
       </c>
@@ -10756,7 +11011,7 @@
         <v>6.5651414025406826E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
@@ -10785,7 +11040,7 @@
         <v>5.9203016103705834E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -10807,7 +11062,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>25</v>
       </c>
@@ -10836,7 +11091,7 @@
         <v>2.1368281055120556E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>25</v>
       </c>
@@ -10865,7 +11120,7 @@
         <v>7.4670194133947567E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>30</v>
       </c>
@@ -10882,7 +11137,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>35</v>
       </c>
@@ -10899,7 +11154,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>8</v>
       </c>
@@ -10910,10 +11165,10 @@
       <c r="U28" s="2"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>332</v>
       </c>
@@ -10924,7 +11179,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -10944,7 +11199,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>300</v>
       </c>
@@ -10982,7 +11237,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10</v>
       </c>
@@ -11023,7 +11278,7 @@
         <v>2.9294456712851987E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>16</v>
       </c>
@@ -11064,7 +11319,7 @@
         <v>2.938000249476388E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>20</v>
       </c>
@@ -11105,7 +11360,7 @@
         <v>2.9416926441561197E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>40</v>
       </c>
@@ -11146,7 +11401,7 @@
         <v>2.7748664328071946E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>50</v>
       </c>
@@ -11181,7 +11436,7 @@
         <v>2.9404759930355956E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>60</v>
       </c>
@@ -11211,7 +11466,7 @@
         <v>2.7762590385592491E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>80</v>
       </c>
@@ -11235,7 +11490,7 @@
         <v>2.8834566715532905E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>8</v>
       </c>
@@ -11245,12 +11500,12 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>455</v>
       </c>
@@ -11258,7 +11513,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -11275,7 +11530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.5</v>
       </c>
@@ -11293,7 +11548,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>457</v>
       </c>
@@ -11301,7 +11556,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>459</v>
       </c>
@@ -11327,7 +11582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>463</v>
       </c>
@@ -11357,7 +11612,7 @@
         <v>8.5470000000000013E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>465</v>
       </c>
@@ -11387,7 +11642,7 @@
         <v>1.9425000000000001E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>467</v>
       </c>
@@ -11417,7 +11672,7 @@
         <v>1.9425000000000001E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>469</v>
       </c>
@@ -11447,7 +11702,7 @@
         <v>4.8600000000000002E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>469</v>
       </c>
@@ -11463,7 +11718,7 @@
         <v>9.7142857142857135E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>471</v>
       </c>
@@ -11480,7 +11735,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>471</v>
       </c>
@@ -11496,7 +11751,7 @@
         <v>2.5062656641604011E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>471</v>
       </c>
@@ -11512,7 +11767,7 @@
         <v>2.2211538461538464E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>472</v>
       </c>
@@ -11528,7 +11783,7 @@
         <v>2.0480672862977284E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>472</v>
       </c>
@@ -11544,7 +11799,7 @@
         <v>2.380198551973887E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>472</v>
       </c>
@@ -11560,7 +11815,7 @@
         <v>2.0690142601946392E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" t="s">
         <v>525</v>
@@ -11570,7 +11825,7 @@
         <v>1.7494170995654369E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>8</v>
       </c>
@@ -11579,12 +11834,12 @@
         <v>2.2449399217561005E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -11607,7 +11862,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>80</v>
       </c>
@@ -11632,7 +11887,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>50</v>
       </c>
@@ -11654,7 +11909,7 @@
         <v>1.98E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>30</v>
       </c>
@@ -11676,7 +11931,7 @@
         <v>1.98E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>40</v>
       </c>
@@ -11700,13 +11955,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="S1" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="G30" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="A43" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="G66" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="A30" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="S1" r:id="rId2"/>
+    <hyperlink ref="G30" r:id="rId3"/>
+    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4"/>
+    <hyperlink ref="A43" r:id="rId5"/>
+    <hyperlink ref="G66" r:id="rId6"/>
+    <hyperlink ref="A30" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -11714,7 +11969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
@@ -11724,25 +11979,25 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -11750,7 +12005,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -11758,7 +12013,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>161</v>
       </c>
@@ -11778,7 +12033,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -11804,7 +12059,7 @@
         <v>12.68856351404828</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>250</v>
       </c>
@@ -11830,7 +12085,7 @@
         <v>23.630193905817173</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -11856,7 +12111,7 @@
         <v>29.773842500989314</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>251</v>
       </c>
@@ -11882,7 +12137,7 @@
         <v>41.458053027305105</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>268</v>
       </c>
@@ -11895,7 +12150,7 @@
         <v>11403.29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -11903,7 +12158,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>165</v>
       </c>
@@ -11911,7 +12166,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -11919,7 +12174,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -11927,7 +12182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -11935,7 +12190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -11944,7 +12199,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -11953,7 +12208,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>269</v>
       </c>
@@ -11985,7 +12240,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -12018,7 +12273,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>250</v>
       </c>
@@ -12033,7 +12288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>492</v>
       </c>
@@ -12051,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>251</v>
       </c>
@@ -12069,7 +12324,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -12114,7 +12369,7 @@
         <v>10765.019999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>276</v>
       </c>
@@ -12159,7 +12414,7 @@
         <v>10709.159999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>535</v>
       </c>
@@ -12168,7 +12423,7 @@
         <v>446.88000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>495</v>
       </c>
@@ -12177,7 +12432,7 @@
         <v>1516.2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>281</v>
       </c>
@@ -12186,24 +12441,24 @@
         <v>13108.788</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -12213,12 +12468,12 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -12226,17 +12481,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>287</v>
       </c>
@@ -12244,7 +12499,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -12253,7 +12508,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>287</v>
       </c>
@@ -12262,7 +12517,7 @@
         <v>2874.8160000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -12270,7 +12525,7 @@
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>199</v>
       </c>
@@ -12278,7 +12533,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>435</v>
       </c>
@@ -12295,15 +12550,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -12313,13 +12568,13 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -12339,7 +12594,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -12357,7 +12612,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -12375,7 +12630,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -12393,10 +12648,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -12411,7 +12666,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -12426,7 +12681,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -12441,10 +12696,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -12459,7 +12714,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -12471,7 +12726,7 @@
         <v>326.40000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -12486,10 +12741,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -12507,7 +12762,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>147</v>
       </c>
@@ -12522,7 +12777,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>149</v>
       </c>
@@ -12537,7 +12792,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>151</v>
       </c>
@@ -12552,7 +12807,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -12570,7 +12825,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>217</v>
       </c>
@@ -12585,11 +12840,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -12611,7 +12866,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>255</v>
       </c>
@@ -12625,7 +12880,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>258</v>
       </c>
@@ -12641,16 +12896,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -12660,15 +12915,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>200</v>
       </c>
@@ -12679,7 +12934,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -12697,7 +12952,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -12712,11 +12967,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -12731,7 +12986,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -12746,7 +13001,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -12761,7 +13016,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -12773,7 +13028,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>208</v>
       </c>
@@ -12785,11 +13040,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -12804,7 +13059,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -12819,7 +13074,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -12834,11 +13089,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -12853,7 +13108,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -12868,7 +13123,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -12883,7 +13138,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -12898,7 +13153,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -12912,7 +13167,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>303</v>
       </c>
@@ -12923,7 +13178,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>305</v>
       </c>
@@ -12940,7 +13195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -12950,9 +13205,9 @@
       <selection activeCell="A11" sqref="A11:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -12969,7 +13224,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>312</v>
       </c>
@@ -12980,7 +13235,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>313</v>
       </c>
@@ -12991,7 +13246,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>314</v>
       </c>
@@ -13002,7 +13257,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>315</v>
       </c>
@@ -13013,7 +13268,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -13024,7 +13279,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>318</v>
       </c>
@@ -13035,7 +13290,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -13052,7 +13307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -13062,14 +13317,14 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -13092,7 +13347,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -13107,7 +13362,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -13122,7 +13377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -13137,7 +13392,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>384</v>
       </c>
@@ -13152,7 +13407,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>413</v>
       </c>
@@ -13164,7 +13419,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>411</v>
       </c>
@@ -13176,7 +13431,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>416</v>
       </c>
@@ -13188,10 +13443,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -13206,7 +13461,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>244</v>
       </c>
@@ -13225,7 +13480,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -13239,7 +13494,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>109</v>
       </c>
@@ -13250,7 +13505,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>112</v>
       </c>
@@ -13262,7 +13517,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>376</v>
       </c>
@@ -13276,7 +13531,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>325</v>
       </c>
@@ -13287,7 +13542,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -13298,7 +13553,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>386</v>
       </c>
@@ -13312,7 +13567,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>388</v>
       </c>
@@ -13326,7 +13581,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>390</v>
       </c>
@@ -13340,7 +13595,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>392</v>
       </c>
@@ -13354,7 +13609,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>394</v>
       </c>
@@ -13368,7 +13623,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>396</v>
       </c>
@@ -13382,7 +13637,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>399</v>
       </c>
@@ -13396,7 +13651,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>407</v>
       </c>
@@ -13410,7 +13665,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>409</v>
       </c>
@@ -13421,7 +13676,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>512</v>
       </c>
@@ -13435,23 +13690,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="G11" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="G3" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="G20" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="G21" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G13" r:id="rId5"/>
+    <hyperlink ref="G14" r:id="rId6"/>
+    <hyperlink ref="G15" r:id="rId7"/>
+    <hyperlink ref="G3" r:id="rId8"/>
+    <hyperlink ref="G20" r:id="rId9"/>
+    <hyperlink ref="G21" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -13461,18 +13716,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -13484,12 +13739,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -13500,7 +13755,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>67</v>
       </c>
@@ -13508,7 +13763,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>68</v>
       </c>
@@ -13516,22 +13771,22 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -13542,7 +13797,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>67</v>
       </c>
@@ -13550,7 +13805,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -13558,7 +13813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -13566,7 +13821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -13574,7 +13829,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -13582,7 +13837,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -13590,7 +13845,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -13598,7 +13853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -13609,7 +13864,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>216</v>
       </c>
@@ -13620,7 +13875,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -13635,7 +13890,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -13649,7 +13904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -13663,7 +13918,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -13671,7 +13926,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -13685,7 +13940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -13707,7 +13962,7 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -13722,7 +13977,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>200</v>
       </c>
@@ -13736,17 +13991,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D24" r:id="rId3"/>
+    <hyperlink ref="D23" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -13756,18 +14011,18 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>373</v>
       </c>
@@ -13779,11 +14034,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>350</v>
       </c>
@@ -13791,7 +14046,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>198</v>
       </c>
@@ -13799,7 +14054,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -13810,7 +14065,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>346</v>
       </c>
@@ -13822,7 +14077,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>347</v>
       </c>
@@ -13833,7 +14088,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -13841,7 +14096,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -13855,7 +14110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -13877,7 +14132,7 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -13892,7 +14147,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>200</v>
       </c>
@@ -13904,14 +14159,14 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/CR - Cost Report/CBOM/Cost_v1.5.xlsx
+++ b/CR - Cost Report/CBOM/Cost_v1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A7AF0-621E-4DB9-A7A9-DC1DAB57F92C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CFAF20-9551-4064-BCC5-EC3023708C1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -905,12 +905,6 @@
     <t>Drawer</t>
   </si>
   <si>
-    <t>Armoire sans porte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armoire avec porte </t>
-  </si>
-  <si>
     <t>Direction worktable</t>
   </si>
   <si>
@@ -1741,6 +1735,12 @@
   <si>
     <t>Cleaning</t>
   </si>
+  <si>
+    <t>Shelves without door</t>
+  </si>
+  <si>
+    <t>Shelves with door</t>
+  </si>
 </sst>
 </file>
 
@@ -1751,8 +1751,8 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -2591,7 +2591,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2677,7 +2677,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2916,162 +2916,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
@@ -3085,7 +2929,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3106,37 +2949,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
@@ -3164,93 +2980,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3264,15 +3002,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3294,21 +3023,294 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -6519,8 +6521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView topLeftCell="E1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6550,29 +6552,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="235" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
       <c r="D1" s="48"/>
-      <c r="F1" s="188" t="s">
+      <c r="F1" s="229" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="190"/>
-      <c r="L1" s="191" t="s">
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="231"/>
+      <c r="L1" s="232" t="s">
         <v>209</v>
       </c>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="193"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="234"/>
     </row>
     <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
@@ -6597,7 +6599,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="94" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J2" s="95" t="s">
         <v>207</v>
@@ -6619,7 +6621,7 @@
         <v>17</v>
       </c>
       <c r="R2" s="120" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S2" s="121" t="s">
         <v>207</v>
@@ -6636,8 +6638,8 @@
         <f>'Manpower &amp; time'!D8</f>
         <v>21376</v>
       </c>
-      <c r="D3" s="205" t="s">
-        <v>509</v>
+      <c r="D3" s="251" t="s">
+        <v>507</v>
       </c>
       <c r="F3" s="106" t="s">
         <v>29</v>
@@ -6656,10 +6658,10 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="169" t="s">
-        <v>476</v>
-      </c>
-      <c r="M3" s="170"/>
+      <c r="L3" s="237" t="s">
+        <v>474</v>
+      </c>
+      <c r="M3" s="268"/>
       <c r="N3" s="100" t="s">
         <v>208</v>
       </c>
@@ -6688,7 +6690,7 @@
         <f>'Manpower &amp; time'!D9</f>
         <v>39809</v>
       </c>
-      <c r="D4" s="206"/>
+      <c r="D4" s="252"/>
       <c r="F4" s="107"/>
       <c r="G4" s="101" t="s">
         <v>198</v>
@@ -6738,7 +6740,7 @@
         <f>'Manpower &amp; time'!D11</f>
         <v>69843</v>
       </c>
-      <c r="D5" s="206"/>
+      <c r="D5" s="252"/>
       <c r="F5" s="107"/>
       <c r="G5" s="101" t="s">
         <v>197</v>
@@ -6789,7 +6791,7 @@
         <f>'Manpower &amp; time'!D9</f>
         <v>39809</v>
       </c>
-      <c r="D6" s="207"/>
+      <c r="D6" s="253"/>
       <c r="F6" s="107"/>
       <c r="G6" s="101" t="s">
         <v>32</v>
@@ -6859,7 +6861,7 @@
         <v>320.96000000000004</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M7" s="126">
         <f>1/10000</f>
@@ -6907,7 +6909,7 @@
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M8" s="126">
         <f>M7*0.5</f>
@@ -6941,7 +6943,7 @@
       </c>
       <c r="F9" s="108"/>
       <c r="G9" s="102" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H9" s="63">
         <f>Metrology!E25</f>
@@ -6955,7 +6957,7 @@
         <v>539</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M9" s="126">
         <f>M7*0.4</f>
@@ -6968,7 +6970,7 @@
         <v>214</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q9" s="29">
         <f>1*'CNC mill'!F31</f>
@@ -7025,7 +7027,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>153</v>
@@ -7050,12 +7052,12 @@
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="L11" s="164" t="s">
+      <c r="L11" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="203"/>
+      <c r="M11" s="247"/>
       <c r="N11" s="100" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O11" s="58" t="s">
         <v>213</v>
@@ -7085,7 +7087,7 @@
       <c r="D12" s="71"/>
       <c r="F12" s="110"/>
       <c r="G12" s="104" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H12" s="27">
         <f>Energies!C12*60</f>
@@ -7105,7 +7107,7 @@
         <v>29.8</v>
       </c>
       <c r="N12" s="101" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O12" s="26" t="s">
         <v>213</v>
@@ -7126,7 +7128,7 @@
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="72"/>
       <c r="B13" s="62" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C13" s="63">
         <f>Energies!C12</f>
@@ -7158,7 +7160,7 @@
         <v>0.8</v>
       </c>
       <c r="N13" s="101" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O13" s="26" t="s">
         <v>213</v>
@@ -7178,10 +7180,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C14" s="75">
         <v>1.12964</v>
@@ -7240,7 +7242,7 @@
       <c r="D15" s="68"/>
       <c r="F15" s="113"/>
       <c r="G15" s="101" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H15" s="29">
         <f>'Manpower &amp; time'!G12</f>
@@ -7254,7 +7256,7 @@
         <v>11403.29000000001</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M15" s="131">
         <f>1/10000</f>
@@ -7293,7 +7295,7 @@
         <v>13837.053999999998</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M16" s="131">
         <f>M15*0.5</f>
@@ -7333,7 +7335,7 @@
         <v>2281.12</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M17" s="131">
         <f>M15*0.4</f>
@@ -7346,7 +7348,7 @@
         <v>214</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="29">
         <f>'CNC lathe'!F14</f>
@@ -7376,7 +7378,7 @@
         <f t="shared" si="0"/>
         <v>64.320000000000007</v>
       </c>
-      <c r="L18" s="139" t="s">
+      <c r="L18" s="318" t="s">
         <v>244</v>
       </c>
       <c r="M18" s="140">
@@ -7392,7 +7394,7 @@
     <row r="19" spans="6:19" ht="30" x14ac:dyDescent="0.25">
       <c r="F19" s="116"/>
       <c r="G19" s="159" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H19" s="29">
         <f>2*IT!E7+IT!E8+2*IT!E9+IT!E10</f>
@@ -7405,10 +7407,10 @@
         <f t="shared" si="0"/>
         <v>277.54199999999997</v>
       </c>
-      <c r="L19" s="171" t="s">
+      <c r="L19" s="269" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="172"/>
+      <c r="M19" s="270"/>
       <c r="N19" s="100" t="s">
         <v>21</v>
       </c>
@@ -7532,7 +7534,7 @@
         <v>5</v>
       </c>
       <c r="N22" s="101" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="O22" s="26" t="s">
         <v>214</v>
@@ -7550,7 +7552,7 @@
     <row r="23" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F23" s="117"/>
       <c r="G23" s="102" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H23" s="63">
         <f>IT!E24+IT!E23</f>
@@ -7564,7 +7566,7 @@
         <v>127</v>
       </c>
       <c r="L23" s="41" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M23" s="134">
         <v>4.6000000000000001E-4</v>
@@ -7578,7 +7580,7 @@
     </row>
     <row r="24" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F24" s="106" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G24" s="100" t="s">
         <v>37</v>
@@ -7594,7 +7596,7 @@
         <v>200</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M24" s="135">
         <v>1.5</v>
@@ -7609,7 +7611,7 @@
     <row r="25" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="108"/>
       <c r="G25" s="102" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H25" s="63">
         <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
@@ -7623,7 +7625,7 @@
         <v>1055</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M25" s="135">
         <v>1</v>
@@ -7640,7 +7642,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="158" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H26" s="59">
         <f>SUM(Manufacturing!G3:G8)+Manufacturing!G9*4</f>
@@ -7654,7 +7656,7 @@
         <v>1944.2431854396091</v>
       </c>
       <c r="L26" s="148" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M26" s="149">
         <v>8</v>
@@ -7669,7 +7671,7 @@
     <row r="27" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F27" s="110"/>
       <c r="G27" s="101" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H27" s="29">
         <f>Manufacturing!G26</f>
@@ -7708,7 +7710,7 @@
     <row r="28" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F28" s="110"/>
       <c r="G28" s="101" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H28" s="29">
         <f>Manufacturing!G27</f>
@@ -7745,7 +7747,7 @@
     <row r="29" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F29" s="110"/>
       <c r="G29" s="101" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H29" s="29">
         <f>Manufacturing!G11*3+Manufacturing!G12*3</f>
@@ -7787,7 +7789,7 @@
     <row r="30" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F30" s="110"/>
       <c r="G30" s="159" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H30" s="29">
         <f>0.5*H29</f>
@@ -7801,7 +7803,7 @@
         <v>406.87259999999998</v>
       </c>
       <c r="L30" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M30" s="136">
         <f>Welding!B32</f>
@@ -7829,7 +7831,7 @@
     <row r="31" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F31" s="110"/>
       <c r="G31" s="101" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H31" s="29">
         <v>4000</v>
@@ -7865,7 +7867,7 @@
     <row r="32" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F32" s="110"/>
       <c r="G32" s="101" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H32" s="29">
         <v>3000</v>
@@ -7903,7 +7905,7 @@
     <row r="33" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F33" s="110"/>
       <c r="G33" s="101" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H33" s="29">
         <f>Manufacturing!G24</f>
@@ -7925,7 +7927,7 @@
         <v>214</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Q33" s="55">
         <f>(0.75+0.5)*C12</f>
@@ -7953,13 +7955,13 @@
       <c r="L34" s="127"/>
       <c r="M34" s="128"/>
       <c r="N34" s="101" t="s">
-        <v>450</v>
-      </c>
-      <c r="O34" s="208" t="s">
+        <v>448</v>
+      </c>
+      <c r="O34" s="254" t="s">
         <v>214</v>
       </c>
-      <c r="P34" s="209" t="s">
-        <v>449</v>
+      <c r="P34" s="255" t="s">
+        <v>447</v>
       </c>
       <c r="Q34" s="29">
         <f>Welding!B29</f>
@@ -7971,7 +7973,7 @@
     <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="110"/>
       <c r="G35" s="101" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H35" s="29">
         <f>Manufacturing!G16*5+Manufacturing!G17+Manufacturing!G18+Manufacturing!G19+Manufacturing!G20*3+Manufacturing!G21*30</f>
@@ -7987,10 +7989,10 @@
       <c r="L35" s="137"/>
       <c r="M35" s="138"/>
       <c r="N35" s="101" t="s">
-        <v>451</v>
-      </c>
-      <c r="O35" s="208"/>
-      <c r="P35" s="209"/>
+        <v>449</v>
+      </c>
+      <c r="O35" s="254"/>
+      <c r="P35" s="255"/>
       <c r="Q35" s="29">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
@@ -8001,7 +8003,7 @@
     <row r="36" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="110"/>
       <c r="G36" s="104" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H36" s="29">
         <f>Manufacturing!G14</f>
@@ -8023,7 +8025,7 @@
         <v>214</v>
       </c>
       <c r="P36" s="62" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q36" s="63">
         <f>Welding!B17</f>
@@ -8035,7 +8037,7 @@
     <row r="37" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F37" s="110"/>
       <c r="G37" s="104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H37" s="29">
         <f>15*C12*C7*C8</f>
@@ -8048,12 +8050,12 @@
         <f>H37/I37</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L37" s="164" t="s">
-        <v>391</v>
-      </c>
-      <c r="M37" s="203"/>
+      <c r="L37" s="246" t="s">
+        <v>389</v>
+      </c>
+      <c r="M37" s="247"/>
       <c r="N37" s="100" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O37" s="58" t="s">
         <v>213</v>
@@ -8074,7 +8076,7 @@
     <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="111"/>
       <c r="G38" s="105" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H38" s="63">
         <f>2*Manufacturing!G29</f>
@@ -8094,7 +8096,7 @@
         <v>6</v>
       </c>
       <c r="N38" s="101" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O38" s="26" t="s">
         <v>213</v>
@@ -8123,7 +8125,7 @@
         <v>0.44</v>
       </c>
       <c r="N39" s="101" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O39" s="26" t="s">
         <v>213</v>
@@ -8142,13 +8144,13 @@
       </c>
     </row>
     <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="197" t="s">
-        <v>513</v>
-      </c>
-      <c r="G40" s="198"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="199"/>
+      <c r="F40" s="239" t="s">
+        <v>511</v>
+      </c>
+      <c r="G40" s="240"/>
+      <c r="H40" s="240"/>
+      <c r="I40" s="240"/>
+      <c r="J40" s="241"/>
       <c r="L40" s="42" t="s">
         <v>226</v>
       </c>
@@ -8162,7 +8164,7 @@
         <v>213</v>
       </c>
       <c r="P40" s="26" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q40" s="27">
         <f>0.03*(Q38+Q37)</f>
@@ -8177,20 +8179,20 @@
       </c>
     </row>
     <row r="41" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F41" s="178" t="s">
-        <v>311</v>
-      </c>
-      <c r="G41" s="201" t="s">
-        <v>472</v>
-      </c>
-      <c r="H41" s="201"/>
-      <c r="I41" s="202"/>
+      <c r="F41" s="256" t="s">
+        <v>309</v>
+      </c>
+      <c r="G41" s="244" t="s">
+        <v>470</v>
+      </c>
+      <c r="H41" s="244"/>
+      <c r="I41" s="245"/>
       <c r="J41" s="87">
         <f>SUM(J3:J38)*1.05</f>
         <v>129206.09501598139</v>
       </c>
       <c r="L41" s="42" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M41" s="131">
         <f>3*1/10000</f>
@@ -8213,12 +8215,12 @@
       <c r="S41" s="141"/>
     </row>
     <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="179"/>
-      <c r="G42" s="200" t="s">
+      <c r="F42" s="257"/>
+      <c r="G42" s="242" t="s">
         <v>271</v>
       </c>
-      <c r="H42" s="200"/>
-      <c r="I42" s="186"/>
+      <c r="H42" s="242"/>
+      <c r="I42" s="243"/>
       <c r="J42" s="88">
         <f>J41/SUM('Manpower &amp; time'!C32:J32)</f>
         <v>11.853030729824322</v>
@@ -8230,7 +8232,7 @@
         <v>10</v>
       </c>
       <c r="N42" s="102" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="O42" s="62" t="s">
         <v>214</v>
@@ -8245,87 +8247,87 @@
       <c r="S42" s="73"/>
     </row>
     <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="180" t="s">
-        <v>312</v>
-      </c>
-      <c r="G43" s="202" t="s">
-        <v>313</v>
-      </c>
-      <c r="H43" s="204"/>
-      <c r="I43" s="204"/>
+      <c r="F43" s="258" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" s="245" t="s">
+        <v>311</v>
+      </c>
+      <c r="H43" s="248"/>
+      <c r="I43" s="248"/>
       <c r="J43" s="89">
         <f>'Manpower &amp; time'!H8</f>
-        <v>13.393483709273182</v>
+        <v>12.723809523809523</v>
       </c>
     </row>
     <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="181"/>
-      <c r="G44" s="176" t="s">
-        <v>324</v>
-      </c>
-      <c r="H44" s="177"/>
-      <c r="I44" s="177"/>
+      <c r="F44" s="259"/>
+      <c r="G44" s="249" t="s">
+        <v>322</v>
+      </c>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
       <c r="J44" s="90">
         <f>'Manpower &amp; time'!H9</f>
-        <v>24.942982456140346</v>
-      </c>
-      <c r="L44" s="183" t="s">
-        <v>514</v>
-      </c>
-      <c r="M44" s="184"/>
-      <c r="N44" s="184"/>
-      <c r="O44" s="184"/>
-      <c r="P44" s="184"/>
-      <c r="Q44" s="184"/>
-      <c r="R44" s="185"/>
+        <v>23.695833333333333</v>
+      </c>
+      <c r="L44" s="261" t="s">
+        <v>512</v>
+      </c>
+      <c r="M44" s="262"/>
+      <c r="N44" s="262"/>
+      <c r="O44" s="262"/>
+      <c r="P44" s="262"/>
+      <c r="Q44" s="262"/>
+      <c r="R44" s="263"/>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="181"/>
-      <c r="G45" s="176" t="s">
-        <v>466</v>
-      </c>
-      <c r="H45" s="177"/>
-      <c r="I45" s="177"/>
+      <c r="F45" s="259"/>
+      <c r="G45" s="249" t="s">
+        <v>464</v>
+      </c>
+      <c r="H45" s="250"/>
+      <c r="I45" s="250"/>
       <c r="J45" s="90">
         <f>'Manpower &amp; time'!H10</f>
-        <v>31.427944862155385</v>
-      </c>
-      <c r="L45" s="169" t="s">
-        <v>476</v>
-      </c>
-      <c r="M45" s="196"/>
-      <c r="N45" s="166" t="s">
+        <v>29.85654761904761</v>
+      </c>
+      <c r="L45" s="237" t="s">
+        <v>474</v>
+      </c>
+      <c r="M45" s="238"/>
+      <c r="N45" s="265" t="s">
         <v>280</v>
       </c>
-      <c r="O45" s="166"/>
-      <c r="P45" s="166"/>
-      <c r="Q45" s="166"/>
+      <c r="O45" s="265"/>
+      <c r="P45" s="265"/>
+      <c r="Q45" s="265"/>
       <c r="R45" s="77">
         <f>SUM(S3:S6)+S9</f>
         <v>17591.025600000001</v>
       </c>
     </row>
     <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="182"/>
-      <c r="G46" s="186" t="s">
-        <v>314</v>
-      </c>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
+      <c r="F46" s="260"/>
+      <c r="G46" s="243" t="s">
+        <v>312</v>
+      </c>
+      <c r="H46" s="264"/>
+      <c r="I46" s="264"/>
       <c r="J46" s="91">
         <f>'Manpower &amp; time'!H11</f>
-        <v>43.761278195488714</v>
-      </c>
-      <c r="L46" s="161" t="s">
-        <v>480</v>
-      </c>
-      <c r="M46" s="162"/>
-      <c r="N46" s="160" t="s">
+        <v>41.573214285714279</v>
+      </c>
+      <c r="L46" s="274" t="s">
+        <v>478</v>
+      </c>
+      <c r="M46" s="275"/>
+      <c r="N46" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="O46" s="160"/>
-      <c r="P46" s="160"/>
-      <c r="Q46" s="160"/>
+      <c r="O46" s="225"/>
+      <c r="P46" s="225"/>
+      <c r="Q46" s="225"/>
       <c r="R46" s="78">
         <f>R45/(M5*C7*C8)+J42</f>
         <v>25.63046306065139</v>
@@ -8334,17 +8336,17 @@
     <row r="47" spans="6:19" x14ac:dyDescent="0.25">
       <c r="J47" s="14"/>
       <c r="L47" s="37" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M47" s="38">
         <v>2.5</v>
       </c>
-      <c r="N47" s="160" t="s">
+      <c r="N47" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="O47" s="160"/>
-      <c r="P47" s="160"/>
-      <c r="Q47" s="160"/>
+      <c r="O47" s="225"/>
+      <c r="P47" s="225"/>
+      <c r="Q47" s="225"/>
       <c r="R47" s="78">
         <f>R46+Q8+Q7</f>
         <v>47.03359906065139</v>
@@ -8353,15 +8355,15 @@
     <row r="48" spans="6:19" x14ac:dyDescent="0.25">
       <c r="J48" s="14"/>
       <c r="L48" s="37" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M48" s="38">
         <v>0.5</v>
       </c>
-      <c r="N48" s="160"/>
-      <c r="O48" s="160"/>
-      <c r="P48" s="160"/>
-      <c r="Q48" s="160"/>
+      <c r="N48" s="225"/>
+      <c r="O48" s="225"/>
+      <c r="P48" s="225"/>
+      <c r="Q48" s="225"/>
       <c r="R48" s="79"/>
     </row>
     <row r="49" spans="6:18" x14ac:dyDescent="0.25">
@@ -8369,15 +8371,15 @@
       <c r="J49" s="14"/>
       <c r="L49" s="21"/>
       <c r="M49" s="22"/>
-      <c r="N49" s="160" t="s">
+      <c r="N49" s="225" t="s">
         <v>267</v>
       </c>
-      <c r="O49" s="160"/>
-      <c r="P49" s="160"/>
-      <c r="Q49" s="160"/>
+      <c r="O49" s="225"/>
+      <c r="P49" s="225"/>
+      <c r="Q49" s="225"/>
       <c r="R49" s="80">
         <f>('Manpower &amp; time'!H8+R47)*M7/60</f>
-        <v>1.0071180461654096E-4</v>
+        <v>9.9595680974101528E-5</v>
       </c>
     </row>
     <row r="50" spans="6:18" x14ac:dyDescent="0.25">
@@ -8385,15 +8387,15 @@
       <c r="J50" s="14"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="160" t="s">
-        <v>471</v>
-      </c>
-      <c r="O50" s="160"/>
-      <c r="P50" s="160"/>
-      <c r="Q50" s="160"/>
+      <c r="N50" s="225" t="s">
+        <v>469</v>
+      </c>
+      <c r="O50" s="225"/>
+      <c r="P50" s="225"/>
+      <c r="Q50" s="225"/>
       <c r="R50" s="81">
         <f>('Manpower &amp; time'!H8)*M7/60/R49</f>
-        <v>0.22164703466273092</v>
+        <v>0.21292438586632709</v>
       </c>
     </row>
     <row r="51" spans="6:18" x14ac:dyDescent="0.25">
@@ -8401,142 +8403,142 @@
       <c r="J51" s="14"/>
       <c r="L51" s="21"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="160"/>
-      <c r="O51" s="160"/>
-      <c r="P51" s="160"/>
-      <c r="Q51" s="160"/>
+      <c r="N51" s="225"/>
+      <c r="O51" s="225"/>
+      <c r="P51" s="225"/>
+      <c r="Q51" s="225"/>
       <c r="R51" s="80"/>
     </row>
     <row r="52" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L52" s="21"/>
       <c r="M52" s="22"/>
-      <c r="N52" s="160" t="s">
+      <c r="N52" s="225" t="s">
         <v>270</v>
       </c>
-      <c r="O52" s="160"/>
-      <c r="P52" s="160"/>
-      <c r="Q52" s="160"/>
+      <c r="O52" s="225"/>
+      <c r="P52" s="225"/>
+      <c r="Q52" s="225"/>
       <c r="R52" s="80">
         <f>('Manpower &amp; time'!H8+J42)*M8/60</f>
-        <v>2.1038762032581253E-5</v>
+        <v>2.0480700211361539E-5</v>
       </c>
     </row>
     <row r="53" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J53" s="8"/>
       <c r="L53" s="21"/>
       <c r="M53" s="22"/>
-      <c r="N53" s="160" t="s">
+      <c r="N53" s="225" t="s">
         <v>268</v>
       </c>
-      <c r="O53" s="160"/>
-      <c r="P53" s="160"/>
-      <c r="Q53" s="160"/>
+      <c r="O53" s="225"/>
+      <c r="P53" s="225"/>
+      <c r="Q53" s="225"/>
       <c r="R53" s="80">
         <f>('Manpower &amp; time'!H9+J42)*M8/60</f>
-        <v>3.0663344321637223E-5</v>
+        <v>2.9624053385964713E-5</v>
       </c>
     </row>
     <row r="54" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J54" s="7"/>
       <c r="L54" s="21"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="160" t="s">
+      <c r="N54" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="O54" s="160"/>
-      <c r="P54" s="160"/>
-      <c r="Q54" s="160"/>
+      <c r="O54" s="225"/>
+      <c r="P54" s="225"/>
+      <c r="Q54" s="225"/>
       <c r="R54" s="80">
         <f>('Manpower &amp; time'!H11+J42)*M8/60</f>
-        <v>4.6345257437760865E-5</v>
+        <v>4.4521870846282167E-5</v>
       </c>
     </row>
     <row r="55" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J55" s="7"/>
       <c r="L55" s="21"/>
       <c r="M55" s="22"/>
-      <c r="N55" s="160" t="s">
-        <v>315</v>
-      </c>
-      <c r="O55" s="160"/>
-      <c r="P55" s="160"/>
-      <c r="Q55" s="160"/>
+      <c r="N55" s="225" t="s">
+        <v>313</v>
+      </c>
+      <c r="O55" s="225"/>
+      <c r="P55" s="225"/>
+      <c r="Q55" s="225"/>
       <c r="R55" s="80">
         <f>('Manpower &amp; time'!H8+J42)*M$9/60</f>
-        <v>1.6831009626065002E-5</v>
+        <v>1.6384560169089233E-5</v>
       </c>
     </row>
     <row r="56" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J56" s="7"/>
       <c r="L56" s="21"/>
       <c r="M56" s="22"/>
-      <c r="N56" s="160" t="s">
-        <v>316</v>
-      </c>
-      <c r="O56" s="160"/>
-      <c r="P56" s="160"/>
-      <c r="Q56" s="160"/>
+      <c r="N56" s="225" t="s">
+        <v>314</v>
+      </c>
+      <c r="O56" s="225"/>
+      <c r="P56" s="225"/>
+      <c r="Q56" s="225"/>
       <c r="R56" s="80">
         <f>('Manpower &amp; time'!H9+J42)*M$9/60</f>
-        <v>2.4530675457309782E-5</v>
+        <v>2.3699242708771769E-5</v>
       </c>
     </row>
     <row r="57" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J57" s="5"/>
       <c r="L57" s="21"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="160" t="s">
-        <v>317</v>
-      </c>
-      <c r="O57" s="160"/>
-      <c r="P57" s="160"/>
-      <c r="Q57" s="160"/>
+      <c r="N57" s="225" t="s">
+        <v>315</v>
+      </c>
+      <c r="O57" s="225"/>
+      <c r="P57" s="225"/>
+      <c r="Q57" s="225"/>
       <c r="R57" s="80">
         <f>('Manpower &amp; time'!H11+J42)*M$9/60</f>
-        <v>3.7076205950208699E-5</v>
+        <v>3.5617496677025735E-5</v>
       </c>
     </row>
     <row r="58" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L58" s="23"/>
       <c r="M58" s="24"/>
-      <c r="N58" s="163" t="s">
+      <c r="N58" s="226" t="s">
         <v>279</v>
       </c>
-      <c r="O58" s="163"/>
-      <c r="P58" s="163"/>
-      <c r="Q58" s="163"/>
+      <c r="O58" s="226"/>
+      <c r="P58" s="226"/>
+      <c r="Q58" s="226"/>
       <c r="R58" s="82">
         <f>('Manpower &amp; time'!H8+R46)*(M10+M6)/60</f>
-        <v>16.259977820801904</v>
+        <v>15.980946910192047</v>
       </c>
     </row>
     <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L59" s="164" t="s">
+      <c r="L59" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="165"/>
-      <c r="N59" s="166" t="s">
+      <c r="M59" s="276"/>
+      <c r="N59" s="265" t="s">
         <v>280</v>
       </c>
-      <c r="O59" s="166"/>
-      <c r="P59" s="166"/>
-      <c r="Q59" s="166"/>
+      <c r="O59" s="265"/>
+      <c r="P59" s="265"/>
+      <c r="Q59" s="265"/>
       <c r="R59" s="77">
         <f>SUM(S11:S14)+S17</f>
         <v>23026.025600000001</v>
       </c>
     </row>
     <row r="60" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L60" s="174" t="s">
-        <v>480</v>
-      </c>
-      <c r="M60" s="175"/>
-      <c r="N60" s="160" t="s">
+      <c r="L60" s="272" t="s">
+        <v>478</v>
+      </c>
+      <c r="M60" s="273"/>
+      <c r="N60" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="O60" s="160"/>
-      <c r="P60" s="160"/>
-      <c r="Q60" s="160"/>
+      <c r="O60" s="225"/>
+      <c r="P60" s="225"/>
+      <c r="Q60" s="225"/>
       <c r="R60" s="78">
         <f>R59/(M13*C7*C8)+J42</f>
         <v>29.887198649623823</v>
@@ -8545,17 +8547,17 @@
     <row r="61" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J61" s="7"/>
       <c r="L61" s="39" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M61" s="40">
         <v>2.5</v>
       </c>
-      <c r="N61" s="160" t="s">
+      <c r="N61" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="O61" s="160"/>
-      <c r="P61" s="160"/>
-      <c r="Q61" s="160"/>
+      <c r="O61" s="225"/>
+      <c r="P61" s="225"/>
+      <c r="Q61" s="225"/>
       <c r="R61" s="78">
         <f>R60+Q16+Q15</f>
         <v>41.753870649623828</v>
@@ -8563,180 +8565,180 @@
     </row>
     <row r="62" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L62" s="39" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M62" s="40">
         <v>0.5</v>
       </c>
-      <c r="N62" s="160"/>
-      <c r="O62" s="160"/>
-      <c r="P62" s="160"/>
-      <c r="Q62" s="160"/>
+      <c r="N62" s="225"/>
+      <c r="O62" s="225"/>
+      <c r="P62" s="225"/>
+      <c r="Q62" s="225"/>
       <c r="R62" s="79"/>
     </row>
     <row r="63" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F63" s="11"/>
       <c r="L63" s="17"/>
       <c r="M63" s="18"/>
-      <c r="N63" s="160" t="s">
+      <c r="N63" s="225" t="s">
         <v>267</v>
       </c>
-      <c r="O63" s="160"/>
-      <c r="P63" s="160"/>
-      <c r="Q63" s="160"/>
+      <c r="O63" s="225"/>
+      <c r="P63" s="225"/>
+      <c r="Q63" s="225"/>
       <c r="R63" s="80">
         <f>(J43+R61)*M15/60</f>
-        <v>9.1912257264828361E-5</v>
+        <v>9.0796133622388927E-5</v>
       </c>
     </row>
     <row r="64" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L64" s="17"/>
       <c r="M64" s="18"/>
-      <c r="N64" s="160" t="s">
-        <v>471</v>
-      </c>
-      <c r="O64" s="160"/>
-      <c r="P64" s="160"/>
-      <c r="Q64" s="160"/>
+      <c r="N64" s="225" t="s">
+        <v>469</v>
+      </c>
+      <c r="O64" s="225"/>
+      <c r="P64" s="225"/>
+      <c r="Q64" s="225"/>
       <c r="R64" s="81">
         <f>(J43)*M15/60/R63</f>
-        <v>0.24286720305944087</v>
+        <v>0.23356004667053407</v>
       </c>
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L65" s="17"/>
       <c r="M65" s="18"/>
-      <c r="N65" s="160"/>
-      <c r="O65" s="160"/>
-      <c r="P65" s="160"/>
-      <c r="Q65" s="160"/>
+      <c r="N65" s="225"/>
+      <c r="O65" s="225"/>
+      <c r="P65" s="225"/>
+      <c r="Q65" s="225"/>
       <c r="R65" s="80"/>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L66" s="17"/>
       <c r="M66" s="18"/>
-      <c r="N66" s="160" t="s">
+      <c r="N66" s="225" t="s">
         <v>270</v>
       </c>
-      <c r="O66" s="160"/>
-      <c r="P66" s="160"/>
-      <c r="Q66" s="160"/>
+      <c r="O66" s="225"/>
+      <c r="P66" s="225"/>
+      <c r="Q66" s="225"/>
       <c r="R66" s="80">
         <f>(J43+J42)*M$16/60</f>
-        <v>2.1038762032581253E-5</v>
+        <v>2.0480700211361539E-5</v>
       </c>
     </row>
     <row r="67" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L67" s="17"/>
       <c r="M67" s="18"/>
-      <c r="N67" s="160" t="s">
+      <c r="N67" s="225" t="s">
         <v>268</v>
       </c>
-      <c r="O67" s="160"/>
-      <c r="P67" s="160"/>
-      <c r="Q67" s="160"/>
+      <c r="O67" s="225"/>
+      <c r="P67" s="225"/>
+      <c r="Q67" s="225"/>
       <c r="R67" s="80">
         <f>(J44+J42)*M$16/60</f>
-        <v>3.0663344321637223E-5</v>
+        <v>2.9624053385964713E-5</v>
       </c>
     </row>
     <row r="68" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L68" s="17"/>
       <c r="M68" s="18"/>
-      <c r="N68" s="160" t="s">
+      <c r="N68" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="O68" s="160"/>
-      <c r="P68" s="160"/>
-      <c r="Q68" s="160"/>
+      <c r="O68" s="225"/>
+      <c r="P68" s="225"/>
+      <c r="Q68" s="225"/>
       <c r="R68" s="80">
         <f>(J46+J42)*M$16/60</f>
-        <v>4.6345257437760865E-5</v>
+        <v>4.4521870846282167E-5</v>
       </c>
     </row>
     <row r="69" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L69" s="17"/>
       <c r="M69" s="18"/>
-      <c r="N69" s="160" t="s">
-        <v>315</v>
-      </c>
-      <c r="O69" s="160"/>
-      <c r="P69" s="160"/>
-      <c r="Q69" s="160"/>
+      <c r="N69" s="225" t="s">
+        <v>313</v>
+      </c>
+      <c r="O69" s="225"/>
+      <c r="P69" s="225"/>
+      <c r="Q69" s="225"/>
       <c r="R69" s="80">
         <f>(J43+J42)*M$17/60</f>
-        <v>1.6831009626065002E-5</v>
+        <v>1.6384560169089233E-5</v>
       </c>
     </row>
     <row r="70" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L70" s="17"/>
       <c r="M70" s="18"/>
-      <c r="N70" s="160" t="s">
-        <v>316</v>
-      </c>
-      <c r="O70" s="160"/>
-      <c r="P70" s="160"/>
-      <c r="Q70" s="160"/>
+      <c r="N70" s="225" t="s">
+        <v>314</v>
+      </c>
+      <c r="O70" s="225"/>
+      <c r="P70" s="225"/>
+      <c r="Q70" s="225"/>
       <c r="R70" s="80">
         <f>(J44+J42)*M$17/60</f>
-        <v>2.4530675457309782E-5</v>
+        <v>2.3699242708771769E-5</v>
       </c>
     </row>
     <row r="71" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L71" s="17"/>
       <c r="M71" s="18"/>
-      <c r="N71" s="160" t="s">
-        <v>317</v>
-      </c>
-      <c r="O71" s="160"/>
-      <c r="P71" s="160"/>
-      <c r="Q71" s="160"/>
+      <c r="N71" s="225" t="s">
+        <v>315</v>
+      </c>
+      <c r="O71" s="225"/>
+      <c r="P71" s="225"/>
+      <c r="Q71" s="225"/>
       <c r="R71" s="80">
         <f>(J46+J42)*M$17/60</f>
-        <v>3.7076205950208699E-5</v>
+        <v>3.5617496677025735E-5</v>
       </c>
     </row>
     <row r="72" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L72" s="17"/>
       <c r="M72" s="18"/>
-      <c r="N72" s="210" t="s">
+      <c r="N72" s="227" t="s">
         <v>279</v>
       </c>
-      <c r="O72" s="210"/>
-      <c r="P72" s="210"/>
-      <c r="Q72" s="210"/>
+      <c r="O72" s="227"/>
+      <c r="P72" s="227"/>
+      <c r="Q72" s="227"/>
       <c r="R72" s="154">
         <f>(J43+R60)*(M14+M18)/60</f>
-        <v>14.426894119632333</v>
+        <v>14.203669391144448</v>
       </c>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L73" s="171" t="s">
-        <v>405</v>
-      </c>
-      <c r="M73" s="173"/>
-      <c r="N73" s="166" t="s">
+      <c r="L73" s="269" t="s">
+        <v>403</v>
+      </c>
+      <c r="M73" s="271"/>
+      <c r="N73" s="265" t="s">
         <v>280</v>
       </c>
-      <c r="O73" s="166"/>
-      <c r="P73" s="166"/>
-      <c r="Q73" s="166"/>
+      <c r="O73" s="265"/>
+      <c r="P73" s="265"/>
+      <c r="Q73" s="265"/>
       <c r="R73" s="77">
         <f>S19+S20</f>
         <v>27751.54031372827</v>
       </c>
     </row>
     <row r="74" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L74" s="167" t="s">
-        <v>481</v>
-      </c>
-      <c r="M74" s="168"/>
-      <c r="N74" s="160" t="s">
+      <c r="L74" s="266" t="s">
+        <v>479</v>
+      </c>
+      <c r="M74" s="267"/>
+      <c r="N74" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="O74" s="160"/>
-      <c r="P74" s="160"/>
-      <c r="Q74" s="160"/>
+      <c r="O74" s="225"/>
+      <c r="P74" s="225"/>
+      <c r="Q74" s="225"/>
       <c r="R74" s="78">
         <f>R73/(M21*C7*C8)+J42</f>
         <v>36.693292378345866</v>
@@ -8744,150 +8746,150 @@
     </row>
     <row r="75" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L75" s="35" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M75" s="36">
         <f>'Laser cutter'!J14</f>
         <v>0.71739130434782605</v>
       </c>
-      <c r="N75" s="160" t="s">
+      <c r="N75" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="O75" s="160"/>
-      <c r="P75" s="160"/>
-      <c r="Q75" s="160"/>
+      <c r="O75" s="225"/>
+      <c r="P75" s="225"/>
+      <c r="Q75" s="225"/>
       <c r="R75" s="78">
         <f>R74+Q21+Q22</f>
         <v>42.235892378345866</v>
       </c>
     </row>
     <row r="76" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L76" s="167"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="160"/>
-      <c r="O76" s="160"/>
-      <c r="P76" s="160"/>
-      <c r="Q76" s="160"/>
+      <c r="L76" s="266"/>
+      <c r="M76" s="267"/>
+      <c r="N76" s="225"/>
+      <c r="O76" s="225"/>
+      <c r="P76" s="225"/>
+      <c r="Q76" s="225"/>
       <c r="R76" s="79"/>
     </row>
     <row r="77" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L77" s="167"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="160" t="s">
-        <v>406</v>
-      </c>
-      <c r="O77" s="160"/>
-      <c r="P77" s="160"/>
-      <c r="Q77" s="160"/>
+      <c r="L77" s="266"/>
+      <c r="M77" s="267"/>
+      <c r="N77" s="225" t="s">
+        <v>404</v>
+      </c>
+      <c r="O77" s="225"/>
+      <c r="P77" s="225"/>
+      <c r="Q77" s="225"/>
       <c r="R77" s="80">
         <f>(J43*0.4+R75)*M23/60</f>
-        <v>3.6488185827575608E-4</v>
+        <v>3.6282819077366752E-4</v>
       </c>
     </row>
     <row r="78" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L78" s="167"/>
-      <c r="M78" s="168"/>
-      <c r="N78" s="160" t="s">
-        <v>471</v>
-      </c>
-      <c r="O78" s="160"/>
-      <c r="P78" s="160"/>
-      <c r="Q78" s="160"/>
+      <c r="L78" s="266"/>
+      <c r="M78" s="267"/>
+      <c r="N78" s="225" t="s">
+        <v>469</v>
+      </c>
+      <c r="O78" s="225"/>
+      <c r="P78" s="225"/>
+      <c r="Q78" s="225"/>
       <c r="R78" s="81">
         <f>(J43)*M23/60/R77</f>
-        <v>0.28141540275435051</v>
+        <v>0.26885784740485508</v>
       </c>
     </row>
     <row r="79" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L79" s="167"/>
-      <c r="M79" s="168"/>
-      <c r="N79" s="160"/>
-      <c r="O79" s="160"/>
-      <c r="P79" s="160"/>
-      <c r="Q79" s="160"/>
+      <c r="L79" s="266"/>
+      <c r="M79" s="267"/>
+      <c r="N79" s="225"/>
+      <c r="O79" s="225"/>
+      <c r="P79" s="225"/>
+      <c r="Q79" s="225"/>
       <c r="R79" s="141"/>
     </row>
     <row r="80" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L80" s="167"/>
-      <c r="M80" s="168"/>
-      <c r="N80" s="160" t="s">
-        <v>503</v>
-      </c>
-      <c r="O80" s="160"/>
-      <c r="P80" s="160"/>
-      <c r="Q80" s="160"/>
+      <c r="L80" s="266"/>
+      <c r="M80" s="267"/>
+      <c r="N80" s="225" t="s">
+        <v>501</v>
+      </c>
+      <c r="O80" s="225"/>
+      <c r="P80" s="225"/>
+      <c r="Q80" s="225"/>
       <c r="R80" s="153">
         <f>(J43+J42)*M24/60</f>
-        <v>0.63116286097743768</v>
+        <v>0.61442100634084618</v>
       </c>
     </row>
     <row r="81" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L81" s="167"/>
-      <c r="M81" s="168"/>
-      <c r="N81" s="160" t="s">
-        <v>504</v>
-      </c>
-      <c r="O81" s="160"/>
-      <c r="P81" s="160"/>
-      <c r="Q81" s="160"/>
+      <c r="L81" s="266"/>
+      <c r="M81" s="267"/>
+      <c r="N81" s="225" t="s">
+        <v>502</v>
+      </c>
+      <c r="O81" s="225"/>
+      <c r="P81" s="225"/>
+      <c r="Q81" s="225"/>
       <c r="R81" s="153">
         <f>(J44+J42)*M24/60</f>
-        <v>0.91990032964911672</v>
+        <v>0.88872160157894131</v>
       </c>
     </row>
     <row r="82" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L82" s="167"/>
-      <c r="M82" s="168"/>
-      <c r="N82" s="160" t="s">
-        <v>505</v>
-      </c>
-      <c r="O82" s="160"/>
-      <c r="P82" s="160"/>
-      <c r="Q82" s="160"/>
+      <c r="L82" s="266"/>
+      <c r="M82" s="267"/>
+      <c r="N82" s="225" t="s">
+        <v>503</v>
+      </c>
+      <c r="O82" s="225"/>
+      <c r="P82" s="225"/>
+      <c r="Q82" s="225"/>
       <c r="R82" s="153">
         <f>(J43+J42)*M25/60</f>
-        <v>0.42077524065162503</v>
+        <v>0.40961400422723077</v>
       </c>
     </row>
     <row r="83" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L83" s="167"/>
-      <c r="M83" s="168"/>
-      <c r="N83" s="160" t="s">
-        <v>506</v>
-      </c>
-      <c r="O83" s="160"/>
-      <c r="P83" s="160"/>
-      <c r="Q83" s="160"/>
+      <c r="L83" s="266"/>
+      <c r="M83" s="267"/>
+      <c r="N83" s="225" t="s">
+        <v>504</v>
+      </c>
+      <c r="O83" s="225"/>
+      <c r="P83" s="225"/>
+      <c r="Q83" s="225"/>
       <c r="R83" s="153">
         <f>(J44+J42)*M$25/60</f>
-        <v>0.61326688643274452</v>
+        <v>0.59248106771929421</v>
       </c>
     </row>
     <row r="84" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L84" s="32"/>
       <c r="M84" s="33"/>
-      <c r="N84" s="163" t="s">
+      <c r="N84" s="226" t="s">
         <v>279</v>
       </c>
-      <c r="O84" s="163"/>
-      <c r="P84" s="163"/>
-      <c r="Q84" s="163"/>
+      <c r="O84" s="226"/>
+      <c r="P84" s="226"/>
+      <c r="Q84" s="226"/>
       <c r="R84" s="82">
         <f>(J43+R74)*(M26+M22)/60</f>
-        <v>10.852134818984128</v>
+        <v>10.707038745467001</v>
       </c>
     </row>
     <row r="85" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L85" s="161" t="s">
+      <c r="L85" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="M85" s="162"/>
-      <c r="N85" s="211" t="s">
+      <c r="M85" s="275"/>
+      <c r="N85" s="228" t="s">
         <v>280</v>
       </c>
-      <c r="O85" s="211"/>
-      <c r="P85" s="211"/>
-      <c r="Q85" s="211"/>
+      <c r="O85" s="228"/>
+      <c r="P85" s="228"/>
+      <c r="Q85" s="228"/>
       <c r="R85" s="155">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
@@ -8896,12 +8898,12 @@
     <row r="86" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L86" s="44"/>
       <c r="M86" s="45"/>
-      <c r="N86" s="160" t="s">
+      <c r="N86" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="O86" s="160"/>
-      <c r="P86" s="160"/>
-      <c r="Q86" s="160"/>
+      <c r="O86" s="225"/>
+      <c r="P86" s="225"/>
+      <c r="Q86" s="225"/>
       <c r="R86" s="97">
         <f>R85/(M29*C7*C8)+J42</f>
         <v>13.558047960400764</v>
@@ -8911,12 +8913,12 @@
     <row r="87" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L87" s="21"/>
       <c r="M87" s="22"/>
-      <c r="N87" s="160" t="s">
+      <c r="N87" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="O87" s="160"/>
-      <c r="P87" s="160"/>
-      <c r="Q87" s="160"/>
+      <c r="O87" s="225"/>
+      <c r="P87" s="225"/>
+      <c r="Q87" s="225"/>
       <c r="R87" s="97">
         <f>R86+Q33</f>
         <v>13.655922960400764</v>
@@ -8925,60 +8927,60 @@
     <row r="88" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L88" s="21"/>
       <c r="M88" s="22"/>
-      <c r="N88" s="160"/>
-      <c r="O88" s="160"/>
-      <c r="P88" s="160"/>
-      <c r="Q88" s="160"/>
+      <c r="N88" s="225"/>
+      <c r="O88" s="225"/>
+      <c r="P88" s="225"/>
+      <c r="Q88" s="225"/>
       <c r="R88" s="141"/>
     </row>
     <row r="89" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L89" s="21"/>
       <c r="M89" s="22"/>
-      <c r="N89" s="160" t="s">
-        <v>453</v>
-      </c>
-      <c r="O89" s="160"/>
-      <c r="P89" s="160"/>
-      <c r="Q89" s="160"/>
+      <c r="N89" s="225" t="s">
+        <v>451</v>
+      </c>
+      <c r="O89" s="225"/>
+      <c r="P89" s="225"/>
+      <c r="Q89" s="225"/>
       <c r="R89" s="61">
         <f>Q34+Q36+(R87+J45)*M30/60</f>
-        <v>119.9587320090872</v>
+        <v>116.28085496788751</v>
       </c>
     </row>
     <row r="90" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L90" s="21"/>
       <c r="M90" s="22"/>
-      <c r="N90" s="160" t="s">
-        <v>454</v>
-      </c>
-      <c r="O90" s="160"/>
-      <c r="P90" s="160"/>
-      <c r="Q90" s="160"/>
+      <c r="N90" s="225" t="s">
+        <v>452</v>
+      </c>
+      <c r="O90" s="225"/>
+      <c r="P90" s="225"/>
+      <c r="Q90" s="225"/>
       <c r="R90" s="97">
         <f>Q35+Q36+(R87+J45)*M30/60</f>
-        <v>119.92366995011754</v>
+        <v>116.24579290891785</v>
       </c>
     </row>
     <row r="91" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L91" s="23"/>
       <c r="M91" s="24"/>
-      <c r="N91" s="163"/>
-      <c r="O91" s="163"/>
-      <c r="P91" s="163"/>
-      <c r="Q91" s="163"/>
+      <c r="N91" s="226"/>
+      <c r="O91" s="226"/>
+      <c r="P91" s="226"/>
+      <c r="Q91" s="226"/>
       <c r="R91" s="73"/>
     </row>
     <row r="92" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L92" s="164" t="s">
-        <v>391</v>
-      </c>
-      <c r="M92" s="165"/>
-      <c r="N92" s="166" t="s">
+      <c r="L92" s="246" t="s">
+        <v>389</v>
+      </c>
+      <c r="M92" s="276"/>
+      <c r="N92" s="265" t="s">
         <v>280</v>
       </c>
-      <c r="O92" s="166"/>
-      <c r="P92" s="166"/>
-      <c r="Q92" s="166"/>
+      <c r="O92" s="265"/>
+      <c r="P92" s="265"/>
+      <c r="Q92" s="265"/>
       <c r="R92" s="77">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
@@ -8987,12 +8989,12 @@
     <row r="93" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L93" s="42"/>
       <c r="M93" s="43"/>
-      <c r="N93" s="160" t="s">
+      <c r="N93" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="O93" s="160"/>
-      <c r="P93" s="160"/>
-      <c r="Q93" s="160"/>
+      <c r="O93" s="225"/>
+      <c r="P93" s="225"/>
+      <c r="Q93" s="225"/>
       <c r="R93" s="78">
         <f>R92/(M39*C7*C8)+J42</f>
         <v>18.652700358441319</v>
@@ -9001,12 +9003,12 @@
     <row r="94" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L94" s="17"/>
       <c r="M94" s="18"/>
-      <c r="N94" s="160" t="s">
+      <c r="N94" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="O94" s="160"/>
-      <c r="P94" s="160"/>
-      <c r="Q94" s="160"/>
+      <c r="O94" s="225"/>
+      <c r="P94" s="225"/>
+      <c r="Q94" s="225"/>
       <c r="R94" s="78">
         <f>R93+Q42+Q41</f>
         <v>29.028540358441319</v>
@@ -9015,53 +9017,102 @@
     <row r="95" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L95" s="17"/>
       <c r="M95" s="18"/>
-      <c r="N95" s="160"/>
-      <c r="O95" s="160"/>
-      <c r="P95" s="160"/>
-      <c r="Q95" s="160"/>
+      <c r="N95" s="225"/>
+      <c r="O95" s="225"/>
+      <c r="P95" s="225"/>
+      <c r="Q95" s="225"/>
       <c r="R95" s="79"/>
     </row>
     <row r="96" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L96" s="17"/>
       <c r="M96" s="18"/>
-      <c r="N96" s="160" t="s">
+      <c r="N96" s="225" t="s">
         <v>267</v>
       </c>
-      <c r="O96" s="160"/>
-      <c r="P96" s="160"/>
-      <c r="Q96" s="160"/>
+      <c r="O96" s="225"/>
+      <c r="P96" s="225"/>
+      <c r="Q96" s="225"/>
       <c r="R96" s="80">
         <f>(J43+R94)*M41/60</f>
-        <v>2.1211012033857249E-4</v>
+        <v>2.0876174941125418E-4</v>
       </c>
     </row>
     <row r="97" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L97" s="19"/>
       <c r="M97" s="20"/>
-      <c r="N97" s="163" t="s">
+      <c r="N97" s="226" t="s">
         <v>279</v>
       </c>
-      <c r="O97" s="163"/>
-      <c r="P97" s="163"/>
-      <c r="Q97" s="163"/>
+      <c r="O97" s="226"/>
+      <c r="P97" s="226"/>
+      <c r="Q97" s="226"/>
       <c r="R97" s="82">
         <f>(J43+R93)*(M40+M42)/60</f>
-        <v>8.0115460169286248</v>
+        <v>7.8441274705627109</v>
       </c>
     </row>
     <row r="118" ht="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="N95:Q95"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
     <mergeCell ref="N48:Q48"/>
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="N58:Q58"/>
@@ -9078,69 +9129,20 @@
     <mergeCell ref="N85:Q85"/>
     <mergeCell ref="N86:Q86"/>
     <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N81:Q81"/>
     <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N56:Q56"/>
     <mergeCell ref="N66:Q66"/>
     <mergeCell ref="N67:Q67"/>
     <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="N93:Q93"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N87:Q87"/>
-    <mergeCell ref="N88:Q88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9154,13 +9156,14 @@
   </sheetPr>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -9198,10 +9201,10 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E4">
         <v>208995</v>
@@ -9214,27 +9217,27 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>393</v>
+      </c>
+      <c r="R4" t="s">
+        <v>395</v>
+      </c>
+      <c r="S4" t="s">
         <v>396</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>395</v>
-      </c>
-      <c r="R4" t="s">
-        <v>397</v>
-      </c>
-      <c r="S4" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" t="s">
         <v>400</v>
       </c>
-      <c r="B5" t="s">
-        <v>402</v>
-      </c>
       <c r="C5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F5">
         <v>126.82</v>
@@ -9244,10 +9247,10 @@
         <v>101.456</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P5">
         <v>76.5</v>
@@ -9266,7 +9269,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R6">
         <v>10.6</v>
@@ -9292,24 +9295,24 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" t="s">
         <v>338</v>
-      </c>
-      <c r="C9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C10">
         <v>780</v>
@@ -9328,7 +9331,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C11">
         <v>230</v>
@@ -9347,7 +9350,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C12">
         <v>125</v>
@@ -9364,15 +9367,15 @@
         <v>3.1496062992125983E-4</v>
       </c>
       <c r="I12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C13">
         <v>86</v>
@@ -9397,7 +9400,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -9414,7 +9417,7 @@
         <v>5.3202809108320926E-4</v>
       </c>
       <c r="I14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J14" s="34">
         <f>J13/I13</f>
@@ -9423,7 +9426,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C15">
         <v>59</v>
@@ -9442,7 +9445,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -9461,7 +9464,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -9480,7 +9483,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -9499,10 +9502,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C19">
         <v>780</v>
@@ -9521,7 +9524,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C20">
         <v>216</v>
@@ -9540,7 +9543,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -9559,7 +9562,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C22">
         <v>47</v>
@@ -9578,7 +9581,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -9597,10 +9600,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C24">
         <v>300</v>
@@ -9619,7 +9622,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C25">
         <v>120</v>
@@ -9638,7 +9641,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -9786,7 +9789,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25" t="s">
@@ -9795,29 +9798,29 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B13" s="27">
         <v>200</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B14" s="26">
         <v>18</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B15" s="28">
         <f>B14*5/228</f>
@@ -9827,7 +9830,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B16" s="26">
         <v>5.5</v>
@@ -9836,7 +9839,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B17" s="29">
         <f>B15*B13/B16</f>
@@ -9847,7 +9850,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
@@ -9856,29 +9859,29 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B20" s="26">
         <v>12.8</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B21" s="26">
         <v>11</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B22" s="26">
         <f>PI()*0.04*0.04*100*7.8</f>
@@ -9888,7 +9891,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B23" s="27">
         <f>B20*B22/1000</f>
@@ -9898,7 +9901,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25" t="s">
@@ -9907,29 +9910,29 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B26" s="26">
         <v>10.050000000000001</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B28" s="26">
         <f>PI()*0.1*0.1*100*2.7</f>
@@ -9939,7 +9942,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B29" s="27">
         <f>B26*B28/1000</f>
@@ -9952,7 +9955,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="25" t="s">
@@ -9961,33 +9964,33 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B32" s="31">
         <f>30/(2*PI()*0.034)</f>
         <v>140.43083213990764</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B33" s="29">
         <f>'Manpower &amp; time'!H9/60</f>
-        <v>0.41571637426900576</v>
+        <v>0.39493055555555556</v>
       </c>
       <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B34" s="29">
         <f>B33*B32</f>
-        <v>58.37939637278177</v>
+        <v>55.460426554142693</v>
       </c>
       <c r="C34" s="26"/>
     </row>
@@ -10011,7 +10014,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10022,36 +10025,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="231" t="s">
-        <v>460</v>
-      </c>
-      <c r="C1" s="220" t="s">
+      <c r="B1" s="178" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1" s="168" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="217" t="s">
-        <v>458</v>
-      </c>
-      <c r="B2" s="222">
+      <c r="A2" s="165" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" s="169">
         <v>15000</v>
       </c>
-      <c r="C2" s="218" t="s">
-        <v>456</v>
+      <c r="C2" s="166" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="215" t="s">
-        <v>459</v>
+      <c r="A3" s="163" t="s">
+        <v>457</v>
       </c>
       <c r="B3" s="152">
         <v>10000</v>
       </c>
-      <c r="C3" s="216" t="s">
-        <v>457</v>
+      <c r="C3" s="164" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -10092,7 +10095,7 @@
         <v>5</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -10153,7 +10156,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -10162,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -10685,7 +10688,7 @@
         <v>272</v>
       </c>
       <c r="U15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -10709,16 +10712,16 @@
         <v>3</v>
       </c>
       <c r="S16" t="s">
+        <v>488</v>
+      </c>
+      <c r="T16" t="s">
+        <v>489</v>
+      </c>
+      <c r="U16" t="s">
         <v>490</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>491</v>
-      </c>
-      <c r="U16" t="s">
-        <v>492</v>
-      </c>
-      <c r="V16" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -10940,7 +10943,7 @@
         <v>6060</v>
       </c>
       <c r="T23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -11051,30 +11054,30 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s">
         <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H31" t="s">
         <v>272</v>
       </c>
       <c r="N31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O31" t="s">
         <v>272</v>
@@ -11115,7 +11118,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -11383,15 +11386,15 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -11431,33 +11434,33 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G48" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s">
         <v>76</v>
       </c>
       <c r="C49" t="s">
+        <v>430</v>
+      </c>
+      <c r="D49" t="s">
+        <v>494</v>
+      </c>
+      <c r="G49" t="s">
+        <v>429</v>
+      </c>
+      <c r="H49" t="s">
+        <v>431</v>
+      </c>
+      <c r="I49" t="s">
         <v>432</v>
-      </c>
-      <c r="D49" t="s">
-        <v>496</v>
-      </c>
-      <c r="G49" t="s">
-        <v>431</v>
-      </c>
-      <c r="H49" t="s">
-        <v>433</v>
-      </c>
-      <c r="I49" t="s">
-        <v>434</v>
       </c>
       <c r="J49" t="s">
         <v>3</v>
@@ -11465,7 +11468,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B50" s="2">
         <v>86.4</v>
@@ -11479,7 +11482,7 @@
         <v>1.9072847682119207E-5</v>
       </c>
       <c r="G50" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H50" s="9">
         <v>1.1000000000000001</v>
@@ -11495,7 +11498,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B51" s="2">
         <v>60</v>
@@ -11509,7 +11512,7 @@
         <v>1.5915494309189534E-5</v>
       </c>
       <c r="G51" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H51" s="9">
         <v>2.5</v>
@@ -11525,7 +11528,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B52" s="2">
         <v>28.32</v>
@@ -11539,7 +11542,7 @@
         <v>9.8117398386121925E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H52" s="9">
         <v>2.5</v>
@@ -11555,7 +11558,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B53" s="2">
         <v>35.4</v>
@@ -11569,7 +11572,7 @@
         <v>9.8333333333333329E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H53" s="9">
         <v>18</v>
@@ -11585,7 +11588,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B54" s="2">
         <v>81.599999999999994</v>
@@ -11601,7 +11604,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B55" s="2">
         <v>8</v>
@@ -11618,7 +11621,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B56" s="2">
         <v>50</v>
@@ -11634,7 +11637,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B57" s="2">
         <v>46.2</v>
@@ -11650,7 +11653,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B58" s="2">
         <v>28</v>
@@ -11666,7 +11669,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2">
         <v>35.700000000000003</v>
@@ -11682,7 +11685,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2">
         <v>13</v>
@@ -11699,7 +11702,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D61" s="1">
         <f>AVERAGE(D51,D50)</f>
@@ -11717,7 +11720,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11731,7 +11734,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -11765,7 +11768,7 @@
         <v>1.605E-5</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -11856,8 +11859,8 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11880,112 +11883,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="290" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="268" t="s">
+      <c r="C1" s="277" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="269"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="278"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="241"/>
-      <c r="B2" s="212" t="s">
+      <c r="A2" s="291"/>
+      <c r="B2" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="270" t="s">
+      <c r="C2" s="279" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="264"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="280"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="241"/>
-      <c r="B3" s="213" t="s">
+      <c r="A3" s="291"/>
+      <c r="B3" s="161" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="267" t="s">
+      <c r="C3" s="281" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="265"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="281"/>
+      <c r="F3" s="282"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="242"/>
-      <c r="B4" s="215" t="s">
+      <c r="A4" s="292"/>
+      <c r="B4" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="271" t="s">
+      <c r="C4" s="283" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="266"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="283"/>
+      <c r="F4" s="284"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="236" t="s">
-        <v>312</v>
-      </c>
-      <c r="B7" s="219" t="s">
+      <c r="A7" s="293" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="167" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="178" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" s="178" t="s">
         <v>517</v>
       </c>
-      <c r="C7" s="231" t="s">
+      <c r="E7" s="178" t="s">
         <v>518</v>
       </c>
-      <c r="D7" s="231" t="s">
-        <v>519</v>
-      </c>
-      <c r="E7" s="231" t="s">
-        <v>520</v>
-      </c>
-      <c r="F7" s="231" t="s">
+      <c r="F7" s="178" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="231" t="s">
-        <v>468</v>
-      </c>
-      <c r="H7" s="220" t="s">
+      <c r="G7" s="178" t="s">
+        <v>466</v>
+      </c>
+      <c r="H7" s="168" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="217" t="s">
+      <c r="A8" s="294"/>
+      <c r="B8" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="222">
+      <c r="C8" s="169">
         <v>1592</v>
       </c>
-      <c r="D8" s="222">
+      <c r="D8" s="169">
         <v>21376</v>
       </c>
-      <c r="E8" s="222">
+      <c r="E8" s="169">
         <f>D8*Summary!$C$10</f>
         <v>20307.2</v>
       </c>
-      <c r="F8" s="223">
+      <c r="F8" s="170">
         <v>4.5</v>
       </c>
-      <c r="G8" s="224">
+      <c r="G8" s="171">
         <f>D8*(1-Summary!$C$10)*F8</f>
         <v>4809.600000000004</v>
       </c>
       <c r="H8" s="155">
-        <f>D8*Summary!$C$10/$C$22</f>
-        <v>13.393483709273182</v>
+        <f>E8*Summary!$C$10/$C$22</f>
+        <v>12.723809523809523</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="237"/>
-      <c r="B9" s="213" t="s">
+      <c r="A9" s="294"/>
+      <c r="B9" s="161" t="s">
         <v>228</v>
       </c>
       <c r="C9" s="27">
@@ -12005,15 +12008,15 @@
         <f>D9*(1-Summary!$C$10)*F9</f>
         <v>1990.4500000000019</v>
       </c>
-      <c r="H9" s="61">
-        <f>D9*Summary!$C$10/$C$22</f>
-        <v>24.942982456140346</v>
+      <c r="H9" s="155">
+        <f>E9*Summary!$C$10/$C$22</f>
+        <v>23.695833333333333</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="237"/>
-      <c r="B10" s="213" t="s">
-        <v>465</v>
+      <c r="A10" s="294"/>
+      <c r="B10" s="161" t="s">
+        <v>463</v>
       </c>
       <c r="C10" s="27">
         <v>3077</v>
@@ -12032,14 +12035,14 @@
         <f>D10*(1-Summary!$C$10)*F10</f>
         <v>2507.9500000000021</v>
       </c>
-      <c r="H10" s="61">
-        <f>D10*Summary!$C$10/$C$22</f>
-        <v>31.427944862155385</v>
+      <c r="H10" s="155">
+        <f>E10*Summary!$C$10/$C$22</f>
+        <v>29.85654761904761</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="238"/>
-      <c r="B11" s="215" t="s">
+      <c r="A11" s="295"/>
+      <c r="B11" s="163" t="s">
         <v>229</v>
       </c>
       <c r="C11" s="152">
@@ -12048,60 +12051,60 @@
       <c r="D11" s="152">
         <v>69843</v>
       </c>
-      <c r="E11" s="232">
+      <c r="E11" s="179">
         <f>D11*Summary!$C$10</f>
         <v>66350.849999999991</v>
       </c>
-      <c r="F11" s="233">
+      <c r="F11" s="180">
         <v>0.6</v>
       </c>
-      <c r="G11" s="234">
+      <c r="G11" s="181">
         <f>D11*(1-Summary!$C$10)*F11</f>
         <v>2095.2900000000018</v>
       </c>
-      <c r="H11" s="221">
-        <f>D11*Summary!$C$10/$C$22</f>
-        <v>43.761278195488714</v>
+      <c r="H11" s="155">
+        <f>E11*Summary!$C$10/$C$22</f>
+        <v>41.573214285714279</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="219" t="s">
+      <c r="E12" s="167" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="228">
+      <c r="F12" s="175">
         <f>SUM(F11+F9+F8)</f>
         <v>6.1</v>
       </c>
-      <c r="G12" s="235">
+      <c r="G12" s="182">
         <f>G11+G9+G8+G10</f>
         <v>11403.29000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="240"/>
+      <c r="A14" s="183"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="245" t="s">
-        <v>521</v>
-      </c>
-      <c r="B15" s="219" t="s">
+      <c r="A15" s="285" t="s">
+        <v>519</v>
+      </c>
+      <c r="B15" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="168" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="246"/>
-      <c r="B16" s="248" t="s">
+      <c r="A16" s="286"/>
+      <c r="B16" s="186" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="249">
+      <c r="C16" s="187">
         <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="246"/>
+      <c r="A17" s="286"/>
       <c r="B17" s="101" t="s">
         <v>147</v>
       </c>
@@ -12110,7 +12113,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="246"/>
+      <c r="A18" s="286"/>
       <c r="B18" s="101" t="s">
         <v>148</v>
       </c>
@@ -12119,7 +12122,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="246"/>
+      <c r="A19" s="286"/>
       <c r="B19" s="101" t="s">
         <v>149</v>
       </c>
@@ -12128,7 +12131,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="246"/>
+      <c r="A20" s="286"/>
       <c r="B20" s="101" t="s">
         <v>150</v>
       </c>
@@ -12138,7 +12141,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="246"/>
+      <c r="A21" s="286"/>
       <c r="B21" s="101" t="s">
         <v>151</v>
       </c>
@@ -12148,9 +12151,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="247"/>
+      <c r="A22" s="287"/>
       <c r="B22" s="102" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C22" s="73">
         <f>Summary!$C$10*Summary!$C$8*Summary!$C$7</f>
@@ -12159,79 +12162,79 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="245" t="s">
-        <v>523</v>
-      </c>
-      <c r="B26" s="225"/>
-      <c r="C26" s="231" t="s">
+      <c r="A26" s="285" t="s">
+        <v>521</v>
+      </c>
+      <c r="B26" s="172"/>
+      <c r="C26" s="178" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="231" t="s">
+      <c r="D26" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="E26" s="231" t="s">
-        <v>392</v>
-      </c>
-      <c r="F26" s="231" t="s">
-        <v>393</v>
-      </c>
-      <c r="G26" s="231" t="s">
+      <c r="E26" s="178" t="s">
+        <v>390</v>
+      </c>
+      <c r="F26" s="178" t="s">
         <v>391</v>
       </c>
-      <c r="H26" s="231" t="s">
+      <c r="G26" s="178" t="s">
+        <v>389</v>
+      </c>
+      <c r="H26" s="178" t="s">
         <v>249</v>
       </c>
-      <c r="I26" s="231" t="s">
+      <c r="I26" s="178" t="s">
         <v>250</v>
       </c>
-      <c r="J26" s="231" t="s">
+      <c r="J26" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="257" t="s">
+      <c r="K26" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="258" t="s">
+      <c r="L26" s="196" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="246"/>
-      <c r="B27" s="259" t="s">
+      <c r="A27" s="286"/>
+      <c r="B27" s="197" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="248">
+      <c r="C27" s="186">
         <v>0.85</v>
       </c>
-      <c r="D27" s="223">
+      <c r="D27" s="170">
         <v>0.85</v>
       </c>
-      <c r="E27" s="223">
+      <c r="E27" s="170">
         <v>0.3</v>
       </c>
-      <c r="F27" s="223">
+      <c r="F27" s="170">
         <v>0.85</v>
       </c>
-      <c r="G27" s="223">
+      <c r="G27" s="170">
         <v>0.47</v>
       </c>
-      <c r="H27" s="223"/>
-      <c r="I27" s="223">
+      <c r="H27" s="170"/>
+      <c r="I27" s="170">
         <v>0.65</v>
       </c>
-      <c r="J27" s="223">
+      <c r="J27" s="170">
         <v>0.41</v>
       </c>
-      <c r="K27" s="255">
+      <c r="K27" s="193">
         <v>0.12</v>
       </c>
-      <c r="L27" s="256">
+      <c r="L27" s="194">
         <f>SUM(C27:K27)</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="246"/>
-      <c r="B28" s="260" t="s">
+      <c r="A28" s="286"/>
+      <c r="B28" s="198" t="s">
         <v>228</v>
       </c>
       <c r="C28" s="101"/>
@@ -12246,16 +12249,16 @@
       <c r="J28" s="26">
         <v>0.5</v>
       </c>
-      <c r="K28" s="251"/>
-      <c r="L28" s="253">
+      <c r="K28" s="189"/>
+      <c r="L28" s="191">
         <f t="shared" ref="L28:L31" si="0">SUM(C28:K28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="246"/>
-      <c r="B29" s="260" t="s">
-        <v>464</v>
+      <c r="A29" s="286"/>
+      <c r="B29" s="198" t="s">
+        <v>462</v>
       </c>
       <c r="C29" s="101"/>
       <c r="D29" s="26"/>
@@ -12269,17 +12272,17 @@
       <c r="J29" s="26">
         <v>0.05</v>
       </c>
-      <c r="K29" s="251">
+      <c r="K29" s="189">
         <v>0.1</v>
       </c>
-      <c r="L29" s="253">
+      <c r="L29" s="191">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="246"/>
-      <c r="B30" s="260" t="s">
+      <c r="A30" s="286"/>
+      <c r="B30" s="198" t="s">
         <v>229</v>
       </c>
       <c r="C30" s="101"/>
@@ -12294,64 +12297,64 @@
       <c r="J30" s="26">
         <v>0.15</v>
       </c>
-      <c r="K30" s="251">
+      <c r="K30" s="189">
         <v>0.1</v>
       </c>
-      <c r="L30" s="253">
+      <c r="L30" s="191">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="246"/>
-      <c r="B31" s="260" t="s">
-        <v>524</v>
+      <c r="A31" s="286"/>
+      <c r="B31" s="198" t="s">
+        <v>522</v>
       </c>
       <c r="C31" s="101">
-        <f>$C$22*SUM(C27:C30)</f>
+        <f t="shared" ref="C31:K31" si="1">$C$22*SUM(C27:C30)</f>
         <v>1288.77</v>
       </c>
       <c r="D31" s="26">
-        <f>$C$22*SUM(D27:D30)</f>
+        <f t="shared" si="1"/>
         <v>1288.77</v>
       </c>
       <c r="E31" s="26">
-        <f>$C$22*SUM(E27:E30)</f>
+        <f t="shared" si="1"/>
         <v>454.86</v>
       </c>
       <c r="F31" s="26">
-        <f>$C$22*SUM(F27:F30)</f>
+        <f t="shared" si="1"/>
         <v>1288.77</v>
       </c>
       <c r="G31" s="26">
-        <f>$C$22*SUM(G27:G30)</f>
+        <f t="shared" si="1"/>
         <v>712.61400000000003</v>
       </c>
       <c r="H31" s="26">
-        <f>$C$22*SUM(H27:H30)</f>
+        <f t="shared" si="1"/>
         <v>1288.77</v>
       </c>
       <c r="I31" s="26">
-        <f>$C$22*SUM(I27:I30)</f>
+        <f t="shared" si="1"/>
         <v>2274.3000000000002</v>
       </c>
       <c r="J31" s="26">
-        <f>$C$22*SUM(J27:J30)</f>
+        <f t="shared" si="1"/>
         <v>1682.982</v>
       </c>
-      <c r="K31" s="251">
-        <f>$C$22*SUM(K27:K30)</f>
+      <c r="K31" s="189">
+        <f t="shared" si="1"/>
         <v>485.18400000000003</v>
       </c>
-      <c r="L31" s="253">
+      <c r="L31" s="191">
         <f t="shared" si="0"/>
         <v>10765.019999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="246"/>
-      <c r="B32" s="260" t="s">
-        <v>525</v>
+      <c r="A32" s="286"/>
+      <c r="B32" s="198" t="s">
+        <v>523</v>
       </c>
       <c r="C32" s="101">
         <f>Summary!$C$9*Summary!$C$8*Summary!$C$7</f>
@@ -12385,21 +12388,21 @@
         <f>2*0.4*C32+E32*0.6</f>
         <v>1691.7600000000002</v>
       </c>
-      <c r="K32" s="251">
+      <c r="K32" s="189">
         <f>0.06*Summary!C7*Summary!C8*5</f>
         <v>478.8</v>
       </c>
-      <c r="L32" s="253">
+      <c r="L32" s="191">
         <f>SUM(C32:K32)-E32+E33</f>
         <v>10709.159999999998</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="247"/>
-      <c r="B33" s="261"/>
+      <c r="A33" s="287"/>
+      <c r="B33" s="199"/>
       <c r="C33" s="102"/>
       <c r="D33" s="62" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E33" s="62">
         <f>E32*0.4</f>
@@ -12410,59 +12413,59 @@
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
       <c r="J33" s="62"/>
-      <c r="K33" s="252"/>
-      <c r="L33" s="254"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="192"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="245" t="s">
-        <v>522</v>
-      </c>
-      <c r="B36" s="202" t="s">
+      <c r="A36" s="285" t="s">
+        <v>520</v>
+      </c>
+      <c r="B36" s="245" t="s">
         <v>257</v>
       </c>
-      <c r="C36" s="262">
+      <c r="C36" s="288">
         <f>SUMPRODUCT(E8:E11*K27:K30)</f>
         <v>13837.053999999998</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="247"/>
-      <c r="B37" s="186"/>
-      <c r="C37" s="263"/>
+      <c r="A37" s="287"/>
+      <c r="B37" s="243"/>
+      <c r="C37" s="289"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="250"/>
+      <c r="A38" s="188"/>
       <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="250"/>
+      <c r="A39" s="188"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="250"/>
+      <c r="A40" s="188"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="250"/>
+      <c r="A41" s="188"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="250"/>
+      <c r="A42" s="188"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="250"/>
+      <c r="A43" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A26:A33"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A26:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -12482,7 +12485,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12492,105 +12495,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="296" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="286"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="298"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="280" t="s">
-        <v>529</v>
-      </c>
-      <c r="B2" s="278" t="s">
+      <c r="A2" s="302" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2" s="306" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="274"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="308"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="281"/>
-      <c r="B3" s="279" t="s">
+      <c r="A3" s="303"/>
+      <c r="B3" s="309" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="272"/>
-      <c r="D3" s="275"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="311"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="281"/>
-      <c r="B4" s="279" t="s">
+      <c r="A4" s="303"/>
+      <c r="B4" s="309" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="275"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="311"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="282" t="s">
-        <v>532</v>
-      </c>
-      <c r="B5" s="176">
+      <c r="A5" s="200" t="s">
+        <v>530</v>
+      </c>
+      <c r="B5" s="249">
         <v>38.64</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="276"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="304"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="282" t="s">
-        <v>530</v>
-      </c>
-      <c r="B6" s="176">
+      <c r="A6" s="200" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" s="249">
         <f>(24*2 + 7.5)*0.8+16+14</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="276"/>
+      <c r="C6" s="250"/>
+      <c r="D6" s="304"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="282" t="s">
-        <v>531</v>
-      </c>
-      <c r="B7" s="176">
+      <c r="A7" s="200" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" s="249">
         <f>B6*B5</f>
         <v>2874.8160000000003</v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="276"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="304"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="283" t="s">
-        <v>533</v>
-      </c>
-      <c r="B8" s="186">
+      <c r="A8" s="201" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="243">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="277"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="305"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="287" t="s">
-        <v>528</v>
-      </c>
-      <c r="B10" s="288"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="289"/>
+      <c r="A10" s="299" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" s="300"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="301"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="217"/>
-      <c r="B11" s="223" t="s">
-        <v>526</v>
-      </c>
-      <c r="C11" s="223" t="s">
-        <v>527</v>
-      </c>
-      <c r="D11" s="249" t="s">
+      <c r="A11" s="165"/>
+      <c r="B11" s="170" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="170" t="s">
+        <v>525</v>
+      </c>
+      <c r="D11" s="187" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="290" t="s">
-        <v>534</v>
+      <c r="A12" s="202" t="s">
+        <v>532</v>
       </c>
       <c r="B12" s="152">
         <v>2.77</v>
@@ -12599,8 +12602,8 @@
         <f>B12*(1-Summary!C15)</f>
         <v>2.2160000000000002</v>
       </c>
-      <c r="D12" s="216" t="s">
-        <v>407</v>
+      <c r="D12" s="164" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -12633,8 +12636,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12647,328 +12650,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="297" t="s">
+      <c r="B1" s="209" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="231" t="s">
-        <v>536</v>
-      </c>
-      <c r="D1" s="231" t="s">
+      <c r="C1" s="178" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" s="178" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="178" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="231" t="s">
-        <v>537</v>
-      </c>
-      <c r="F1" s="220" t="s">
+      <c r="F1" s="168" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="294">
+      <c r="C2" s="170"/>
+      <c r="D2" s="206">
         <v>149</v>
       </c>
-      <c r="E2" s="295">
+      <c r="E2" s="207">
         <f>D2*(1-Summary!$C$15)</f>
         <v>119.2</v>
       </c>
-      <c r="F2" s="304" t="s">
+      <c r="F2" s="213" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="211" t="s">
         <v>112</v>
       </c>
       <c r="B3" s="101">
         <v>0.01</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="291">
+      <c r="D3" s="203">
         <v>129</v>
       </c>
       <c r="E3" s="83">
         <f>D3*(1-Summary!$C$15)</f>
         <v>103.2</v>
       </c>
-      <c r="F3" s="306" t="s">
+      <c r="F3" s="215" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="299" t="s">
+      <c r="A4" s="211" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="101">
         <v>0.01</v>
       </c>
       <c r="C4" s="26"/>
-      <c r="D4" s="291">
+      <c r="D4" s="203">
         <v>60</v>
       </c>
       <c r="E4" s="83">
         <f>D4*(1-Summary!$C$15)</f>
         <v>48</v>
       </c>
-      <c r="F4" s="306" t="s">
+      <c r="F4" s="215" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="299"/>
+      <c r="A5" s="211"/>
       <c r="B5" s="101"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="83"/>
-      <c r="F5" s="305"/>
+      <c r="F5" s="214"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="299" t="s">
+      <c r="A6" s="211" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="101"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="291">
+      <c r="D6" s="203">
         <v>392</v>
       </c>
       <c r="E6" s="83">
         <f>D6*(1-Summary!$C$15)</f>
         <v>313.60000000000002</v>
       </c>
-      <c r="F6" s="306" t="s">
+      <c r="F6" s="215" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="299" t="s">
+      <c r="A7" s="211" t="s">
         <v>120</v>
       </c>
       <c r="B7" s="101"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="291">
+      <c r="D7" s="203">
         <v>167</v>
       </c>
       <c r="E7" s="83">
         <f>D7*(1-Summary!$C$15)</f>
         <v>133.6</v>
       </c>
-      <c r="F7" s="306" t="s">
+      <c r="F7" s="215" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="299" t="s">
+      <c r="A8" s="211" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="101"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="291">
+      <c r="D8" s="203">
         <v>94</v>
       </c>
       <c r="E8" s="83">
         <f>D8*(1-Summary!$C$15)</f>
         <v>75.2</v>
       </c>
-      <c r="F8" s="306" t="s">
+      <c r="F8" s="215" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="299"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="101"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="83"/>
-      <c r="F9" s="305"/>
+      <c r="F9" s="214"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="299" t="s">
+      <c r="A10" s="211" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="101"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="291">
+      <c r="D10" s="203">
         <v>282</v>
       </c>
       <c r="E10" s="83">
         <f>D10*(1-Summary!$C$15)</f>
         <v>225.60000000000002</v>
       </c>
-      <c r="F10" s="306" t="s">
+      <c r="F10" s="215" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="299" t="s">
+      <c r="A11" s="211" t="s">
         <v>124</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="291">
+      <c r="D11" s="203">
         <v>408</v>
       </c>
       <c r="E11" s="83">
         <f>D11*(1-Summary!$C$15)</f>
         <v>326.40000000000003</v>
       </c>
-      <c r="F11" s="305"/>
+      <c r="F11" s="214"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="299" t="s">
+      <c r="A12" s="211" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="101"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="291">
+      <c r="D12" s="203">
         <v>3322</v>
       </c>
       <c r="E12" s="83">
         <f>D12*(1-Summary!$C$15)</f>
         <v>2657.6000000000004</v>
       </c>
-      <c r="F12" s="306" t="s">
+      <c r="F12" s="215" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="299"/>
+      <c r="A13" s="211"/>
       <c r="B13" s="101"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="83"/>
-      <c r="F13" s="305"/>
+      <c r="F13" s="214"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="300" t="s">
+      <c r="A14" s="312" t="s">
         <v>126</v>
       </c>
       <c r="B14" s="101" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="26"/>
-      <c r="D14" s="291">
+      <c r="D14" s="203">
         <v>1390</v>
       </c>
       <c r="E14" s="83">
         <f>D14*(1-Summary!$C$15)</f>
         <v>1112</v>
       </c>
-      <c r="F14" s="306" t="s">
+      <c r="F14" s="215" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="301"/>
+      <c r="A15" s="313"/>
       <c r="B15" s="101" t="s">
         <v>130</v>
       </c>
       <c r="C15" s="26"/>
-      <c r="D15" s="291">
+      <c r="D15" s="203">
         <v>1202</v>
       </c>
       <c r="E15" s="83">
         <f>D15*(1-Summary!$C$15)</f>
         <v>961.6</v>
       </c>
-      <c r="F15" s="306" t="s">
+      <c r="F15" s="215" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="301"/>
+      <c r="A16" s="313"/>
       <c r="B16" s="101" t="s">
         <v>132</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="291">
+      <c r="D16" s="203">
         <v>146</v>
       </c>
       <c r="E16" s="83">
         <f>D16*(1-Summary!$C$15)</f>
         <v>116.80000000000001</v>
       </c>
-      <c r="F16" s="306" t="s">
+      <c r="F16" s="215" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="302"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="101" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="291">
+      <c r="D17" s="203">
         <v>162</v>
       </c>
       <c r="E17" s="83">
         <f>D17*(1-Summary!$C$15)</f>
         <v>129.6</v>
       </c>
-      <c r="F17" s="306" t="s">
+      <c r="F17" s="215" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="300" t="s">
+      <c r="A18" s="312" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="101" t="s">
         <v>136</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="291">
+      <c r="D18" s="203">
         <v>1623</v>
       </c>
       <c r="E18" s="83">
         <f>D18*(1-Summary!$C$15)</f>
         <v>1298.4000000000001</v>
       </c>
-      <c r="F18" s="306" t="s">
+      <c r="F18" s="215" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="302"/>
-      <c r="B19" s="293" t="s">
+      <c r="A19" s="314"/>
+      <c r="B19" s="205" t="s">
         <v>195</v>
       </c>
       <c r="C19" s="26"/>
-      <c r="D19" s="291">
+      <c r="D19" s="203">
         <v>675</v>
       </c>
       <c r="E19" s="83">
         <f>D19*(1-Summary!$C$15)</f>
         <v>540</v>
       </c>
-      <c r="F19" s="306" t="s">
+      <c r="F19" s="215" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="299"/>
-      <c r="B20" s="293"/>
+      <c r="A20" s="211"/>
+      <c r="B20" s="205"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="83"/>
-      <c r="F20" s="305"/>
+      <c r="F20" s="214"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="299" t="s">
+      <c r="A21" s="211" t="s">
         <v>137</v>
       </c>
       <c r="B21" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="292">
+      <c r="C21" s="204">
         <v>348</v>
       </c>
       <c r="D21" s="55">
@@ -12979,20 +12982,20 @@
         <f>D21*(1-Summary!$C$15)</f>
         <v>246.45019652278603</v>
       </c>
-      <c r="F21" s="306" t="s">
+      <c r="F21" s="215" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="299"/>
+      <c r="A22" s="211"/>
       <c r="B22" s="101"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="305"/>
+      <c r="F22" s="214"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="299" t="s">
+      <c r="A23" s="211" t="s">
         <v>233</v>
       </c>
       <c r="B23" s="101" t="s">
@@ -13003,20 +13006,20 @@
       <c r="E23" s="27">
         <v>48334.81</v>
       </c>
-      <c r="F23" s="306" t="s">
+      <c r="F23" s="215" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="299"/>
+      <c r="A24" s="211"/>
       <c r="B24" s="101"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="305"/>
+      <c r="F24" s="214"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="303" t="s">
+      <c r="A25" s="212" t="s">
         <v>236</v>
       </c>
       <c r="B25" s="102" t="s">
@@ -13027,7 +13030,7 @@
       <c r="E25" s="152">
         <v>5390</v>
       </c>
-      <c r="F25" s="307" t="s">
+      <c r="F25" s="216" t="s">
         <v>235</v>
       </c>
     </row>
@@ -13067,7 +13070,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13081,36 +13084,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="219" t="s">
-        <v>538</v>
-      </c>
-      <c r="B1" s="229" t="s">
+      <c r="A1" s="167" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="229" t="s">
+      <c r="C1" s="176" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="229" t="s">
-        <v>526</v>
-      </c>
-      <c r="E1" s="229" t="s">
-        <v>527</v>
-      </c>
-      <c r="F1" s="230" t="s">
+      <c r="D1" s="176" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="176" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="177" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="308"/>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
-      <c r="F2" s="309"/>
+      <c r="A2" s="217"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="310" t="s">
-        <v>539</v>
+      <c r="A3" s="315" t="s">
+        <v>537</v>
       </c>
       <c r="B3" s="100" t="s">
         <v>92</v>
@@ -13125,12 +13128,12 @@
         <f>D3*(1-Summary!$C$15)</f>
         <v>398.40000000000003</v>
       </c>
-      <c r="F3" s="243" t="s">
+      <c r="F3" s="184" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="311"/>
+      <c r="A4" s="316"/>
       <c r="B4" s="102" t="s">
         <v>94</v>
       </c>
@@ -13141,18 +13144,18 @@
       <c r="E4" s="152">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F4" s="216" t="s">
+      <c r="F4" s="164" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="244"/>
+      <c r="A5" s="185"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
-        <v>540</v>
+      <c r="A6" s="315" t="s">
+        <v>538</v>
       </c>
       <c r="B6" s="100" t="s">
         <v>155</v>
@@ -13165,12 +13168,12 @@
         <f>D6*(1-Summary!$C$15)</f>
         <v>192.96</v>
       </c>
-      <c r="F6" s="243" t="s">
+      <c r="F6" s="184" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="312"/>
+      <c r="A7" s="317"/>
       <c r="B7" s="101" t="s">
         <v>161</v>
       </c>
@@ -13182,12 +13185,12 @@
         <f>D7*(1-Summary!$C$15)</f>
         <v>40</v>
       </c>
-      <c r="F7" s="214" t="s">
+      <c r="F7" s="162" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="312"/>
+      <c r="A8" s="317"/>
       <c r="B8" s="101" t="s">
         <v>164</v>
       </c>
@@ -13199,12 +13202,12 @@
         <f>D8*(1-Summary!$C$15)</f>
         <v>110.39200000000001</v>
       </c>
-      <c r="F8" s="214" t="s">
+      <c r="F8" s="162" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="312"/>
+      <c r="A9" s="317"/>
       <c r="B9" s="101" t="s">
         <v>185</v>
       </c>
@@ -13213,12 +13216,12 @@
       <c r="E9" s="27">
         <v>23.6</v>
       </c>
-      <c r="F9" s="214" t="s">
+      <c r="F9" s="162" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="311"/>
+      <c r="A10" s="316"/>
       <c r="B10" s="102" t="s">
         <v>187</v>
       </c>
@@ -13227,18 +13230,18 @@
       <c r="E10" s="152">
         <v>39.950000000000003</v>
       </c>
-      <c r="F10" s="216" t="s">
+      <c r="F10" s="164" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="244"/>
+      <c r="A11" s="185"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="310" t="s">
-        <v>541</v>
+      <c r="A12" s="315" t="s">
+        <v>539</v>
       </c>
       <c r="B12" s="100" t="s">
         <v>165</v>
@@ -13251,12 +13254,12 @@
         <f>D12*(1-Summary!$C$15)</f>
         <v>1678.08</v>
       </c>
-      <c r="F12" s="243" t="s">
+      <c r="F12" s="184" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="312"/>
+      <c r="A13" s="317"/>
       <c r="B13" s="101" t="s">
         <v>158</v>
       </c>
@@ -13268,12 +13271,12 @@
         <f>D13*(1-Summary!$C$15)</f>
         <v>1720.08</v>
       </c>
-      <c r="F13" s="214" t="s">
+      <c r="F13" s="162" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="311"/>
+      <c r="A14" s="316"/>
       <c r="B14" s="102" t="s">
         <v>173</v>
       </c>
@@ -13285,18 +13288,18 @@
         <f>D14*(1-Summary!$C$15)</f>
         <v>496.32</v>
       </c>
-      <c r="F14" s="216" t="s">
+      <c r="F14" s="164" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="244"/>
+      <c r="A15" s="185"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="310" t="s">
-        <v>542</v>
+      <c r="A16" s="315" t="s">
+        <v>540</v>
       </c>
       <c r="B16" s="100" t="s">
         <v>160</v>
@@ -13309,12 +13312,12 @@
         <f>D16*(1-Summary!$C$15)</f>
         <v>146.88</v>
       </c>
-      <c r="F16" s="243" t="s">
+      <c r="F16" s="184" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="312"/>
+      <c r="A17" s="317"/>
       <c r="B17" s="101" t="s">
         <v>168</v>
       </c>
@@ -13326,12 +13329,12 @@
         <f>D17*(1-Summary!$C$15)</f>
         <v>43.2</v>
       </c>
-      <c r="F17" s="214" t="s">
+      <c r="F17" s="162" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="312"/>
+      <c r="A18" s="317"/>
       <c r="B18" s="101" t="s">
         <v>169</v>
       </c>
@@ -13343,12 +13346,12 @@
         <f>D18*(1-Summary!$C$15)</f>
         <v>32.64</v>
       </c>
-      <c r="F18" s="214" t="s">
+      <c r="F18" s="162" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="311"/>
+      <c r="A19" s="316"/>
       <c r="B19" s="102" t="s">
         <v>171</v>
       </c>
@@ -13360,37 +13363,37 @@
         <f>D19*(1-Summary!$C$15)</f>
         <v>173.76</v>
       </c>
-      <c r="F19" s="216" t="s">
+      <c r="F19" s="164" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="244"/>
+      <c r="A20" s="185"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="258" t="s">
-        <v>543</v>
-      </c>
-      <c r="B21" s="296" t="s">
+      <c r="A21" s="196" t="s">
+        <v>541</v>
+      </c>
+      <c r="B21" s="208" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="226" t="s">
+      <c r="C21" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="226"/>
-      <c r="E21" s="313">
+      <c r="D21" s="173"/>
+      <c r="E21" s="219">
         <v>102</v>
       </c>
-      <c r="F21" s="227" t="s">
+      <c r="F21" s="174" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="244"/>
+      <c r="A22" s="185"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="310" t="s">
-        <v>544</v>
+      <c r="A23" s="315" t="s">
+        <v>542</v>
       </c>
       <c r="B23" s="100" t="s">
         <v>276</v>
@@ -13400,12 +13403,12 @@
       <c r="E23" s="144">
         <v>96</v>
       </c>
-      <c r="F23" s="243" t="s">
+      <c r="F23" s="184" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="311"/>
+      <c r="A24" s="316"/>
       <c r="B24" s="102" t="s">
         <v>278</v>
       </c>
@@ -13414,7 +13417,7 @@
       <c r="E24" s="152">
         <v>285</v>
       </c>
-      <c r="F24" s="216" t="s">
+      <c r="F24" s="164" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13456,7 +13459,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13467,37 +13470,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="178" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="231" t="s">
-        <v>545</v>
-      </c>
-      <c r="D1" s="231" t="s">
-        <v>546</v>
-      </c>
-      <c r="E1" s="220" t="s">
+      <c r="C1" s="178" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" s="178" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" s="168" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="165" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="222">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="169">
         <v>619</v>
       </c>
-      <c r="E2" s="218" t="s">
+      <c r="E2" s="166" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="161" t="s">
         <v>286</v>
       </c>
       <c r="B3" s="26"/>
@@ -13505,73 +13508,73 @@
       <c r="D3" s="27">
         <v>248</v>
       </c>
-      <c r="E3" s="214" t="s">
+      <c r="E3" s="162" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="213" t="s">
-        <v>287</v>
+      <c r="A4" s="161" t="s">
+        <v>551</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27">
         <v>320</v>
       </c>
-      <c r="E4" s="214" t="s">
+      <c r="E4" s="162" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="213" t="s">
-        <v>288</v>
+      <c r="A5" s="161" t="s">
+        <v>552</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27">
         <v>515</v>
       </c>
-      <c r="E5" s="214" t="s">
+      <c r="E5" s="162" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="213" t="s">
-        <v>289</v>
+      <c r="A6" s="161" t="s">
+        <v>287</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27">
         <v>1125</v>
       </c>
-      <c r="E6" s="214" t="s">
-        <v>290</v>
+      <c r="E6" s="162" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="213" t="s">
-        <v>291</v>
+      <c r="A7" s="161" t="s">
+        <v>289</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27">
         <v>1851</v>
       </c>
-      <c r="E7" s="214" t="s">
-        <v>292</v>
+      <c r="E7" s="162" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="215" t="s">
-        <v>293</v>
+      <c r="A8" s="163" t="s">
+        <v>291</v>
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="152">
         <v>417</v>
       </c>
-      <c r="E8" s="216" t="s">
-        <v>294</v>
+      <c r="E8" s="164" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -13596,7 +13599,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13612,42 +13615,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="231" t="s">
+      <c r="C1" s="178" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="231" t="s">
-        <v>536</v>
-      </c>
-      <c r="E1" s="231" t="s">
-        <v>547</v>
-      </c>
-      <c r="F1" s="231" t="s">
+      <c r="D1" s="178" t="s">
+        <v>534</v>
+      </c>
+      <c r="E1" s="178" t="s">
+        <v>545</v>
+      </c>
+      <c r="F1" s="178" t="s">
+        <v>533</v>
+      </c>
+      <c r="G1" s="178" t="s">
         <v>535</v>
       </c>
-      <c r="G1" s="231" t="s">
-        <v>537</v>
-      </c>
-      <c r="H1" s="220" t="s">
+      <c r="H1" s="168" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="310" t="s">
-        <v>548</v>
+      <c r="A3" s="315" t="s">
+        <v>546</v>
       </c>
       <c r="B3" s="100" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
-      <c r="E3" s="314">
+      <c r="E3" s="220">
         <v>1295</v>
       </c>
       <c r="F3" s="58"/>
@@ -13655,18 +13658,18 @@
         <f>E3/Summary!C14</f>
         <v>1146.3829184518961</v>
       </c>
-      <c r="H3" s="243" t="s">
+      <c r="H3" s="184" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="312"/>
+      <c r="A4" s="317"/>
       <c r="B4" s="101" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="292">
+      <c r="E4" s="204">
         <v>13995</v>
       </c>
       <c r="F4" s="26"/>
@@ -13674,18 +13677,18 @@
         <f>E4/Summary!C14</f>
         <v>12388.902659254276</v>
       </c>
-      <c r="H4" s="214" t="s">
+      <c r="H4" s="162" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="312"/>
+      <c r="A5" s="317"/>
       <c r="B5" s="101" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
-      <c r="E5" s="292">
+      <c r="E5" s="204">
         <v>395</v>
       </c>
       <c r="F5" s="26"/>
@@ -13693,18 +13696,18 @@
         <f>E5/Summary!C14</f>
         <v>349.66892107220002</v>
       </c>
-      <c r="H5" s="214" t="s">
+      <c r="H5" s="162" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="312"/>
+      <c r="A6" s="317"/>
       <c r="B6" s="101" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="292">
+      <c r="E6" s="204">
         <v>3795</v>
       </c>
       <c r="F6" s="26"/>
@@ -13712,65 +13715,65 @@
         <f>E6/Summary!C14</f>
         <v>3359.4773556177188</v>
       </c>
-      <c r="H6" s="214" t="s">
-        <v>356</v>
+      <c r="H6" s="162" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="312"/>
+      <c r="A7" s="317"/>
       <c r="B7" s="101" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
-      <c r="E7" s="292"/>
+      <c r="E7" s="204"/>
       <c r="F7" s="26"/>
       <c r="G7" s="27">
         <v>119</v>
       </c>
-      <c r="H7" s="214" t="s">
-        <v>387</v>
+      <c r="H7" s="162" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="312"/>
+      <c r="A8" s="317"/>
       <c r="B8" s="101" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="292"/>
+      <c r="E8" s="204"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27">
         <v>379</v>
       </c>
-      <c r="H8" s="214" t="s">
-        <v>385</v>
+      <c r="H8" s="162" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="311"/>
+      <c r="A9" s="316"/>
       <c r="B9" s="102" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
-      <c r="E9" s="315"/>
+      <c r="E9" s="221"/>
       <c r="F9" s="62"/>
       <c r="G9" s="152">
         <v>425</v>
       </c>
-      <c r="H9" s="216" t="s">
-        <v>388</v>
+      <c r="H9" s="164" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="244"/>
+      <c r="A10" s="185"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="310" t="s">
-        <v>549</v>
+      <c r="A11" s="315" t="s">
+        <v>547</v>
       </c>
       <c r="B11" s="100" t="s">
         <v>222</v>
@@ -13778,25 +13781,25 @@
       <c r="C11" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="316"/>
+      <c r="D11" s="222"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58"/>
       <c r="G11" s="144">
         <v>1079.0999999999999</v>
       </c>
-      <c r="H11" s="243" t="s">
+      <c r="H11" s="184" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="311"/>
+      <c r="A12" s="316"/>
       <c r="B12" s="102" t="s">
         <v>222</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="317"/>
+      <c r="D12" s="223"/>
       <c r="E12" s="62"/>
       <c r="F12" s="152">
         <v>2041.73</v>
@@ -13805,42 +13808,42 @@
         <f>F12*(1-Summary!C15)</f>
         <v>1633.384</v>
       </c>
-      <c r="H12" s="216" t="s">
+      <c r="H12" s="164" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="244"/>
+      <c r="A13" s="185"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="258" t="s">
-        <v>351</v>
-      </c>
-      <c r="B14" s="296" t="s">
+      <c r="A14" s="196" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="226" t="s">
-        <v>350</v>
-      </c>
-      <c r="D14" s="226"/>
-      <c r="E14" s="226"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="313">
+      <c r="B14" s="208" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="173" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="219">
         <v>12999</v>
       </c>
-      <c r="H14" s="318" t="s">
-        <v>348</v>
+      <c r="H14" s="224" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="244"/>
+      <c r="A15" s="185"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="310" t="s">
-        <v>550</v>
+      <c r="A16" s="315" t="s">
+        <v>548</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C16" s="58">
         <v>5</v>
@@ -13851,14 +13854,14 @@
       <c r="G16" s="144">
         <v>69.400000000000006</v>
       </c>
-      <c r="H16" s="243" t="s">
-        <v>360</v>
+      <c r="H16" s="184" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="312"/>
+      <c r="A17" s="317"/>
       <c r="B17" s="101" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C17" s="26">
         <v>1</v>
@@ -13869,14 +13872,14 @@
       <c r="G17" s="27">
         <v>1433.25</v>
       </c>
-      <c r="H17" s="214" t="s">
-        <v>362</v>
+      <c r="H17" s="162" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="312"/>
+      <c r="A18" s="317"/>
       <c r="B18" s="101" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C18" s="26">
         <v>1</v>
@@ -13887,14 +13890,14 @@
       <c r="G18" s="27">
         <v>1866.02</v>
       </c>
-      <c r="H18" s="214" t="s">
-        <v>364</v>
+      <c r="H18" s="162" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="312"/>
+      <c r="A19" s="317"/>
       <c r="B19" s="101" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C19" s="26">
         <v>1</v>
@@ -13905,14 +13908,14 @@
       <c r="G19" s="27">
         <v>859.65</v>
       </c>
-      <c r="H19" s="214" t="s">
-        <v>366</v>
+      <c r="H19" s="162" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="312"/>
+      <c r="A20" s="317"/>
       <c r="B20" s="101" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C20" s="26">
         <v>3</v>
@@ -13923,14 +13926,14 @@
       <c r="G20" s="27">
         <v>699.07</v>
       </c>
-      <c r="H20" s="214" t="s">
-        <v>368</v>
+      <c r="H20" s="162" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="312"/>
+      <c r="A21" s="317"/>
       <c r="B21" s="101" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C21" s="26">
         <v>30</v>
@@ -13941,14 +13944,14 @@
       <c r="G21" s="27">
         <v>16.899999999999999</v>
       </c>
-      <c r="H21" s="214" t="s">
-        <v>373</v>
+      <c r="H21" s="162" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="312"/>
+      <c r="A22" s="317"/>
       <c r="B22" s="101" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -13957,14 +13960,14 @@
       <c r="G22" s="27">
         <v>1001.67</v>
       </c>
-      <c r="H22" s="214" t="s">
-        <v>295</v>
+      <c r="H22" s="162" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="312"/>
+      <c r="A23" s="317"/>
       <c r="B23" s="101" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -13973,17 +13976,17 @@
       <c r="G23" s="27">
         <v>352.31</v>
       </c>
-      <c r="H23" s="214" t="s">
-        <v>297</v>
+      <c r="H23" s="162" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="311"/>
+      <c r="A24" s="316"/>
       <c r="B24" s="102" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D24" s="62"/>
       <c r="E24" s="62"/>
@@ -13991,22 +13994,22 @@
       <c r="G24" s="152">
         <v>2302.5700000000002</v>
       </c>
-      <c r="H24" s="216" t="s">
-        <v>358</v>
+      <c r="H24" s="164" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="244"/>
+      <c r="A25" s="185"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="310" t="s">
-        <v>551</v>
+      <c r="A26" s="315" t="s">
+        <v>549</v>
       </c>
       <c r="B26" s="100" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
@@ -14014,14 +14017,14 @@
       <c r="G26" s="144">
         <v>3259</v>
       </c>
-      <c r="H26" s="243" t="s">
-        <v>379</v>
+      <c r="H26" s="184" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="311"/>
+      <c r="A27" s="316"/>
       <c r="B27" s="102" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C27" s="62"/>
       <c r="D27" s="62"/>
@@ -14031,29 +14034,29 @@
         <f>1031.54</f>
         <v>1031.54</v>
       </c>
-      <c r="H27" s="216" t="s">
-        <v>485</v>
+      <c r="H27" s="164" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="244"/>
+      <c r="A28" s="185"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="258" t="s">
-        <v>552</v>
-      </c>
-      <c r="B29" s="296" t="s">
-        <v>382</v>
-      </c>
-      <c r="C29" s="226"/>
-      <c r="D29" s="226"/>
-      <c r="E29" s="226"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="313">
+      <c r="A29" s="196" t="s">
+        <v>550</v>
+      </c>
+      <c r="B29" s="208" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="219">
         <v>1075</v>
       </c>
-      <c r="H29" s="318" t="s">
-        <v>383</v>
+      <c r="H29" s="224" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -14095,7 +14098,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14390,7 +14393,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14406,14 +14409,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2" s="2">
         <f>133720</f>
         <v>133720</v>
       </c>
       <c r="C2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14422,7 +14425,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4">
         <v>208</v>
@@ -14444,30 +14447,30 @@
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -14543,7 +14546,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
